--- a/Data/Fiscal Data/BIR-Tax-Statistics.xlsx
+++ b/Data/Fiscal Data/BIR-Tax-Statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/236e6b124acc9753/Documents/Indicators/Data/Fiscal Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R Projects\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="729" documentId="13_ncr:1_{F43D8E15-6FA4-4E38-9CF5-B2EF1D781A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E498C689-294B-4AC4-B3DB-F7D2688F22DF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432BF217-43B4-4908-AB45-8951E95728FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="1995" windowWidth="14400" windowHeight="8895" activeTab="1" xr2:uid="{3844A0FF-D2C9-4134-A4F5-304C3AC1ED50}"/>
+    <workbookView xWindow="4485" yWindow="3000" windowWidth="18570" windowHeight="10815" xr2:uid="{3844A0FF-D2C9-4134-A4F5-304C3AC1ED50}"/>
   </bookViews>
   <sheets>
     <sheet name="By Source, Millions" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>Tax Classification</t>
   </si>
@@ -463,10 +463,16 @@
     <t>https://www.foi.gov.ph/requests/aglzfmVmb2ktcGhyHQsSB0NvbnRlbnQiEEJJUi03NTIzMDE2NDk1OTcM</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>Annual Reports 2008 - 2020</t>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>Annual Reports 2008 - 2021</t>
+  </si>
+  <si>
+    <t>2021 Collection</t>
+  </si>
+  <si>
+    <t>2021 Goal</t>
   </si>
 </sst>
 </file>
@@ -861,9 +867,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EA6BA0-5E6F-4B49-A1BA-C7EB760DC696}">
-  <dimension ref="A1:BZ47"/>
+  <dimension ref="A1:CB47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -876,2136 +882,2196 @@
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="31" width="13.28515625" customWidth="1"/>
-    <col min="32" max="39" width="13.42578125" customWidth="1"/>
-    <col min="40" max="78" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="33" width="13.28515625" customWidth="1"/>
+    <col min="34" max="41" width="13.42578125" customWidth="1"/>
+    <col min="42" max="80" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
         <v>119</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>120</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>48</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>49</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>51</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>70</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>71</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>58</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>59</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>60</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>61</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>62</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>63</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>64</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>65</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>66</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>67</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>68</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>69</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>87</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>88</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>89</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>90</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>91</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>92</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>93</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>94</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>107</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>108</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>109</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>110</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>111</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>112</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>113</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>114</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>115</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>121</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>122</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>123</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>124</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>125</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>126</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>127</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
         <v>128</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" t="s">
         <v>129</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BT1" t="s">
         <v>137</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BU1" t="s">
         <v>130</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BV1" t="s">
         <v>131</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BW1" t="s">
         <v>132</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BX1" t="s">
         <v>133</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BY1" t="s">
         <v>134</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BZ1" t="s">
         <v>135</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CA1" t="s">
         <v>136</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CB1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7">
+        <v>2086293.57</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2081161</v>
+      </c>
+      <c r="D2" s="7">
         <v>1956283.75</v>
       </c>
-      <c r="C2" s="7">
+      <c r="E2" s="7">
         <v>1685734</v>
       </c>
-      <c r="D2" s="7">
+      <c r="F2" s="7">
         <v>2186419.1043556002</v>
       </c>
-      <c r="E2" s="7">
+      <c r="G2" s="7">
         <v>2271373</v>
       </c>
-      <c r="F2" s="7">
+      <c r="H2" s="7">
         <v>1962642.5073639799</v>
       </c>
-      <c r="G2" s="7">
+      <c r="I2" s="7">
         <v>2043562</v>
       </c>
-      <c r="H2" s="7">
+      <c r="J2" s="7">
         <v>1780802.8360378097</v>
       </c>
-      <c r="I2" s="7">
+      <c r="K2" s="7">
         <v>1829248.5</v>
       </c>
-      <c r="J2" s="7">
+      <c r="L2" s="7">
         <v>1575783.874775873</v>
       </c>
-      <c r="K2" s="7">
+      <c r="M2" s="7">
         <v>1620000</v>
       </c>
-      <c r="L2" s="7">
+      <c r="N2" s="7">
         <v>1441571.8505732303</v>
       </c>
-      <c r="M2" s="7">
+      <c r="O2" s="7">
         <v>1673946</v>
       </c>
-      <c r="N2" s="7">
+      <c r="P2" s="7">
         <v>1334761.6346227902</v>
       </c>
-      <c r="O2" s="7">
+      <c r="Q2" s="7">
         <v>1456330</v>
       </c>
-      <c r="P2" s="7">
+      <c r="R2" s="7">
         <v>1216660.7177578602</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="S2" s="7">
         <v>1253679</v>
       </c>
-      <c r="R2" s="7">
+      <c r="T2" s="7">
         <v>1057916.4115434999</v>
       </c>
-      <c r="S2" s="7">
+      <c r="U2" s="7">
         <v>1066118</v>
       </c>
-      <c r="T2" s="7">
+      <c r="V2" s="7">
         <v>924146.02854623005</v>
       </c>
-      <c r="U2" s="7">
+      <c r="W2" s="7">
         <v>940000</v>
       </c>
-      <c r="V2" s="7">
+      <c r="X2" s="7">
         <v>822623.89672567998</v>
       </c>
-      <c r="W2" s="7">
+      <c r="Y2" s="7">
         <v>860441</v>
       </c>
-      <c r="X2" s="7">
+      <c r="Z2" s="7">
         <v>750287.67633465992</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="AA2" s="7">
         <v>798455</v>
       </c>
-      <c r="Z2" s="7">
+      <c r="AB2" s="7">
         <v>778580.79611994023</v>
       </c>
-      <c r="AA2" s="7">
+      <c r="AC2" s="7">
         <v>844950</v>
       </c>
-      <c r="AB2" s="7">
+      <c r="AD2" s="7">
         <v>713595.69457137003</v>
       </c>
-      <c r="AC2" s="7">
+      <c r="AE2" s="7">
         <v>765859</v>
       </c>
-      <c r="AD2" s="7">
+      <c r="AF2" s="7">
         <v>652732.82724912988</v>
       </c>
-      <c r="AE2" s="7">
+      <c r="AG2" s="7">
         <v>675353</v>
       </c>
-      <c r="AF2" s="7">
+      <c r="AH2" s="7">
         <v>542696.66912432725</v>
       </c>
-      <c r="AG2" s="7">
+      <c r="AI2" s="7">
         <v>468176.58304428001</v>
       </c>
-      <c r="AH2" s="7">
+      <c r="AJ2" s="7">
         <v>426010.47882003005</v>
       </c>
-      <c r="AI2" s="7">
+      <c r="AK2" s="7">
         <v>394549.17534260009</v>
       </c>
-      <c r="AJ2" s="7">
+      <c r="AL2" s="7">
         <v>388679.31349862</v>
       </c>
-      <c r="AK2" s="7">
+      <c r="AM2" s="7">
         <v>360802.31913698005</v>
       </c>
-      <c r="AL2" s="7">
+      <c r="AN2" s="7">
         <v>341320.46021846996</v>
       </c>
-      <c r="AM2" s="7">
+      <c r="AO2" s="7">
         <v>337176.73327860533</v>
       </c>
-      <c r="AN2" s="7">
+      <c r="AP2" s="7">
         <v>314697.89349367999</v>
       </c>
-      <c r="AO2" s="7">
+      <c r="AQ2" s="7">
         <v>260774.15273889003</v>
       </c>
-      <c r="AP2" s="7">
+      <c r="AR2" s="7">
         <v>211462.40024361724</v>
       </c>
-      <c r="AQ2" s="7">
+      <c r="AS2" s="7">
         <v>187443.91789266001</v>
       </c>
-      <c r="AR2" s="7">
+      <c r="AT2" s="7">
         <v>145926.75338025999</v>
       </c>
-      <c r="AS2" s="7">
+      <c r="AU2" s="7">
         <v>133904.12294576998</v>
       </c>
-      <c r="AT2" s="7">
+      <c r="AV2" s="7">
         <v>116255.77853930999</v>
       </c>
-      <c r="AU2" s="7">
+      <c r="AW2" s="7">
         <v>104038.97178134999</v>
       </c>
-      <c r="AV2" s="7">
+      <c r="AX2" s="7">
         <v>82188.931461460015</v>
       </c>
-      <c r="AW2" s="7">
+      <c r="AY2" s="7">
         <v>63390.681439319997</v>
       </c>
-      <c r="AX2" s="7">
+      <c r="AZ2" s="7">
         <v>58583.457352659992</v>
       </c>
-      <c r="AY2" s="7">
+      <c r="BA2" s="7">
         <v>46985.923741240003</v>
       </c>
-      <c r="AZ2" s="7">
+      <c r="BB2" s="7">
         <v>41658.239999999998</v>
       </c>
-      <c r="BA2" s="7">
+      <c r="BC2" s="7">
         <v>33079.54</v>
       </c>
-      <c r="BB2" s="7">
+      <c r="BD2" s="7">
         <v>22634.59</v>
       </c>
-      <c r="BC2" s="7">
+      <c r="BE2" s="7">
         <v>20067.060000000001</v>
       </c>
-      <c r="BD2" s="7">
+      <c r="BF2" s="7">
         <v>18827.27</v>
       </c>
-      <c r="BE2" s="7">
+      <c r="BG2" s="7">
         <v>17215.8</v>
       </c>
-      <c r="BF2" s="7">
+      <c r="BH2" s="7">
         <v>14470.83</v>
       </c>
-      <c r="BG2" s="7">
+      <c r="BI2" s="7">
         <v>11836.85</v>
       </c>
-      <c r="BH2" s="7">
+      <c r="BJ2" s="7">
         <v>10035.01</v>
       </c>
-      <c r="BI2" s="7">
+      <c r="BK2" s="7">
         <v>8337.19</v>
       </c>
-      <c r="BJ2" s="7">
+      <c r="BL2" s="7">
         <v>6888.23</v>
       </c>
-      <c r="BK2" s="7">
+      <c r="BM2" s="7">
         <v>6537.35</v>
       </c>
-      <c r="BL2" s="7">
+      <c r="BN2" s="7">
         <v>5070.88</v>
       </c>
-      <c r="BM2" s="7">
+      <c r="BO2" s="7">
         <v>2861.6</v>
       </c>
-      <c r="BN2" s="7">
+      <c r="BP2" s="7">
         <v>2702.25</v>
       </c>
-      <c r="BO2" s="7">
+      <c r="BQ2" s="7">
         <v>2271.06</v>
       </c>
-      <c r="BP2" s="7">
+      <c r="BR2" s="7">
         <v>1902.11</v>
       </c>
-      <c r="BQ2" s="7">
+      <c r="BS2" s="7">
         <v>1745.74</v>
       </c>
-      <c r="BR2" s="7">
+      <c r="BT2" s="7">
         <v>1473.99</v>
       </c>
-      <c r="BS2" s="7">
+      <c r="BU2" s="7">
         <v>1273.56</v>
       </c>
-      <c r="BT2" s="7">
+      <c r="BV2" s="7">
         <v>1174.44</v>
       </c>
-      <c r="BU2" s="7">
+      <c r="BW2" s="7">
         <v>1103.7</v>
       </c>
-      <c r="BV2" s="7">
+      <c r="BX2" s="7">
         <v>985.79</v>
       </c>
-      <c r="BW2" s="7">
+      <c r="BY2" s="7">
         <v>943.47</v>
       </c>
-      <c r="BX2" s="7">
+      <c r="BZ2" s="7">
         <v>839.1</v>
       </c>
-      <c r="BY2" s="7">
+      <c r="CA2" s="7">
         <v>734.89</v>
       </c>
-      <c r="BZ2" s="7">
+      <c r="CB2" s="7">
         <v>636.95000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="7">
+        <v>1058599.3500000001</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1055143</v>
+      </c>
+      <c r="D3" s="7">
         <v>1045518.13</v>
       </c>
-      <c r="C3" s="7">
+      <c r="E3" s="7">
         <v>786785</v>
       </c>
-      <c r="D3" s="7">
+      <c r="F3" s="7">
         <v>1155544.59061447</v>
       </c>
-      <c r="E3" s="7">
+      <c r="G3" s="7">
         <v>1157902</v>
       </c>
-      <c r="F3" s="7">
+      <c r="H3" s="7">
         <v>1035649.8888215499</v>
       </c>
-      <c r="G3" s="7">
+      <c r="I3" s="7">
         <v>1024934.88</v>
       </c>
-      <c r="H3" s="7">
+      <c r="J3" s="7">
         <v>1028640.3159664649</v>
       </c>
-      <c r="I3" s="7">
+      <c r="K3" s="7">
         <v>1099740.8999999999</v>
       </c>
-      <c r="J3" s="7">
+      <c r="L3" s="7">
         <v>924584.74608155119</v>
       </c>
-      <c r="K3" s="7">
+      <c r="M3" s="7">
         <v>945621</v>
       </c>
-      <c r="L3" s="7">
+      <c r="N3" s="7">
         <v>846201.24028307549</v>
       </c>
-      <c r="M3" s="7">
+      <c r="O3" s="7">
         <v>993577</v>
       </c>
-      <c r="N3" s="7">
+      <c r="P3" s="7">
         <v>784756.44484606653</v>
       </c>
-      <c r="O3" s="7">
+      <c r="Q3" s="7">
         <v>855773</v>
       </c>
-      <c r="P3" s="7">
+      <c r="R3" s="7">
         <v>718360.62654257228</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="S3" s="7">
         <v>759187</v>
       </c>
-      <c r="R3" s="7">
+      <c r="T3" s="7">
         <v>642501.34313240496</v>
       </c>
-      <c r="S3" s="7">
+      <c r="U3" s="7">
         <v>647335</v>
       </c>
-      <c r="T3" s="7">
+      <c r="V3" s="7">
         <v>571896.81836867949</v>
       </c>
-      <c r="U3" s="7">
+      <c r="W3" s="7">
         <v>569396</v>
       </c>
-      <c r="V3" s="7">
+      <c r="X3" s="7">
         <v>489299.58496361016</v>
       </c>
-      <c r="W3" s="7">
+      <c r="Y3" s="7">
         <v>492076</v>
       </c>
-      <c r="X3" s="7">
+      <c r="Z3" s="7">
         <v>435371.70708832651</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="AA3" s="7">
         <v>470335</v>
       </c>
-      <c r="Z3" s="7">
+      <c r="AB3" s="7">
         <v>482247.49463812896</v>
       </c>
-      <c r="AA3" s="7">
+      <c r="AC3" s="7">
         <v>477551</v>
       </c>
-      <c r="AB3" s="7">
+      <c r="AD3" s="7">
         <v>427208.04109864956</v>
       </c>
-      <c r="AC3" s="7">
+      <c r="AE3" s="7">
         <v>433423.5</v>
       </c>
-      <c r="AD3" s="7">
+      <c r="AF3" s="7">
         <v>376992.52303351788</v>
       </c>
-      <c r="AE3" s="7">
+      <c r="AG3" s="7">
         <v>401313</v>
       </c>
-      <c r="AF3" s="7">
+      <c r="AH3" s="7">
         <v>323428.63329792261</v>
       </c>
-      <c r="AG3" s="7">
+      <c r="AI3" s="7">
         <v>278213.65405609523</v>
       </c>
-      <c r="AH3" s="7">
+      <c r="AJ3" s="7">
         <v>244128.27505071365</v>
       </c>
-      <c r="AI3" s="7">
+      <c r="AK3" s="7">
         <v>226511.93757648804</v>
       </c>
-      <c r="AJ3" s="7">
+      <c r="AL3" s="7">
         <v>223416.57883568614</v>
       </c>
-      <c r="AK3" s="7">
+      <c r="AM3" s="7">
         <v>202636.00923445675</v>
       </c>
-      <c r="AL3" s="7">
+      <c r="AN3" s="7">
         <v>184023.75663195489</v>
       </c>
-      <c r="AM3" s="7">
+      <c r="AO3" s="7">
         <v>183913.98632260194</v>
       </c>
-      <c r="AN3" s="7">
+      <c r="AP3" s="7">
         <v>164170.02181835801</v>
       </c>
-      <c r="AO3" s="7">
+      <c r="AQ3" s="7">
         <v>136354.92198951758</v>
       </c>
-      <c r="AP3" s="7">
+      <c r="AR3" s="7">
         <v>111164.98646798363</v>
       </c>
-      <c r="AQ3" s="7">
+      <c r="AS3" s="7">
         <v>94448.973222219996</v>
       </c>
-      <c r="AR3" s="7">
+      <c r="AT3" s="7">
         <v>74438.89483859</v>
       </c>
-      <c r="AS3" s="7">
+      <c r="AU3" s="7">
         <v>70122.820198040004</v>
       </c>
-      <c r="AT3" s="7">
+      <c r="AV3" s="7">
         <v>60617.08388808</v>
       </c>
-      <c r="AU3" s="7">
+      <c r="AW3" s="7">
         <v>49438.803940929989</v>
       </c>
-      <c r="AV3" s="7">
+      <c r="AX3" s="7">
         <v>37464.336235440001</v>
       </c>
-      <c r="AW3" s="7">
+      <c r="AY3" s="7">
         <v>27650.741600309997</v>
       </c>
-      <c r="AX3" s="7">
+      <c r="AZ3" s="7">
         <v>21840.482562469999</v>
       </c>
-      <c r="AY3" s="7">
+      <c r="BA3" s="7">
         <v>19361.766773209998</v>
       </c>
-      <c r="AZ3" s="7">
+      <c r="BB3" s="7">
         <v>17654.79</v>
       </c>
-      <c r="BA3" s="7">
+      <c r="BC3" s="7">
         <v>13715.39</v>
       </c>
-      <c r="BB3" s="7">
+      <c r="BD3" s="7">
         <v>8869.93</v>
       </c>
-      <c r="BC3" s="7">
+      <c r="BE3" s="7">
         <v>8495.85</v>
       </c>
-      <c r="BD3" s="7">
+      <c r="BF3" s="7">
         <v>7646.02</v>
       </c>
-      <c r="BE3" s="7">
+      <c r="BG3" s="7">
         <v>7271.58</v>
       </c>
-      <c r="BF3" s="7">
+      <c r="BH3" s="7">
         <v>6159.39</v>
       </c>
-      <c r="BG3" s="7">
+      <c r="BI3" s="7">
         <v>5190.49</v>
       </c>
-      <c r="BH3" s="7">
+      <c r="BJ3" s="7">
         <v>4521.88</v>
       </c>
-      <c r="BI3" s="7">
+      <c r="BK3" s="7">
         <v>3705.23</v>
       </c>
-      <c r="BJ3" s="7">
+      <c r="BL3" s="7">
         <v>3073.8</v>
       </c>
-      <c r="BK3" s="7">
+      <c r="BM3" s="7">
         <v>3180.19</v>
       </c>
-      <c r="BL3" s="7">
+      <c r="BN3" s="7">
         <v>2378.36</v>
       </c>
-      <c r="BM3" s="7">
+      <c r="BO3" s="7">
         <v>1375.4</v>
       </c>
-      <c r="BN3" s="7">
+      <c r="BP3" s="7">
         <v>1328.59</v>
       </c>
-      <c r="BO3" s="7">
+      <c r="BQ3" s="7">
         <v>1050.53</v>
       </c>
-      <c r="BP3" s="7">
+      <c r="BR3" s="7">
         <v>855.52</v>
       </c>
-      <c r="BQ3" s="7">
+      <c r="BS3" s="7">
         <v>762.98</v>
       </c>
-      <c r="BR3" s="7">
+      <c r="BT3" s="7">
         <v>611.91999999999996</v>
       </c>
-      <c r="BS3" s="1"/>
-      <c r="BT3" s="1"/>
       <c r="BU3" s="1"/>
       <c r="BV3" s="1"/>
       <c r="BW3" s="1"/>
       <c r="BX3" s="1"/>
       <c r="BY3" s="1"/>
       <c r="BZ3" s="1"/>
+      <c r="CA3" s="1"/>
+      <c r="CB3" s="1"/>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
+        <v>472281.1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>484408</v>
+      </c>
+      <c r="D4" s="1">
         <v>506435.3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="E4" s="1">
         <v>329888</v>
       </c>
-      <c r="D4" s="1">
+      <c r="F4" s="1">
         <v>587329.60523291992</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>694200</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H4" s="1">
         <v>592080.23302734992</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <v>702666.92</v>
       </c>
-      <c r="H4" s="1">
+      <c r="J4" s="1">
         <v>588491.20588533324</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
         <v>670832.1</v>
       </c>
-      <c r="J4" s="1">
+      <c r="L4" s="1">
         <v>534359.21651943715</v>
       </c>
-      <c r="K4" s="1">
+      <c r="M4" s="1">
         <v>567181</v>
       </c>
-      <c r="L4" s="1">
+      <c r="N4" s="1">
         <v>489761.59915440483</v>
       </c>
-      <c r="M4" s="1">
+      <c r="O4" s="1">
         <v>607737</v>
       </c>
-      <c r="N4" s="1">
+      <c r="P4" s="1">
         <v>455098.60807389562</v>
       </c>
-      <c r="O4" s="1">
+      <c r="Q4" s="1">
         <v>495978</v>
       </c>
-      <c r="P4" s="1">
+      <c r="R4" s="1">
         <v>424496.72732467495</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="S4" s="1">
         <v>428087</v>
       </c>
-      <c r="R4" s="1">
+      <c r="T4" s="1">
         <v>370125.37310306751</v>
       </c>
-      <c r="S4" s="1">
+      <c r="U4" s="1">
         <v>364846</v>
       </c>
-      <c r="T4" s="1">
+      <c r="V4" s="1">
         <v>337442.69798001245</v>
       </c>
-      <c r="U4" s="1">
+      <c r="W4" s="1">
         <v>320034</v>
       </c>
-      <c r="V4" s="1">
+      <c r="X4" s="1">
         <v>280043.78546349675</v>
       </c>
-      <c r="W4" s="1">
+      <c r="Y4" s="1">
         <v>284084</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Z4" s="1">
         <v>254372.1758654681</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="AA4" s="1">
         <v>272739</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AB4" s="1">
         <v>285269.33081469667</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AC4" s="1">
         <v>265339</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AD4" s="1">
         <v>241173.97600926415</v>
-      </c>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1">
-        <v>199872.39441428828</v>
       </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1">
+        <v>199872.39441428828</v>
+      </c>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1">
         <v>156199.23602195992</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AI4" s="1">
         <v>131168.32700410931</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AJ4" s="1">
         <v>112356.11287411452</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AK4" s="1">
         <v>100753.03075086621</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AL4" s="1">
         <v>98532.697194948079</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AM4" s="1">
         <v>85870.560393835578</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AN4" s="1">
         <v>78710.339175871311</v>
       </c>
-      <c r="AM4" s="1">
+      <c r="AO4" s="1">
         <v>77655.382902308367</v>
       </c>
-      <c r="AN4" s="1">
+      <c r="AP4" s="1">
         <v>81900.793380479707</v>
       </c>
-      <c r="AO4" s="1">
+      <c r="AQ4" s="1">
         <v>68053.410638073314</v>
       </c>
-      <c r="AP4" s="1">
+      <c r="AR4" s="1">
         <v>52772.169951282682</v>
       </c>
-      <c r="AQ4" s="1">
+      <c r="AS4" s="1">
         <v>45183.151953860004</v>
       </c>
-      <c r="AR4" s="1">
+      <c r="AT4" s="1">
         <v>35702.54363719</v>
       </c>
-      <c r="AS4" s="1">
+      <c r="AU4" s="1">
         <v>30645.38276697</v>
       </c>
-      <c r="AT4" s="1">
+      <c r="AV4" s="1">
         <v>24081.298666570001</v>
       </c>
-      <c r="AU4" s="1">
+      <c r="AW4" s="1">
         <v>19300.454368279999</v>
       </c>
-      <c r="AV4" s="1">
+      <c r="AX4" s="1">
         <v>15175.36781018</v>
       </c>
-      <c r="AW4" s="1">
+      <c r="AY4" s="1">
         <v>13094.3179175</v>
       </c>
-      <c r="AX4" s="1">
+      <c r="AZ4" s="1">
         <v>12284.80632797</v>
       </c>
-      <c r="AY4" s="1">
+      <c r="BA4" s="1">
         <v>8674.9701081399999</v>
       </c>
-      <c r="AZ4" s="1">
+      <c r="BB4" s="1">
         <v>8439.26</v>
       </c>
-      <c r="BA4" s="1">
+      <c r="BC4" s="1">
         <v>8208.23</v>
       </c>
-      <c r="BB4" s="1">
+      <c r="BD4" s="1">
         <v>4799.2</v>
       </c>
-      <c r="BC4" s="1">
+      <c r="BE4" s="1">
         <v>4513.9799999999996</v>
       </c>
-      <c r="BD4" s="1">
+      <c r="BF4" s="1">
         <v>3948.43</v>
       </c>
-      <c r="BE4" s="1">
+      <c r="BG4" s="1">
         <v>3827.07</v>
       </c>
-      <c r="BF4" s="1">
+      <c r="BH4" s="1">
         <v>2891.82</v>
       </c>
-      <c r="BG4" s="1">
+      <c r="BI4" s="1">
         <v>2641.6</v>
       </c>
-      <c r="BH4" s="1">
+      <c r="BJ4" s="1">
         <v>2048.5700000000002</v>
       </c>
-      <c r="BI4" s="1">
+      <c r="BK4" s="1">
         <v>3705.23</v>
       </c>
-      <c r="BJ4" s="1">
+      <c r="BL4" s="1">
         <v>3073.8</v>
       </c>
-      <c r="BK4" s="1">
+      <c r="BM4" s="1">
         <v>2391.31</v>
       </c>
-      <c r="BL4" s="1">
+      <c r="BN4" s="1">
         <v>1857.73</v>
       </c>
-      <c r="BM4" s="1">
+      <c r="BO4" s="1">
         <v>867.1</v>
       </c>
-      <c r="BN4" s="1">
+      <c r="BP4" s="1">
         <v>956.69</v>
       </c>
-      <c r="BO4" s="1">
+      <c r="BQ4" s="1">
         <v>763.87</v>
       </c>
-      <c r="BP4" s="1"/>
-      <c r="BQ4" s="1"/>
-      <c r="BR4" s="1">
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BT4" s="1">
         <v>395.33</v>
       </c>
-      <c r="BS4" s="1"/>
-      <c r="BT4" s="1"/>
       <c r="BU4" s="1"/>
       <c r="BV4" s="1"/>
       <c r="BW4" s="1"/>
       <c r="BX4" s="1"/>
       <c r="BY4" s="1"/>
       <c r="BZ4" s="1"/>
+      <c r="CA4" s="1"/>
+      <c r="CB4" s="1"/>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
+        <v>245215.78</v>
+      </c>
+      <c r="C5" s="1">
+        <v>280240.37</v>
+      </c>
+      <c r="D5" s="1">
         <v>295269.71999999997</v>
       </c>
-      <c r="C5" s="1">
+      <c r="E5" s="1">
         <v>187070.14</v>
       </c>
-      <c r="D5" s="1">
+      <c r="F5" s="1">
         <v>335072.49086575001</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <v>355431.97</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H5" s="1">
         <v>302984.16510359995</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>296778.42</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <v>257636.08691386224</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
         <v>291187.58</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <v>232791.03867428369</v>
       </c>
-      <c r="K5" s="1">
+      <c r="M5" s="1">
         <v>256994.14</v>
       </c>
-      <c r="L5" s="1">
+      <c r="N5" s="1">
         <v>206928.42326975343</v>
       </c>
-      <c r="M5" s="1">
+      <c r="O5" s="1">
         <v>252904.6</v>
       </c>
-      <c r="N5" s="1">
+      <c r="P5" s="1">
         <v>187018.39430431896</v>
       </c>
-      <c r="O5" s="1">
+      <c r="Q5" s="1">
         <v>206311.71</v>
       </c>
-      <c r="P5" s="1">
+      <c r="R5" s="1">
         <v>174918.04228609573</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="S5" s="1">
         <v>180162.15</v>
       </c>
-      <c r="R5" s="1">
+      <c r="T5" s="1">
         <v>154742.86393405288</v>
       </c>
-      <c r="S5" s="1">
+      <c r="U5" s="1">
         <v>157888.03</v>
       </c>
-      <c r="T5" s="1">
+      <c r="V5" s="1">
         <v>150421.52384028398</v>
       </c>
-      <c r="U5" s="1">
+      <c r="W5" s="1">
         <v>143087.32999999999</v>
       </c>
-      <c r="V5" s="1">
+      <c r="X5" s="1">
         <v>120694.77338799645</v>
       </c>
-      <c r="W5" s="1">
+      <c r="Y5" s="1">
         <v>131104.79999999999</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Z5" s="1">
         <v>113504.50144878452</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="AA5" s="1">
         <v>133653.42000000001</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AB5" s="1">
         <v>141956.93659687648</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AC5" s="1">
         <v>137762.41</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AD5" s="1">
         <v>123038.1190665157</v>
-      </c>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1">
-        <v>96020.025044987982</v>
       </c>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1">
+        <v>96020.025044987982</v>
+      </c>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1">
         <v>69047.463121705077</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AI5" s="1">
         <v>59677.459402035922</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AJ5" s="1">
         <v>54664.144738739677</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AK5" s="1">
         <v>44797.558835478441</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AL5" s="1">
         <v>42103.84627560521</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AM5" s="1">
         <v>44139.852496487205</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AN5" s="1">
         <v>38469.655152668005</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AO5" s="1">
         <v>40139.383740383862</v>
       </c>
-      <c r="AN5" s="1">
+      <c r="AP5" s="1">
         <v>49510.221482410605</v>
       </c>
-      <c r="AO5" s="1">
+      <c r="AQ5" s="1">
         <v>44040.940861678435</v>
       </c>
-      <c r="AP5" s="1">
+      <c r="AR5" s="1">
         <v>34154.702375869085</v>
       </c>
-      <c r="AQ5" s="1">
+      <c r="AS5" s="1">
         <v>28534.259379520005</v>
       </c>
-      <c r="AR5" s="1">
+      <c r="AT5" s="1">
         <v>23166.187054049999</v>
       </c>
-      <c r="AS5" s="1">
+      <c r="AU5" s="1">
         <v>19101.850392920001</v>
       </c>
-      <c r="AT5" s="1">
+      <c r="AV5" s="1">
         <v>16715.687705659999</v>
       </c>
-      <c r="AU5" s="1">
+      <c r="AW5" s="1">
         <v>12478.97269341</v>
       </c>
-      <c r="AV5" s="1">
+      <c r="AX5" s="1">
         <v>11020.079239709999</v>
       </c>
-      <c r="AW5" s="1">
+      <c r="AY5" s="1">
         <v>9431.0818810199999</v>
       </c>
-      <c r="AX5" s="1">
+      <c r="AZ5" s="1">
         <v>7517.7459891499993</v>
       </c>
-      <c r="AY5" s="1">
+      <c r="BA5" s="1">
         <v>4825.6831895799996</v>
       </c>
-      <c r="AZ5" s="1">
+      <c r="BB5" s="1">
         <v>4864.54</v>
       </c>
-      <c r="BA5" s="1">
+      <c r="BC5" s="1">
         <v>6131.19</v>
       </c>
-      <c r="BB5" s="1">
+      <c r="BD5" s="1">
         <v>3125.31</v>
       </c>
-      <c r="BC5" s="1">
+      <c r="BE5" s="1">
         <v>3312.89</v>
       </c>
-      <c r="BD5" s="1">
+      <c r="BF5" s="1">
         <v>3164.68</v>
       </c>
-      <c r="BE5" s="1">
+      <c r="BG5" s="1">
         <v>2979.18</v>
       </c>
-      <c r="BF5" s="1">
+      <c r="BH5" s="1">
         <v>2246.94</v>
       </c>
-      <c r="BG5" s="1">
+      <c r="BI5" s="1">
         <v>2066.91</v>
       </c>
-      <c r="BH5" s="1">
+      <c r="BJ5" s="1">
         <v>1569.17</v>
       </c>
-      <c r="BI5" s="1">
+      <c r="BK5" s="1">
         <v>2222.2600000000002</v>
       </c>
-      <c r="BJ5" s="1">
+      <c r="BL5" s="1">
         <v>1954.06</v>
       </c>
-      <c r="BK5" s="1">
+      <c r="BM5" s="1">
         <v>2062.9499999999998</v>
       </c>
-      <c r="BL5" s="1">
+      <c r="BN5" s="1">
         <v>1653.05</v>
       </c>
-      <c r="BM5" s="1">
+      <c r="BO5" s="1">
         <v>717.58</v>
       </c>
-      <c r="BN5" s="1">
+      <c r="BP5" s="1">
         <v>780.08</v>
       </c>
-      <c r="BO5" s="1">
+      <c r="BQ5" s="1">
         <v>660.32</v>
       </c>
-      <c r="BP5" s="1"/>
-      <c r="BQ5" s="1"/>
-      <c r="BR5" s="1">
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+      <c r="BT5" s="1">
         <v>392.11</v>
       </c>
-      <c r="BS5" s="1"/>
-      <c r="BT5" s="1"/>
       <c r="BU5" s="1"/>
       <c r="BV5" s="1"/>
       <c r="BW5" s="1"/>
       <c r="BX5" s="1"/>
       <c r="BY5" s="1"/>
       <c r="BZ5" s="1"/>
+      <c r="CA5" s="1"/>
+      <c r="CB5" s="1"/>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
+        <v>227065.32</v>
+      </c>
+      <c r="C6" s="1">
+        <v>204167.63</v>
+      </c>
+      <c r="D6" s="1">
         <v>211165.58</v>
       </c>
-      <c r="C6" s="1">
+      <c r="E6" s="1">
         <v>142817.87</v>
       </c>
-      <c r="D6" s="1">
+      <c r="F6" s="1">
         <v>252257.11436717</v>
       </c>
-      <c r="E6" s="1">
+      <c r="G6" s="1">
         <v>338768.03</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <v>289096.06792374997</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <v>405888.5</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
         <v>330855.11897147109</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
         <v>379644.52</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <v>301568.17784515343</v>
       </c>
-      <c r="K6" s="1">
+      <c r="M6" s="1">
         <v>310186.86</v>
       </c>
-      <c r="L6" s="1">
+      <c r="N6" s="1">
         <v>282833.17588465143</v>
       </c>
-      <c r="M6" s="1">
+      <c r="O6" s="1">
         <v>354832.4</v>
       </c>
-      <c r="N6" s="1">
+      <c r="P6" s="1">
         <v>268080.21376957669</v>
       </c>
-      <c r="O6" s="1">
+      <c r="Q6" s="1">
         <v>289666.28999999998</v>
       </c>
-      <c r="P6" s="1">
+      <c r="R6" s="1">
         <v>249578.68503857916</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="S6" s="1">
         <v>247924.85</v>
       </c>
-      <c r="R6" s="1">
+      <c r="T6" s="1">
         <v>215382.50916901461</v>
       </c>
-      <c r="S6" s="1">
+      <c r="U6" s="1">
         <v>206957.97</v>
       </c>
-      <c r="T6" s="1">
+      <c r="V6" s="1">
         <v>187021.17413972851</v>
       </c>
-      <c r="U6" s="1">
+      <c r="W6" s="1">
         <v>176946.67</v>
       </c>
-      <c r="V6" s="1">
+      <c r="X6" s="1">
         <v>159349.01207550033</v>
       </c>
-      <c r="W6" s="1">
+      <c r="Y6" s="1">
         <v>152979.20000000001</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Z6" s="1">
         <v>140867.67441668359</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="AA6" s="1">
         <v>139085.57999999999</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AB6" s="1">
         <v>143312.39421782017</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AC6" s="1">
         <v>127576.6</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AD6" s="1">
         <v>118135.85694274845</v>
-      </c>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1">
-        <v>103852.36936930029</v>
       </c>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1">
+        <v>103852.36936930029</v>
+      </c>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1">
         <v>87151.772900254859</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AI6" s="1">
         <v>71490.867602073384</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AJ6" s="1">
         <v>57691.968135374838</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AK6" s="1">
         <v>55955.471915387774</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AL6" s="1">
         <v>56428.850919342862</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AM6" s="1">
         <v>41730.707897348359</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AN6" s="1">
         <v>40240.684023203306</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AO6" s="1">
         <v>37515.999161924497</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AP6" s="1">
         <v>32390.571898069105</v>
       </c>
-      <c r="AO6" s="1">
+      <c r="AQ6" s="1">
         <v>24012.469776394883</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AR6" s="1">
         <v>18617.467575413597</v>
       </c>
-      <c r="AQ6" s="1">
+      <c r="AS6" s="1">
         <v>16648.89257434</v>
       </c>
-      <c r="AR6" s="1">
+      <c r="AT6" s="1">
         <v>12536.356583139999</v>
       </c>
-      <c r="AS6" s="1">
+      <c r="AU6" s="1">
         <v>11543.532374049999</v>
       </c>
-      <c r="AT6" s="1">
+      <c r="AV6" s="1">
         <v>7365.6109609099994</v>
       </c>
-      <c r="AU6" s="1">
+      <c r="AW6" s="1">
         <v>6821.4816748699996</v>
       </c>
-      <c r="AV6" s="1">
+      <c r="AX6" s="1">
         <v>4155.2885704700002</v>
       </c>
-      <c r="AW6" s="1">
+      <c r="AY6" s="1">
         <v>3663.2360364800002</v>
       </c>
-      <c r="AX6" s="1">
+      <c r="AZ6" s="1">
         <v>4767.0603388199997</v>
       </c>
-      <c r="AY6" s="1">
+      <c r="BA6" s="1">
         <v>3849.2869185600002</v>
       </c>
-      <c r="AZ6" s="1">
+      <c r="BB6" s="1">
         <v>3574.72</v>
       </c>
-      <c r="BA6" s="1">
+      <c r="BC6" s="1">
         <v>2077.04</v>
       </c>
-      <c r="BB6" s="1">
+      <c r="BD6" s="1">
         <v>1673.89</v>
       </c>
-      <c r="BC6" s="1">
+      <c r="BE6" s="1">
         <v>1201.0899999999999</v>
       </c>
-      <c r="BD6" s="1">
+      <c r="BF6" s="1">
         <v>783.75</v>
       </c>
-      <c r="BE6" s="1">
+      <c r="BG6" s="1">
         <v>847.88</v>
       </c>
-      <c r="BF6" s="1">
+      <c r="BH6" s="1">
         <v>644.88</v>
       </c>
-      <c r="BG6" s="1">
+      <c r="BI6" s="1">
         <v>574.69000000000005</v>
       </c>
-      <c r="BH6" s="1">
+      <c r="BJ6" s="1">
         <v>479.41</v>
       </c>
-      <c r="BI6" s="1">
+      <c r="BK6" s="1">
         <v>1482.97</v>
       </c>
-      <c r="BJ6" s="1">
+      <c r="BL6" s="1">
         <v>1119.74</v>
       </c>
-      <c r="BK6" s="1">
+      <c r="BM6" s="1">
         <v>328.36</v>
       </c>
-      <c r="BL6" s="1">
+      <c r="BN6" s="1">
         <v>204.69</v>
       </c>
-      <c r="BM6" s="1">
+      <c r="BO6" s="1">
         <v>149.52000000000001</v>
       </c>
-      <c r="BN6" s="1">
+      <c r="BP6" s="1">
         <v>176.61</v>
       </c>
-      <c r="BO6" s="1">
+      <c r="BQ6" s="1">
         <v>103.55</v>
       </c>
-      <c r="BP6" s="1"/>
-      <c r="BQ6" s="1"/>
-      <c r="BR6" s="1">
+      <c r="BR6" s="1"/>
+      <c r="BS6" s="1"/>
+      <c r="BT6" s="1">
         <v>3.22</v>
       </c>
-      <c r="BS6" s="1"/>
-      <c r="BT6" s="1"/>
       <c r="BU6" s="1"/>
       <c r="BV6" s="1"/>
       <c r="BW6" s="1"/>
       <c r="BX6" s="1"/>
       <c r="BY6" s="1"/>
       <c r="BZ6" s="1"/>
+      <c r="CA6" s="1"/>
+      <c r="CB6" s="1"/>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
+        <v>511630.01</v>
+      </c>
+      <c r="C7" s="1">
+        <v>497033</v>
+      </c>
+      <c r="D7" s="1">
         <v>438690.08</v>
       </c>
-      <c r="C7" s="1">
+      <c r="E7" s="1">
         <v>371191</v>
       </c>
-      <c r="D7" s="1">
+      <c r="F7" s="1">
         <v>465486.13724262</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="1">
         <v>377506</v>
       </c>
-      <c r="F7" s="1">
+      <c r="H7" s="1">
         <v>386369.53754957003</v>
       </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1">
         <v>261458.95</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1">
         <v>390851.09317034169</v>
       </c>
-      <c r="I7" s="1">
+      <c r="K7" s="1">
         <v>367867.3</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1">
         <v>343859.9107712917</v>
       </c>
-      <c r="K7" s="1">
+      <c r="M7" s="1">
         <v>325428</v>
       </c>
-      <c r="L7" s="1">
+      <c r="N7" s="1">
         <v>309206.32662146055</v>
       </c>
-      <c r="M7" s="1">
+      <c r="O7" s="1">
         <v>329245</v>
       </c>
-      <c r="N7" s="1">
+      <c r="P7" s="1">
         <v>283589.03920585092</v>
       </c>
-      <c r="O7" s="1">
+      <c r="Q7" s="1">
         <v>297549</v>
       </c>
-      <c r="P7" s="1">
+      <c r="R7" s="1">
         <v>246580.39844864732</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="S7" s="1">
         <v>274315</v>
       </c>
-      <c r="R7" s="1">
+      <c r="T7" s="1">
         <v>222723.57846293732</v>
       </c>
-      <c r="S7" s="1">
+      <c r="U7" s="1">
         <v>230741</v>
       </c>
-      <c r="T7" s="1">
+      <c r="V7" s="1">
         <v>193524.54176673692</v>
       </c>
-      <c r="U7" s="1">
+      <c r="W7" s="1">
         <v>198356</v>
       </c>
-      <c r="V7" s="1">
+      <c r="X7" s="1">
         <v>167110.36323492337</v>
       </c>
-      <c r="W7" s="1">
+      <c r="Y7" s="1">
         <v>157542</v>
       </c>
-      <c r="X7" s="1">
+      <c r="Z7" s="1">
         <v>136691.76091936472</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="AA7" s="1">
         <v>145972</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AB7" s="1">
         <v>150936.10344785228</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AC7" s="1">
         <v>163972</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AD7" s="1">
         <v>141673.49738863445</v>
-      </c>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1">
-        <v>126141.04768217962</v>
       </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1">
+        <v>126141.04768217962</v>
+      </c>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1">
         <v>115941.33327618268</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AI7" s="1">
         <v>100918.98604434589</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AJ7" s="1">
         <v>91361.581389549145</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AK7" s="1">
         <v>86432.302455791811</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AL7" s="1">
         <v>80236.442596478082</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AM7" s="1">
         <v>83004.512969281175</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AN7" s="1">
         <v>71854.24285703362</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AO7" s="1">
         <v>63639.51433189409</v>
       </c>
-      <c r="AN7" s="1">
+      <c r="AP7" s="1">
         <v>59748.64846263831</v>
       </c>
-      <c r="AO7" s="1">
+      <c r="AQ7" s="1">
         <v>47849.095707545792</v>
       </c>
-      <c r="AP7" s="1">
+      <c r="AR7" s="1">
         <v>38655.934878278378</v>
       </c>
-      <c r="AQ7" s="1">
+      <c r="AS7" s="1">
         <v>35089.912814700001</v>
       </c>
-      <c r="AR7" s="1">
+      <c r="AT7" s="1">
         <v>25413.87014684</v>
       </c>
-      <c r="AS7" s="1">
+      <c r="AU7" s="1">
         <v>22850.139180890001</v>
       </c>
-      <c r="AT7" s="1">
+      <c r="AV7" s="1">
         <v>20762.60910487</v>
       </c>
-      <c r="AU7" s="1">
+      <c r="AW7" s="1">
         <v>15746.700966699998</v>
       </c>
-      <c r="AV7" s="1">
+      <c r="AX7" s="1">
         <v>10960.846819979999</v>
       </c>
-      <c r="AW7" s="1">
+      <c r="AY7" s="1">
         <v>8017.2132216</v>
       </c>
-      <c r="AX7" s="1">
+      <c r="AZ7" s="1">
         <v>7311.3293931099997</v>
       </c>
-      <c r="AY7" s="1">
+      <c r="BA7" s="1">
         <v>6006.3231711499993</v>
       </c>
-      <c r="AZ7" s="1">
+      <c r="BB7" s="1">
         <v>5595.45</v>
       </c>
-      <c r="BA7" s="1">
+      <c r="BC7" s="1">
         <v>4475.08</v>
       </c>
-      <c r="BB7" s="1">
+      <c r="BD7" s="1">
         <v>3869.81</v>
       </c>
-      <c r="BC7" s="1">
+      <c r="BE7" s="1">
         <v>3877.6</v>
       </c>
-      <c r="BD7" s="1">
+      <c r="BF7" s="1">
         <v>3604.22</v>
       </c>
-      <c r="BE7" s="1">
+      <c r="BG7" s="1">
         <v>3359.22</v>
       </c>
-      <c r="BF7" s="1">
+      <c r="BH7" s="1">
         <v>3186.51</v>
       </c>
-      <c r="BG7" s="1">
+      <c r="BI7" s="1">
         <v>2548.89</v>
       </c>
-      <c r="BH7" s="1">
+      <c r="BJ7" s="1">
         <v>2473.3000000000002</v>
       </c>
-      <c r="BI7" s="1"/>
-      <c r="BJ7" s="1"/>
-      <c r="BK7" s="1">
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1">
         <v>788.89</v>
       </c>
-      <c r="BL7" s="1">
+      <c r="BN7" s="1">
         <v>520.62</v>
       </c>
-      <c r="BM7" s="1">
+      <c r="BO7" s="1">
         <v>508.29</v>
       </c>
-      <c r="BN7" s="1">
+      <c r="BP7" s="1">
         <v>371.9</v>
       </c>
-      <c r="BO7" s="1">
+      <c r="BQ7" s="1">
         <v>286.66000000000003</v>
       </c>
-      <c r="BP7" s="1"/>
-      <c r="BQ7" s="1"/>
-      <c r="BR7" s="1">
+      <c r="BR7" s="1"/>
+      <c r="BS7" s="1"/>
+      <c r="BT7" s="1">
         <v>216.59</v>
       </c>
-      <c r="BS7" s="1"/>
-      <c r="BT7" s="1"/>
       <c r="BU7" s="1"/>
       <c r="BV7" s="1"/>
       <c r="BW7" s="1"/>
       <c r="BX7" s="1"/>
       <c r="BY7" s="1"/>
       <c r="BZ7" s="1"/>
+      <c r="CA7" s="1"/>
+      <c r="CB7" s="1"/>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
+        <v>20886.490000000002</v>
+      </c>
+      <c r="C8" s="1">
+        <v>17080.490000000002</v>
+      </c>
+      <c r="D8" s="1">
         <v>17852.23</v>
       </c>
-      <c r="C8" s="1">
+      <c r="E8" s="1">
         <v>18633.98</v>
       </c>
-      <c r="D8" s="1">
+      <c r="F8" s="1">
         <v>18850.342483110002</v>
       </c>
-      <c r="E8" s="1">
+      <c r="G8" s="1">
         <v>25720.93</v>
       </c>
-      <c r="F8" s="1">
+      <c r="H8" s="1">
         <v>19364.807654959997</v>
       </c>
-      <c r="G8" s="1">
+      <c r="I8" s="1">
         <v>11703.17</v>
       </c>
-      <c r="H8" s="1">
+      <c r="J8" s="1">
         <v>17613.365042744666</v>
       </c>
-      <c r="I8" s="1">
+      <c r="K8" s="1">
         <v>16898.93</v>
       </c>
-      <c r="J8" s="1">
+      <c r="L8" s="1">
         <v>15823.621221650606</v>
       </c>
-      <c r="K8" s="1">
+      <c r="M8" s="1">
         <v>17318.09</v>
       </c>
-      <c r="L8" s="1">
+      <c r="N8" s="1">
         <v>16012.940652311188</v>
       </c>
-      <c r="M8" s="1">
+      <c r="O8" s="1">
         <v>19852.36</v>
       </c>
-      <c r="N8" s="1">
+      <c r="P8" s="1">
         <v>14835.403701159037</v>
       </c>
-      <c r="O8" s="1">
+      <c r="Q8" s="1">
         <v>17398.490000000002</v>
       </c>
-      <c r="P8" s="1">
+      <c r="R8" s="1">
         <v>14308.684677236626</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="S8" s="1">
         <v>16267.37</v>
       </c>
-      <c r="R8" s="1">
+      <c r="T8" s="1">
         <v>12947.775041357059</v>
       </c>
-      <c r="S8" s="1">
+      <c r="U8" s="1">
         <v>12121.92</v>
       </c>
-      <c r="T8" s="1">
+      <c r="V8" s="1">
         <v>10188.46117072597</v>
       </c>
-      <c r="U8" s="1">
+      <c r="W8" s="1">
         <v>8885.7099999999991</v>
       </c>
-      <c r="V8" s="1">
+      <c r="X8" s="1">
         <v>7391.6605747401527</v>
       </c>
-      <c r="W8" s="1">
+      <c r="Y8" s="1">
         <v>8874.75</v>
       </c>
-      <c r="X8" s="1">
+      <c r="Z8" s="1">
         <v>7329.5382082273891</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="AA8" s="1">
         <v>6752.34</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AB8" s="1">
         <v>6318.5585071086289</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AC8" s="1">
         <v>8433.14</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AD8" s="1">
         <v>5480.5041678994467</v>
-      </c>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1">
-        <v>5822.9436642813662</v>
       </c>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1">
+        <v>5822.9436642813662</v>
+      </c>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1">
         <v>8425.3048371807799</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AI8" s="1">
         <v>4854.8563468216535</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AJ8" s="1">
         <v>3713.3341914505736</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AK8" s="1">
         <v>3837.7017025708419</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AL8" s="1">
         <v>4148.275291315329</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AM8" s="1">
         <v>7918.4260339753646</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AN8" s="1">
         <v>3838.4649978247539</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AO8" s="1">
         <v>3678.6748258485736</v>
       </c>
-      <c r="AN8" s="1">
+      <c r="AP8" s="1">
         <v>3421.6140114004265</v>
       </c>
-      <c r="AO8" s="1">
+      <c r="AQ8" s="1">
         <v>3018.4597881610603</v>
       </c>
-      <c r="AP8" s="1">
+      <c r="AR8" s="1">
         <v>3121.9894722691315</v>
       </c>
-      <c r="AQ8" s="1">
+      <c r="AS8" s="1">
         <v>3009.6781007899999</v>
       </c>
-      <c r="AR8" s="1">
+      <c r="AT8" s="1">
         <v>1789.9230899400004</v>
       </c>
-      <c r="AS8" s="1">
+      <c r="AU8" s="1">
         <v>2566.31381534</v>
       </c>
-      <c r="AT8" s="1">
+      <c r="AV8" s="1">
         <v>2544.7163221599999</v>
       </c>
-      <c r="AU8" s="1">
+      <c r="AW8" s="1">
         <v>1938.19090162</v>
       </c>
-      <c r="AV8" s="1">
+      <c r="AX8" s="1">
         <v>1516.0811441799999</v>
       </c>
-      <c r="AW8" s="1">
+      <c r="AY8" s="1">
         <v>1156.52120629</v>
       </c>
-      <c r="AX8" s="1">
+      <c r="AZ8" s="1">
         <v>640.45059545000004</v>
       </c>
-      <c r="AY8" s="1">
+      <c r="BA8" s="1">
         <v>813.28713954</v>
       </c>
-      <c r="AZ8" s="1">
+      <c r="BB8" s="1">
         <v>591.82000000000005</v>
       </c>
-      <c r="BA8" s="1">
+      <c r="BC8" s="1">
         <v>617.49</v>
       </c>
-      <c r="BB8" s="1">
+      <c r="BD8" s="1">
         <v>661.48</v>
       </c>
-      <c r="BC8" s="1">
+      <c r="BE8" s="1">
         <v>772.33</v>
       </c>
-      <c r="BD8" s="1">
+      <c r="BF8" s="1">
         <v>1736.03</v>
       </c>
-      <c r="BE8" s="1">
+      <c r="BG8" s="1">
         <v>1606.84</v>
       </c>
-      <c r="BF8" s="1">
+      <c r="BH8" s="1">
         <v>1524.25</v>
       </c>
-      <c r="BG8" s="1">
+      <c r="BI8" s="1">
         <v>1430.85</v>
       </c>
-      <c r="BH8" s="1">
+      <c r="BJ8" s="1">
         <v>1367.37</v>
       </c>
-      <c r="BI8" s="1"/>
-      <c r="BJ8" s="1"/>
-      <c r="BK8" s="1">
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="1"/>
+      <c r="BM8" s="1">
         <v>468.63</v>
       </c>
-      <c r="BL8" s="1">
+      <c r="BN8" s="1">
         <v>241.45</v>
       </c>
-      <c r="BM8" s="1">
+      <c r="BO8" s="1">
         <v>326.17</v>
       </c>
-      <c r="BN8" s="1">
+      <c r="BP8" s="1">
         <v>234.19</v>
       </c>
-      <c r="BO8" s="1">
+      <c r="BQ8" s="1">
         <v>178.9</v>
       </c>
-      <c r="BP8" s="1"/>
-      <c r="BQ8" s="1"/>
-      <c r="BR8" s="1">
+      <c r="BR8" s="1"/>
+      <c r="BS8" s="1"/>
+      <c r="BT8" s="1">
         <v>134.32</v>
       </c>
-      <c r="BS8" s="1"/>
-      <c r="BT8" s="1"/>
       <c r="BU8" s="1"/>
       <c r="BV8" s="1"/>
       <c r="BW8" s="1"/>
       <c r="BX8" s="1"/>
       <c r="BY8" s="1"/>
       <c r="BZ8" s="1"/>
+      <c r="CA8" s="1"/>
+      <c r="CB8" s="1"/>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
+        <v>279664.57</v>
+      </c>
+      <c r="C9" s="1">
+        <v>279367.59000000003</v>
+      </c>
+      <c r="D9" s="1">
         <v>258297.89</v>
       </c>
-      <c r="C9" s="1">
+      <c r="E9" s="1">
         <v>164271.66</v>
       </c>
-      <c r="D9" s="1">
+      <c r="F9" s="1">
         <v>252176.61768390998</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="1">
         <v>179965.45</v>
       </c>
-      <c r="F9" s="1">
+      <c r="H9" s="1">
         <v>231036.20824390999</v>
       </c>
-      <c r="G9" s="1">
+      <c r="I9" s="1">
         <v>196280.46</v>
       </c>
-      <c r="H9" s="1">
+      <c r="J9" s="1">
         <v>317739.10022448999</v>
       </c>
-      <c r="I9" s="1">
+      <c r="K9" s="1">
         <v>301210.82</v>
       </c>
-      <c r="J9" s="1">
+      <c r="L9" s="1">
         <v>281550.12861514394</v>
       </c>
-      <c r="K9" s="1">
+      <c r="M9" s="1">
         <v>265782.08</v>
       </c>
-      <c r="L9" s="1">
+      <c r="N9" s="1">
         <v>252877.03597885004</v>
       </c>
-      <c r="M9" s="1">
+      <c r="O9" s="1">
         <v>263677.71999999997</v>
       </c>
-      <c r="N9" s="1">
+      <c r="P9" s="1">
         <v>232430.22853971002</v>
       </c>
-      <c r="O9" s="1">
+      <c r="Q9" s="1">
         <v>243280.84</v>
       </c>
-      <c r="P9" s="1">
+      <c r="R9" s="1">
         <v>200776.05091732307</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="S9" s="1">
         <v>224033.2</v>
       </c>
-      <c r="R9" s="1">
+      <c r="T9" s="1">
         <v>181624.9555984046</v>
       </c>
-      <c r="S9" s="1">
+      <c r="U9" s="1">
         <v>191099.61</v>
       </c>
-      <c r="T9" s="1">
+      <c r="V9" s="1">
         <v>158856.4257555026</v>
       </c>
-      <c r="U9" s="1">
+      <c r="W9" s="1">
         <v>164969.10999999999</v>
       </c>
-      <c r="V9" s="1">
+      <c r="X9" s="1">
         <v>135153.37526506037</v>
       </c>
-      <c r="W9" s="1">
+      <c r="Y9" s="1">
         <v>128857.66</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Z9" s="1">
         <v>111813.37241208651</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="AA9" s="1">
         <v>120107.84</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AB9" s="1">
         <v>126787.26966677007</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AC9" s="1">
         <v>138704.1</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AD9" s="1">
         <v>120057.48187254008</v>
-      </c>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1">
-        <v>105886.53323316028</v>
       </c>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1">
+        <v>105886.53323316028</v>
+      </c>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1">
         <v>94061.968427808519</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AI9" s="1">
         <v>84289.795906198502</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AJ9" s="1">
         <v>76671.815690147632</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AK9" s="1">
         <v>71869.378295940551</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AL9" s="1">
         <v>66303.994854491699</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AM9" s="1">
         <v>64039.970399142869</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AN9" s="1">
         <v>56191.862037332328</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AO9" s="1">
         <v>48272.283517012009</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AP9" s="1">
         <v>45615.856386607273</v>
       </c>
-      <c r="AO9" s="1">
+      <c r="AQ9" s="1">
         <v>35453.69774215544</v>
       </c>
-      <c r="AP9" s="1">
+      <c r="AR9" s="1">
         <v>25565.073191949996</v>
       </c>
-      <c r="AQ9" s="1">
+      <c r="AS9" s="1">
         <v>22133.486461940003</v>
       </c>
-      <c r="AR9" s="1">
+      <c r="AT9" s="1">
         <v>17673.820150650001</v>
       </c>
-      <c r="AS9" s="1">
+      <c r="AU9" s="1">
         <v>16448.580045730003</v>
       </c>
-      <c r="AT9" s="1">
+      <c r="AV9" s="1">
         <v>15759.37686805</v>
       </c>
-      <c r="AU9" s="1">
+      <c r="AW9" s="1">
         <v>11319.82336188</v>
       </c>
-      <c r="AV9" s="1">
+      <c r="AX9" s="1">
         <v>7765.2593857499996</v>
       </c>
-      <c r="AW9" s="1">
+      <c r="AY9" s="1">
         <v>5330.3262341400005</v>
       </c>
-      <c r="AX9" s="1">
+      <c r="AZ9" s="1">
         <v>4040.9040278899993</v>
       </c>
-      <c r="AY9" s="1">
+      <c r="BA9" s="1">
         <v>3283.77593759</v>
       </c>
-      <c r="AZ9" s="1">
+      <c r="BB9" s="1">
         <v>3217.78</v>
       </c>
-      <c r="BA9" s="1">
+      <c r="BC9" s="1">
         <v>2599.84</v>
       </c>
-      <c r="BB9" s="1">
+      <c r="BD9" s="1">
         <v>2326.0300000000002</v>
       </c>
-      <c r="BC9" s="1">
+      <c r="BE9" s="1">
         <v>2085.6</v>
       </c>
-      <c r="BD9" s="1">
+      <c r="BF9" s="1">
         <v>1730.68</v>
       </c>
-      <c r="BE9" s="1">
+      <c r="BG9" s="1">
         <v>1682.19</v>
       </c>
-      <c r="BF9" s="1">
+      <c r="BH9" s="1">
         <v>1660.79</v>
       </c>
-      <c r="BG9" s="1">
+      <c r="BI9" s="1">
         <v>1118.05</v>
       </c>
-      <c r="BH9" s="1">
+      <c r="BJ9" s="1">
         <v>1105.93</v>
       </c>
-      <c r="BI9" s="1"/>
-      <c r="BJ9" s="1"/>
-      <c r="BK9" s="1">
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="1">
         <v>320.26</v>
       </c>
-      <c r="BL9" s="1">
+      <c r="BN9" s="1">
         <v>279.18</v>
       </c>
-      <c r="BM9" s="1">
+      <c r="BO9" s="1">
         <v>182.12</v>
       </c>
-      <c r="BN9" s="1">
+      <c r="BP9" s="1">
         <v>137.72</v>
       </c>
-      <c r="BO9" s="1">
+      <c r="BQ9" s="1">
         <v>107.76</v>
       </c>
-      <c r="BP9" s="1"/>
-      <c r="BQ9" s="1"/>
-      <c r="BR9" s="1">
+      <c r="BR9" s="1"/>
+      <c r="BS9" s="1"/>
+      <c r="BT9" s="1">
         <v>82.27</v>
       </c>
-      <c r="BS9" s="1"/>
-      <c r="BT9" s="1"/>
       <c r="BU9" s="1"/>
       <c r="BV9" s="1"/>
       <c r="BW9" s="1"/>
       <c r="BX9" s="1"/>
       <c r="BY9" s="1"/>
       <c r="BZ9" s="1"/>
+      <c r="CA9" s="1"/>
+      <c r="CB9" s="1"/>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1">
+        <v>26463.82</v>
+      </c>
+      <c r="C10" s="1">
+        <v>25286</v>
+      </c>
+      <c r="D10" s="1">
         <v>17822.650000000001</v>
       </c>
-      <c r="C10" s="1">
+      <c r="E10" s="1">
         <v>22382</v>
       </c>
-      <c r="D10" s="1">
+      <c r="F10" s="1">
         <v>23875.926064629999</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10" s="1">
         <v>20385</v>
       </c>
-      <c r="F10" s="1">
+      <c r="H10" s="1">
         <v>22582.136082300003</v>
       </c>
-      <c r="G10" s="1">
+      <c r="I10" s="1">
         <v>25229.73</v>
       </c>
-      <c r="H10" s="1">
+      <c r="J10" s="1">
         <v>20839.26348010639</v>
       </c>
-      <c r="I10" s="1">
+      <c r="K10" s="1">
         <v>16447.86</v>
       </c>
-      <c r="J10" s="1">
+      <c r="L10" s="1">
         <v>15372.12879760471</v>
       </c>
-      <c r="K10" s="1">
+      <c r="M10" s="1">
         <v>14405.25</v>
       </c>
-      <c r="L10" s="1">
+      <c r="N10" s="1">
         <v>13741.555049247714</v>
       </c>
-      <c r="M10" s="1">
+      <c r="O10" s="1">
         <v>13731</v>
       </c>
-      <c r="N10" s="1">
+      <c r="P10" s="1">
         <v>12479.927661494852</v>
       </c>
-      <c r="O10" s="1">
+      <c r="Q10" s="1">
         <v>11626</v>
       </c>
-      <c r="P10" s="1">
+      <c r="R10" s="1">
         <v>10702.269265337669</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="S10" s="1">
         <v>10460</v>
       </c>
-      <c r="R10" s="1">
+      <c r="T10" s="1">
         <v>9453.0532958557251</v>
       </c>
-      <c r="S10" s="1">
+      <c r="U10" s="1">
         <v>8465</v>
       </c>
-      <c r="T10" s="1">
+      <c r="V10" s="1">
         <v>8642.8745473325471</v>
       </c>
-      <c r="U10" s="1">
+      <c r="W10" s="1">
         <v>7688</v>
       </c>
-      <c r="V10" s="1">
+      <c r="X10" s="1">
         <v>7396.7630291264377</v>
       </c>
-      <c r="W10" s="1">
+      <c r="Y10" s="1">
         <v>6624</v>
       </c>
-      <c r="X10" s="1">
+      <c r="Z10" s="1">
         <v>6109.0164271089179</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="AA10" s="1">
         <v>6897</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="AB10" s="1">
         <v>6568.7589859826394</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AC10" s="1">
         <v>6070</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AD10" s="1">
         <v>3946.4534587120074</v>
-      </c>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1">
-        <v>4805.3718588382208</v>
       </c>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1">
+        <v>4805.3718588382208</v>
+      </c>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1">
         <v>4579.7790889051266</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="AI10" s="1">
         <v>4220.5895910396412</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AJ10" s="1">
         <v>4102.9502808295092</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AK10" s="1">
         <v>4155.2515037599096</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AL10" s="1">
         <v>3179.7088056511507</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="AM10" s="1">
         <v>3498.5742952394539</v>
       </c>
-      <c r="AL10" s="1">
+      <c r="AN10" s="1">
         <v>3696.8992841218824</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="AO10" s="1">
         <v>4414.536224334116</v>
       </c>
-      <c r="AN10" s="1">
+      <c r="AP10" s="1">
         <v>5204.4737629972669</v>
       </c>
-      <c r="AO10" s="1">
+      <c r="AQ10" s="1">
         <v>4174.5869928140628</v>
       </c>
-      <c r="AP10" s="1">
+      <c r="AR10" s="1">
         <v>3792.73957152</v>
       </c>
-      <c r="AQ10" s="1">
+      <c r="AS10" s="1">
         <v>5730.8461761000008</v>
       </c>
-      <c r="AR10" s="1">
+      <c r="AT10" s="1">
         <v>2067.0757691100002</v>
       </c>
-      <c r="AS10" s="1">
+      <c r="AU10" s="1">
         <v>1715.8363818799999</v>
       </c>
-      <c r="AT10" s="1">
+      <c r="AV10" s="1">
         <v>1064.8107536799998</v>
       </c>
-      <c r="AU10" s="1">
+      <c r="AW10" s="1">
         <v>985.63739398000007</v>
       </c>
-      <c r="AV10" s="1">
+      <c r="AX10" s="1">
         <v>936.10309398000004</v>
       </c>
-      <c r="AW10" s="1">
+      <c r="AY10" s="1">
         <v>711.35518950999995</v>
       </c>
-      <c r="AX10" s="1">
+      <c r="AZ10" s="1">
         <v>438.47475609999998</v>
       </c>
-      <c r="AY10" s="1">
+      <c r="BA10" s="1">
         <v>215.29344628000004</v>
       </c>
-      <c r="AZ10" s="1">
+      <c r="BB10" s="1">
         <v>115.01</v>
       </c>
-      <c r="BA10" s="1">
+      <c r="BC10" s="1">
         <v>105.55</v>
       </c>
-      <c r="BB10" s="1">
+      <c r="BD10" s="1">
         <v>245.08</v>
       </c>
-      <c r="BC10" s="1">
+      <c r="BE10" s="1">
         <v>108.75</v>
       </c>
-      <c r="BD10" s="1">
+      <c r="BF10" s="1">
         <v>75.02</v>
       </c>
-      <c r="BE10" s="1">
+      <c r="BG10" s="1">
         <v>70.2</v>
       </c>
-      <c r="BF10" s="1">
+      <c r="BH10" s="1">
         <v>1.47</v>
       </c>
-      <c r="BG10" s="1"/>
-      <c r="BH10" s="1"/>
       <c r="BI10" s="1"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
@@ -3024,174 +3090,180 @@
       <c r="BX10" s="1"/>
       <c r="BY10" s="1"/>
       <c r="BZ10" s="1"/>
+      <c r="CA10" s="1"/>
+      <c r="CB10" s="1"/>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1">
+        <v>184615.14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>175298.91</v>
+      </c>
+      <c r="D11" s="1">
         <v>144717.29999999999</v>
       </c>
-      <c r="C11" s="1">
+      <c r="E11" s="1">
         <v>165903.35999999999</v>
       </c>
-      <c r="D11" s="1">
+      <c r="F11" s="1">
         <v>170583.25101097001</v>
       </c>
-      <c r="E11" s="1">
+      <c r="G11" s="1">
         <v>151434.62</v>
       </c>
-      <c r="F11" s="1">
+      <c r="H11" s="1">
         <v>113386.38556840003</v>
       </c>
-      <c r="G11" s="1">
+      <c r="I11" s="1">
         <v>28245.59</v>
       </c>
-      <c r="H11" s="1">
+      <c r="J11" s="1">
         <v>34659.364423000596</v>
       </c>
-      <c r="I11" s="1">
+      <c r="K11" s="1">
         <v>33309.69</v>
       </c>
-      <c r="J11" s="1">
+      <c r="L11" s="1">
         <v>31114.032136892423</v>
       </c>
-      <c r="K11" s="1">
+      <c r="M11" s="1">
         <v>27922.59</v>
       </c>
-      <c r="L11" s="1">
+      <c r="N11" s="1">
         <v>26574.794941051656</v>
       </c>
-      <c r="M11" s="1">
+      <c r="O11" s="1">
         <v>31983.919999999998</v>
       </c>
-      <c r="N11" s="1">
+      <c r="P11" s="1">
         <v>23843.479303487016</v>
       </c>
-      <c r="O11" s="1">
+      <c r="Q11" s="1">
         <v>25243.68</v>
       </c>
-      <c r="P11" s="1">
+      <c r="R11" s="1">
         <v>20793.393588749943</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="S11" s="1">
         <v>23554.44</v>
       </c>
-      <c r="R11" s="1">
+      <c r="T11" s="1">
         <v>18697.794527319948</v>
       </c>
-      <c r="S11" s="1">
+      <c r="U11" s="1">
         <v>19054.48</v>
       </c>
-      <c r="T11" s="1">
+      <c r="V11" s="1">
         <v>15836.780293175785</v>
       </c>
-      <c r="U11" s="1">
+      <c r="W11" s="1">
         <v>16813.18</v>
       </c>
-      <c r="V11" s="1">
+      <c r="X11" s="1">
         <v>17168.564365996426</v>
       </c>
-      <c r="W11" s="1">
+      <c r="Y11" s="1">
         <v>13185.6</v>
       </c>
-      <c r="X11" s="1">
+      <c r="Z11" s="1">
         <v>11439.833871941915</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="AA11" s="1">
         <v>12214.82</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="AB11" s="1">
         <v>11261.516287990922</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AC11" s="1">
         <v>10764.74</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AD11" s="1">
         <v>12189.057889482929</v>
-      </c>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1">
-        <v>9626.1989258997328</v>
       </c>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1">
+        <v>9626.1989258997328</v>
+      </c>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1">
         <v>8874.2809222882534</v>
       </c>
-      <c r="AG11" s="1">
+      <c r="AI11" s="1">
         <v>7553.7442002860862</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AJ11" s="1">
         <v>6873.481227121425</v>
       </c>
-      <c r="AI11" s="1">
+      <c r="AK11" s="1">
         <v>6569.9709535205002</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AL11" s="1">
         <v>6604.4636450199177</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="AM11" s="1">
         <v>7547.5422409234889</v>
       </c>
-      <c r="AL11" s="1">
+      <c r="AN11" s="1">
         <v>8127.0165377546573</v>
       </c>
-      <c r="AM11" s="1">
+      <c r="AO11" s="1">
         <v>7274.0197646993902</v>
       </c>
-      <c r="AN11" s="1">
+      <c r="AP11" s="1">
         <v>5506.7043016333473</v>
       </c>
-      <c r="AO11" s="1">
+      <c r="AQ11" s="1">
         <v>5202.3511844152299</v>
       </c>
-      <c r="AP11" s="1">
+      <c r="AR11" s="1">
         <v>6176.1326425392563</v>
       </c>
-      <c r="AQ11" s="1">
+      <c r="AS11" s="1">
         <v>4215.9020758699999</v>
       </c>
-      <c r="AR11" s="1">
+      <c r="AT11" s="1">
         <v>3883.0511371399989</v>
       </c>
-      <c r="AS11" s="1">
+      <c r="AU11" s="1">
         <v>2119.4089379400002</v>
       </c>
-      <c r="AT11" s="1">
+      <c r="AV11" s="1">
         <v>1393.7051609800001</v>
       </c>
-      <c r="AU11" s="1">
+      <c r="AW11" s="1">
         <v>1503.0493092199999</v>
       </c>
-      <c r="AV11" s="1">
+      <c r="AX11" s="1">
         <v>743.40319606999992</v>
       </c>
-      <c r="AW11" s="1">
+      <c r="AY11" s="1">
         <v>819.01059165999993</v>
       </c>
-      <c r="AX11" s="1">
+      <c r="AZ11" s="1">
         <v>2191.50001367</v>
       </c>
-      <c r="AY11" s="1">
+      <c r="BA11" s="1">
         <v>1693.9666477399999</v>
       </c>
-      <c r="AZ11" s="1">
+      <c r="BB11" s="1">
         <v>1670.85</v>
       </c>
-      <c r="BA11" s="1">
+      <c r="BC11" s="1">
         <v>1152.19</v>
       </c>
-      <c r="BB11" s="1">
+      <c r="BD11" s="1">
         <v>637.22</v>
       </c>
-      <c r="BC11" s="1">
+      <c r="BE11" s="1">
         <v>910.93</v>
       </c>
-      <c r="BD11" s="1">
+      <c r="BF11" s="1">
         <v>62.49</v>
       </c>
-      <c r="BE11" s="1"/>
-      <c r="BF11" s="1"/>
       <c r="BG11" s="1"/>
       <c r="BH11" s="1"/>
       <c r="BI11" s="1"/>
@@ -3212,186 +3284,192 @@
       <c r="BX11" s="1"/>
       <c r="BY11" s="1"/>
       <c r="BZ11" s="1"/>
+      <c r="CA11" s="1"/>
+      <c r="CB11" s="1"/>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1">
+        <v>74688.240000000005</v>
+      </c>
+      <c r="C12" s="1">
+        <v>73702</v>
+      </c>
+      <c r="D12" s="1">
         <v>100392.76</v>
       </c>
-      <c r="C12" s="1">
+      <c r="E12" s="1">
         <v>85706</v>
       </c>
-      <c r="D12" s="1">
+      <c r="F12" s="1">
         <v>102728.84813893</v>
       </c>
-      <c r="E12" s="1">
+      <c r="G12" s="1">
         <v>86196</v>
       </c>
-      <c r="F12" s="1">
+      <c r="H12" s="1">
         <v>57200.118244629986</v>
       </c>
-      <c r="G12" s="1">
+      <c r="I12" s="1">
         <v>60809</v>
       </c>
-      <c r="H12" s="1">
+      <c r="J12" s="1">
         <v>49298.016910789993</v>
       </c>
-      <c r="I12" s="1">
+      <c r="K12" s="1">
         <v>61041.5</v>
       </c>
-      <c r="J12" s="1">
+      <c r="L12" s="1">
         <v>46365.618790822409</v>
       </c>
-      <c r="K12" s="1">
+      <c r="M12" s="1">
         <v>53012</v>
       </c>
-      <c r="L12" s="1">
+      <c r="N12" s="1">
         <v>47233.314507209994</v>
       </c>
-      <c r="M12" s="1">
+      <c r="O12" s="1">
         <v>56595</v>
       </c>
-      <c r="N12" s="1">
+      <c r="P12" s="1">
         <v>46068.797566319998</v>
       </c>
-      <c r="O12" s="1">
+      <c r="Q12" s="1">
         <v>62246</v>
       </c>
-      <c r="P12" s="1">
+      <c r="R12" s="1">
         <v>47283.50076925</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="S12" s="1">
         <v>56785</v>
       </c>
-      <c r="R12" s="1">
+      <c r="T12" s="1">
         <v>49652.391566400009</v>
       </c>
-      <c r="S12" s="1">
+      <c r="U12" s="1">
         <v>51748</v>
       </c>
-      <c r="T12" s="1">
+      <c r="V12" s="1">
         <v>40929.578621929999</v>
       </c>
-      <c r="U12" s="1">
+      <c r="W12" s="1">
         <v>51006</v>
       </c>
-      <c r="V12" s="1">
+      <c r="X12" s="1">
         <v>42145.436265190001</v>
       </c>
-      <c r="W12" s="1">
+      <c r="Y12" s="1">
         <v>50450</v>
       </c>
-      <c r="X12" s="1">
+      <c r="Z12" s="1">
         <v>44307.770303493715</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="AA12" s="1">
         <v>51624</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="AB12" s="1">
         <v>46042.060375580004</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AC12" s="1">
         <v>48240</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AD12" s="1">
         <v>44360.567700750929</v>
-      </c>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1">
-        <v>50979.080937050006</v>
       </c>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1">
+        <v>50979.080937050006</v>
+      </c>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1">
         <v>51288.063999779995</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AI12" s="1">
         <v>46126.341007639996</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AJ12" s="1">
         <v>40410.580787049992</v>
       </c>
-      <c r="AI12" s="1">
+      <c r="AK12" s="1">
         <v>39326.604369830005</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AL12" s="1">
         <v>44647.439044260005</v>
       </c>
-      <c r="AK12" s="1">
+      <c r="AM12" s="1">
         <v>33760.93587134</v>
       </c>
-      <c r="AL12" s="1">
+      <c r="AN12" s="1">
         <v>33459.174599050006</v>
       </c>
-      <c r="AM12" s="1">
+      <c r="AO12" s="1">
         <v>42619.08908839948</v>
       </c>
-      <c r="AN12" s="1">
+      <c r="AP12" s="1">
         <v>22520.579975240002</v>
       </c>
-      <c r="AO12" s="1">
+      <c r="AQ12" s="1">
         <v>20452.415643898468</v>
       </c>
-      <c r="AP12" s="1">
+      <c r="AR12" s="1">
         <v>19736.881638422557</v>
       </c>
-      <c r="AQ12" s="1">
+      <c r="AS12" s="1">
         <v>14175.90845366</v>
       </c>
-      <c r="AR12" s="1">
+      <c r="AT12" s="1">
         <v>13322.481054560001</v>
       </c>
-      <c r="AS12" s="1">
+      <c r="AU12" s="1">
         <v>16627.29825018</v>
       </c>
-      <c r="AT12" s="1">
+      <c r="AV12" s="1">
         <v>15773.176116639999</v>
       </c>
-      <c r="AU12" s="1">
+      <c r="AW12" s="1">
         <v>14391.64860595</v>
       </c>
-      <c r="AV12" s="1">
+      <c r="AX12" s="1">
         <v>10180.144363630001</v>
       </c>
-      <c r="AW12" s="1">
+      <c r="AY12" s="1">
         <v>6539.2104612100002</v>
       </c>
-      <c r="AX12" s="1">
+      <c r="AZ12" s="1">
         <v>1887.997378</v>
       </c>
-      <c r="AY12" s="1">
+      <c r="BA12" s="1">
         <v>3670.3232838600002</v>
       </c>
-      <c r="AZ12" s="1">
+      <c r="BB12" s="1">
         <v>3620.07</v>
       </c>
-      <c r="BA12" s="1">
+      <c r="BC12" s="1">
         <v>1031.6099999999999</v>
       </c>
-      <c r="BB12" s="1">
+      <c r="BD12" s="1">
         <v>195.3</v>
       </c>
-      <c r="BC12" s="1">
+      <c r="BE12" s="1">
         <v>104.27</v>
       </c>
-      <c r="BD12" s="1">
+      <c r="BF12" s="1">
         <v>93.37</v>
       </c>
-      <c r="BE12" s="1">
+      <c r="BG12" s="1">
         <v>85.29</v>
       </c>
-      <c r="BF12" s="1">
+      <c r="BH12" s="1">
         <v>81.069999999999993</v>
       </c>
-      <c r="BG12" s="1">
+      <c r="BI12" s="1">
         <v>0</v>
       </c>
-      <c r="BH12" s="1">
+      <c r="BJ12" s="1">
         <v>0</v>
       </c>
-      <c r="BI12" s="1"/>
-      <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
       <c r="BL12" s="1"/>
       <c r="BM12" s="1"/>
@@ -3408,180 +3486,186 @@
       <c r="BX12" s="1"/>
       <c r="BY12" s="1"/>
       <c r="BZ12" s="1"/>
+      <c r="CA12" s="1"/>
+      <c r="CB12" s="1"/>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1">
+        <v>36313.01</v>
+      </c>
+      <c r="C13" s="1">
+        <v>33990</v>
+      </c>
+      <c r="D13" s="1">
         <v>58838.080000000002</v>
       </c>
-      <c r="C13" s="1">
+      <c r="E13" s="1">
         <v>49898</v>
       </c>
-      <c r="D13" s="1">
+      <c r="F13" s="1">
         <v>61272.969889220003</v>
       </c>
-      <c r="E13" s="1">
+      <c r="G13" s="1">
         <v>43173</v>
       </c>
-      <c r="F13" s="1">
+      <c r="H13" s="1">
         <v>20456.97061855</v>
       </c>
-      <c r="G13" s="1">
+      <c r="I13" s="1">
         <v>20752</v>
       </c>
-      <c r="H13" s="1">
+      <c r="J13" s="1">
         <v>17600.85146242</v>
       </c>
-      <c r="I13" s="1">
+      <c r="K13" s="1">
         <v>18575.2</v>
       </c>
-      <c r="J13" s="1">
+      <c r="L13" s="1">
         <v>15025.018679422406</v>
       </c>
-      <c r="K13" s="1">
+      <c r="M13" s="1">
         <v>15672</v>
       </c>
-      <c r="L13" s="1">
+      <c r="N13" s="1">
         <v>14002.096836149998</v>
       </c>
-      <c r="M13" s="1">
+      <c r="O13" s="1">
         <v>11697</v>
       </c>
-      <c r="N13" s="1">
+      <c r="P13" s="1">
         <v>12493.72566595</v>
       </c>
-      <c r="O13" s="1">
+      <c r="Q13" s="1">
         <v>16232</v>
       </c>
-      <c r="P13" s="1">
+      <c r="R13" s="1">
         <v>13301.67852937</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="S13" s="1">
         <v>14783</v>
       </c>
-      <c r="R13" s="1">
+      <c r="T13" s="1">
         <v>14500.34002041</v>
       </c>
-      <c r="S13" s="1">
+      <c r="U13" s="1">
         <v>14263</v>
       </c>
-      <c r="T13" s="1">
+      <c r="V13" s="1">
         <v>14978.803830689998</v>
       </c>
-      <c r="U13" s="1">
+      <c r="W13" s="1">
         <v>14068</v>
       </c>
-      <c r="V13" s="1">
+      <c r="X13" s="1">
         <v>15253.888072460002</v>
       </c>
-      <c r="W13" s="1">
+      <c r="Y13" s="1">
         <v>15397</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Z13" s="1">
         <v>17253.704132073719</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="AA13" s="1">
         <v>15232</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AB13" s="1">
         <v>14397.143448830002</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AC13" s="1">
         <v>18732</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AD13" s="1">
         <v>15531.101979030933</v>
-      </c>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1">
-        <v>18589.018956749998</v>
       </c>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1">
+        <v>18589.018956749998</v>
+      </c>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1">
         <v>15691.122637479999</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AI13" s="1">
         <v>13906.4165355</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AJ13" s="1">
         <v>12418.6735462</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AK13" s="1">
         <v>14812.036493950001</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AL13" s="1">
         <v>20560.145543999999</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AM13" s="1">
         <v>15956.882812119999</v>
       </c>
-      <c r="AL13" s="1">
+      <c r="AN13" s="1">
         <v>17155.465094989999</v>
       </c>
-      <c r="AM13" s="1">
+      <c r="AO13" s="1">
         <v>26733.984230989481</v>
       </c>
-      <c r="AN13" s="1">
+      <c r="AP13" s="1">
         <v>13549.728784000001</v>
       </c>
-      <c r="AO13" s="1">
+      <c r="AQ13" s="1">
         <v>14368.478628718465</v>
       </c>
-      <c r="AP13" s="1">
+      <c r="AR13" s="1">
         <v>12379.458995453255</v>
       </c>
-      <c r="AQ13" s="1">
+      <c r="AS13" s="1">
         <v>9191.1917307299991</v>
       </c>
-      <c r="AR13" s="1">
+      <c r="AT13" s="1">
         <v>7875.7841662700002</v>
       </c>
-      <c r="AS13" s="1">
+      <c r="AU13" s="1">
         <v>8351.829018819999</v>
       </c>
-      <c r="AT13" s="1">
+      <c r="AV13" s="1">
         <v>8395.0674112600009</v>
       </c>
-      <c r="AU13" s="1">
+      <c r="AW13" s="1">
         <v>6004.42634894</v>
       </c>
-      <c r="AV13" s="1">
+      <c r="AX13" s="1">
         <v>4536.84104097</v>
       </c>
-      <c r="AW13" s="1">
+      <c r="AY13" s="1">
         <v>2119.8096301700002</v>
       </c>
-      <c r="AX13" s="1">
+      <c r="AZ13" s="1">
         <v>1600.57009354</v>
       </c>
-      <c r="AY13" s="1">
+      <c r="BA13" s="1">
         <v>3532.64988584</v>
       </c>
-      <c r="AZ13" s="1">
+      <c r="BB13" s="1">
         <v>3427.64</v>
       </c>
-      <c r="BA13" s="1">
+      <c r="BC13" s="1">
         <v>842.37</v>
       </c>
-      <c r="BB13" s="1">
+      <c r="BD13" s="1">
         <v>133.9</v>
       </c>
-      <c r="BC13" s="1">
+      <c r="BE13" s="1">
         <v>104.27</v>
       </c>
-      <c r="BD13" s="1">
+      <c r="BF13" s="1">
         <v>93.37</v>
       </c>
-      <c r="BE13" s="1">
+      <c r="BG13" s="1">
         <v>85.29</v>
       </c>
-      <c r="BF13" s="1">
+      <c r="BH13" s="1">
         <v>18.36</v>
       </c>
-      <c r="BG13" s="1"/>
-      <c r="BH13" s="1"/>
       <c r="BI13" s="1"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
@@ -3600,156 +3684,158 @@
       <c r="BX13" s="1"/>
       <c r="BY13" s="1"/>
       <c r="BZ13" s="1"/>
+      <c r="CA13" s="1"/>
+      <c r="CB13" s="1"/>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1">
+        <v>38375.230000000003</v>
+      </c>
+      <c r="C14" s="1">
+        <v>39712</v>
+      </c>
+      <c r="D14" s="1">
         <v>41554.68</v>
       </c>
-      <c r="C14" s="1">
+      <c r="E14" s="1">
         <v>35808</v>
       </c>
-      <c r="D14" s="1">
+      <c r="F14" s="1">
         <v>41455.878249709996</v>
       </c>
-      <c r="E14" s="1">
+      <c r="G14" s="1">
         <v>43023</v>
       </c>
-      <c r="F14" s="1">
+      <c r="H14" s="1">
         <v>36743.147626079997</v>
       </c>
-      <c r="G14" s="1">
+      <c r="I14" s="1">
         <v>40057</v>
       </c>
-      <c r="H14" s="1">
+      <c r="J14" s="1">
         <v>31697.16544837</v>
       </c>
-      <c r="I14" s="1">
+      <c r="K14" s="1">
         <v>42466.3</v>
       </c>
-      <c r="J14" s="1">
+      <c r="L14" s="1">
         <v>31340.600111400003</v>
       </c>
-      <c r="K14" s="1">
+      <c r="M14" s="1">
         <v>37340</v>
       </c>
-      <c r="L14" s="1">
+      <c r="N14" s="1">
         <v>33231.217671059996</v>
       </c>
-      <c r="M14" s="1">
+      <c r="O14" s="1">
         <v>44898</v>
       </c>
-      <c r="N14" s="1">
+      <c r="P14" s="1">
         <v>33575.07190037</v>
       </c>
-      <c r="O14" s="1">
+      <c r="Q14" s="1">
         <v>46014</v>
       </c>
-      <c r="P14" s="1">
+      <c r="R14" s="1">
         <v>33981.822239879999</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="S14" s="1">
         <v>42002</v>
       </c>
-      <c r="R14" s="1">
+      <c r="T14" s="1">
         <v>35152.051545990005</v>
       </c>
-      <c r="S14" s="1">
+      <c r="U14" s="1">
         <v>37485</v>
       </c>
-      <c r="T14" s="1">
+      <c r="V14" s="1">
         <v>25950.774791240001</v>
       </c>
-      <c r="U14" s="1">
+      <c r="W14" s="1">
         <v>36938</v>
       </c>
-      <c r="V14" s="1">
+      <c r="X14" s="1">
         <v>26891.548192729999</v>
       </c>
-      <c r="W14" s="1">
+      <c r="Y14" s="1">
         <v>35053</v>
       </c>
-      <c r="X14" s="1">
+      <c r="Z14" s="1">
         <v>27054.06617142</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="AA14" s="1">
         <v>36392</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AB14" s="1">
         <v>31644.91692675</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AC14" s="1">
         <v>29508</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AD14" s="1">
         <v>28829.46572172</v>
-      </c>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1">
-        <v>32390.061980300005</v>
       </c>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1">
+        <v>32390.061980300005</v>
+      </c>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1">
         <v>35596.9413623</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AI14" s="1">
         <v>32219.924472139999</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AJ14" s="1">
         <v>27991.90724085</v>
       </c>
-      <c r="AI14" s="1">
+      <c r="AK14" s="1">
         <v>24514.567875880002</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AL14" s="1">
         <v>24087.293500260002</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="AM14" s="1">
         <v>17804.053059220001</v>
       </c>
-      <c r="AL14" s="1">
+      <c r="AN14" s="1">
         <v>16303.709504060002</v>
       </c>
-      <c r="AM14" s="1">
+      <c r="AO14" s="1">
         <v>15885.10485741</v>
       </c>
-      <c r="AN14" s="1">
+      <c r="AP14" s="1">
         <v>8970.8511912400008</v>
       </c>
-      <c r="AO14" s="1">
+      <c r="AQ14" s="1">
         <v>6083.9370151800003</v>
       </c>
-      <c r="AP14" s="1">
+      <c r="AR14" s="1">
         <v>7357.4226429693044</v>
       </c>
-      <c r="AQ14" s="1">
+      <c r="AS14" s="1">
         <v>4984.7167229300003</v>
       </c>
-      <c r="AR14" s="1">
+      <c r="AT14" s="1">
         <v>5446.6968882900001</v>
       </c>
-      <c r="AS14" s="1">
+      <c r="AU14" s="1">
         <v>8275.469231359999</v>
       </c>
-      <c r="AT14" s="1">
+      <c r="AV14" s="1">
         <v>7378.1087053800002</v>
       </c>
-      <c r="AU14" s="1">
+      <c r="AW14" s="1">
         <v>8387.2222570100002</v>
       </c>
-      <c r="AV14" s="1">
+      <c r="AX14" s="1">
         <v>5643.30332266</v>
       </c>
-      <c r="AW14" s="1">
+      <c r="AY14" s="1">
         <v>4419.4008310400004</v>
-      </c>
-      <c r="AX14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="1">
-        <v>0</v>
       </c>
       <c r="AZ14" s="1">
         <v>0</v>
@@ -3760,8 +3846,12 @@
       <c r="BB14" s="1">
         <v>0</v>
       </c>
-      <c r="BC14" s="1"/>
-      <c r="BD14" s="1"/>
+      <c r="BC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="1">
+        <v>0</v>
+      </c>
       <c r="BE14" s="1"/>
       <c r="BF14" s="1"/>
       <c r="BG14" s="1"/>
@@ -3784,8 +3874,10 @@
       <c r="BX14" s="1"/>
       <c r="BY14" s="1"/>
       <c r="BZ14" s="1"/>
+      <c r="CA14" s="1"/>
+      <c r="CB14" s="1"/>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -3837,29 +3929,29 @@
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
-      <c r="AX15" s="1">
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1">
         <v>87.021526780000002</v>
       </c>
-      <c r="AY15" s="1">
+      <c r="BA15" s="1">
         <v>38.703791539999997</v>
       </c>
-      <c r="AZ15" s="1">
+      <c r="BB15" s="1">
         <v>50.22</v>
       </c>
-      <c r="BA15" s="1">
+      <c r="BC15" s="1">
         <v>27.33</v>
       </c>
-      <c r="BB15" s="1">
+      <c r="BD15" s="1">
         <v>18.100000000000001</v>
       </c>
-      <c r="BC15" s="1"/>
-      <c r="BD15" s="1"/>
       <c r="BE15" s="1"/>
-      <c r="BF15" s="1">
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1">
         <v>7.75</v>
       </c>
-      <c r="BG15" s="1"/>
-      <c r="BH15" s="1"/>
       <c r="BI15" s="1"/>
       <c r="BJ15" s="1"/>
       <c r="BK15" s="1"/>
@@ -3878,8 +3970,10 @@
       <c r="BX15" s="1"/>
       <c r="BY15" s="1"/>
       <c r="BZ15" s="1"/>
+      <c r="CA15" s="1"/>
+      <c r="CB15" s="1"/>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -3931,29 +4025,29 @@
       <c r="AU16" s="1"/>
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
-      <c r="AX16" s="1">
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1">
         <v>200.40575767999999</v>
       </c>
-      <c r="AY16" s="1">
+      <c r="BA16" s="1">
         <v>98.969606479999996</v>
       </c>
-      <c r="AZ16" s="1">
+      <c r="BB16" s="1">
         <v>142.21</v>
       </c>
-      <c r="BA16" s="1">
+      <c r="BC16" s="1">
         <v>161.91</v>
       </c>
-      <c r="BB16" s="1">
+      <c r="BD16" s="1">
         <v>43.31</v>
       </c>
-      <c r="BC16" s="1"/>
-      <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
-      <c r="BF16" s="1">
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1">
         <v>54.96</v>
       </c>
-      <c r="BG16" s="1"/>
-      <c r="BH16" s="1"/>
       <c r="BI16" s="1"/>
       <c r="BJ16" s="1"/>
       <c r="BK16" s="1"/>
@@ -3972,8 +4066,10 @@
       <c r="BX16" s="1"/>
       <c r="BY16" s="1"/>
       <c r="BZ16" s="1"/>
+      <c r="CA16" s="1"/>
+      <c r="CB16" s="1"/>
     </row>
-    <row r="17" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -4023,14 +4119,14 @@
       <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
       <c r="AU17" s="1"/>
-      <c r="AV17" s="1">
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1">
         <v>1147.97724165</v>
       </c>
-      <c r="AW17" s="1">
+      <c r="AY17" s="1">
         <v>0</v>
       </c>
-      <c r="AX17" s="1"/>
-      <c r="AY17" s="1"/>
       <c r="AZ17" s="1"/>
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
@@ -4058,8 +4154,10 @@
       <c r="BX17" s="1"/>
       <c r="BY17" s="1"/>
       <c r="BZ17" s="1"/>
+      <c r="CA17" s="1"/>
+      <c r="CB17" s="1"/>
     </row>
-    <row r="18" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -4111,23 +4209,23 @@
       <c r="AU18" s="1"/>
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
-      <c r="AX18" s="1">
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1">
         <v>356.34946338999998</v>
       </c>
-      <c r="AY18" s="1">
+      <c r="BA18" s="1">
         <v>1010.1502100600001</v>
       </c>
-      <c r="AZ18" s="1">
+      <c r="BB18" s="1">
         <v>0</v>
       </c>
-      <c r="BA18" s="1">
+      <c r="BC18" s="1">
         <v>0.48</v>
       </c>
-      <c r="BB18" s="1">
+      <c r="BD18" s="1">
         <v>5.61</v>
       </c>
-      <c r="BC18" s="1"/>
-      <c r="BD18" s="1"/>
       <c r="BE18" s="1"/>
       <c r="BF18" s="1"/>
       <c r="BG18" s="1"/>
@@ -4150,406 +4248,418 @@
       <c r="BX18" s="1"/>
       <c r="BY18" s="1"/>
       <c r="BZ18" s="1"/>
+      <c r="CA18" s="1"/>
+      <c r="CB18" s="1"/>
     </row>
-    <row r="19" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="7">
+        <v>317689.24</v>
+      </c>
+      <c r="C19" s="7">
+        <v>305218</v>
+      </c>
+      <c r="D19" s="7">
         <v>296169.14</v>
       </c>
-      <c r="C19" s="7">
+      <c r="E19" s="7">
         <v>286576</v>
       </c>
-      <c r="D19" s="7">
+      <c r="F19" s="7">
         <v>317267.27496821003</v>
       </c>
-      <c r="E19" s="7">
+      <c r="G19" s="7">
         <v>367799</v>
       </c>
-      <c r="F19" s="7">
+      <c r="H19" s="7">
         <v>290612.26966524008</v>
       </c>
-      <c r="G19" s="7">
+      <c r="I19" s="7">
         <v>332804</v>
       </c>
-      <c r="H19" s="7">
+      <c r="J19" s="7">
         <v>209492.61205916997</v>
       </c>
-      <c r="I19" s="7">
+      <c r="K19" s="7">
         <v>185028.6</v>
       </c>
-      <c r="J19" s="7">
+      <c r="L19" s="7">
         <v>163505.32379497</v>
       </c>
-      <c r="K19" s="7">
+      <c r="M19" s="7">
         <v>170720</v>
       </c>
-      <c r="L19" s="7">
+      <c r="N19" s="7">
         <v>158319.20820238997</v>
       </c>
-      <c r="M19" s="7">
+      <c r="O19" s="7">
         <v>140438</v>
       </c>
-      <c r="N19" s="7">
+      <c r="P19" s="7">
         <v>135315.08285720999</v>
       </c>
-      <c r="O19" s="7">
+      <c r="Q19" s="7">
         <v>124171</v>
       </c>
-      <c r="P19" s="7">
+      <c r="R19" s="7">
         <v>118856.07216957999</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="S19" s="7">
         <v>102367</v>
       </c>
-      <c r="R19" s="7">
+      <c r="T19" s="7">
         <v>72345.883729359994</v>
       </c>
-      <c r="S19" s="7">
+      <c r="U19" s="7">
         <v>71171</v>
       </c>
-      <c r="T19" s="7">
+      <c r="V19" s="7">
         <v>67992.768219729987</v>
       </c>
-      <c r="U19" s="7">
+      <c r="W19" s="7">
         <v>65418</v>
       </c>
-      <c r="V19" s="7">
+      <c r="X19" s="7">
         <v>67203.279770690002</v>
       </c>
-      <c r="W19" s="7">
+      <c r="Y19" s="7">
         <v>62425</v>
       </c>
-      <c r="X19" s="7">
+      <c r="Z19" s="7">
         <v>60547.891645608259</v>
       </c>
-      <c r="Y19" s="7">
+      <c r="AA19" s="7">
         <v>58790</v>
       </c>
-      <c r="Z19" s="7">
+      <c r="AB19" s="7">
         <v>61415.403806480012</v>
       </c>
-      <c r="AA19" s="7">
+      <c r="AC19" s="7">
         <v>58436</v>
       </c>
-      <c r="AB19" s="7">
+      <c r="AD19" s="7">
         <v>54998.245738666192</v>
       </c>
-      <c r="AC19" s="7">
+      <c r="AE19" s="7">
         <v>58720</v>
       </c>
-      <c r="AD19" s="7">
+      <c r="AF19" s="7">
         <v>58254.372752930009</v>
       </c>
-      <c r="AE19" s="7">
+      <c r="AG19" s="7">
         <v>59789</v>
       </c>
-      <c r="AF19" s="7">
+      <c r="AH19" s="7">
         <v>61815.825453439997</v>
       </c>
-      <c r="AG19" s="7">
+      <c r="AI19" s="7">
         <v>59529.61987948</v>
       </c>
-      <c r="AH19" s="7">
+      <c r="AJ19" s="7">
         <v>57042.059715309995</v>
       </c>
-      <c r="AI19" s="7">
+      <c r="AK19" s="7">
         <v>56999.602130199994</v>
       </c>
-      <c r="AJ19" s="7">
+      <c r="AL19" s="7">
         <v>58697.640262939996</v>
       </c>
-      <c r="AK19" s="7">
+      <c r="AM19" s="7">
         <v>61677.398352669996</v>
       </c>
-      <c r="AL19" s="7">
+      <c r="AN19" s="7">
         <v>61764.02392028</v>
       </c>
-      <c r="AM19" s="7">
+      <c r="AO19" s="7">
         <v>62754.884007539993</v>
       </c>
-      <c r="AN19" s="7">
+      <c r="AP19" s="7">
         <v>63048.265511980004</v>
       </c>
-      <c r="AO19" s="7">
+      <c r="AQ19" s="7">
         <v>48388.975917699994</v>
       </c>
-      <c r="AP19" s="7">
+      <c r="AR19" s="7">
         <v>39035.177693740006</v>
       </c>
-      <c r="AQ19" s="7">
+      <c r="AS19" s="7">
         <v>35375.179230580005</v>
       </c>
-      <c r="AR19" s="7">
+      <c r="AT19" s="7">
         <v>30241.489772849996</v>
       </c>
-      <c r="AS19" s="7">
+      <c r="AU19" s="7">
         <v>27629.248052119998</v>
       </c>
-      <c r="AT19" s="7">
+      <c r="AV19" s="7">
         <v>25411.370114770001</v>
       </c>
-      <c r="AU19" s="7">
+      <c r="AW19" s="7">
         <v>28874.649763360001</v>
       </c>
-      <c r="AV19" s="7">
+      <c r="AX19" s="7">
         <v>24852.66549489</v>
       </c>
-      <c r="AW19" s="7">
+      <c r="AY19" s="7">
         <v>20154.002759570001</v>
       </c>
-      <c r="AX19" s="7">
+      <c r="AZ19" s="7">
         <v>23080.639471300001</v>
       </c>
-      <c r="AY19" s="7">
+      <c r="BA19" s="7">
         <v>16569.288362930001</v>
       </c>
-      <c r="AZ19" s="7">
+      <c r="BB19" s="7">
         <v>13517.87</v>
       </c>
-      <c r="BA19" s="7">
+      <c r="BC19" s="7">
         <v>10198.44</v>
       </c>
-      <c r="BB19" s="7">
+      <c r="BD19" s="7">
         <v>6756.87</v>
       </c>
-      <c r="BC19" s="7">
+      <c r="BE19" s="7">
         <v>5880.19</v>
       </c>
-      <c r="BD19" s="7">
+      <c r="BF19" s="7">
         <v>5229.45</v>
       </c>
-      <c r="BE19" s="7">
+      <c r="BG19" s="7">
         <v>4831.8900000000003</v>
       </c>
-      <c r="BF19" s="7">
+      <c r="BH19" s="7">
         <v>4157.4399999999996</v>
       </c>
-      <c r="BG19" s="7">
+      <c r="BI19" s="7">
         <v>3688.79</v>
       </c>
-      <c r="BH19" s="7">
+      <c r="BJ19" s="7">
         <v>3088.62</v>
       </c>
-      <c r="BI19" s="7">
+      <c r="BK19" s="7">
         <v>2515.21</v>
       </c>
-      <c r="BJ19" s="7">
+      <c r="BL19" s="7">
         <v>1935.14</v>
       </c>
-      <c r="BK19" s="7">
+      <c r="BM19" s="7">
         <v>1623.31</v>
       </c>
-      <c r="BL19" s="7">
+      <c r="BN19" s="7">
         <v>828.25</v>
       </c>
-      <c r="BM19" s="7">
+      <c r="BO19" s="7">
         <v>663.44</v>
       </c>
-      <c r="BN19" s="7">
+      <c r="BP19" s="7">
         <v>645.87</v>
       </c>
-      <c r="BO19" s="7">
+      <c r="BQ19" s="7">
         <v>579.69000000000005</v>
       </c>
-      <c r="BP19" s="7">
+      <c r="BR19" s="7">
         <v>553.65</v>
       </c>
-      <c r="BQ19" s="7">
+      <c r="BS19" s="7">
         <v>544.46</v>
       </c>
-      <c r="BR19" s="7">
+      <c r="BT19" s="7">
         <v>481.23</v>
       </c>
-      <c r="BS19" s="1"/>
-      <c r="BT19" s="1"/>
       <c r="BU19" s="1"/>
       <c r="BV19" s="1"/>
       <c r="BW19" s="1"/>
       <c r="BX19" s="1"/>
       <c r="BY19" s="1"/>
       <c r="BZ19" s="1"/>
+      <c r="CA19" s="1"/>
+      <c r="CB19" s="1"/>
     </row>
-    <row r="20" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="1">
+        <v>90128.34</v>
+      </c>
+      <c r="C20" s="1">
+        <v>82217</v>
+      </c>
+      <c r="D20" s="1">
         <v>77916.75</v>
       </c>
-      <c r="C20" s="1">
+      <c r="E20" s="1">
         <v>62046</v>
       </c>
-      <c r="D20" s="1">
+      <c r="F20" s="1">
         <v>76998.590401520007</v>
       </c>
-      <c r="E20" s="1">
+      <c r="G20" s="1">
         <v>82888</v>
       </c>
-      <c r="F20" s="1">
+      <c r="H20" s="1">
         <v>68809.10816470001</v>
       </c>
-      <c r="G20" s="1">
+      <c r="I20" s="1">
         <v>60452</v>
       </c>
-      <c r="H20" s="1">
+      <c r="J20" s="1">
         <v>61049.920840530001</v>
       </c>
-      <c r="I20" s="1">
+      <c r="K20" s="1">
         <v>54530.400000000001</v>
       </c>
-      <c r="J20" s="1">
+      <c r="L20" s="1">
         <v>50271.697652919996</v>
       </c>
-      <c r="K20" s="1">
+      <c r="M20" s="1">
         <v>45972</v>
       </c>
-      <c r="L20" s="1">
+      <c r="N20" s="1">
         <v>42214.042920929998</v>
       </c>
-      <c r="M20" s="1">
+      <c r="O20" s="1">
         <v>41592</v>
       </c>
-      <c r="N20" s="1">
+      <c r="P20" s="1">
         <v>37524.619250420001</v>
       </c>
-      <c r="O20" s="1">
+      <c r="Q20" s="1">
         <v>39805</v>
       </c>
-      <c r="P20" s="1">
+      <c r="R20" s="1">
         <v>33535.43486745</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="S20" s="1">
         <v>34206</v>
       </c>
-      <c r="R20" s="1">
+      <c r="T20" s="1">
         <v>23896.268675009997</v>
       </c>
-      <c r="S20" s="1">
+      <c r="U20" s="1">
         <v>25835</v>
       </c>
-      <c r="T20" s="1">
+      <c r="V20" s="1">
         <v>22872.771444809998</v>
       </c>
-      <c r="U20" s="1">
+      <c r="W20" s="1">
         <v>22667</v>
       </c>
-      <c r="V20" s="1">
+      <c r="X20" s="1">
         <v>21781.057408019995</v>
       </c>
-      <c r="W20" s="1">
+      <c r="Y20" s="1">
         <v>22604</v>
       </c>
-      <c r="X20" s="1">
+      <c r="Z20" s="1">
         <v>20637.497615910001</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="AA20" s="1">
         <v>20053</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="AB20" s="1">
         <v>19838.516794560001</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AC20" s="1">
         <v>19375.75</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AD20" s="1">
         <v>18785.819250378951</v>
-      </c>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1">
-        <v>16080.55603948</v>
       </c>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1">
+        <v>16080.55603948</v>
+      </c>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1">
         <v>17012.390413149998</v>
       </c>
-      <c r="AG20" s="1">
+      <c r="AI20" s="1">
         <v>15974.377039790001</v>
       </c>
-      <c r="AH20" s="1">
+      <c r="AJ20" s="1">
         <v>13866.040238700001</v>
       </c>
-      <c r="AI20" s="1">
+      <c r="AK20" s="1">
         <v>12862.465667049999</v>
       </c>
-      <c r="AJ20" s="1">
+      <c r="AL20" s="1">
         <v>12504.430697190001</v>
       </c>
-      <c r="AK20" s="1">
+      <c r="AM20" s="1">
         <v>12997.312657289998</v>
       </c>
-      <c r="AL20" s="1">
+      <c r="AN20" s="1">
         <v>12533.1939279</v>
       </c>
-      <c r="AM20" s="1">
+      <c r="AO20" s="1">
         <v>12428.29168015</v>
       </c>
-      <c r="AN20" s="1">
+      <c r="AP20" s="1">
         <v>13412.341527160001</v>
       </c>
-      <c r="AO20" s="1">
+      <c r="AQ20" s="1">
         <v>11111.803663069999</v>
       </c>
-      <c r="AP20" s="1">
+      <c r="AR20" s="1">
         <v>10135.76965201</v>
       </c>
-      <c r="AQ20" s="1">
+      <c r="AS20" s="1">
         <v>9674.6744220299988</v>
       </c>
-      <c r="AR20" s="1">
+      <c r="AT20" s="1">
         <v>8241.5796645199989</v>
       </c>
-      <c r="AS20" s="1">
+      <c r="AU20" s="1">
         <v>8210.3186755499992</v>
       </c>
-      <c r="AT20" s="1">
+      <c r="AV20" s="1">
         <v>7751.7137267999997</v>
       </c>
-      <c r="AU20" s="1">
+      <c r="AW20" s="1">
         <v>5648.47071134</v>
       </c>
-      <c r="AV20" s="1">
+      <c r="AX20" s="1">
         <v>4276.8021044300003</v>
       </c>
-      <c r="AW20" s="1">
+      <c r="AY20" s="1">
         <v>3420.1555965200005</v>
       </c>
-      <c r="AX20" s="1">
+      <c r="AZ20" s="1">
         <v>3710.95435967</v>
       </c>
-      <c r="AY20" s="1">
+      <c r="BA20" s="1">
         <v>2637.3895677800001</v>
       </c>
-      <c r="AZ20" s="1">
+      <c r="BB20" s="1">
         <v>2778.49</v>
       </c>
-      <c r="BA20" s="1">
+      <c r="BC20" s="1">
         <v>2383.86</v>
       </c>
-      <c r="BB20" s="1">
+      <c r="BD20" s="1">
         <v>1482.64</v>
       </c>
-      <c r="BC20" s="1">
+      <c r="BE20" s="1">
         <v>1220.29</v>
       </c>
-      <c r="BD20" s="1">
+      <c r="BF20" s="1">
         <v>872.79</v>
       </c>
-      <c r="BE20" s="1">
+      <c r="BG20" s="1">
         <v>694.59</v>
       </c>
-      <c r="BF20" s="1">
+      <c r="BH20" s="1">
         <v>619.52</v>
       </c>
-      <c r="BG20" s="1">
+      <c r="BI20" s="1">
         <v>544.14</v>
       </c>
-      <c r="BH20" s="1">
+      <c r="BJ20" s="1">
         <v>456.33</v>
       </c>
-      <c r="BI20" s="1"/>
-      <c r="BJ20" s="1"/>
       <c r="BK20" s="1"/>
       <c r="BL20" s="1"/>
       <c r="BM20" s="1"/>
@@ -4566,186 +4676,192 @@
       <c r="BX20" s="1"/>
       <c r="BY20" s="1"/>
       <c r="BZ20" s="1"/>
+      <c r="CA20" s="1"/>
+      <c r="CB20" s="1"/>
     </row>
-    <row r="21" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="1">
+        <v>176486.48</v>
+      </c>
+      <c r="C21" s="1">
+        <v>172343</v>
+      </c>
+      <c r="D21" s="1">
         <v>149651.04999999999</v>
       </c>
-      <c r="C21" s="1">
+      <c r="E21" s="1">
         <v>139509</v>
       </c>
-      <c r="D21" s="1">
+      <c r="F21" s="1">
         <v>147632.56010222004</v>
       </c>
-      <c r="E21" s="1">
+      <c r="G21" s="1">
         <v>159048</v>
       </c>
-      <c r="F21" s="1">
+      <c r="H21" s="1">
         <v>136005.4512866</v>
       </c>
-      <c r="G21" s="1">
+      <c r="I21" s="1">
         <v>143151</v>
       </c>
-      <c r="H21" s="1">
+      <c r="J21" s="1">
         <v>125910.34550882001</v>
       </c>
-      <c r="I21" s="1">
+      <c r="K21" s="1">
         <v>110663.1</v>
       </c>
-      <c r="J21" s="1">
+      <c r="L21" s="1">
         <v>95054.756636689999</v>
       </c>
-      <c r="K21" s="1">
+      <c r="M21" s="1">
         <v>104407</v>
       </c>
-      <c r="L21" s="1">
+      <c r="N21" s="1">
         <v>99504.981223619994</v>
       </c>
-      <c r="M21" s="1">
+      <c r="O21" s="1">
         <v>77481</v>
       </c>
-      <c r="N21" s="1">
+      <c r="P21" s="1">
         <v>82336.393292049994</v>
       </c>
-      <c r="O21" s="1">
+      <c r="Q21" s="1">
         <v>65368</v>
       </c>
-      <c r="P21" s="1">
+      <c r="R21" s="1">
         <v>71608.36554975</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="S21" s="1">
         <v>51655</v>
       </c>
-      <c r="R21" s="1">
+      <c r="T21" s="1">
         <v>32942.109893100001</v>
       </c>
-      <c r="S21" s="1">
+      <c r="U21" s="1">
         <v>30266</v>
       </c>
-      <c r="T21" s="1">
+      <c r="V21" s="1">
         <v>25997.488153210001</v>
       </c>
-      <c r="U21" s="1">
+      <c r="W21" s="1">
         <v>28680</v>
       </c>
-      <c r="V21" s="1">
+      <c r="X21" s="1">
         <v>31719.700522470001</v>
       </c>
-      <c r="W21" s="1">
+      <c r="Y21" s="1">
         <v>25813</v>
       </c>
-      <c r="X21" s="1">
+      <c r="Z21" s="1">
         <v>24229.804466459998</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="AA21" s="1">
         <v>25304</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="AB21" s="1">
         <v>27554.87793096</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AC21" s="1">
         <v>25462.75</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AD21" s="1">
         <v>23195.208750394777</v>
-      </c>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1">
-        <v>26808.231620340004</v>
       </c>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1">
+        <v>26808.231620340004</v>
+      </c>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1">
         <v>23702.165725880001</v>
       </c>
-      <c r="AG21" s="1">
+      <c r="AI21" s="1">
         <v>23061.63303139</v>
       </c>
-      <c r="AH21" s="1">
+      <c r="AJ21" s="1">
         <v>19971.95143031</v>
       </c>
-      <c r="AI21" s="1">
+      <c r="AK21" s="1">
         <v>20063.784963050002</v>
       </c>
-      <c r="AJ21" s="1">
+      <c r="AL21" s="1">
         <v>19352.154632100002</v>
       </c>
-      <c r="AK21" s="1">
+      <c r="AM21" s="1">
         <v>17416.684294739996</v>
       </c>
-      <c r="AL21" s="1">
+      <c r="AN21" s="1">
         <v>16530.754564520001</v>
       </c>
-      <c r="AM21" s="1">
+      <c r="AO21" s="1">
         <v>16766.463061300001</v>
       </c>
-      <c r="AN21" s="1">
+      <c r="AP21" s="1">
         <v>15915.440060919998</v>
       </c>
-      <c r="AO21" s="1">
+      <c r="AQ21" s="1">
         <v>15001.98091068</v>
       </c>
-      <c r="AP21" s="1">
+      <c r="AR21" s="1">
         <v>13801.074842560001</v>
       </c>
-      <c r="AQ21" s="1">
+      <c r="AS21" s="1">
         <v>11703.466913080001</v>
       </c>
-      <c r="AR21" s="1">
+      <c r="AT21" s="1">
         <v>10288.828526899999</v>
       </c>
-      <c r="AS21" s="1">
+      <c r="AU21" s="1">
         <v>8791.6405477799999</v>
       </c>
-      <c r="AT21" s="1">
+      <c r="AV21" s="1">
         <v>7999.0658102699999</v>
       </c>
-      <c r="AU21" s="1">
+      <c r="AW21" s="1">
         <v>7146.6285968499997</v>
       </c>
-      <c r="AV21" s="1">
+      <c r="AX21" s="1">
         <v>6306.9835670399998</v>
       </c>
-      <c r="AW21" s="1">
+      <c r="AY21" s="1">
         <v>5918.2799229600005</v>
       </c>
-      <c r="AX21" s="1">
+      <c r="AZ21" s="1">
         <v>6871.8805535000001</v>
       </c>
-      <c r="AY21" s="1">
+      <c r="BA21" s="1">
         <v>5120.5365344799993</v>
       </c>
-      <c r="AZ21" s="1">
+      <c r="BB21" s="1">
         <v>3023.32</v>
       </c>
-      <c r="BA21" s="1">
+      <c r="BC21" s="1">
         <v>2187.31</v>
       </c>
-      <c r="BB21" s="1">
+      <c r="BD21" s="1">
         <v>1865.5</v>
       </c>
-      <c r="BC21" s="1">
+      <c r="BE21" s="1">
         <v>1601.67</v>
       </c>
-      <c r="BD21" s="1">
+      <c r="BF21" s="1">
         <v>1484.06</v>
       </c>
-      <c r="BE21" s="1">
+      <c r="BG21" s="1">
         <v>1350.87</v>
       </c>
-      <c r="BF21" s="1">
+      <c r="BH21" s="1">
         <v>1205.75</v>
       </c>
-      <c r="BG21" s="1">
+      <c r="BI21" s="1">
         <v>874.56</v>
       </c>
-      <c r="BH21" s="1">
+      <c r="BJ21" s="1">
         <v>732.97</v>
       </c>
-      <c r="BI21" s="1"/>
-      <c r="BJ21" s="1"/>
       <c r="BK21" s="1"/>
       <c r="BL21" s="1"/>
       <c r="BM21" s="1"/>
@@ -4762,186 +4878,192 @@
       <c r="BX21" s="1"/>
       <c r="BY21" s="1"/>
       <c r="BZ21" s="1"/>
+      <c r="CA21" s="1"/>
+      <c r="CB21" s="1"/>
     </row>
-    <row r="22" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="1">
+        <v>7369.99</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5903</v>
+      </c>
+      <c r="D22" s="1">
         <v>27602.07</v>
       </c>
-      <c r="C22" s="1">
+      <c r="E22" s="1">
         <v>49703</v>
       </c>
-      <c r="D22" s="1">
+      <c r="F22" s="1">
         <v>42708.761940669996</v>
       </c>
-      <c r="E22" s="1">
+      <c r="G22" s="1">
         <v>73352</v>
       </c>
-      <c r="F22" s="1">
+      <c r="H22" s="1">
         <v>39002.442392490004</v>
       </c>
-      <c r="G22" s="1">
+      <c r="I22" s="1">
         <v>68918</v>
       </c>
-      <c r="H22" s="1">
+      <c r="J22" s="1">
         <v>15511.622283939998</v>
       </c>
-      <c r="I22" s="1">
+      <c r="K22" s="1">
         <v>14145.1</v>
       </c>
-      <c r="J22" s="1">
+      <c r="L22" s="1">
         <v>13110.761381320001</v>
       </c>
-      <c r="K22" s="1">
+      <c r="M22" s="1">
         <v>12810</v>
       </c>
-      <c r="L22" s="1">
+      <c r="N22" s="1">
         <v>11887.851222709998</v>
       </c>
-      <c r="M22" s="1">
+      <c r="O22" s="1">
         <v>14566</v>
       </c>
-      <c r="N22" s="1">
+      <c r="P22" s="1">
         <v>9418.8849195499988</v>
       </c>
-      <c r="O22" s="1">
+      <c r="Q22" s="1">
         <v>12110</v>
       </c>
-      <c r="P22" s="1">
+      <c r="R22" s="1">
         <v>8502.7919091200001</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="S22" s="1">
         <v>11264</v>
       </c>
-      <c r="R22" s="1">
+      <c r="T22" s="1">
         <v>10158.693754579999</v>
       </c>
-      <c r="S22" s="1">
+      <c r="U22" s="1">
         <v>10108</v>
       </c>
-      <c r="T22" s="1">
+      <c r="V22" s="1">
         <v>9962.6833919399978</v>
       </c>
-      <c r="U22" s="1">
+      <c r="W22" s="1">
         <v>9391</v>
       </c>
-      <c r="V22" s="1">
+      <c r="X22" s="1">
         <v>9832.0084281299987</v>
       </c>
-      <c r="W22" s="1">
+      <c r="Y22" s="1">
         <v>10811</v>
       </c>
-      <c r="X22" s="1">
+      <c r="Z22" s="1">
         <v>12772.050900390001</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="AA22" s="1">
         <v>10623</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="AB22" s="1">
         <v>11380.153836150001</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AC22" s="1">
         <v>10759.11</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AD22" s="1">
         <v>10036.017916274099</v>
-      </c>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1">
-        <v>12956.255331980001</v>
       </c>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1">
+        <v>12956.255331980001</v>
+      </c>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1">
         <v>18709.007016610001</v>
       </c>
-      <c r="AG22" s="1">
+      <c r="AI22" s="1">
         <v>18208.6116482</v>
       </c>
-      <c r="AH22" s="1">
+      <c r="AJ22" s="1">
         <v>21342.535151419997</v>
       </c>
-      <c r="AI22" s="1">
+      <c r="AK22" s="1">
         <v>21956.91715804</v>
       </c>
-      <c r="AJ22" s="1">
+      <c r="AL22" s="1">
         <v>24688.160207770001</v>
       </c>
-      <c r="AK22" s="1">
+      <c r="AM22" s="1">
         <v>28297.112502119999</v>
       </c>
-      <c r="AL22" s="1">
+      <c r="AN22" s="1">
         <v>29981.381545480002</v>
       </c>
-      <c r="AM22" s="1">
+      <c r="AO22" s="1">
         <v>30757.577009909997</v>
       </c>
-      <c r="AN22" s="1">
+      <c r="AP22" s="1">
         <v>29271.960569250001</v>
       </c>
-      <c r="AO22" s="1">
+      <c r="AQ22" s="1">
         <v>16147.981935489999</v>
       </c>
-      <c r="AP22" s="1">
+      <c r="AR22" s="1">
         <v>10618.839741579999</v>
       </c>
-      <c r="AQ22" s="1">
+      <c r="AS22" s="1">
         <v>10630.399131370001</v>
       </c>
-      <c r="AR22" s="1">
+      <c r="AT22" s="1">
         <v>8678.9904589399994</v>
       </c>
-      <c r="AS22" s="1">
+      <c r="AU22" s="1">
         <v>8034.30878932</v>
       </c>
-      <c r="AT22" s="1">
+      <c r="AV22" s="1">
         <v>7168.6188698600008</v>
       </c>
-      <c r="AU22" s="1">
+      <c r="AW22" s="1">
         <v>13502.999443160001</v>
       </c>
-      <c r="AV22" s="1">
+      <c r="AX22" s="1">
         <v>9664.2297380499986</v>
       </c>
-      <c r="AW22" s="1">
+      <c r="AY22" s="1">
         <v>9734.7800086100015</v>
       </c>
-      <c r="AX22" s="1">
+      <c r="AZ22" s="1">
         <v>11908.881873819999</v>
       </c>
-      <c r="AY22" s="1">
+      <c r="BA22" s="1">
         <v>8512.9190920299989</v>
       </c>
-      <c r="AZ22" s="1">
+      <c r="BB22" s="1">
         <v>7390.07</v>
       </c>
-      <c r="BA22" s="1">
+      <c r="BC22" s="1">
         <v>5303.81</v>
       </c>
-      <c r="BB22" s="1">
+      <c r="BD22" s="1">
         <v>3123.04</v>
       </c>
-      <c r="BC22" s="1">
+      <c r="BE22" s="1">
         <v>2878.88</v>
       </c>
-      <c r="BD22" s="1">
+      <c r="BF22" s="1">
         <v>2727.31</v>
       </c>
-      <c r="BE22" s="1">
+      <c r="BG22" s="1">
         <v>2684.07</v>
       </c>
-      <c r="BF22" s="1">
+      <c r="BH22" s="1">
         <v>2238.7800000000002</v>
       </c>
-      <c r="BG22" s="1">
+      <c r="BI22" s="1">
         <v>2187.91</v>
       </c>
-      <c r="BH22" s="1">
+      <c r="BJ22" s="1">
         <v>1834.4</v>
       </c>
-      <c r="BI22" s="1"/>
-      <c r="BJ22" s="1"/>
       <c r="BK22" s="1"/>
       <c r="BL22" s="1"/>
       <c r="BM22" s="1"/>
@@ -4958,186 +5080,192 @@
       <c r="BX22" s="1"/>
       <c r="BY22" s="1"/>
       <c r="BZ22" s="1"/>
+      <c r="CA22" s="1"/>
+      <c r="CB22" s="1"/>
     </row>
-    <row r="23" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="1">
+        <v>35832.199999999997</v>
+      </c>
+      <c r="C23" s="1">
+        <v>37592</v>
+      </c>
+      <c r="D23" s="1">
         <v>35098.980000000003</v>
       </c>
-      <c r="C23" s="1">
+      <c r="E23" s="1">
         <v>31091</v>
       </c>
-      <c r="D23" s="1">
+      <c r="F23" s="1">
         <v>44474.596095370005</v>
       </c>
-      <c r="E23" s="1">
+      <c r="G23" s="1">
         <v>46073</v>
       </c>
-      <c r="F23" s="1">
+      <c r="H23" s="1">
         <v>41877.277406520006</v>
       </c>
-      <c r="G23" s="1">
+      <c r="I23" s="1">
         <v>54384</v>
       </c>
-      <c r="H23" s="1">
+      <c r="J23" s="1">
         <v>4769.8414587700008</v>
       </c>
-      <c r="I23" s="1">
+      <c r="K23" s="1">
         <v>2999.7</v>
       </c>
-      <c r="J23" s="1">
+      <c r="L23" s="1">
         <v>3309.6580729000002</v>
       </c>
-      <c r="K23" s="1">
+      <c r="M23" s="1">
         <v>3694</v>
       </c>
-      <c r="L23" s="1">
+      <c r="N23" s="1">
         <v>2633.3123712900001</v>
       </c>
-      <c r="M23" s="1">
+      <c r="O23" s="1">
         <v>3045</v>
       </c>
-      <c r="N23" s="1">
+      <c r="P23" s="1">
         <v>2832.1354835500001</v>
       </c>
-      <c r="O23" s="1">
+      <c r="Q23" s="1">
         <v>3869</v>
       </c>
-      <c r="P23" s="1">
+      <c r="R23" s="1">
         <v>2715.9584274500003</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="S23" s="1">
         <v>2652</v>
       </c>
-      <c r="R23" s="1">
+      <c r="T23" s="1">
         <v>3142.7269642999995</v>
       </c>
-      <c r="S23" s="1">
+      <c r="U23" s="1">
         <v>3089</v>
       </c>
-      <c r="T23" s="1">
+      <c r="V23" s="1">
         <v>2174.0714298100002</v>
       </c>
-      <c r="U23" s="1">
+      <c r="W23" s="1">
         <v>3037</v>
       </c>
-      <c r="V23" s="1">
+      <c r="X23" s="1">
         <v>2554.7798881500003</v>
       </c>
-      <c r="W23" s="1">
+      <c r="Y23" s="1">
         <v>2351</v>
       </c>
-      <c r="X23" s="1">
+      <c r="Z23" s="1">
         <v>2183.4883349400261</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="AA23" s="1">
         <v>2059</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="AB23" s="1">
         <v>1975.6230750499999</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AC23" s="1">
         <v>1979</v>
       </c>
-      <c r="AB23" s="1">
+      <c r="AD23" s="1">
         <v>2028.359120396568</v>
-      </c>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1">
-        <v>1914.44842124</v>
       </c>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1">
+        <v>1914.44842124</v>
+      </c>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1">
         <v>2133.9687232800002</v>
       </c>
-      <c r="AG23" s="1">
+      <c r="AI23" s="1">
         <v>2052.1140816699999</v>
       </c>
-      <c r="AH23" s="1">
+      <c r="AJ23" s="1">
         <v>1685.2538815400001</v>
       </c>
-      <c r="AI23" s="1">
+      <c r="AK23" s="1">
         <v>1960.1504975299999</v>
       </c>
-      <c r="AJ23" s="1">
+      <c r="AL23" s="1">
         <v>2024.0055722700001</v>
       </c>
-      <c r="AK23" s="1">
+      <c r="AM23" s="1">
         <v>2712.3392369099997</v>
       </c>
-      <c r="AL23" s="1">
+      <c r="AN23" s="1">
         <v>2466.69364245</v>
       </c>
-      <c r="AM23" s="1">
+      <c r="AO23" s="1">
         <v>2646.9821825399999</v>
       </c>
-      <c r="AN23" s="1">
+      <c r="AP23" s="1">
         <v>4259.1565441299999</v>
       </c>
-      <c r="AO23" s="1">
+      <c r="AQ23" s="1">
         <v>6000.4213279200003</v>
       </c>
-      <c r="AP23" s="1">
+      <c r="AR23" s="1">
         <v>4263.2860206699997</v>
       </c>
-      <c r="AQ23" s="1">
+      <c r="AS23" s="1">
         <v>3235.3181989099999</v>
       </c>
-      <c r="AR23" s="1">
+      <c r="AT23" s="1">
         <v>2890.2672933000003</v>
       </c>
-      <c r="AS23" s="1">
+      <c r="AU23" s="1">
         <v>2004.60676337</v>
       </c>
-      <c r="AT23" s="1">
+      <c r="AV23" s="1">
         <v>1613.03765434</v>
       </c>
-      <c r="AU23" s="1">
+      <c r="AW23" s="1">
         <v>1728.3151636500004</v>
       </c>
-      <c r="AV23" s="1">
+      <c r="AX23" s="1">
         <v>1424.1079172899999</v>
       </c>
-      <c r="AW23" s="1">
+      <c r="AY23" s="1">
         <v>507.96024045000001</v>
       </c>
-      <c r="AX23" s="1">
+      <c r="AZ23" s="1">
         <v>145.24506087999998</v>
       </c>
-      <c r="AY23" s="1">
+      <c r="BA23" s="1">
         <v>109.2797463</v>
       </c>
-      <c r="AZ23" s="1">
+      <c r="BB23" s="1">
         <v>76.19</v>
       </c>
-      <c r="BA23" s="1">
+      <c r="BC23" s="1">
         <v>24.36</v>
       </c>
-      <c r="BB23" s="1">
+      <c r="BD23" s="1">
         <v>7.72</v>
       </c>
-      <c r="BC23" s="1">
+      <c r="BE23" s="1">
         <v>9.11</v>
       </c>
-      <c r="BD23" s="1">
+      <c r="BF23" s="1">
         <v>5.91</v>
       </c>
-      <c r="BE23" s="1">
+      <c r="BG23" s="1">
         <v>7.71</v>
       </c>
-      <c r="BF23" s="1">
+      <c r="BH23" s="1">
         <v>8.8800000000000008</v>
       </c>
-      <c r="BG23" s="1">
+      <c r="BI23" s="1">
         <v>7.61</v>
       </c>
-      <c r="BH23" s="1">
+      <c r="BJ23" s="1">
         <v>6.36</v>
       </c>
-      <c r="BI23" s="1"/>
-      <c r="BJ23" s="1"/>
       <c r="BK23" s="1"/>
       <c r="BL23" s="1"/>
       <c r="BM23" s="1"/>
@@ -5154,186 +5282,192 @@
       <c r="BX23" s="1"/>
       <c r="BY23" s="1"/>
       <c r="BZ23" s="1"/>
+      <c r="CA23" s="1"/>
+      <c r="CB23" s="1"/>
     </row>
-    <row r="24" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="1">
+        <v>7872.23</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7163</v>
+      </c>
+      <c r="D24" s="1">
         <v>5900.3</v>
       </c>
-      <c r="C24" s="1">
+      <c r="E24" s="1">
         <v>4227</v>
       </c>
-      <c r="D24" s="1">
+      <c r="F24" s="1">
         <v>5452.766428429999</v>
       </c>
-      <c r="E24" s="1">
+      <c r="G24" s="1">
         <v>6438</v>
       </c>
-      <c r="F24" s="1">
+      <c r="H24" s="1">
         <v>4917.99041493</v>
       </c>
-      <c r="G24" s="1">
+      <c r="I24" s="1">
         <v>5899</v>
       </c>
-      <c r="H24" s="1">
+      <c r="J24" s="1">
         <v>2250.88196711</v>
       </c>
-      <c r="I24" s="1">
+      <c r="K24" s="1">
         <v>2690.3</v>
       </c>
-      <c r="J24" s="1">
+      <c r="L24" s="1">
         <v>1758.4500511399999</v>
       </c>
-      <c r="K24" s="1">
+      <c r="M24" s="1">
         <v>3837</v>
       </c>
-      <c r="L24" s="1">
+      <c r="N24" s="1">
         <v>2079.02046384</v>
       </c>
-      <c r="M24" s="1">
+      <c r="O24" s="1">
         <v>3754</v>
       </c>
-      <c r="N24" s="1">
+      <c r="P24" s="1">
         <v>3203.0499116399997</v>
       </c>
-      <c r="O24" s="1">
+      <c r="Q24" s="1">
         <v>3019</v>
       </c>
-      <c r="P24" s="1">
+      <c r="R24" s="1">
         <v>2493.5214158099998</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="S24" s="1">
         <v>2590</v>
       </c>
-      <c r="R24" s="1">
+      <c r="T24" s="1">
         <v>2206.08444237</v>
       </c>
-      <c r="S24" s="1">
+      <c r="U24" s="1">
         <v>1873</v>
       </c>
-      <c r="T24" s="1">
+      <c r="V24" s="1">
         <v>6985.7537999599999</v>
       </c>
-      <c r="U24" s="1">
+      <c r="W24" s="1">
         <v>1643</v>
       </c>
-      <c r="V24" s="1">
+      <c r="X24" s="1">
         <v>1305.9275632899999</v>
       </c>
-      <c r="W24" s="1">
+      <c r="Y24" s="1">
         <v>840</v>
       </c>
-      <c r="X24" s="1">
+      <c r="Z24" s="1">
         <v>718.77101091823999</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="AA24" s="1">
         <v>745</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="AB24" s="1">
         <v>660.31297514999994</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AC24" s="1">
         <v>846.79</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AD24" s="1">
         <v>942.14283519179799</v>
-      </c>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1">
-        <v>489.57032305000001</v>
       </c>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1">
+        <v>489.57032305000001</v>
+      </c>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1">
         <v>251.38157525</v>
       </c>
-      <c r="AG24" s="1">
+      <c r="AI24" s="1">
         <v>232.49521180000002</v>
       </c>
-      <c r="AH24" s="1">
+      <c r="AJ24" s="1">
         <v>155.77182474</v>
       </c>
-      <c r="AI24" s="1">
+      <c r="AK24" s="1">
         <v>151.92634781999999</v>
       </c>
-      <c r="AJ24" s="1">
+      <c r="AL24" s="1">
         <v>119.84906088</v>
       </c>
-      <c r="AK24" s="1">
+      <c r="AM24" s="1">
         <v>243.31401322999997</v>
       </c>
-      <c r="AL24" s="1">
+      <c r="AN24" s="1">
         <v>241.07091965000004</v>
       </c>
-      <c r="AM24" s="1">
+      <c r="AO24" s="1">
         <v>123.88841907</v>
       </c>
-      <c r="AN24" s="1">
+      <c r="AP24" s="1">
         <v>77.444841359999998</v>
       </c>
-      <c r="AO24" s="1">
+      <c r="AQ24" s="1">
         <v>43.510249510000001</v>
       </c>
-      <c r="AP24" s="1">
+      <c r="AR24" s="1">
         <v>142.82351498</v>
       </c>
-      <c r="AQ24" s="1">
+      <c r="AS24" s="1">
         <v>71.945836889999995</v>
       </c>
-      <c r="AR24" s="1">
+      <c r="AT24" s="1">
         <v>131.49649969000001</v>
       </c>
-      <c r="AS24" s="1">
+      <c r="AU24" s="1">
         <v>578.46769251000001</v>
       </c>
-      <c r="AT24" s="1">
+      <c r="AV24" s="1">
         <v>869.22723125000005</v>
       </c>
-      <c r="AU24" s="1">
+      <c r="AW24" s="1">
         <v>838.9258515800002</v>
       </c>
-      <c r="AV24" s="1">
+      <c r="AX24" s="1">
         <v>711.40746982999997</v>
       </c>
-      <c r="AW24" s="1">
+      <c r="AY24" s="1">
         <v>563.00294125000005</v>
       </c>
-      <c r="AX24" s="1">
+      <c r="AZ24" s="1">
         <v>337.83894028999998</v>
       </c>
-      <c r="AY24" s="1">
+      <c r="BA24" s="1">
         <v>128.25019069000001</v>
       </c>
-      <c r="AZ24" s="1">
+      <c r="BB24" s="1">
         <v>171.94</v>
       </c>
-      <c r="BA24" s="1">
+      <c r="BC24" s="1">
         <v>123.84</v>
       </c>
-      <c r="BB24" s="1">
+      <c r="BD24" s="1">
         <v>134.86000000000001</v>
       </c>
-      <c r="BC24" s="1">
+      <c r="BE24" s="1">
         <v>162.47999999999999</v>
       </c>
-      <c r="BD24" s="1">
+      <c r="BF24" s="1">
         <v>130.06</v>
       </c>
-      <c r="BE24" s="1">
+      <c r="BG24" s="1">
         <v>86.27</v>
       </c>
-      <c r="BF24" s="1">
+      <c r="BH24" s="1">
         <v>75.66</v>
       </c>
-      <c r="BG24" s="1">
+      <c r="BI24" s="1">
         <v>72.319999999999993</v>
       </c>
-      <c r="BH24" s="1">
+      <c r="BJ24" s="1">
         <v>52.22</v>
       </c>
-      <c r="BI24" s="1"/>
-      <c r="BJ24" s="1"/>
       <c r="BK24" s="1"/>
       <c r="BL24" s="1"/>
       <c r="BM24" s="1"/>
@@ -5350,8 +5484,10 @@
       <c r="BX24" s="1"/>
       <c r="BY24" s="1"/>
       <c r="BZ24" s="1"/>
+      <c r="CA24" s="1"/>
+      <c r="CB24" s="1"/>
     </row>
-    <row r="25" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -5375,121 +5511,121 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
-      <c r="V25" s="1">
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1">
         <v>9.8059606300000013</v>
-      </c>
-      <c r="W25" s="1">
-        <v>6</v>
-      </c>
-      <c r="X25" s="1">
-        <v>6.2793169899999999</v>
       </c>
       <c r="Y25" s="1">
         <v>6</v>
       </c>
       <c r="Z25" s="1">
+        <v>6.2793169899999999</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB25" s="1">
         <v>5.919194609999999</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AC25" s="1">
         <v>12.6</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AD25" s="1">
         <v>10.69786603</v>
-      </c>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1">
-        <v>5.3110168399999997</v>
       </c>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1">
+        <v>5.3110168399999997</v>
+      </c>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1">
         <v>6.9119992700000008</v>
       </c>
-      <c r="AG25" s="1">
+      <c r="AI25" s="1">
         <v>0.38886662999999999</v>
       </c>
-      <c r="AH25" s="1">
+      <c r="AJ25" s="1">
         <v>20.507188599999999</v>
       </c>
-      <c r="AI25" s="1">
+      <c r="AK25" s="1">
         <v>4.3574967100000004</v>
       </c>
-      <c r="AJ25" s="1">
+      <c r="AL25" s="1">
         <v>9.0400927299999996</v>
       </c>
-      <c r="AK25" s="1">
+      <c r="AM25" s="1">
         <v>10.635648380000001</v>
       </c>
-      <c r="AL25" s="1">
+      <c r="AN25" s="1">
         <v>10.929320279999999</v>
       </c>
-      <c r="AM25" s="1">
+      <c r="AO25" s="1">
         <v>31.681654569999999</v>
       </c>
-      <c r="AN25" s="1">
+      <c r="AP25" s="1">
         <v>111.92196916</v>
       </c>
-      <c r="AO25" s="1">
+      <c r="AQ25" s="1">
         <v>83.277831030000002</v>
       </c>
-      <c r="AP25" s="1">
+      <c r="AR25" s="1">
         <v>73.383921939999993</v>
       </c>
-      <c r="AQ25" s="1">
+      <c r="AS25" s="1">
         <v>59.374728299999994</v>
       </c>
-      <c r="AR25" s="1">
+      <c r="AT25" s="1">
         <v>10.327329499999999</v>
       </c>
-      <c r="AS25" s="1">
+      <c r="AU25" s="1">
         <v>9.9055835899999991</v>
       </c>
-      <c r="AT25" s="1">
+      <c r="AV25" s="1">
         <v>9.7068222500000001</v>
       </c>
-      <c r="AU25" s="1">
+      <c r="AW25" s="1">
         <v>9.3099967800000005</v>
       </c>
-      <c r="AV25" s="1">
+      <c r="AX25" s="1">
         <v>9.5226670000000002</v>
       </c>
-      <c r="AW25" s="1">
+      <c r="AY25" s="1">
         <v>9.8240497800000011</v>
       </c>
-      <c r="AX25" s="1">
+      <c r="AZ25" s="1">
         <v>9.2968711600000002</v>
       </c>
-      <c r="AY25" s="1">
+      <c r="BA25" s="1">
         <v>10.2654462</v>
       </c>
-      <c r="AZ25" s="1">
+      <c r="BB25" s="1">
         <v>7.52</v>
       </c>
-      <c r="BA25" s="1">
+      <c r="BC25" s="1">
         <v>9.75</v>
       </c>
-      <c r="BB25" s="1">
+      <c r="BD25" s="1">
         <v>5.49</v>
       </c>
-      <c r="BC25" s="1">
+      <c r="BE25" s="1">
         <v>7.76</v>
       </c>
-      <c r="BD25" s="1">
+      <c r="BF25" s="1">
         <v>9.34</v>
       </c>
-      <c r="BE25" s="1">
+      <c r="BG25" s="1">
         <v>8.3699999999999992</v>
       </c>
-      <c r="BF25" s="1">
+      <c r="BH25" s="1">
         <v>8.85</v>
       </c>
-      <c r="BG25" s="1">
+      <c r="BI25" s="1">
         <v>2.25</v>
       </c>
-      <c r="BH25" s="1">
+      <c r="BJ25" s="1">
         <v>6.34</v>
       </c>
-      <c r="BI25" s="1"/>
-      <c r="BJ25" s="1"/>
       <c r="BK25" s="1"/>
       <c r="BL25" s="1"/>
       <c r="BM25" s="1"/>
@@ -5506,8 +5642,10 @@
       <c r="BX25" s="1"/>
       <c r="BY25" s="1"/>
       <c r="BZ25" s="1"/>
+      <c r="CA25" s="1"/>
+      <c r="CB25" s="1"/>
     </row>
-    <row r="26" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -5557,14 +5695,14 @@
       <c r="AS26" s="1"/>
       <c r="AT26" s="1"/>
       <c r="AU26" s="1"/>
-      <c r="AV26" s="1">
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1">
         <v>2459.6120312500002</v>
       </c>
-      <c r="AW26" s="1">
+      <c r="AY26" s="1">
         <v>0</v>
       </c>
-      <c r="AX26" s="1"/>
-      <c r="AY26" s="1"/>
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
@@ -5592,8 +5730,10 @@
       <c r="BX26" s="1"/>
       <c r="BY26" s="1"/>
       <c r="BZ26" s="1"/>
+      <c r="CA26" s="1"/>
+      <c r="CB26" s="1"/>
     </row>
-    <row r="27" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -5645,23 +5785,23 @@
       <c r="AU27" s="1"/>
       <c r="AV27" s="1"/>
       <c r="AW27" s="1"/>
-      <c r="AX27" s="1">
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="1"/>
+      <c r="AZ27" s="1">
         <v>96.541811979999991</v>
       </c>
-      <c r="AY27" s="1">
+      <c r="BA27" s="1">
         <v>50.647785450000001</v>
       </c>
-      <c r="AZ27" s="1">
+      <c r="BB27" s="1">
         <v>70.34</v>
       </c>
-      <c r="BA27" s="1">
+      <c r="BC27" s="1">
         <v>165.49</v>
       </c>
-      <c r="BB27" s="1">
+      <c r="BD27" s="1">
         <v>137.62</v>
       </c>
-      <c r="BC27" s="1"/>
-      <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
       <c r="BF27" s="1"/>
       <c r="BG27" s="1"/>
@@ -5684,187 +5824,193 @@
       <c r="BX27" s="1"/>
       <c r="BY27" s="1"/>
       <c r="BZ27" s="1"/>
+      <c r="CA27" s="1"/>
+      <c r="CB27" s="1"/>
     </row>
-    <row r="28" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="7">
+        <v>385666.11</v>
+      </c>
+      <c r="C28" s="7">
+        <v>378721</v>
+      </c>
+      <c r="D28" s="7">
         <v>351849.5</v>
       </c>
-      <c r="C28" s="7">
+      <c r="E28" s="7">
         <v>350242</v>
       </c>
-      <c r="D28" s="7">
+      <c r="F28" s="7">
         <v>406084.08439190005</v>
       </c>
-      <c r="E28" s="7">
+      <c r="G28" s="7">
         <v>423545</v>
       </c>
-      <c r="F28" s="7">
+      <c r="H28" s="7">
         <v>358168.6306872</v>
       </c>
-      <c r="G28" s="7">
+      <c r="I28" s="7">
         <v>435877</v>
       </c>
-      <c r="H28" s="7">
+      <c r="J28" s="7">
         <v>365235.32623017998</v>
       </c>
-      <c r="I28" s="7">
+      <c r="K28" s="7">
         <v>364431.3</v>
       </c>
-      <c r="J28" s="7">
+      <c r="L28" s="7">
         <v>331414.45098551508</v>
       </c>
-      <c r="K28" s="7">
+      <c r="M28" s="7">
         <v>343544</v>
       </c>
-      <c r="L28" s="7">
+      <c r="N28" s="7">
         <v>295502.31677542004</v>
       </c>
-      <c r="M28" s="7">
+      <c r="O28" s="7">
         <v>373831</v>
       </c>
-      <c r="N28" s="7">
+      <c r="P28" s="7">
         <v>278793.76701648103</v>
       </c>
-      <c r="O28" s="7">
+      <c r="Q28" s="7">
         <v>325738</v>
       </c>
-      <c r="P28" s="7">
+      <c r="R28" s="7">
         <v>250148.93828968925</v>
       </c>
-      <c r="Q28" s="7">
+      <c r="S28" s="7">
         <v>268631</v>
       </c>
-      <c r="R28" s="7">
+      <c r="T28" s="7">
         <v>229594.34431344489</v>
       </c>
-      <c r="S28" s="7">
+      <c r="U28" s="7">
         <v>226185</v>
       </c>
-      <c r="T28" s="7">
+      <c r="V28" s="7">
         <v>183082.37072533465</v>
       </c>
-      <c r="U28" s="7">
+      <c r="W28" s="7">
         <v>198876</v>
       </c>
-      <c r="V28" s="7">
+      <c r="X28" s="7">
         <v>173283.50883365236</v>
       </c>
-      <c r="W28" s="7">
+      <c r="Y28" s="7">
         <v>212447</v>
       </c>
-      <c r="X28" s="7">
+      <c r="Z28" s="7">
         <v>168294.01968053539</v>
       </c>
-      <c r="Y28" s="7">
+      <c r="AA28" s="7">
         <v>168679</v>
       </c>
-      <c r="Z28" s="7">
+      <c r="AB28" s="7">
         <v>140318.43641990973</v>
       </c>
-      <c r="AA28" s="7">
+      <c r="AC28" s="7">
         <v>204879</v>
       </c>
-      <c r="AB28" s="7">
+      <c r="AD28" s="7">
         <v>145013.27658261301</v>
       </c>
-      <c r="AC28" s="7">
+      <c r="AE28" s="7">
         <v>183253.5</v>
       </c>
-      <c r="AD28" s="7">
+      <c r="AF28" s="7">
         <v>140934.01525989838</v>
       </c>
-      <c r="AE28" s="7">
+      <c r="AG28" s="7">
         <v>145348</v>
       </c>
-      <c r="AF28" s="7">
+      <c r="AH28" s="7">
         <v>87854.536380957987</v>
       </c>
-      <c r="AG28" s="7">
+      <c r="AI28" s="7">
         <v>80216.033075779342</v>
       </c>
-      <c r="AH28" s="7">
+      <c r="AJ28" s="7">
         <v>82633.263291893862</v>
       </c>
-      <c r="AI28" s="7">
+      <c r="AK28" s="7">
         <v>65928.864006313815</v>
       </c>
-      <c r="AJ28" s="7">
+      <c r="AL28" s="7">
         <v>59238.778816430124</v>
       </c>
-      <c r="AK28" s="7">
+      <c r="AM28" s="7">
         <v>53878.962741303607</v>
       </c>
-      <c r="AL28" s="7">
+      <c r="AN28" s="7">
         <v>55150.189636026262</v>
       </c>
-      <c r="AM28" s="7">
+      <c r="AO28" s="7">
         <v>47538.826956242694</v>
       </c>
-      <c r="AN28" s="7">
+      <c r="AP28" s="7">
         <v>47273.10247800604</v>
       </c>
-      <c r="AO28" s="7">
+      <c r="AQ28" s="7">
         <v>40926.588930348968</v>
       </c>
-      <c r="AP28" s="7">
+      <c r="AR28" s="7">
         <v>29574.475267849997</v>
       </c>
-      <c r="AQ28" s="7">
+      <c r="AS28" s="7">
         <v>25457.83948929</v>
       </c>
-      <c r="AR28" s="7">
+      <c r="AT28" s="7">
         <v>22750.931747539998</v>
       </c>
-      <c r="AS28" s="7">
+      <c r="AU28" s="7">
         <v>18112.850337239997</v>
       </c>
-      <c r="AT28" s="7">
+      <c r="AV28" s="7">
         <v>15095.73852445</v>
       </c>
-      <c r="AU28" s="7">
+      <c r="AW28" s="7">
         <v>13079.148296189998</v>
       </c>
-      <c r="AV28" s="7">
+      <c r="AX28" s="7">
         <v>10134.490672350001</v>
       </c>
-      <c r="AW28" s="7">
+      <c r="AY28" s="7">
         <v>7146.7560225500001</v>
       </c>
-      <c r="AX28" s="7">
+      <c r="AZ28" s="7">
         <v>5931.2239944900002</v>
       </c>
-      <c r="AY28" s="7">
+      <c r="BA28" s="7">
         <v>3711.9317205500001</v>
       </c>
-      <c r="AZ28" s="7">
+      <c r="BB28" s="7">
         <v>2995.6</v>
       </c>
-      <c r="BA28" s="7">
+      <c r="BC28" s="7">
         <v>2947.17</v>
       </c>
-      <c r="BB28" s="7">
+      <c r="BD28" s="7">
         <v>2257.64</v>
       </c>
-      <c r="BC28" s="7">
+      <c r="BE28" s="7">
         <v>2199.69</v>
       </c>
-      <c r="BD28" s="7">
+      <c r="BF28" s="7">
         <v>2242.19</v>
       </c>
-      <c r="BE28" s="7">
+      <c r="BG28" s="7">
         <v>2294.8200000000002</v>
       </c>
-      <c r="BF28" s="7">
+      <c r="BH28" s="7">
         <v>1857.65</v>
       </c>
-      <c r="BG28" s="7">
+      <c r="BI28" s="7">
         <v>1215.02</v>
       </c>
-      <c r="BH28" s="7"/>
-      <c r="BI28" s="7"/>
       <c r="BJ28" s="7"/>
       <c r="BK28" s="7"/>
       <c r="BL28" s="7"/>
@@ -5874,414 +6020,426 @@
       <c r="BP28" s="7"/>
       <c r="BQ28" s="7"/>
       <c r="BR28" s="7"/>
-      <c r="BS28" s="1"/>
-      <c r="BT28" s="1"/>
+      <c r="BS28" s="7"/>
+      <c r="BT28" s="7"/>
       <c r="BU28" s="1"/>
       <c r="BV28" s="1"/>
       <c r="BW28" s="1"/>
       <c r="BX28" s="1"/>
       <c r="BY28" s="1"/>
       <c r="BZ28" s="1"/>
+      <c r="CA28" s="1"/>
+      <c r="CB28" s="1"/>
     </row>
-    <row r="29" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="7">
+        <v>134193.69</v>
+      </c>
+      <c r="C29" s="7">
+        <v>127860</v>
+      </c>
+      <c r="D29" s="7">
         <v>117609.25</v>
       </c>
-      <c r="C29" s="7">
+      <c r="E29" s="7">
         <v>118699</v>
       </c>
-      <c r="D29" s="7">
+      <c r="F29" s="7">
         <v>133851.14991544999</v>
       </c>
-      <c r="E29" s="7">
+      <c r="G29" s="7">
         <v>95091</v>
       </c>
-      <c r="F29" s="7">
+      <c r="H29" s="7">
         <v>114037.67169915998</v>
       </c>
-      <c r="G29" s="7">
+      <c r="I29" s="7">
         <v>97686</v>
       </c>
-      <c r="H29" s="7">
+      <c r="J29" s="7">
         <v>76601.055879477863</v>
       </c>
-      <c r="I29" s="7">
+      <c r="K29" s="7">
         <v>73346.2</v>
       </c>
-      <c r="J29" s="7">
+      <c r="L29" s="7">
         <v>65128.458906946711</v>
       </c>
-      <c r="K29" s="7">
+      <c r="M29" s="7">
         <v>66476</v>
       </c>
-      <c r="L29" s="7">
+      <c r="N29" s="7">
         <v>58990.354024265558</v>
       </c>
-      <c r="M29" s="7">
+      <c r="O29" s="7">
         <v>79142</v>
       </c>
-      <c r="N29" s="7">
+      <c r="P29" s="7">
         <v>56488.755146937554</v>
       </c>
-      <c r="O29" s="7">
+      <c r="Q29" s="7">
         <v>72408</v>
       </c>
-      <c r="P29" s="7">
+      <c r="R29" s="7">
         <v>60807.121309953174</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="S29" s="7">
         <v>60732</v>
       </c>
-      <c r="R29" s="7">
+      <c r="T29" s="7">
         <v>52571.372454347053</v>
       </c>
-      <c r="S29" s="7">
+      <c r="U29" s="7">
         <v>60185</v>
       </c>
-      <c r="T29" s="7">
+      <c r="V29" s="7">
         <v>47012.31881829795</v>
       </c>
-      <c r="U29" s="7">
+      <c r="W29" s="7">
         <v>50819</v>
       </c>
-      <c r="V29" s="7">
+      <c r="X29" s="7">
         <v>44510.355010463776</v>
       </c>
-      <c r="W29" s="7">
+      <c r="Y29" s="7">
         <v>46739</v>
       </c>
-      <c r="X29" s="7">
+      <c r="Z29" s="7">
         <v>42837.84777056436</v>
       </c>
-      <c r="Y29" s="7">
+      <c r="AA29" s="7">
         <v>44147</v>
       </c>
-      <c r="Z29" s="7">
+      <c r="AB29" s="7">
         <v>40813.996050205089</v>
       </c>
-      <c r="AA29" s="7">
+      <c r="AC29" s="7">
         <v>50432</v>
       </c>
-      <c r="AB29" s="7">
+      <c r="AD29" s="7">
         <v>41095.880227893853</v>
       </c>
-      <c r="AC29" s="7">
+      <c r="AE29" s="7">
         <v>46778</v>
       </c>
-      <c r="AD29" s="7">
+      <c r="AF29" s="7">
         <v>37946.515942982107</v>
       </c>
-      <c r="AE29" s="7">
+      <c r="AG29" s="7">
         <v>37375</v>
       </c>
-      <c r="AF29" s="7">
+      <c r="AH29" s="7">
         <v>34464.15332339453</v>
       </c>
-      <c r="AG29" s="7">
+      <c r="AI29" s="7">
         <v>27952.214713915739</v>
       </c>
-      <c r="AH29" s="7">
+      <c r="AJ29" s="7">
         <v>18894.154481577105</v>
       </c>
-      <c r="AI29" s="7">
+      <c r="AK29" s="7">
         <v>24017.594026620882</v>
       </c>
-      <c r="AJ29" s="7">
+      <c r="AL29" s="7">
         <v>27807.020541896793</v>
       </c>
-      <c r="AK29" s="7">
+      <c r="AM29" s="7">
         <v>24523.173575970697</v>
       </c>
-      <c r="AL29" s="7">
+      <c r="AN29" s="7">
         <v>22043.390977433046</v>
       </c>
-      <c r="AM29" s="7">
+      <c r="AO29" s="7">
         <v>20327.341596990002</v>
       </c>
-      <c r="AN29" s="7">
+      <c r="AP29" s="7">
         <v>20399.14421507073</v>
       </c>
-      <c r="AO29" s="7">
+      <c r="AQ29" s="7">
         <v>18373.957434193573</v>
       </c>
-      <c r="AP29" s="7">
+      <c r="AR29" s="7">
         <v>17497.243693973614</v>
       </c>
-      <c r="AQ29" s="7">
+      <c r="AS29" s="7">
         <v>16062.65016813</v>
       </c>
-      <c r="AR29" s="7">
+      <c r="AT29" s="7">
         <v>10797.322026939999</v>
       </c>
-      <c r="AS29" s="7">
+      <c r="AU29" s="7">
         <v>9681.7788061499996</v>
       </c>
-      <c r="AT29" s="7">
+      <c r="AV29" s="7">
         <v>9225.3771869200009</v>
       </c>
-      <c r="AU29" s="7">
+      <c r="AW29" s="7">
         <v>7186.6866049399996</v>
       </c>
-      <c r="AV29" s="7">
+      <c r="AX29" s="7">
         <v>5488.5708061800005</v>
       </c>
-      <c r="AW29" s="7">
+      <c r="AY29" s="7">
         <v>4170.4994641499998</v>
       </c>
-      <c r="AX29" s="7">
+      <c r="AZ29" s="7">
         <v>5757.0145778300002</v>
       </c>
-      <c r="AY29" s="7">
+      <c r="BA29" s="7">
         <v>5348.0358205100001</v>
       </c>
-      <c r="AZ29" s="7">
+      <c r="BB29" s="7">
         <v>4357.66</v>
       </c>
-      <c r="BA29" s="7">
+      <c r="BC29" s="7">
         <v>3521.03</v>
       </c>
-      <c r="BB29" s="7">
+      <c r="BD29" s="7">
         <v>2618.9899999999998</v>
       </c>
-      <c r="BC29" s="7">
+      <c r="BE29" s="7">
         <v>2540.21</v>
       </c>
-      <c r="BD29" s="7">
+      <c r="BF29" s="7">
         <v>2408.8000000000002</v>
       </c>
-      <c r="BE29" s="7">
+      <c r="BG29" s="7">
         <v>2203.7399999999998</v>
       </c>
-      <c r="BF29" s="7">
+      <c r="BH29" s="7">
         <v>1794.77</v>
       </c>
-      <c r="BG29" s="7">
+      <c r="BI29" s="7">
         <v>1305.95</v>
       </c>
-      <c r="BH29" s="7">
+      <c r="BJ29" s="7">
         <v>1144.74</v>
       </c>
-      <c r="BI29" s="7">
+      <c r="BK29" s="7">
         <v>96.88</v>
       </c>
-      <c r="BJ29" s="7">
+      <c r="BL29" s="7">
         <v>103</v>
       </c>
-      <c r="BK29" s="7">
+      <c r="BM29" s="7">
         <v>105.01</v>
       </c>
-      <c r="BL29" s="7">
+      <c r="BN29" s="7">
         <v>96.34</v>
       </c>
-      <c r="BM29" s="7">
+      <c r="BO29" s="7">
         <v>81.36</v>
       </c>
-      <c r="BN29" s="7">
+      <c r="BP29" s="7">
         <v>66.66</v>
       </c>
-      <c r="BO29" s="7">
+      <c r="BQ29" s="7">
         <v>52.97</v>
       </c>
-      <c r="BP29" s="7">
+      <c r="BR29" s="7">
         <v>41.29</v>
       </c>
-      <c r="BQ29" s="7">
+      <c r="BS29" s="7">
         <v>37.299999999999997</v>
       </c>
-      <c r="BR29" s="7">
+      <c r="BT29" s="7">
         <v>34.86</v>
       </c>
-      <c r="BS29" s="1"/>
-      <c r="BT29" s="1"/>
       <c r="BU29" s="1"/>
       <c r="BV29" s="1"/>
       <c r="BW29" s="1"/>
       <c r="BX29" s="1"/>
       <c r="BY29" s="1"/>
       <c r="BZ29" s="1"/>
+      <c r="CA29" s="1"/>
+      <c r="CB29" s="1"/>
     </row>
-    <row r="30" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="1">
+        <v>46254.82</v>
+      </c>
+      <c r="C30" s="1">
+        <v>47137</v>
+      </c>
+      <c r="D30" s="1">
         <v>42903.91</v>
       </c>
-      <c r="C30" s="1">
+      <c r="E30" s="1">
         <v>39986</v>
       </c>
-      <c r="D30" s="1">
+      <c r="F30" s="1">
         <v>48709.444089059994</v>
       </c>
-      <c r="E30" s="1">
+      <c r="G30" s="1">
         <v>38404</v>
       </c>
-      <c r="F30" s="1">
+      <c r="H30" s="1">
         <v>30793.796057539996</v>
       </c>
-      <c r="G30" s="1">
+      <c r="I30" s="1">
         <v>37377</v>
       </c>
-      <c r="H30" s="1">
+      <c r="J30" s="1">
         <v>31871.317373375656</v>
       </c>
-      <c r="I30" s="1">
+      <c r="K30" s="1">
         <v>33873.1</v>
       </c>
-      <c r="J30" s="1">
+      <c r="L30" s="1">
         <v>28156.286857260202</v>
       </c>
-      <c r="K30" s="1">
+      <c r="M30" s="1">
         <v>30512</v>
       </c>
-      <c r="L30" s="1">
+      <c r="N30" s="1">
         <v>25578.384178347205</v>
       </c>
-      <c r="M30" s="1">
+      <c r="O30" s="1">
         <v>39677</v>
       </c>
-      <c r="N30" s="1">
+      <c r="P30" s="1">
         <v>25492.473228808696</v>
       </c>
-      <c r="O30" s="1">
+      <c r="Q30" s="1">
         <v>34562</v>
       </c>
-      <c r="P30" s="1">
+      <c r="R30" s="1">
         <v>29209.190349035191</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="S30" s="1">
         <v>28568</v>
       </c>
-      <c r="R30" s="1">
+      <c r="T30" s="1">
         <v>24503.780614774605</v>
       </c>
-      <c r="S30" s="1">
+      <c r="U30" s="1">
         <v>28582</v>
       </c>
-      <c r="T30" s="1">
+      <c r="V30" s="1">
         <v>22719.055328225524</v>
       </c>
-      <c r="U30" s="1">
+      <c r="W30" s="1">
         <v>25263</v>
       </c>
-      <c r="V30" s="1">
+      <c r="X30" s="1">
         <v>21716.599353576439</v>
       </c>
-      <c r="W30" s="1">
+      <c r="Y30" s="1">
         <v>21662</v>
       </c>
-      <c r="X30" s="1">
+      <c r="Z30" s="1">
         <v>19934.898502142423</v>
       </c>
-      <c r="Y30" s="1">
+      <c r="AA30" s="1">
         <v>20466</v>
       </c>
-      <c r="Z30" s="1">
+      <c r="AB30" s="1">
         <v>19266.449945021974</v>
       </c>
-      <c r="AA30" s="1">
+      <c r="AC30" s="1">
         <v>21916</v>
       </c>
-      <c r="AB30" s="1">
+      <c r="AD30" s="1">
         <v>17603.08020718714</v>
-      </c>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1">
-        <v>16826.004015942002</v>
       </c>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1">
+        <v>16826.004015942002</v>
+      </c>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1">
         <v>12436.146894093299</v>
       </c>
-      <c r="AG30" s="1">
+      <c r="AI30" s="1">
         <v>10322.917199242274</v>
       </c>
-      <c r="AH30" s="1">
+      <c r="AJ30" s="1">
         <v>3071.0617077860161</v>
       </c>
-      <c r="AI30" s="1">
+      <c r="AK30" s="1">
         <v>9645.4625285287784</v>
       </c>
-      <c r="AJ30" s="1">
+      <c r="AL30" s="1">
         <v>12103.446089199044</v>
       </c>
-      <c r="AK30" s="1">
+      <c r="AM30" s="1">
         <v>8806.4891288885501</v>
       </c>
-      <c r="AL30" s="1">
+      <c r="AN30" s="1">
         <v>8046.1197480821675</v>
       </c>
-      <c r="AM30" s="1">
+      <c r="AO30" s="1">
         <v>11571.928457176033</v>
       </c>
-      <c r="AN30" s="1">
+      <c r="AP30" s="1">
         <v>9350.0699817909663</v>
       </c>
-      <c r="AO30" s="1">
+      <c r="AQ30" s="1">
         <v>7631.1348141684093</v>
       </c>
-      <c r="AP30" s="1">
+      <c r="AR30" s="1">
         <v>5095.2297730904811</v>
       </c>
-      <c r="AQ30" s="1">
+      <c r="AS30" s="1">
         <v>6734.3670816099993</v>
       </c>
-      <c r="AR30" s="1">
+      <c r="AT30" s="1">
         <v>3980.9305050999992</v>
       </c>
-      <c r="AS30" s="1">
+      <c r="AU30" s="1">
         <v>3737.1782183699997</v>
       </c>
-      <c r="AT30" s="1">
+      <c r="AV30" s="1">
         <v>3696.0033289799999</v>
       </c>
-      <c r="AU30" s="1">
+      <c r="AW30" s="1">
         <v>2617.0897466199999</v>
       </c>
-      <c r="AV30" s="1">
+      <c r="AX30" s="1">
         <v>1666.38856551</v>
       </c>
-      <c r="AW30" s="1">
+      <c r="AY30" s="1">
         <v>927.28533633999996</v>
       </c>
-      <c r="AX30" s="1">
+      <c r="AZ30" s="1">
         <v>843.96905708000008</v>
       </c>
-      <c r="AY30" s="1">
+      <c r="BA30" s="1">
         <v>1197.9254020200001</v>
       </c>
-      <c r="AZ30" s="1">
+      <c r="BB30" s="1">
         <v>745.84</v>
       </c>
-      <c r="BA30" s="1">
+      <c r="BC30" s="1">
         <v>577.21</v>
       </c>
-      <c r="BB30" s="1">
+      <c r="BD30" s="1">
         <v>359.11</v>
       </c>
-      <c r="BC30" s="1">
+      <c r="BE30" s="1">
         <v>406.37</v>
       </c>
-      <c r="BD30" s="1">
+      <c r="BF30" s="1">
         <v>420.48</v>
       </c>
-      <c r="BE30" s="1">
+      <c r="BG30" s="1">
         <v>392.47</v>
       </c>
-      <c r="BF30" s="1">
+      <c r="BH30" s="1">
         <v>364.81</v>
       </c>
-      <c r="BG30" s="1">
+      <c r="BI30" s="1">
         <v>203.36</v>
       </c>
-      <c r="BH30" s="1">
+      <c r="BJ30" s="1">
         <v>274.07</v>
       </c>
-      <c r="BI30" s="1"/>
-      <c r="BJ30" s="1"/>
       <c r="BK30" s="1"/>
       <c r="BL30" s="1"/>
       <c r="BM30" s="1"/>
@@ -6298,186 +6456,192 @@
       <c r="BX30" s="1"/>
       <c r="BY30" s="1"/>
       <c r="BZ30" s="1"/>
+      <c r="CA30" s="1"/>
+      <c r="CB30" s="1"/>
     </row>
-    <row r="31" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="1">
+        <v>2388.66</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2247</v>
+      </c>
+      <c r="D31" s="1">
         <v>2445.63</v>
       </c>
-      <c r="C31" s="1">
+      <c r="E31" s="1">
         <v>2109</v>
       </c>
-      <c r="D31" s="1">
+      <c r="F31" s="1">
         <v>2166.5960410900002</v>
       </c>
-      <c r="E31" s="1">
+      <c r="G31" s="1">
         <v>1908</v>
       </c>
-      <c r="F31" s="1">
+      <c r="H31" s="1">
         <v>2292.7877246799999</v>
       </c>
-      <c r="G31" s="1">
+      <c r="I31" s="1">
         <v>1655</v>
       </c>
-      <c r="H31" s="1">
+      <c r="J31" s="1">
         <v>1599.6368736980735</v>
       </c>
-      <c r="I31" s="1">
+      <c r="K31" s="1">
         <v>1762.9</v>
       </c>
-      <c r="J31" s="1">
+      <c r="L31" s="1">
         <v>1445.8076981899815</v>
       </c>
-      <c r="K31" s="1">
+      <c r="M31" s="1">
         <v>1585</v>
       </c>
-      <c r="L31" s="1">
+      <c r="N31" s="1">
         <v>1336.6210185913644</v>
       </c>
-      <c r="M31" s="1">
+      <c r="O31" s="1">
         <v>202</v>
       </c>
-      <c r="N31" s="1">
+      <c r="P31" s="1">
         <v>1184.2540134916053</v>
       </c>
-      <c r="O31" s="1">
+      <c r="Q31" s="1">
         <v>1140</v>
       </c>
-      <c r="P31" s="1">
+      <c r="R31" s="1">
         <v>990.16461161803113</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="S31" s="1">
         <v>982</v>
       </c>
-      <c r="R31" s="1">
+      <c r="T31" s="1">
         <v>834.38296137703867</v>
       </c>
-      <c r="S31" s="1">
+      <c r="U31" s="1">
         <v>1321</v>
       </c>
-      <c r="T31" s="1">
+      <c r="V31" s="1">
         <v>795.31909629573556</v>
       </c>
-      <c r="U31" s="1">
+      <c r="W31" s="1">
         <v>862</v>
       </c>
-      <c r="V31" s="1">
+      <c r="X31" s="1">
         <v>1140.8215743401604</v>
       </c>
-      <c r="W31" s="1">
+      <c r="Y31" s="1">
         <v>1681</v>
       </c>
-      <c r="X31" s="1">
+      <c r="Z31" s="1">
         <v>2002.15166422844</v>
       </c>
-      <c r="Y31" s="1">
+      <c r="AA31" s="1">
         <v>1913</v>
       </c>
-      <c r="Z31" s="1">
+      <c r="AB31" s="1">
         <v>1819.1790510390911</v>
       </c>
-      <c r="AA31" s="1">
+      <c r="AC31" s="1">
         <v>2081</v>
       </c>
-      <c r="AB31" s="1">
+      <c r="AD31" s="1">
         <v>1830.6735741949858</v>
-      </c>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1">
-        <v>1685.8323479731941</v>
       </c>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1">
+        <v>1685.8323479731941</v>
+      </c>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1">
         <v>2456.1457544401287</v>
       </c>
-      <c r="AG31" s="1">
+      <c r="AI31" s="1">
         <v>1136.2978010213826</v>
       </c>
-      <c r="AH31" s="1">
+      <c r="AJ31" s="1">
         <v>1294.9391333764622</v>
       </c>
-      <c r="AI31" s="1">
+      <c r="AK31" s="1">
         <v>1124.5322704537471</v>
       </c>
-      <c r="AJ31" s="1">
+      <c r="AL31" s="1">
         <v>1181.8465107720026</v>
       </c>
-      <c r="AK31" s="1">
+      <c r="AM31" s="1">
         <v>731.40120492272365</v>
       </c>
-      <c r="AL31" s="1">
+      <c r="AN31" s="1">
         <v>794.09934371788188</v>
       </c>
-      <c r="AM31" s="1">
+      <c r="AO31" s="1">
         <v>481.41412934246966</v>
       </c>
-      <c r="AN31" s="1">
+      <c r="AP31" s="1">
         <v>723.41755399606245</v>
       </c>
-      <c r="AO31" s="1">
+      <c r="AQ31" s="1">
         <v>796.40103142643318</v>
       </c>
-      <c r="AP31" s="1">
+      <c r="AR31" s="1">
         <v>1178.4791815900001</v>
       </c>
-      <c r="AQ31" s="1">
+      <c r="AS31" s="1">
         <v>897.62208538999994</v>
       </c>
-      <c r="AR31" s="1">
+      <c r="AT31" s="1">
         <v>875.86729484000011</v>
       </c>
-      <c r="AS31" s="1">
+      <c r="AU31" s="1">
         <v>643.64114353999992</v>
       </c>
-      <c r="AT31" s="1">
+      <c r="AV31" s="1">
         <v>634.41230581000002</v>
       </c>
-      <c r="AU31" s="1">
+      <c r="AW31" s="1">
         <v>532.37427576999994</v>
       </c>
-      <c r="AV31" s="1">
+      <c r="AX31" s="1">
         <v>443.83337628000004</v>
       </c>
-      <c r="AW31" s="1">
+      <c r="AY31" s="1">
         <v>352.53005576999999</v>
       </c>
-      <c r="AX31" s="1">
+      <c r="AZ31" s="1">
         <v>314.38763523</v>
       </c>
-      <c r="AY31" s="1">
+      <c r="BA31" s="1">
         <v>256.70609288999998</v>
       </c>
-      <c r="AZ31" s="1">
+      <c r="BB31" s="1">
         <v>281.67</v>
       </c>
-      <c r="BA31" s="1">
+      <c r="BC31" s="1">
         <v>254.39</v>
       </c>
-      <c r="BB31" s="1">
+      <c r="BD31" s="1">
         <v>163.44999999999999</v>
       </c>
-      <c r="BC31" s="1">
+      <c r="BE31" s="1">
         <v>139.43</v>
       </c>
-      <c r="BD31" s="1">
+      <c r="BF31" s="1">
         <v>61.68</v>
       </c>
-      <c r="BE31" s="1">
+      <c r="BG31" s="1">
         <v>75.989999999999995</v>
       </c>
-      <c r="BF31" s="1">
+      <c r="BH31" s="1">
         <v>73.22</v>
       </c>
-      <c r="BG31" s="1">
+      <c r="BI31" s="1">
         <v>33.29</v>
       </c>
-      <c r="BH31" s="1">
+      <c r="BJ31" s="1">
         <v>45.63</v>
       </c>
-      <c r="BI31" s="1"/>
-      <c r="BJ31" s="1"/>
       <c r="BK31" s="1"/>
       <c r="BL31" s="1"/>
       <c r="BM31" s="1"/>
@@ -6494,186 +6658,192 @@
       <c r="BX31" s="1"/>
       <c r="BY31" s="1"/>
       <c r="BZ31" s="1"/>
+      <c r="CA31" s="1"/>
+      <c r="CB31" s="1"/>
     </row>
-    <row r="32" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="1">
+        <v>137.91999999999999</v>
+      </c>
+      <c r="C32" s="1">
+        <v>71</v>
+      </c>
+      <c r="D32" s="1">
         <v>124.73</v>
       </c>
-      <c r="C32" s="1">
+      <c r="E32" s="1">
         <v>146</v>
       </c>
-      <c r="D32" s="1">
+      <c r="F32" s="1">
         <v>528.69693066000002</v>
       </c>
-      <c r="E32" s="1">
+      <c r="G32" s="1">
         <v>646</v>
       </c>
-      <c r="F32" s="1">
+      <c r="H32" s="1">
         <v>471.98550273000001</v>
       </c>
-      <c r="G32" s="1">
+      <c r="I32" s="1">
         <v>567</v>
       </c>
-      <c r="H32" s="1">
+      <c r="J32" s="1">
         <v>547.17281673211789</v>
       </c>
-      <c r="I32" s="1">
+      <c r="K32" s="1">
         <v>831.4</v>
       </c>
-      <c r="J32" s="1">
+      <c r="L32" s="1">
         <v>556.97150579226206</v>
       </c>
-      <c r="K32" s="1">
+      <c r="M32" s="1">
         <v>651</v>
       </c>
-      <c r="L32" s="1">
+      <c r="N32" s="1">
         <v>553.76165604467781</v>
       </c>
-      <c r="M32" s="1">
+      <c r="O32" s="1">
         <v>563</v>
       </c>
-      <c r="N32" s="1">
+      <c r="P32" s="1">
         <v>442.95369818002035</v>
       </c>
-      <c r="O32" s="1">
+      <c r="Q32" s="1">
         <v>732</v>
       </c>
-      <c r="P32" s="1">
+      <c r="R32" s="1">
         <v>427.16005915752527</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="S32" s="1">
         <v>644</v>
       </c>
-      <c r="R32" s="1">
+      <c r="T32" s="1">
         <v>571.80609239214562</v>
       </c>
-      <c r="S32" s="1">
+      <c r="U32" s="1">
         <v>706</v>
       </c>
-      <c r="T32" s="1">
+      <c r="V32" s="1">
         <v>524.74714739951139</v>
       </c>
-      <c r="U32" s="1">
+      <c r="W32" s="1">
         <v>647</v>
       </c>
-      <c r="V32" s="1">
+      <c r="X32" s="1">
         <v>561.36175368323893</v>
       </c>
-      <c r="W32" s="1">
+      <c r="Y32" s="1">
         <v>579</v>
       </c>
-      <c r="X32" s="1">
+      <c r="Z32" s="1">
         <v>526.04609709122042</v>
       </c>
-      <c r="Y32" s="1">
+      <c r="AA32" s="1">
         <v>148</v>
       </c>
-      <c r="Z32" s="1">
+      <c r="AB32" s="1">
         <v>141.16040611593002</v>
       </c>
-      <c r="AA32" s="1">
+      <c r="AC32" s="1">
         <v>661</v>
       </c>
-      <c r="AB32" s="1">
+      <c r="AD32" s="1">
         <v>439.4028154787166</v>
-      </c>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1">
-        <v>489.06730902493103</v>
       </c>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1">
+        <v>489.06730902493103</v>
+      </c>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1">
         <v>115.24416038733072</v>
       </c>
-      <c r="AG32" s="1">
+      <c r="AI32" s="1">
         <v>124.96091477999451</v>
       </c>
-      <c r="AH32" s="1">
+      <c r="AJ32" s="1">
         <v>341.65708546123494</v>
       </c>
-      <c r="AI32" s="1">
+      <c r="AK32" s="1">
         <v>142.39421191490945</v>
       </c>
-      <c r="AJ32" s="1">
+      <c r="AL32" s="1">
         <v>191.5899422355061</v>
       </c>
-      <c r="AK32" s="1">
+      <c r="AM32" s="1">
         <v>32.431999205968502</v>
       </c>
-      <c r="AL32" s="1">
+      <c r="AN32" s="1">
         <v>354.95215548210513</v>
       </c>
-      <c r="AM32" s="1">
+      <c r="AO32" s="1">
         <v>333.9925782584927</v>
       </c>
-      <c r="AN32" s="1">
+      <c r="AP32" s="1">
         <v>1060.4871729960489</v>
       </c>
-      <c r="AO32" s="1">
+      <c r="AQ32" s="1">
         <v>824.13157928370197</v>
       </c>
-      <c r="AP32" s="1">
+      <c r="AR32" s="1">
         <v>553.58519967313237</v>
       </c>
-      <c r="AQ32" s="1">
+      <c r="AS32" s="1">
         <v>169.1379077</v>
       </c>
-      <c r="AR32" s="1">
+      <c r="AT32" s="1">
         <v>105.78373943000001</v>
       </c>
-      <c r="AS32" s="1">
+      <c r="AU32" s="1">
         <v>178.06329237</v>
       </c>
-      <c r="AT32" s="1">
+      <c r="AV32" s="1">
         <v>102.28044659</v>
       </c>
-      <c r="AU32" s="1">
+      <c r="AW32" s="1">
         <v>159.78797624000001</v>
       </c>
-      <c r="AV32" s="1">
+      <c r="AX32" s="1">
         <v>72.206083069999991</v>
       </c>
-      <c r="AW32" s="1">
+      <c r="AY32" s="1">
         <v>92.436481799999996</v>
       </c>
-      <c r="AX32" s="1">
+      <c r="AZ32" s="1">
         <v>95.005118229999994</v>
       </c>
-      <c r="AY32" s="1">
+      <c r="BA32" s="1">
         <v>115.12720984000001</v>
       </c>
-      <c r="AZ32" s="1">
+      <c r="BB32" s="1">
         <v>110.24</v>
       </c>
-      <c r="BA32" s="1">
+      <c r="BC32" s="1">
         <v>110.75</v>
       </c>
-      <c r="BB32" s="1">
+      <c r="BD32" s="1">
         <v>78.680000000000007</v>
       </c>
-      <c r="BC32" s="1">
+      <c r="BE32" s="1">
         <v>125.68</v>
       </c>
-      <c r="BD32" s="1">
+      <c r="BF32" s="1">
         <v>62.9</v>
       </c>
-      <c r="BE32" s="1">
+      <c r="BG32" s="1">
         <v>42.1</v>
       </c>
-      <c r="BF32" s="1">
+      <c r="BH32" s="1">
         <v>49.33</v>
       </c>
-      <c r="BG32" s="1">
+      <c r="BI32" s="1">
         <v>38.409999999999997</v>
       </c>
-      <c r="BH32" s="1">
+      <c r="BJ32" s="1">
         <v>29.72</v>
       </c>
-      <c r="BI32" s="1"/>
-      <c r="BJ32" s="1"/>
       <c r="BK32" s="1"/>
       <c r="BL32" s="1"/>
       <c r="BM32" s="1"/>
@@ -6690,186 +6860,192 @@
       <c r="BX32" s="1"/>
       <c r="BY32" s="1"/>
       <c r="BZ32" s="1"/>
+      <c r="CA32" s="1"/>
+      <c r="CB32" s="1"/>
     </row>
-    <row r="33" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="1">
+        <v>85161.01</v>
+      </c>
+      <c r="C33" s="1">
+        <v>78082</v>
+      </c>
+      <c r="D33" s="1">
         <v>71342.47</v>
       </c>
-      <c r="C33" s="1">
+      <c r="E33" s="1">
         <v>75238</v>
       </c>
-      <c r="D33" s="1">
+      <c r="F33" s="1">
         <v>81203.248681910001</v>
       </c>
-      <c r="E33" s="1">
+      <c r="G33" s="1">
         <v>53479</v>
       </c>
-      <c r="F33" s="1">
+      <c r="H33" s="1">
         <v>80226.742546419991</v>
       </c>
-      <c r="G33" s="1">
+      <c r="I33" s="1">
         <v>57626</v>
       </c>
-      <c r="H33" s="1">
+      <c r="J33" s="1">
         <v>42017.488641497497</v>
       </c>
-      <c r="I33" s="1">
+      <c r="K33" s="1">
         <v>36322</v>
       </c>
-      <c r="J33" s="1">
+      <c r="L33" s="1">
         <v>34464.561868159944</v>
       </c>
-      <c r="K33" s="1">
+      <c r="M33" s="1">
         <v>33173</v>
       </c>
-      <c r="L33" s="1">
+      <c r="N33" s="1">
         <v>30908.8792559379</v>
       </c>
-      <c r="M33" s="1">
+      <c r="O33" s="1">
         <v>37993</v>
       </c>
-      <c r="N33" s="1">
+      <c r="P33" s="1">
         <v>28777.099359384982</v>
       </c>
-      <c r="O33" s="1">
+      <c r="Q33" s="1">
         <v>35222</v>
       </c>
-      <c r="P33" s="1">
+      <c r="R33" s="1">
         <v>29646.458657933323</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="S33" s="1">
         <v>29907</v>
       </c>
-      <c r="R33" s="1">
+      <c r="T33" s="1">
         <v>26049.288270713329</v>
       </c>
-      <c r="S33" s="1">
+      <c r="U33" s="1">
         <v>29576</v>
       </c>
-      <c r="T33" s="1">
+      <c r="V33" s="1">
         <v>22359.067168790676</v>
       </c>
-      <c r="U33" s="1">
+      <c r="W33" s="1">
         <v>23371</v>
       </c>
-      <c r="V33" s="1">
+      <c r="X33" s="1">
         <v>20432.39751036097</v>
       </c>
-      <c r="W33" s="1">
+      <c r="Y33" s="1">
         <v>21772</v>
       </c>
-      <c r="X33" s="1">
+      <c r="Z33" s="1">
         <v>19626.718396338219</v>
       </c>
-      <c r="Y33" s="1">
+      <c r="AA33" s="1">
         <v>19979</v>
       </c>
-      <c r="Z33" s="1">
+      <c r="AB33" s="1">
         <v>18889.28563789363</v>
       </c>
-      <c r="AA33" s="1">
+      <c r="AC33" s="1">
         <v>25774</v>
       </c>
-      <c r="AB33" s="1">
+      <c r="AD33" s="1">
         <v>20504.588297920182</v>
-      </c>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1">
-        <v>17134.593983417573</v>
       </c>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1">
+        <v>17134.593983417573</v>
+      </c>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1">
         <v>17813.709210830777</v>
       </c>
-      <c r="AG33" s="1">
+      <c r="AI33" s="1">
         <v>14884.211158997265</v>
       </c>
-      <c r="AH33" s="1">
+      <c r="AJ33" s="1">
         <v>13058.239630854476</v>
       </c>
-      <c r="AI33" s="1">
+      <c r="AK33" s="1">
         <v>11713.351010258984</v>
       </c>
-      <c r="AJ33" s="1">
+      <c r="AL33" s="1">
         <v>13536.849308522644</v>
       </c>
-      <c r="AK33" s="1">
+      <c r="AM33" s="1">
         <v>14653.510671565389</v>
       </c>
-      <c r="AL33" s="1">
+      <c r="AN33" s="1">
         <v>11049.232778366928</v>
       </c>
-      <c r="AM33" s="1">
+      <c r="AO33" s="1">
         <v>5738.6757060318778</v>
       </c>
-      <c r="AN33" s="1">
+      <c r="AP33" s="1">
         <v>7775.473634003677</v>
       </c>
-      <c r="AO33" s="1">
+      <c r="AQ33" s="1">
         <v>7276.2522596689332</v>
       </c>
-      <c r="AP33" s="1">
+      <c r="AR33" s="1">
         <v>8654.4983127200012</v>
       </c>
-      <c r="AQ33" s="1">
+      <c r="AS33" s="1">
         <v>6879.7590368299998</v>
       </c>
-      <c r="AR33" s="1">
+      <c r="AT33" s="1">
         <v>4239.3062597500002</v>
       </c>
-      <c r="AS33" s="1">
+      <c r="AU33" s="1">
         <v>3716.9761318299998</v>
       </c>
-      <c r="AT33" s="1">
+      <c r="AV33" s="1">
         <v>3507.7408374300003</v>
       </c>
-      <c r="AU33" s="1">
+      <c r="AW33" s="1">
         <v>2897.4780778600002</v>
       </c>
-      <c r="AV33" s="1">
+      <c r="AX33" s="1">
         <v>2413.5798464899999</v>
       </c>
-      <c r="AW33" s="1">
+      <c r="AY33" s="1">
         <v>2144.8768984600001</v>
       </c>
-      <c r="AX33" s="1">
+      <c r="AZ33" s="1">
         <v>3473.4232447000004</v>
       </c>
-      <c r="AY33" s="1">
+      <c r="BA33" s="1">
         <v>2983.5300974100001</v>
       </c>
-      <c r="AZ33" s="1">
+      <c r="BB33" s="1">
         <v>2422.3200000000002</v>
       </c>
-      <c r="BA33" s="1">
+      <c r="BC33" s="1">
         <v>1851.38</v>
       </c>
-      <c r="BB33" s="1">
+      <c r="BD33" s="1">
         <v>1434.42</v>
       </c>
-      <c r="BC33" s="1">
+      <c r="BE33" s="1">
         <v>1410.04</v>
       </c>
-      <c r="BD33" s="1">
+      <c r="BF33" s="1">
         <v>1409.72</v>
       </c>
-      <c r="BE33" s="1">
+      <c r="BG33" s="1">
         <v>1323.1</v>
       </c>
-      <c r="BF33" s="1">
+      <c r="BH33" s="1">
         <v>993.39</v>
       </c>
-      <c r="BG33" s="1">
+      <c r="BI33" s="1">
         <v>733.5</v>
       </c>
-      <c r="BH33" s="1">
+      <c r="BJ33" s="1">
         <v>557.46</v>
       </c>
-      <c r="BI33" s="1"/>
-      <c r="BJ33" s="1"/>
       <c r="BK33" s="1"/>
       <c r="BL33" s="1"/>
       <c r="BM33" s="1"/>
@@ -6886,220 +7062,228 @@
       <c r="BX33" s="1"/>
       <c r="BY33" s="1"/>
       <c r="BZ33" s="1"/>
+      <c r="CA33" s="1"/>
+      <c r="CB33" s="1"/>
     </row>
-    <row r="34" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="1">
+        <v>251.28</v>
+      </c>
+      <c r="C34" s="1">
+        <v>323</v>
+      </c>
+      <c r="D34" s="1">
         <v>792.51</v>
       </c>
-      <c r="C34" s="1">
+      <c r="E34" s="1">
         <v>1220</v>
       </c>
-      <c r="D34" s="1">
+      <c r="F34" s="1">
         <v>1243.16417273</v>
       </c>
-      <c r="E34" s="1">
+      <c r="G34" s="1">
         <v>654</v>
       </c>
-      <c r="F34" s="1">
+      <c r="H34" s="1">
         <v>252.35986779000001</v>
       </c>
-      <c r="G34" s="1">
+      <c r="I34" s="1">
         <v>461</v>
       </c>
-      <c r="H34" s="1">
+      <c r="J34" s="1">
         <v>565.44017417451562</v>
       </c>
-      <c r="I34" s="1">
+      <c r="K34" s="1">
         <v>556.79999999999995</v>
       </c>
-      <c r="J34" s="1">
+      <c r="L34" s="1">
         <v>504.8309775443214</v>
       </c>
-      <c r="K34" s="1">
+      <c r="M34" s="1">
         <v>555</v>
       </c>
-      <c r="L34" s="1">
+      <c r="N34" s="1">
         <v>612.70791534440571</v>
       </c>
-      <c r="M34" s="1">
+      <c r="O34" s="1">
         <v>707</v>
       </c>
-      <c r="N34" s="1">
+      <c r="P34" s="1">
         <v>591.97484707224839</v>
       </c>
-      <c r="O34" s="1">
+      <c r="Q34" s="1">
         <v>752</v>
       </c>
-      <c r="P34" s="1">
+      <c r="R34" s="1">
         <v>534.14763220910959</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="S34" s="1">
         <v>631</v>
       </c>
-      <c r="R34" s="1">
+      <c r="T34" s="1">
         <v>612.11451508993616</v>
       </c>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1">
+      <c r="U34" s="1"/>
+      <c r="V34" s="1">
         <v>614.1300775865077</v>
       </c>
-      <c r="U34" s="1">
+      <c r="W34" s="1">
         <v>676</v>
       </c>
-      <c r="V34" s="1">
+      <c r="X34" s="1">
         <v>659.17481850296974</v>
       </c>
-      <c r="W34" s="1">
+      <c r="Y34" s="1">
         <v>1045</v>
       </c>
-      <c r="X34" s="1">
+      <c r="Z34" s="1">
         <v>748.03311076405771</v>
       </c>
-      <c r="Y34" s="1">
+      <c r="AA34" s="1">
         <v>1641</v>
       </c>
-      <c r="Z34" s="1">
+      <c r="AB34" s="1">
         <v>697.92101013446336</v>
-      </c>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1">
-        <v>718.13533311282754</v>
       </c>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1">
-        <v>1811.018286624414</v>
+        <v>718.13533311282754</v>
       </c>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1">
+        <v>1811.018286624414</v>
+      </c>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1">
         <v>1642.9073036429961</v>
       </c>
-      <c r="AG34" s="1">
+      <c r="AI34" s="1">
         <v>1483.8276398748217</v>
       </c>
-      <c r="AH34" s="1">
+      <c r="AJ34" s="1">
         <v>1128.2569240989199</v>
       </c>
-      <c r="AI34" s="1">
+      <c r="AK34" s="1">
         <v>1391.8540054644607</v>
       </c>
-      <c r="AJ34" s="1">
+      <c r="AL34" s="1">
         <v>793.28869116759734</v>
       </c>
-      <c r="AK34" s="1">
+      <c r="AM34" s="1">
         <v>299.34057138806116</v>
       </c>
-      <c r="AL34" s="1">
+      <c r="AN34" s="1">
         <v>1798.9869517839636</v>
       </c>
-      <c r="AM34" s="1">
+      <c r="AO34" s="1">
         <v>2201.3307261811256</v>
       </c>
-      <c r="AN34" s="1">
+      <c r="AP34" s="1">
         <v>1489.695872283972</v>
       </c>
-      <c r="AO34" s="1">
+      <c r="AQ34" s="1">
         <v>1846.0377496460962</v>
       </c>
-      <c r="AP34" s="1">
+      <c r="AR34" s="1">
         <v>2015.4512268999999</v>
       </c>
-      <c r="AQ34" s="1">
+      <c r="AS34" s="1">
         <v>1381.7640566</v>
       </c>
-      <c r="AR34" s="1">
+      <c r="AT34" s="1">
         <v>1595.4342278199999</v>
       </c>
-      <c r="AS34" s="1">
+      <c r="AU34" s="1">
         <v>1405.9200200400001</v>
       </c>
-      <c r="AT34" s="1">
+      <c r="AV34" s="1">
         <v>1284.94026811</v>
       </c>
-      <c r="AU34" s="1">
+      <c r="AW34" s="1">
         <v>979.95652844999995</v>
       </c>
-      <c r="AV34" s="1">
+      <c r="AX34" s="1">
         <v>892.5629348299999</v>
       </c>
-      <c r="AW34" s="1">
+      <c r="AY34" s="1">
         <v>653.37069178000002</v>
       </c>
-      <c r="AX34" s="1">
+      <c r="AZ34" s="1">
         <v>932.12463394000008</v>
       </c>
-      <c r="AY34" s="1">
+      <c r="BA34" s="1">
         <v>714.12173654999992</v>
       </c>
-      <c r="AZ34" s="1">
+      <c r="BB34" s="1">
         <v>712.09</v>
       </c>
-      <c r="BA34" s="1">
+      <c r="BC34" s="1">
         <v>655.36</v>
       </c>
-      <c r="BB34" s="1">
+      <c r="BD34" s="1">
         <v>491.64</v>
       </c>
-      <c r="BC34" s="1">
+      <c r="BE34" s="1">
         <v>356.38</v>
       </c>
-      <c r="BD34" s="1">
+      <c r="BF34" s="1">
         <v>344.69</v>
       </c>
-      <c r="BE34" s="1">
+      <c r="BG34" s="1">
         <v>330.61</v>
       </c>
-      <c r="BF34" s="1">
+      <c r="BH34" s="1">
         <v>284.32</v>
       </c>
-      <c r="BG34" s="1">
+      <c r="BI34" s="1">
         <v>269.04000000000002</v>
       </c>
-      <c r="BH34" s="1">
+      <c r="BJ34" s="1">
         <v>209.71</v>
       </c>
-      <c r="BI34" s="1">
+      <c r="BK34" s="1">
         <v>68.77</v>
       </c>
-      <c r="BJ34" s="1">
+      <c r="BL34" s="1">
         <v>71.13</v>
       </c>
-      <c r="BK34" s="1">
+      <c r="BM34" s="1">
         <v>71.3</v>
       </c>
-      <c r="BL34" s="1">
+      <c r="BN34" s="1">
         <v>50.05</v>
       </c>
-      <c r="BM34" s="1">
+      <c r="BO34" s="1">
         <v>43.52</v>
       </c>
-      <c r="BN34" s="1">
+      <c r="BP34" s="1">
         <v>29.59</v>
       </c>
-      <c r="BO34" s="1">
+      <c r="BQ34" s="1">
         <v>29.05</v>
       </c>
-      <c r="BP34" s="1">
+      <c r="BR34" s="1">
         <v>18.420000000000002</v>
       </c>
-      <c r="BQ34" s="1">
+      <c r="BS34" s="1">
         <v>15.65</v>
       </c>
-      <c r="BR34" s="1">
+      <c r="BT34" s="1">
         <v>14.41</v>
       </c>
-      <c r="BS34" s="1"/>
-      <c r="BT34" s="1"/>
       <c r="BU34" s="1"/>
       <c r="BV34" s="1"/>
       <c r="BW34" s="1"/>
       <c r="BX34" s="1"/>
       <c r="BY34" s="1"/>
       <c r="BZ34" s="1"/>
+      <c r="CA34" s="1"/>
+      <c r="CB34" s="1"/>
     </row>
-    <row r="35" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -7151,732 +7335,752 @@
       <c r="AU35" s="1"/>
       <c r="AV35" s="1"/>
       <c r="AW35" s="1"/>
-      <c r="AX35" s="1">
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1">
         <v>98.104888650000007</v>
       </c>
-      <c r="AY35" s="1">
+      <c r="BA35" s="1">
         <v>80.62528180000001</v>
       </c>
-      <c r="AZ35" s="1">
+      <c r="BB35" s="1">
         <v>85.5</v>
       </c>
-      <c r="BA35" s="1">
+      <c r="BC35" s="1">
         <v>71.930000000000007</v>
       </c>
-      <c r="BB35" s="1">
+      <c r="BD35" s="1">
         <v>91.69</v>
       </c>
-      <c r="BC35" s="1">
+      <c r="BE35" s="1">
         <v>102.31</v>
       </c>
-      <c r="BD35" s="1">
+      <c r="BF35" s="1">
         <v>109.33</v>
       </c>
-      <c r="BE35" s="1">
+      <c r="BG35" s="1">
         <v>39.47</v>
       </c>
-      <c r="BF35" s="1">
+      <c r="BH35" s="1">
         <v>29.69</v>
       </c>
-      <c r="BG35" s="1">
+      <c r="BI35" s="1">
         <v>28.35</v>
       </c>
-      <c r="BH35" s="1">
+      <c r="BJ35" s="1">
         <v>28.15</v>
       </c>
-      <c r="BI35" s="1">
+      <c r="BK35" s="1">
         <v>28.12</v>
       </c>
-      <c r="BJ35" s="1">
+      <c r="BL35" s="1">
         <v>31.87</v>
       </c>
-      <c r="BK35" s="1">
+      <c r="BM35" s="1">
         <v>33.71</v>
       </c>
-      <c r="BL35" s="1">
+      <c r="BN35" s="1">
         <v>46.29</v>
       </c>
-      <c r="BM35" s="1">
+      <c r="BO35" s="1">
         <v>37.840000000000003</v>
       </c>
-      <c r="BN35" s="1">
+      <c r="BP35" s="1">
         <v>37.08</v>
       </c>
-      <c r="BO35" s="1">
+      <c r="BQ35" s="1">
         <v>23.92</v>
       </c>
-      <c r="BP35" s="1">
+      <c r="BR35" s="1">
         <v>22.87</v>
       </c>
-      <c r="BQ35" s="1">
+      <c r="BS35" s="1">
         <v>21.65</v>
       </c>
-      <c r="BR35" s="1">
+      <c r="BT35" s="1">
         <v>20.45</v>
       </c>
-      <c r="BS35" s="1"/>
-      <c r="BT35" s="1"/>
       <c r="BU35" s="1"/>
       <c r="BV35" s="1"/>
       <c r="BW35" s="1"/>
       <c r="BX35" s="1"/>
       <c r="BY35" s="1"/>
       <c r="BZ35" s="1"/>
+      <c r="CA35" s="1"/>
+      <c r="CB35" s="1"/>
     </row>
-    <row r="36" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="7">
+        <v>190145.17</v>
+      </c>
+      <c r="C36" s="7">
+        <v>214219</v>
+      </c>
+      <c r="D36" s="7">
         <v>145137.72</v>
       </c>
-      <c r="C36" s="7">
+      <c r="E36" s="7">
         <v>143432</v>
       </c>
-      <c r="D36" s="7">
+      <c r="F36" s="7">
         <v>173672.00446557</v>
       </c>
-      <c r="E36" s="7">
+      <c r="G36" s="7">
         <v>227036</v>
       </c>
-      <c r="F36" s="7">
+      <c r="H36" s="7">
         <v>164174.04649082999</v>
       </c>
-      <c r="G36" s="7">
+      <c r="I36" s="7">
         <v>152260.12</v>
       </c>
-      <c r="H36" s="7">
+      <c r="J36" s="7">
         <v>100833.5259025172</v>
       </c>
-      <c r="I36" s="7">
+      <c r="K36" s="7">
         <v>106701.5</v>
       </c>
-      <c r="J36" s="7">
+      <c r="L36" s="7">
         <v>91150.895006890045</v>
       </c>
-      <c r="K36" s="7">
+      <c r="M36" s="7">
         <v>93639</v>
       </c>
-      <c r="L36" s="7">
+      <c r="N36" s="7">
         <v>82558.731288079056</v>
       </c>
-      <c r="M36" s="7">
+      <c r="O36" s="7">
         <v>86958</v>
       </c>
-      <c r="N36" s="7">
+      <c r="P36" s="7">
         <v>79407.58475609489</v>
       </c>
-      <c r="O36" s="7">
+      <c r="Q36" s="7">
         <v>78240</v>
       </c>
-      <c r="P36" s="7">
+      <c r="R36" s="7">
         <v>68487.959446065404</v>
       </c>
-      <c r="Q36" s="7">
+      <c r="S36" s="7">
         <v>62762</v>
       </c>
-      <c r="R36" s="7">
+      <c r="T36" s="7">
         <v>60903.467913943292</v>
       </c>
-      <c r="S36" s="7">
+      <c r="U36" s="7">
         <v>61242</v>
       </c>
-      <c r="T36" s="7">
+      <c r="V36" s="7">
         <v>54161.752414188028</v>
       </c>
-      <c r="U36" s="7">
+      <c r="W36" s="7">
         <v>55491</v>
       </c>
-      <c r="V36" s="7">
+      <c r="X36" s="7">
         <v>48327.168147263612</v>
       </c>
-      <c r="W36" s="7">
+      <c r="Y36" s="7">
         <v>46754</v>
       </c>
-      <c r="X36" s="7">
+      <c r="Z36" s="7">
         <v>43236.210149625418</v>
       </c>
-      <c r="Y36" s="7">
+      <c r="AA36" s="7">
         <v>56504</v>
       </c>
-      <c r="Z36" s="7">
+      <c r="AB36" s="7">
         <v>53785.465205216351</v>
       </c>
-      <c r="AA36" s="7">
+      <c r="AC36" s="7">
         <v>53652</v>
       </c>
-      <c r="AB36" s="7">
+      <c r="AD36" s="7">
         <v>45280.25092354745</v>
       </c>
-      <c r="AC36" s="7">
+      <c r="AE36" s="7">
         <v>43684</v>
       </c>
-      <c r="AD36" s="7">
+      <c r="AF36" s="7">
         <v>38605.400259801638</v>
       </c>
-      <c r="AE36" s="7">
+      <c r="AG36" s="7">
         <f>25850+345+5333</f>
         <v>31528</v>
       </c>
-      <c r="AF36" s="7">
+      <c r="AH36" s="7">
         <v>35133.520668612058</v>
       </c>
-      <c r="AG36" s="7">
+      <c r="AI36" s="7">
         <v>22265.061319009757</v>
       </c>
-      <c r="AH36" s="7">
+      <c r="AJ36" s="7">
         <v>23312.726280535371</v>
       </c>
-      <c r="AI36" s="7">
+      <c r="AK36" s="7">
         <v>21091.177602977274</v>
       </c>
-      <c r="AJ36" s="7">
+      <c r="AL36" s="7">
         <v>19519.295041666912</v>
       </c>
-      <c r="AK36" s="7">
+      <c r="AM36" s="7">
         <v>18086.775232578973</v>
       </c>
-      <c r="AL36" s="7">
+      <c r="AN36" s="7">
         <v>18339.099052775753</v>
       </c>
-      <c r="AM36" s="7">
+      <c r="AO36" s="7">
         <v>22641.694395230796</v>
       </c>
-      <c r="AN36" s="7">
+      <c r="AP36" s="7">
         <v>19807.359470265212</v>
       </c>
-      <c r="AO36" s="7">
+      <c r="AQ36" s="7">
         <v>16729.708467129887</v>
       </c>
-      <c r="AP36" s="7">
+      <c r="AR36" s="7">
         <v>14190.517120069993</v>
       </c>
-      <c r="AQ36" s="7">
+      <c r="AS36" s="7">
         <v>16099.275782440001</v>
       </c>
-      <c r="AR36" s="7">
+      <c r="AT36" s="7">
         <v>7698.1149943400014</v>
       </c>
-      <c r="AS36" s="7">
+      <c r="AU36" s="7">
         <v>8357.4255522200001</v>
       </c>
-      <c r="AT36" s="7">
+      <c r="AV36" s="7">
         <v>5906.2088250899988</v>
       </c>
-      <c r="AU36" s="7">
+      <c r="AW36" s="7">
         <v>5459.6831759299994</v>
       </c>
-      <c r="AV36" s="7">
+      <c r="AX36" s="7">
         <v>4248.8682526000002</v>
       </c>
-      <c r="AW36" s="7">
+      <c r="AY36" s="7">
         <v>4268.6815927399994</v>
       </c>
-      <c r="AX36" s="7">
+      <c r="AZ36" s="7">
         <v>1974.0967465699998</v>
       </c>
-      <c r="AY36" s="7">
+      <c r="BA36" s="7">
         <v>1994.9010640400002</v>
       </c>
-      <c r="AZ36" s="7">
+      <c r="BB36" s="7">
         <v>3132.33</v>
       </c>
-      <c r="BA36" s="7">
+      <c r="BC36" s="7">
         <v>2697.51</v>
       </c>
-      <c r="BB36" s="7">
+      <c r="BD36" s="7">
         <v>2131.15</v>
       </c>
-      <c r="BC36" s="7">
+      <c r="BE36" s="7">
         <v>951.11</v>
       </c>
-      <c r="BD36" s="7">
+      <c r="BF36" s="7">
         <v>1300.81</v>
       </c>
-      <c r="BE36" s="7">
+      <c r="BG36" s="7">
         <v>613.76</v>
       </c>
-      <c r="BF36" s="7">
+      <c r="BH36" s="7">
         <v>501.57</v>
       </c>
-      <c r="BG36" s="7">
+      <c r="BI36" s="7">
         <v>436.61</v>
       </c>
-      <c r="BH36" s="7">
+      <c r="BJ36" s="7">
         <v>338.2</v>
       </c>
-      <c r="BI36" s="7">
+      <c r="BK36" s="7">
         <v>357.46</v>
       </c>
-      <c r="BJ36" s="7">
+      <c r="BL36" s="7">
         <v>435.95</v>
       </c>
-      <c r="BK36" s="7">
+      <c r="BM36" s="7">
         <v>428.18</v>
       </c>
-      <c r="BL36" s="7">
+      <c r="BN36" s="7">
         <v>940.08</v>
       </c>
-      <c r="BM36" s="7">
+      <c r="BO36" s="7">
         <v>122.72</v>
       </c>
-      <c r="BN36" s="7">
+      <c r="BP36" s="7">
         <v>121.28</v>
       </c>
-      <c r="BO36" s="7">
+      <c r="BQ36" s="7">
         <v>111.72</v>
       </c>
-      <c r="BP36" s="7">
+      <c r="BR36" s="7">
         <v>91.85</v>
       </c>
-      <c r="BQ36" s="7">
+      <c r="BS36" s="7">
         <v>68.77</v>
       </c>
-      <c r="BR36" s="7">
+      <c r="BT36" s="7">
         <v>58.5</v>
       </c>
-      <c r="BS36" s="1"/>
-      <c r="BT36" s="1"/>
       <c r="BU36" s="1"/>
       <c r="BV36" s="1"/>
       <c r="BW36" s="1"/>
       <c r="BX36" s="1"/>
       <c r="BY36" s="1"/>
       <c r="BZ36" s="1"/>
+      <c r="CA36" s="1"/>
+      <c r="CB36" s="1"/>
     </row>
-    <row r="37" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="1">
+        <v>9909.94</v>
+      </c>
+      <c r="C37" s="1">
+        <v>9036</v>
+      </c>
+      <c r="D37" s="1">
         <v>4854.28</v>
       </c>
-      <c r="C37" s="1">
+      <c r="E37" s="1">
         <v>6198</v>
       </c>
-      <c r="D37" s="1">
+      <c r="F37" s="1">
         <v>7219.4560515600015</v>
       </c>
-      <c r="E37" s="1">
+      <c r="G37" s="1">
         <v>55480</v>
       </c>
-      <c r="F37" s="1">
+      <c r="H37" s="1">
         <v>7155.3961142399994</v>
       </c>
-      <c r="G37" s="1">
+      <c r="I37" s="1">
         <v>4611.8500000000004</v>
       </c>
-      <c r="H37" s="1">
+      <c r="J37" s="1">
         <v>7467.3133371400017</v>
       </c>
-      <c r="I37" s="1">
+      <c r="K37" s="1">
         <v>6719.2</v>
       </c>
-      <c r="J37" s="1">
+      <c r="L37" s="1">
         <v>6638.3061086200005</v>
       </c>
-      <c r="K37" s="1">
+      <c r="M37" s="1">
         <v>5325</v>
       </c>
-      <c r="L37" s="1">
+      <c r="N37" s="1">
         <v>5635.5260393199997</v>
       </c>
-      <c r="M37" s="1">
+      <c r="O37" s="1">
         <v>5017</v>
       </c>
-      <c r="N37" s="1">
+      <c r="P37" s="1">
         <v>5449.6400372199996</v>
       </c>
-      <c r="O37" s="1">
+      <c r="Q37" s="1">
         <v>5097</v>
       </c>
-      <c r="P37" s="1">
+      <c r="R37" s="1">
         <v>3275.3418572399996</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="S37" s="1">
         <v>3918</v>
       </c>
-      <c r="R37" s="1">
+      <c r="T37" s="1">
         <v>3626.3529650628407</v>
       </c>
-      <c r="S37" s="1">
+      <c r="U37" s="1">
         <v>2608</v>
       </c>
-      <c r="T37" s="1">
+      <c r="V37" s="1">
         <v>2400.0479408236229</v>
       </c>
-      <c r="U37" s="1">
+      <c r="W37" s="1">
         <v>2029</v>
       </c>
-      <c r="V37" s="1">
+      <c r="X37" s="1">
         <v>1981.320138877607</v>
       </c>
-      <c r="W37" s="1">
+      <c r="Y37" s="1">
         <v>1630</v>
       </c>
-      <c r="X37" s="1">
+      <c r="Z37" s="1">
         <v>1425.9669572506575</v>
       </c>
-      <c r="Y37" s="1">
+      <c r="AA37" s="1">
         <v>1165</v>
       </c>
-      <c r="Z37" s="1">
+      <c r="AB37" s="1">
         <v>1278.5199743313312</v>
       </c>
-      <c r="AA37" s="1">
+      <c r="AC37" s="1">
         <v>1471</v>
       </c>
-      <c r="AB37" s="1">
+      <c r="AD37" s="1">
         <v>961.88043434597728</v>
-      </c>
-      <c r="AC37" s="1"/>
-      <c r="AD37" s="1">
-        <v>1113.7977276309189</v>
       </c>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1">
+        <v>1113.7977276309189</v>
+      </c>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1">
         <v>1016.7456405031206</v>
       </c>
-      <c r="AG37" s="1">
+      <c r="AI37" s="1">
         <v>749.51598802665535</v>
       </c>
-      <c r="AH37" s="1">
+      <c r="AJ37" s="1">
         <v>714.54490274731495</v>
       </c>
-      <c r="AI37" s="1">
+      <c r="AK37" s="1">
         <v>527.96435989793008</v>
       </c>
-      <c r="AJ37" s="1">
+      <c r="AL37" s="1">
         <v>594.42800498693828</v>
       </c>
-      <c r="AK37" s="1">
+      <c r="AM37" s="1">
         <v>479.98937463902723</v>
       </c>
-      <c r="AL37" s="1">
+      <c r="AN37" s="1">
         <v>572.73526869237332</v>
       </c>
-      <c r="AM37" s="1">
+      <c r="AO37" s="1">
         <v>473.57028708444284</v>
       </c>
-      <c r="AN37" s="1">
+      <c r="AP37" s="1">
         <v>881.13753725768481</v>
       </c>
-      <c r="AO37" s="1">
+      <c r="AQ37" s="1">
         <v>565.18024771733883</v>
       </c>
-      <c r="AP37" s="1">
+      <c r="AR37" s="1">
         <v>416.69213996000002</v>
       </c>
-      <c r="AQ37" s="1">
+      <c r="AS37" s="1">
         <v>309.10449185000004</v>
       </c>
-      <c r="AR37" s="1">
+      <c r="AT37" s="1">
         <v>223.33659485000001</v>
       </c>
-      <c r="AS37" s="1">
+      <c r="AU37" s="1">
         <v>248.41866449</v>
       </c>
-      <c r="AT37" s="1">
+      <c r="AV37" s="1">
         <v>164.70115637999999</v>
       </c>
-      <c r="AU37" s="1">
+      <c r="AW37" s="1">
         <v>194.73645532</v>
       </c>
-      <c r="AV37" s="1">
+      <c r="AX37" s="1">
         <v>121.98142232000001</v>
       </c>
-      <c r="AW37" s="1">
+      <c r="AY37" s="1">
         <v>65.819740740000015</v>
       </c>
-      <c r="AX37" s="1">
+      <c r="AZ37" s="1">
         <v>62.389197849999995</v>
       </c>
-      <c r="AY37" s="1">
+      <c r="BA37" s="1">
         <v>82.332335409999999</v>
       </c>
-      <c r="AZ37" s="1">
+      <c r="BB37" s="1">
         <v>64.67</v>
       </c>
-      <c r="BA37" s="1">
+      <c r="BC37" s="1">
         <v>112.29</v>
       </c>
-      <c r="BB37" s="1">
+      <c r="BD37" s="1">
         <v>115.83</v>
       </c>
-      <c r="BC37" s="1">
+      <c r="BE37" s="1">
         <v>105.16</v>
       </c>
-      <c r="BD37" s="1">
+      <c r="BF37" s="1">
         <v>166.7</v>
       </c>
-      <c r="BE37" s="1">
+      <c r="BG37" s="1">
         <v>41.6</v>
       </c>
-      <c r="BF37" s="1">
+      <c r="BH37" s="1">
         <v>50.92</v>
       </c>
-      <c r="BG37" s="1">
+      <c r="BI37" s="1">
         <v>42.23</v>
       </c>
-      <c r="BH37" s="1">
+      <c r="BJ37" s="1">
         <v>37.340000000000003</v>
       </c>
-      <c r="BI37" s="1">
+      <c r="BK37" s="1">
         <v>28.11</v>
       </c>
-      <c r="BJ37" s="1">
+      <c r="BL37" s="1">
         <v>24.28</v>
       </c>
-      <c r="BK37" s="1">
+      <c r="BM37" s="1">
         <v>28.42</v>
       </c>
-      <c r="BL37" s="1">
+      <c r="BN37" s="1">
         <v>34.979999999999997</v>
       </c>
-      <c r="BM37" s="1">
+      <c r="BO37" s="1">
         <v>13.78</v>
       </c>
-      <c r="BN37" s="1">
+      <c r="BP37" s="1">
         <v>18.89</v>
       </c>
-      <c r="BO37" s="1">
+      <c r="BQ37" s="1">
         <v>16.09</v>
       </c>
-      <c r="BP37" s="1">
+      <c r="BR37" s="1">
         <v>14.34</v>
       </c>
-      <c r="BQ37" s="1">
+      <c r="BS37" s="1">
         <v>18.27</v>
       </c>
-      <c r="BR37" s="1">
+      <c r="BT37" s="1">
         <v>13.68</v>
       </c>
-      <c r="BS37" s="1"/>
-      <c r="BT37" s="1"/>
       <c r="BU37" s="1"/>
       <c r="BV37" s="1"/>
       <c r="BW37" s="1"/>
       <c r="BX37" s="1"/>
       <c r="BY37" s="1"/>
       <c r="BZ37" s="1"/>
+      <c r="CA37" s="1"/>
+      <c r="CB37" s="1"/>
     </row>
-    <row r="38" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="1">
+        <v>156734.39999999999</v>
+      </c>
+      <c r="C38" s="1">
+        <v>176586</v>
+      </c>
+      <c r="D38" s="1">
         <v>124520.59</v>
       </c>
-      <c r="C38" s="1">
+      <c r="E38" s="1">
         <v>121511</v>
       </c>
-      <c r="D38" s="1">
+      <c r="F38" s="1">
         <v>145970.09255793999</v>
       </c>
-      <c r="E38" s="1">
+      <c r="G38" s="1">
         <v>161126</v>
       </c>
-      <c r="F38" s="1">
+      <c r="H38" s="1">
         <v>139168.17673413001</v>
       </c>
-      <c r="G38" s="1">
+      <c r="I38" s="1">
         <v>132865.59</v>
       </c>
-      <c r="H38" s="1">
+      <c r="J38" s="1">
         <v>85915.928164500001</v>
       </c>
-      <c r="I38" s="1">
+      <c r="K38" s="1">
         <v>94144.8</v>
       </c>
-      <c r="J38" s="1">
+      <c r="L38" s="1">
         <v>80151.403785719405</v>
       </c>
-      <c r="K38" s="1">
+      <c r="M38" s="1">
         <v>83308</v>
       </c>
-      <c r="L38" s="1">
+      <c r="N38" s="1">
         <v>72072.907838589381</v>
       </c>
-      <c r="M38" s="1">
+      <c r="O38" s="1">
         <v>75656</v>
       </c>
-      <c r="N38" s="1">
+      <c r="P38" s="1">
         <v>69035.83368023971</v>
       </c>
-      <c r="O38" s="1">
+      <c r="Q38" s="1">
         <v>67212</v>
       </c>
-      <c r="P38" s="1">
+      <c r="R38" s="1">
         <v>60356.13436874326</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="S38" s="1">
         <v>53852</v>
       </c>
-      <c r="R38" s="1">
+      <c r="T38" s="1">
         <v>52455.340142006949</v>
       </c>
-      <c r="S38" s="1">
+      <c r="U38" s="1">
         <v>54136</v>
       </c>
-      <c r="T38" s="1">
+      <c r="V38" s="1">
         <v>47878.786095808297</v>
       </c>
-      <c r="U38" s="1">
+      <c r="W38" s="1">
         <v>49730</v>
       </c>
-      <c r="V38" s="1">
+      <c r="X38" s="1">
         <v>42629.036105965861</v>
       </c>
-      <c r="W38" s="1">
+      <c r="Y38" s="1">
         <v>40423</v>
       </c>
-      <c r="X38" s="1">
+      <c r="Z38" s="1">
         <v>37483.706792995334</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="AA38" s="1">
         <v>42338</v>
       </c>
-      <c r="Z38" s="1">
+      <c r="AB38" s="1">
         <v>40053.562425144264</v>
       </c>
-      <c r="AA38" s="1">
+      <c r="AC38" s="1">
         <v>38437</v>
       </c>
-      <c r="AB38" s="1">
+      <c r="AD38" s="1">
         <v>35147.049999114017</v>
-      </c>
-      <c r="AC38" s="1"/>
-      <c r="AD38" s="1">
-        <v>30287.55282805816</v>
       </c>
       <c r="AE38" s="1"/>
       <c r="AF38" s="1">
+        <v>30287.55282805816</v>
+      </c>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1">
         <v>29431.036284702623</v>
       </c>
-      <c r="AG38" s="1">
+      <c r="AI38" s="1">
         <v>18167.426186789038</v>
       </c>
-      <c r="AH38" s="1">
+      <c r="AJ38" s="1">
         <v>17920.577307894295</v>
       </c>
-      <c r="AI38" s="1">
+      <c r="AK38" s="1">
         <v>14064.262404890804</v>
       </c>
-      <c r="AJ38" s="1">
+      <c r="AL38" s="1">
         <v>13920.220200600121</v>
       </c>
-      <c r="AK38" s="1">
+      <c r="AM38" s="1">
         <v>16170.350407293701</v>
       </c>
-      <c r="AL38" s="1">
+      <c r="AN38" s="1">
         <v>15680.438756203332</v>
       </c>
-      <c r="AM38" s="1">
+      <c r="AO38" s="1">
         <v>19080.621721110536</v>
       </c>
-      <c r="AN38" s="1">
+      <c r="AP38" s="1">
         <v>16477.260550005074</v>
       </c>
-      <c r="AO38" s="1">
+      <c r="AQ38" s="1">
         <v>14291.64033944324</v>
       </c>
-      <c r="AP38" s="1">
+      <c r="AR38" s="1">
         <v>12399.486223189995</v>
       </c>
-      <c r="AQ38" s="1">
+      <c r="AS38" s="1">
         <v>12033.85344653</v>
       </c>
-      <c r="AR38" s="1">
+      <c r="AT38" s="1">
         <v>5735.4045852800009</v>
       </c>
-      <c r="AS38" s="1">
+      <c r="AU38" s="1">
         <v>6419.2251973800003</v>
       </c>
-      <c r="AT38" s="1">
+      <c r="AV38" s="1">
         <v>4683.4830257900003</v>
       </c>
-      <c r="AU38" s="1">
+      <c r="AW38" s="1">
         <v>3544.4485766600001</v>
       </c>
-      <c r="AV38" s="1">
+      <c r="AX38" s="1">
         <v>3075.3777953899998</v>
       </c>
-      <c r="AW38" s="1">
+      <c r="AY38" s="1">
         <v>2530.2390716599998</v>
       </c>
-      <c r="AX38" s="1">
+      <c r="AZ38" s="1">
         <v>1472.0197429699999</v>
       </c>
-      <c r="AY38" s="1">
+      <c r="BA38" s="1">
         <v>1450.78265779</v>
       </c>
-      <c r="AZ38" s="1">
+      <c r="BB38" s="1">
         <v>1175.52</v>
       </c>
-      <c r="BA38" s="1">
+      <c r="BC38" s="1">
         <v>945.76</v>
       </c>
-      <c r="BB38" s="1">
+      <c r="BD38" s="1">
         <v>726.15</v>
       </c>
-      <c r="BC38" s="1">
+      <c r="BE38" s="1">
         <v>682.68</v>
       </c>
-      <c r="BD38" s="1">
+      <c r="BF38" s="1">
         <v>586.23</v>
       </c>
-      <c r="BE38" s="1">
+      <c r="BG38" s="1">
         <v>499.06</v>
       </c>
-      <c r="BF38" s="1">
+      <c r="BH38" s="1">
         <v>407.84</v>
       </c>
-      <c r="BG38" s="1">
+      <c r="BI38" s="1">
         <v>350.6</v>
       </c>
-      <c r="BH38" s="1">
+      <c r="BJ38" s="1">
         <v>246.76</v>
       </c>
-      <c r="BI38" s="1">
+      <c r="BK38" s="1">
         <v>125.05</v>
       </c>
-      <c r="BJ38" s="1">
+      <c r="BL38" s="1">
         <v>110.19</v>
       </c>
-      <c r="BK38" s="1">
+      <c r="BM38" s="1">
         <v>101.87</v>
       </c>
-      <c r="BL38" s="1">
+      <c r="BN38" s="1">
         <v>63.84</v>
       </c>
-      <c r="BM38" s="1">
+      <c r="BO38" s="1">
         <v>39.29</v>
       </c>
-      <c r="BN38" s="1">
+      <c r="BP38" s="1">
         <v>37.28</v>
       </c>
-      <c r="BO38" s="1">
+      <c r="BQ38" s="1">
         <v>33.75</v>
       </c>
-      <c r="BP38" s="1">
+      <c r="BR38" s="1">
         <v>26.74</v>
       </c>
-      <c r="BQ38" s="1">
+      <c r="BS38" s="1">
         <v>26.15</v>
       </c>
-      <c r="BR38" s="1">
+      <c r="BT38" s="1">
         <v>23.35</v>
       </c>
-      <c r="BS38" s="1"/>
-      <c r="BT38" s="1"/>
       <c r="BU38" s="1"/>
       <c r="BV38" s="1"/>
       <c r="BW38" s="1"/>
       <c r="BX38" s="1"/>
       <c r="BY38" s="1"/>
       <c r="BZ38" s="1"/>
+      <c r="CA38" s="1"/>
+      <c r="CB38" s="1"/>
     </row>
-    <row r="39" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -7915,122 +8119,124 @@
       <c r="R39" s="1">
         <v>0</v>
       </c>
-      <c r="S39" s="1">
-        <v>70</v>
-      </c>
+      <c r="S39" s="1"/>
       <c r="T39" s="1">
         <v>0</v>
       </c>
       <c r="U39" s="1">
+        <v>70</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
         <v>68</v>
       </c>
-      <c r="V39" s="1">
+      <c r="X39" s="1">
         <v>55.576134770000003</v>
       </c>
-      <c r="W39" s="1">
+      <c r="Y39" s="1">
         <v>527</v>
       </c>
-      <c r="X39" s="1">
+      <c r="Z39" s="1">
         <v>476.63352541999996</v>
       </c>
-      <c r="Y39" s="1">
+      <c r="AA39" s="1">
         <v>714</v>
       </c>
-      <c r="Z39" s="1">
+      <c r="AB39" s="1">
         <v>670.03526999999997</v>
       </c>
-      <c r="AA39" s="1">
+      <c r="AC39" s="1">
         <v>573</v>
       </c>
-      <c r="AB39" s="1">
+      <c r="AD39" s="1">
         <v>599.86923100000001</v>
       </c>
-      <c r="AC39" s="1">
+      <c r="AE39" s="1">
         <v>510</v>
       </c>
-      <c r="AD39" s="1">
+      <c r="AF39" s="1">
         <v>445.55379499999998</v>
       </c>
-      <c r="AE39" s="1">
+      <c r="AG39" s="1">
         <v>345</v>
       </c>
-      <c r="AF39" s="1">
+      <c r="AH39" s="1">
         <v>402.68301300000002</v>
       </c>
-      <c r="AG39" s="1">
+      <c r="AI39" s="1">
         <v>245.44028399999999</v>
       </c>
-      <c r="AH39" s="1">
+      <c r="AJ39" s="1">
         <v>360.82238530000001</v>
       </c>
-      <c r="AI39" s="1">
+      <c r="AK39" s="1">
         <v>376.48983236999999</v>
       </c>
-      <c r="AJ39" s="1">
+      <c r="AL39" s="1">
         <v>365.39984188</v>
       </c>
-      <c r="AK39" s="1">
+      <c r="AM39" s="1">
         <v>311.08774876000001</v>
       </c>
-      <c r="AL39" s="1">
+      <c r="AN39" s="1">
         <v>107.52356501000003</v>
       </c>
-      <c r="AM39" s="1">
+      <c r="AO39" s="1">
         <v>180.42775424000001</v>
       </c>
-      <c r="AN39" s="1">
+      <c r="AP39" s="1">
         <v>385.71381200000002</v>
       </c>
-      <c r="AO39" s="1">
+      <c r="AQ39" s="1">
         <v>284.74622371000004</v>
       </c>
-      <c r="AP39" s="1">
+      <c r="AR39" s="1">
         <v>364.46882726999996</v>
       </c>
-      <c r="AQ39" s="1">
+      <c r="AS39" s="1">
         <v>707.54993300000001</v>
       </c>
-      <c r="AR39" s="1">
+      <c r="AT39" s="1">
         <v>720.06052799999998</v>
       </c>
-      <c r="AS39" s="1">
+      <c r="AU39" s="1">
         <v>696.74368400000003</v>
       </c>
-      <c r="AT39" s="1">
+      <c r="AV39" s="1">
         <v>573.79093931</v>
       </c>
-      <c r="AU39" s="1">
+      <c r="AW39" s="1">
         <v>568.40446999999995</v>
       </c>
-      <c r="AV39" s="1">
+      <c r="AX39" s="1">
         <v>536.97552452000002</v>
       </c>
-      <c r="AW39" s="1">
+      <c r="AY39" s="1">
         <v>567.44241137000006</v>
       </c>
-      <c r="AX39" s="1">
+      <c r="AZ39" s="1">
         <v>256.49387551000001</v>
       </c>
-      <c r="AY39" s="1">
+      <c r="BA39" s="1">
         <v>314.65774873000004</v>
       </c>
-      <c r="AZ39" s="1">
+      <c r="BB39" s="1">
         <v>329.06</v>
       </c>
-      <c r="BA39" s="1">
+      <c r="BC39" s="1">
         <v>196.08</v>
       </c>
-      <c r="BB39" s="1">
+      <c r="BD39" s="1">
         <v>109.23</v>
       </c>
-      <c r="BC39" s="1">
+      <c r="BE39" s="1">
         <v>61.69</v>
       </c>
-      <c r="BD39" s="1">
+      <c r="BF39" s="1">
         <v>55</v>
       </c>
-      <c r="BE39" s="1"/>
-      <c r="BF39" s="1"/>
       <c r="BG39" s="1"/>
       <c r="BH39" s="1"/>
       <c r="BI39" s="1"/>
@@ -8051,227 +8257,235 @@
       <c r="BX39" s="1"/>
       <c r="BY39" s="1"/>
       <c r="BZ39" s="1"/>
+      <c r="CA39" s="1"/>
+      <c r="CB39" s="1"/>
     </row>
-    <row r="40" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
       <c r="B40" s="1">
+        <v>23500.83</v>
+      </c>
+      <c r="C40" s="1">
+        <v>28597</v>
+      </c>
+      <c r="D40" s="1">
         <v>15762.85</v>
       </c>
-      <c r="C40" s="1">
+      <c r="E40" s="1">
         <v>15723</v>
       </c>
-      <c r="D40" s="1">
+      <c r="F40" s="1">
         <v>20482.455856069999</v>
       </c>
-      <c r="E40" s="1">
+      <c r="G40" s="1">
         <v>10430</v>
       </c>
-      <c r="F40" s="1">
+      <c r="H40" s="1">
         <v>17850.473642459998</v>
       </c>
-      <c r="G40" s="1">
+      <c r="I40" s="1">
         <v>14782.68</v>
       </c>
-      <c r="H40" s="1">
+      <c r="J40" s="1">
         <v>7450.2844008771935</v>
       </c>
-      <c r="I40" s="1">
+      <c r="K40" s="1">
         <v>5837.5</v>
       </c>
-      <c r="J40" s="1">
+      <c r="L40" s="1">
         <v>4361.1851125506455</v>
       </c>
-      <c r="K40" s="1">
+      <c r="M40" s="1">
         <v>5006</v>
       </c>
-      <c r="L40" s="1">
+      <c r="N40" s="1">
         <v>4850.29741016966</v>
       </c>
-      <c r="M40" s="1">
+      <c r="O40" s="1">
         <v>6285</v>
       </c>
-      <c r="N40" s="1">
+      <c r="P40" s="1">
         <v>4922.1110386351738</v>
       </c>
-      <c r="O40" s="1">
+      <c r="Q40" s="1">
         <v>5931</v>
       </c>
-      <c r="P40" s="1">
+      <c r="R40" s="1">
         <v>4856.4832200821365</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="S40" s="1">
         <v>4992</v>
       </c>
-      <c r="R40" s="1">
+      <c r="T40" s="1">
         <v>4821.7748068734963</v>
       </c>
-      <c r="S40" s="1">
+      <c r="U40" s="1">
         <v>4428</v>
       </c>
-      <c r="T40" s="1">
+      <c r="V40" s="1">
         <v>3882.9183775561069</v>
       </c>
-      <c r="U40" s="1">
+      <c r="W40" s="1">
         <v>3664</v>
       </c>
-      <c r="V40" s="1">
+      <c r="X40" s="1">
         <v>3661.2357676501474</v>
       </c>
-      <c r="W40" s="1">
+      <c r="Y40" s="1">
         <v>4174</v>
       </c>
-      <c r="X40" s="1">
+      <c r="Z40" s="1">
         <v>3849.9028739594341</v>
       </c>
-      <c r="Y40" s="1">
+      <c r="AA40" s="1">
         <v>12287</v>
       </c>
-      <c r="Z40" s="1">
+      <c r="AB40" s="1">
         <v>11783.347535740757</v>
       </c>
-      <c r="AA40" s="1">
+      <c r="AC40" s="1">
         <v>13171</v>
       </c>
-      <c r="AB40" s="1">
+      <c r="AD40" s="1">
         <v>8571.4512590874565</v>
-      </c>
-      <c r="AC40" s="1"/>
-      <c r="AD40" s="1">
-        <v>6758.4959091125547</v>
       </c>
       <c r="AE40" s="1"/>
       <c r="AF40" s="1">
+        <v>6758.4959091125547</v>
+      </c>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1">
         <v>4283.0557304063223</v>
       </c>
-      <c r="AG40" s="1">
+      <c r="AI40" s="1">
         <v>3102.6788601940593</v>
       </c>
-      <c r="AH40" s="1">
+      <c r="AJ40" s="1">
         <v>4316.7816845937623</v>
       </c>
-      <c r="AI40" s="1">
+      <c r="AK40" s="1">
         <v>6122.4610058185372</v>
       </c>
-      <c r="AJ40" s="1">
+      <c r="AL40" s="1">
         <v>4639.2469941998543</v>
       </c>
-      <c r="AK40" s="1">
+      <c r="AM40" s="1">
         <v>1125.3477018862457</v>
       </c>
-      <c r="AL40" s="1">
+      <c r="AN40" s="1">
         <v>1978.401462870049</v>
       </c>
-      <c r="AM40" s="1">
+      <c r="AO40" s="1">
         <v>2907.0746327958191</v>
       </c>
-      <c r="AN40" s="1">
+      <c r="AP40" s="1">
         <v>2063.2475710024523</v>
       </c>
-      <c r="AO40" s="1">
+      <c r="AQ40" s="1">
         <v>1588.1416562593088</v>
       </c>
-      <c r="AP40" s="1">
+      <c r="AR40" s="1">
         <v>1009.8699296500001</v>
       </c>
-      <c r="AQ40" s="1">
+      <c r="AS40" s="1">
         <v>3048.7679110599997</v>
       </c>
-      <c r="AR40" s="1">
+      <c r="AT40" s="1">
         <v>1019.3132862099999</v>
       </c>
-      <c r="AS40" s="1">
+      <c r="AU40" s="1">
         <v>993.03800635000005</v>
       </c>
-      <c r="AT40" s="1">
+      <c r="AV40" s="1">
         <v>484.23370361000002</v>
       </c>
-      <c r="AU40" s="1">
+      <c r="AW40" s="1">
         <v>1152.09367395</v>
       </c>
-      <c r="AV40" s="1">
+      <c r="AX40" s="1">
         <v>514.53351037000004</v>
       </c>
-      <c r="AW40" s="1">
+      <c r="AY40" s="1">
         <v>1105.18036897</v>
       </c>
-      <c r="AX40" s="1">
+      <c r="AZ40" s="1">
         <v>75.938706600000003</v>
       </c>
-      <c r="AY40" s="1">
+      <c r="BA40" s="1">
         <v>18.722577780000002</v>
       </c>
-      <c r="AZ40" s="1">
+      <c r="BB40" s="1">
         <v>22.68</v>
       </c>
-      <c r="BA40" s="1">
+      <c r="BC40" s="1">
         <v>7.56</v>
       </c>
-      <c r="BB40" s="1">
+      <c r="BD40" s="1">
         <v>6.88</v>
       </c>
-      <c r="BC40" s="1">
+      <c r="BE40" s="1">
         <v>101.58</v>
       </c>
-      <c r="BD40" s="1">
+      <c r="BF40" s="1">
         <v>492.88</v>
       </c>
-      <c r="BE40" s="1">
+      <c r="BG40" s="1">
         <v>73.099999999999994</v>
       </c>
-      <c r="BF40" s="1">
+      <c r="BH40" s="1">
         <f>34.69+8.13</f>
         <v>42.82</v>
       </c>
-      <c r="BG40" s="1">
+      <c r="BI40" s="1">
         <f>36.44+7.33</f>
         <v>43.769999999999996</v>
       </c>
-      <c r="BH40" s="1">
+      <c r="BJ40" s="1">
         <f>46.01+8.09</f>
         <v>54.099999999999994</v>
       </c>
-      <c r="BI40" s="1">
+      <c r="BK40" s="1">
         <v>204.3</v>
       </c>
-      <c r="BJ40" s="1">
+      <c r="BL40" s="1">
         <v>301.49</v>
       </c>
-      <c r="BK40" s="1">
+      <c r="BM40" s="1">
         <v>297.89</v>
       </c>
-      <c r="BL40" s="1">
+      <c r="BN40" s="1">
         <v>841.25</v>
       </c>
-      <c r="BM40" s="1">
+      <c r="BO40" s="1">
         <v>69.66</v>
       </c>
-      <c r="BN40" s="1">
+      <c r="BP40" s="1">
         <v>65.11</v>
       </c>
-      <c r="BO40" s="1">
+      <c r="BQ40" s="1">
         <v>61.88</v>
       </c>
-      <c r="BP40" s="1">
+      <c r="BR40" s="1">
         <v>50.76</v>
       </c>
-      <c r="BQ40" s="1">
+      <c r="BS40" s="1">
         <v>24.35</v>
       </c>
-      <c r="BR40" s="1">
+      <c r="BT40" s="1">
         <v>21.46</v>
       </c>
-      <c r="BS40" s="1"/>
-      <c r="BT40" s="1"/>
       <c r="BU40" s="1"/>
       <c r="BV40" s="1"/>
       <c r="BW40" s="1"/>
       <c r="BX40" s="1"/>
       <c r="BY40" s="1"/>
       <c r="BZ40" s="1"/>
+      <c r="CA40" s="1"/>
+      <c r="CB40" s="1"/>
     </row>
-    <row r="41" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -8323,23 +8537,23 @@
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
       <c r="AW41" s="1"/>
-      <c r="AX41" s="1">
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1"/>
+      <c r="AZ41" s="1">
         <v>0.11511066</v>
       </c>
-      <c r="AY41" s="1">
+      <c r="BA41" s="1">
         <v>0.14289615</v>
       </c>
-      <c r="AZ41" s="1">
+      <c r="BB41" s="1">
         <v>9.08</v>
       </c>
-      <c r="BA41" s="1">
+      <c r="BC41" s="1">
         <v>3.42</v>
       </c>
-      <c r="BB41" s="1">
+      <c r="BD41" s="1">
         <v>1.21</v>
       </c>
-      <c r="BC41" s="1"/>
-      <c r="BD41" s="1"/>
       <c r="BE41" s="1"/>
       <c r="BF41" s="1"/>
       <c r="BG41" s="1"/>
@@ -8362,8 +8576,10 @@
       <c r="BX41" s="1"/>
       <c r="BY41" s="1"/>
       <c r="BZ41" s="1"/>
+      <c r="CA41" s="1"/>
+      <c r="CB41" s="1"/>
     </row>
-    <row r="42" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -8415,20 +8631,20 @@
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
       <c r="AW42" s="1"/>
-      <c r="AX42" s="1">
+      <c r="AX42" s="1"/>
+      <c r="AY42" s="1"/>
+      <c r="AZ42" s="1">
         <v>107.14011297999998</v>
       </c>
-      <c r="AY42" s="1">
+      <c r="BA42" s="1">
         <v>101.75523455</v>
       </c>
-      <c r="AZ42" s="1">
+      <c r="BB42" s="1">
         <v>86.18</v>
       </c>
-      <c r="BA42" s="1">
+      <c r="BC42" s="1">
         <v>63.69</v>
       </c>
-      <c r="BB42" s="1"/>
-      <c r="BC42" s="1"/>
       <c r="BD42" s="1"/>
       <c r="BE42" s="1"/>
       <c r="BF42" s="1"/>
@@ -8452,8 +8668,10 @@
       <c r="BX42" s="1"/>
       <c r="BY42" s="1"/>
       <c r="BZ42" s="1"/>
+      <c r="CA42" s="1"/>
+      <c r="CB42" s="1"/>
     </row>
-    <row r="43" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -8506,17 +8724,17 @@
       <c r="AV43" s="1"/>
       <c r="AW43" s="1"/>
       <c r="AX43" s="1"/>
-      <c r="AY43" s="1">
+      <c r="AY43" s="1"/>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="1">
         <v>26.507613630000002</v>
       </c>
-      <c r="AZ43" s="1">
+      <c r="BB43" s="1">
         <v>1445.14</v>
       </c>
-      <c r="BA43" s="1">
+      <c r="BC43" s="1">
         <v>375.14</v>
       </c>
-      <c r="BB43" s="1"/>
-      <c r="BC43" s="1"/>
       <c r="BD43" s="1"/>
       <c r="BE43" s="1"/>
       <c r="BF43" s="1"/>
@@ -8540,101 +8758,103 @@
       <c r="BX43" s="1"/>
       <c r="BY43" s="1"/>
       <c r="BZ43" s="1"/>
+      <c r="CA43" s="1"/>
+      <c r="CB43" s="1"/>
     </row>
-    <row r="44" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>116</v>
       </c>
-      <c r="BA44">
+      <c r="BC44">
         <v>920.93</v>
       </c>
-      <c r="BB44" s="1">
+      <c r="BD44" s="1">
         <v>1171.8599999999999</v>
       </c>
-      <c r="BL44" s="1"/>
-      <c r="BV44" s="1"/>
+      <c r="BN44" s="1"/>
+      <c r="BX44" s="1"/>
     </row>
-    <row r="45" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>117</v>
       </c>
-      <c r="BA45">
+      <c r="BC45">
         <v>72.62</v>
       </c>
     </row>
-    <row r="46" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>139</v>
       </c>
-      <c r="BH46">
+      <c r="BJ46">
         <v>941.57</v>
       </c>
-      <c r="BI46" s="1">
+      <c r="BK46" s="1">
         <v>1662.42</v>
       </c>
-      <c r="BJ46" s="1">
+      <c r="BL46" s="1">
         <v>1340.35</v>
       </c>
-      <c r="BK46" s="1">
+      <c r="BM46" s="1">
         <v>1200.6600000000001</v>
       </c>
-      <c r="BL46">
+      <c r="BN46">
         <v>827.85</v>
       </c>
-      <c r="BM46">
+      <c r="BO46">
         <v>618.66999999999996</v>
       </c>
-      <c r="BN46">
+      <c r="BP46">
         <v>539.85</v>
       </c>
-      <c r="BO46">
+      <c r="BQ46">
         <v>476.15</v>
       </c>
-      <c r="BP46">
+      <c r="BR46">
         <v>359.81</v>
       </c>
-      <c r="BQ46">
+      <c r="BS46">
         <v>332.23</v>
       </c>
-      <c r="BR46">
+      <c r="BT46">
         <v>287.49</v>
       </c>
     </row>
-    <row r="47" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>140</v>
       </c>
-      <c r="BH47">
+      <c r="BJ47">
         <v>941.57</v>
       </c>
-      <c r="BI47" s="1">
+      <c r="BK47" s="1">
         <v>1662.42</v>
       </c>
-      <c r="BJ47" s="1">
+      <c r="BL47" s="1">
         <v>1340.35</v>
       </c>
-      <c r="BK47" s="1">
+      <c r="BM47" s="1">
         <v>1200.6600000000001</v>
       </c>
-      <c r="BL47">
+      <c r="BN47">
         <v>827.85</v>
       </c>
-      <c r="BM47">
+      <c r="BO47">
         <v>618.66999999999996</v>
       </c>
-      <c r="BN47">
+      <c r="BP47">
         <v>539.85</v>
       </c>
-      <c r="BO47">
+      <c r="BQ47">
         <v>476.15</v>
       </c>
-      <c r="BP47">
+      <c r="BR47">
         <v>359.81</v>
       </c>
-      <c r="BQ47">
+      <c r="BS47">
         <v>332.23</v>
       </c>
-      <c r="BR47">
+      <c r="BT47">
         <v>287.49</v>
       </c>
     </row>
@@ -8649,7 +8869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CE0CC1-B6C5-4DCA-8958-7FA10D3991F2}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/Data/Fiscal Data/BIR-Tax-Statistics.xlsx
+++ b/Data/Fiscal Data/BIR-Tax-Statistics.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\GitHub Repositories\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19828010-1433-4F86-BD1A-2D40BDCCE601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A519DBD-4032-4473-8A0B-52E50C6C72CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="4245" windowWidth="12810" windowHeight="10545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="By Source, Millions" sheetId="1" r:id="rId1"/>
-    <sheet name="metadata" sheetId="2" r:id="rId2"/>
+    <sheet name="Goals_RMO" sheetId="3" r:id="rId2"/>
+    <sheet name="metadata" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="324">
   <si>
     <t>Tax Classification</t>
   </si>
@@ -471,9 +472,6 @@
     <t>BIR Collections - Actual</t>
   </si>
   <si>
-    <t>Annual Reports 2008 - 2021</t>
-  </si>
-  <si>
     <t>BIR Collections - Goal</t>
   </si>
   <si>
@@ -505,17 +503,528 @@
   </si>
   <si>
     <t>2024 Goal</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>Annual Reports 2008 - 2023</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>RMO</t>
+  </si>
+  <si>
+    <t>IssueDate</t>
+  </si>
+  <si>
+    <t>TargetCY</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Goal_TotalRevenue</t>
+  </si>
+  <si>
+    <t>Goal_NetIncomeandProfits</t>
+  </si>
+  <si>
+    <t>Goal_ExciseTaxes</t>
+  </si>
+  <si>
+    <t>Goal_ValueAddedTaxes</t>
+  </si>
+  <si>
+    <t>Goal_PercentageTaxes</t>
+  </si>
+  <si>
+    <t>Goal_OtherTaxes</t>
+  </si>
+  <si>
+    <t>https://www.bir.gov.ph/images/bir_files/old_files/pdf/9637rmo11_tables%201-9.pdf</t>
+  </si>
+  <si>
+    <t>RMO No. 11-2002</t>
+  </si>
+  <si>
+    <t>May 10, 2002</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>https://www.bir.gov.ph/images/bir_files/old_files/pdf/4216rmo26_tbls.%201-9.pdf</t>
+  </si>
+  <si>
+    <t>RMO No. 26-2002</t>
+  </si>
+  <si>
+    <t>October 9, 2002</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>https://www.bir.gov.ph/images/bir_files/old_files/pdf/2357rmo03_20.pdf</t>
+  </si>
+  <si>
+    <t>RMO No. 20-2003</t>
+  </si>
+  <si>
+    <t>June 4, 2003</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>Initial/Final</t>
+  </si>
+  <si>
+    <t>https://www.bir.gov.ph/images/bir_files/old_files/pdf/1798rmo04_06tab1.pdf</t>
+  </si>
+  <si>
+    <t>RMO No. 6-2004</t>
+  </si>
+  <si>
+    <t>February 17, 2004</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>https://www.bir.gov.ph/images/bir_files/old_files/pdf/15713rmo05-02%20(tables).pdf</t>
+  </si>
+  <si>
+    <t>RMO No. 2-2005</t>
+  </si>
+  <si>
+    <t>January 18, 2005</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>https://www.bir.gov.ph/images/bir_files/old_files/pdf/28330rmo06_06tables.pdf</t>
+  </si>
+  <si>
+    <t>RMO No. 6-2006</t>
+  </si>
+  <si>
+    <t>February 15, 2006</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>https://www.bir.gov.ph/images/bir_files/old_files/pdf/34743Tables.pdf</t>
+  </si>
+  <si>
+    <t>RMO No. 7-2007</t>
+  </si>
+  <si>
+    <t>April 27, 2007</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>RMO No. 17-2008</t>
+  </si>
+  <si>
+    <t>May 16, 2008</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>RMO No. 7-2009</t>
+  </si>
+  <si>
+    <t>April 6 , 2009</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>RMO No. 25-2009</t>
+  </si>
+  <si>
+    <t>July 9, 2009</t>
+  </si>
+  <si>
+    <t>https://www.bir.gov.ph/images/bir_files/old_files/pdf/50100Annexes_rmo_31-2010_revised_again.pdf</t>
+  </si>
+  <si>
+    <t>RMO No. 31-2010</t>
+  </si>
+  <si>
+    <t>March 24, 2010</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>RMO No. 66-2010</t>
+  </si>
+  <si>
+    <t>July 30, 2010</t>
+  </si>
+  <si>
+    <t>RMO No. 12-2011</t>
+  </si>
+  <si>
+    <t>March 17, 2011</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>RMO No. 1-2012</t>
+  </si>
+  <si>
+    <t>January 12, 2012</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>RMO No. 1-2013</t>
+  </si>
+  <si>
+    <t>January 24, 2013</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>https://www.bir.gov.ph/images/bir_files/old_files/pdf/81226Tables%20RMO%204-2014.pdf</t>
+  </si>
+  <si>
+    <t>RMO No. 4-2014</t>
+  </si>
+  <si>
+    <t>January 16, 2014</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>RMO No. 7-2014</t>
+  </si>
+  <si>
+    <t>January 24, 2014</t>
+  </si>
+  <si>
+    <t>https://www.bir.gov.ph/images/bir_files/internal_communications_3/Full%20Text%20of%20RMO%202015/RMO%202%20Table%201.pdf</t>
+  </si>
+  <si>
+    <t>RMO No. 2-2015</t>
+  </si>
+  <si>
+    <t>January 13, 2015</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>https://www.bir.gov.ph/images/bir_files/internal_communications_3/Full%20Text%20of%20RMO%202015/RMO%204%20Annexes%20Table%201%20to%205.pdf</t>
+  </si>
+  <si>
+    <t>RMO No. 4-2015</t>
+  </si>
+  <si>
+    <t>February 6, 2015</t>
+  </si>
+  <si>
+    <t>Revision 1</t>
+  </si>
+  <si>
+    <t>RMO No. 5-2015</t>
+  </si>
+  <si>
+    <t>March 12, 2015</t>
+  </si>
+  <si>
+    <t>RMO No. 2-2016</t>
+  </si>
+  <si>
+    <t>January 8, 2016</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>RMO No. 7-2017</t>
+  </si>
+  <si>
+    <t>March 16, 2017</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>https://www.bir.gov.ph/images/bir_files/internal_communications_3/Attachments%20of%20RMO%202018/Tables%201-4%20and%205A-5F.pdf</t>
+  </si>
+  <si>
+    <t>RMO No. 8-2018</t>
+  </si>
+  <si>
+    <t>January 29, 2018</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>RMO No. 10-2018</t>
+  </si>
+  <si>
+    <t>February 22, 2018</t>
+  </si>
+  <si>
+    <t>https://www.bir.gov.ph/images/bir_files/internal_communications_3/Attachments%20of%20RMO%202019/RMO%209-2019/RMO%209-2019%20Annexes.pdf</t>
+  </si>
+  <si>
+    <t>RMO No. 9-2019</t>
+  </si>
+  <si>
+    <t>February 11, 2019</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>https://www.bir.gov.ph/images/bir_files/internal_communications_3/Attachments%20of%20RMO%202019/Revised%20CY%202019%20BIR%20Goal_Tables%202-5F.pdf</t>
+  </si>
+  <si>
+    <t>RMO No. 18-2019</t>
+  </si>
+  <si>
+    <t>April 26, 2019</t>
+  </si>
+  <si>
+    <t>RMO No. 29-2019</t>
+  </si>
+  <si>
+    <t>June 6, 2019</t>
+  </si>
+  <si>
+    <t>https://www.bir.gov.ph/images/bir_files/internal_communications_3/Attachments%20of%20RMO%202020/RMO%202-2020%20Annexes.pdf</t>
+  </si>
+  <si>
+    <t>RMO No. 2-2020</t>
+  </si>
+  <si>
+    <t>January 16, 2020</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>https://www.bir.gov.ph/images/bir_files/internal_communications_3/Attachments%20of%20RMO%202020/RMO%20No.%2012-2020%20Annexes.pdf</t>
+  </si>
+  <si>
+    <t>RMO No. 12-2020</t>
+  </si>
+  <si>
+    <t>April 27, 2020</t>
+  </si>
+  <si>
+    <t>https://www.bir.gov.ph/images/bir_files/internal_communications_3/Attachments%20of%20RMO%202020/RMO%20Annexes_pdf.pdf</t>
+  </si>
+  <si>
+    <t>RMO No. 16-2020</t>
+  </si>
+  <si>
+    <t>June 16, 2020</t>
+  </si>
+  <si>
+    <t>Revision 2</t>
+  </si>
+  <si>
+    <t>https://www.bir.gov.ph/images/bir_files/internal_communications_3/Attachments%20of%20RMO%202020/Annexes_pdf.pdf</t>
+  </si>
+  <si>
+    <t>RMO No. 30-2020</t>
+  </si>
+  <si>
+    <t>September 22, 2020</t>
+  </si>
+  <si>
+    <t>https://www.bir.gov.ph/images/bir_files/internal_communications_3/Attachments%20of%20RMO%202021/RMO_No.%207-2021_Annexes_CY%202021%20GOAL.pdf</t>
+  </si>
+  <si>
+    <t>RMO No. 7-2021</t>
+  </si>
+  <si>
+    <t>February 2, 2021</t>
+  </si>
+  <si>
+    <t>RMO No. 27-2021</t>
+  </si>
+  <si>
+    <t>October 25, 2021</t>
+  </si>
+  <si>
+    <t>https://www.bir.gov.ph/images/bir_files/internal_communications_3/2022/Attachments/RMO16-2022_Annexes.pdf</t>
+  </si>
+  <si>
+    <t>RMO No. 16-2022</t>
+  </si>
+  <si>
+    <t>March 15, 2022</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>https://www.bir.gov.ph/images/bir_files/internal_communications_3/2022/Attachments/RMO%2030/RMO%20No.%2030-2022%20Table%205A-F.pdf</t>
+  </si>
+  <si>
+    <t>RMO No. 30-2022</t>
+  </si>
+  <si>
+    <t>June 9, 2022</t>
+  </si>
+  <si>
+    <t>RMO No. 53-2022</t>
+  </si>
+  <si>
+    <t>December 7, 2022</t>
+  </si>
+  <si>
+    <t>https://www.bir.gov.ph/images/bir_files/internal_communications_3/2023/Full%20Text/CY2023_RMO%20Annexes_based%20on%20MTRP%20Dec.5%202022-BL.PDF</t>
+  </si>
+  <si>
+    <t>RMO No. 15-2023</t>
+  </si>
+  <si>
+    <t>April 25, 2023</t>
+  </si>
+  <si>
+    <t>https://www.bir.gov.ph/images/bir_files/internal_communications_3/2023/RMO%20No.%2027-2023/Revised_CY2023_RMO%20Annexes%201.pdf</t>
+  </si>
+  <si>
+    <t>RMO No. 27-2023</t>
+  </si>
+  <si>
+    <t>July 27, 2023</t>
+  </si>
+  <si>
+    <t>RMO No. 34-2023</t>
+  </si>
+  <si>
+    <t>October 19, 2023</t>
+  </si>
+  <si>
+    <t>https://bir-cdn.bir.gov.ph/BIR/pdf/RMO%20No.%2011-2024%20Annexes.pdf</t>
+  </si>
+  <si>
+    <t>RMO No. 11-2024</t>
+  </si>
+  <si>
+    <t>March 14, 2024</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>https://bir-cdn.bir.gov.ph/BIR/pdf/CY2024%20Goal%20_RMO%2029-2024%20Annexes.xlsx</t>
+  </si>
+  <si>
+    <t>RMO No. 29-2024</t>
+  </si>
+  <si>
+    <t>July 22, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bir.gov.ph/revenue-memorandum-orders </t>
+  </si>
+  <si>
+    <t>https://www.bir.gov.ph/bir-archive</t>
+  </si>
+  <si>
+    <t>https://bir-cdn.bir.gov.ph/BIR/pdf/39979RMO%2017-2008%20Annexes.pdf</t>
+  </si>
+  <si>
+    <t>https://bir-cdn.bir.gov.ph/BIR/pdf/46675amended%20annexes%20of%20rmo%2025.PDF</t>
+  </si>
+  <si>
+    <t>https://bir-cdn.bir.gov.ph/BIR/pdf/45613Annexes_rmo7-09.pdf</t>
+  </si>
+  <si>
+    <t>https://bir-cdn.bir.gov.ph/BIR/pdf/52599RMO%2066-2010-Annexes.pdf</t>
+  </si>
+  <si>
+    <t>https://bir-cdn.bir.gov.ph/BIR/pdf/57045ANNEXES_for%20email.pdf</t>
+  </si>
+  <si>
+    <t>https://bir-cdn.bir.gov.ph/BIR/pdf/61827Copy%20of%20ANNEXES_RMO1-2012.pdf</t>
+  </si>
+  <si>
+    <t>https://bir-cdn.bir.gov.ph/BIR/pdf/68142Table1.pdf</t>
+  </si>
+  <si>
+    <t>https://bir-cdn.bir.gov.ph/BIR/pdf/81819Tables%20RMO%207-2014.pdf</t>
+  </si>
+  <si>
+    <t>https://bir-cdn.bir.gov.ph/BIR/pdf/RMO%20No.%205-2015%20Annexes%20Table%201%20to%205.pdf</t>
+  </si>
+  <si>
+    <t>https://bir-cdn.bir.gov.ph/BIR/pdf/RMO%20No.%202-2016%20Annexes%20Table%201%20to%205.pdf</t>
+  </si>
+  <si>
+    <t>https://bir-cdn.bir.gov.ph/BIR/pdf/RMO%207%20-%202017%20Tables.xlsx</t>
+  </si>
+  <si>
+    <t>https://bir-cdn.bir.gov.ph/local/pdf/Tables%201-4%20and%205A-5F_copy.pdf</t>
+  </si>
+  <si>
+    <t>https://bir-cdn.bir.gov.ph/BIR/pdf/RMO%2018-2019%20Revised%20CY%202019%20BIR%20Goal_Tables%202-5F.pdf</t>
+  </si>
+  <si>
+    <t>RMO No. 46-2020</t>
+  </si>
+  <si>
+    <t>December 23, 2020</t>
+  </si>
+  <si>
+    <t>Revision 3</t>
+  </si>
+  <si>
+    <t>https://bir-cdn.bir.gov.ph/local/pdf/Revised_RMO%2045_Annexes.pdf</t>
+  </si>
+  <si>
+    <t>https://bir-cdn.bir.gov.ph/local/pdf/RMO%20No.%2027-2021_Annexes.pdf</t>
+  </si>
+  <si>
+    <t>https://bir-cdn.bir.gov.ph/local/pdf/Revised%20CY2022%20RMO%20Goal%20Annexes.pdf</t>
+  </si>
+  <si>
+    <t>https://bir-cdn.bir.gov.ph/local/pdf/RMO%20No.%2034-2023%20Table%202%20to%205F.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -547,12 +1056,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -566,20 +1081,25 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -808,13 +1328,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CH47"/>
+  <dimension ref="A1:CH48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="L41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,16 +1359,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" t="s">
         <v>155</v>
       </c>
-      <c r="C1" t="s">
-        <v>156</v>
-      </c>
       <c r="D1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" t="s">
         <v>153</v>
-      </c>
-      <c r="E1" t="s">
-        <v>154</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -9353,6 +9873,17 @@
         <v>287.49</v>
       </c>
     </row>
+    <row r="48" spans="1:86" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>26495.599999999999</v>
+      </c>
+      <c r="E48">
+        <v>24522.1</v>
+      </c>
+      <c r="G48">
+        <v>21672.799999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9360,11 +9891,1549 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9F3864-6467-428D-BD82-6F0581A8CF64}">
+  <dimension ref="A1:K43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A38" sqref="A38"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="17.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="9" customWidth="1"/>
+    <col min="7" max="11" width="12.85546875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="9">
+        <v>447556</v>
+      </c>
+      <c r="G2" s="9">
+        <v>244966</v>
+      </c>
+      <c r="H2" s="9">
+        <v>66638</v>
+      </c>
+      <c r="I2" s="9">
+        <v>75929</v>
+      </c>
+      <c r="J2" s="9">
+        <v>35918</v>
+      </c>
+      <c r="K2" s="9">
+        <v>24105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="9">
+        <v>422516</v>
+      </c>
+      <c r="G3" s="9">
+        <v>243499</v>
+      </c>
+      <c r="H3" s="9">
+        <v>54600</v>
+      </c>
+      <c r="I3" s="9">
+        <v>68795</v>
+      </c>
+      <c r="J3" s="9">
+        <v>28812</v>
+      </c>
+      <c r="K3" s="9">
+        <v>26810</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="9">
+        <v>424007</v>
+      </c>
+      <c r="G4" s="9">
+        <v>242672</v>
+      </c>
+      <c r="H4" s="9">
+        <v>58406</v>
+      </c>
+      <c r="I4" s="9">
+        <v>73265</v>
+      </c>
+      <c r="J4" s="9">
+        <v>27357</v>
+      </c>
+      <c r="K4" s="9">
+        <v>22307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" s="9">
+        <v>476306</v>
+      </c>
+      <c r="G5" s="9">
+        <v>278848</v>
+      </c>
+      <c r="H5" s="9">
+        <v>51624</v>
+      </c>
+      <c r="I5" s="9">
+        <v>93727</v>
+      </c>
+      <c r="J5" s="9">
+        <v>21026</v>
+      </c>
+      <c r="K5" s="9">
+        <v>31081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="9">
+        <v>547499</v>
+      </c>
+      <c r="G6" s="9">
+        <v>328920</v>
+      </c>
+      <c r="H6" s="9">
+        <v>61486</v>
+      </c>
+      <c r="I6" s="9">
+        <v>94697</v>
+      </c>
+      <c r="J6" s="9">
+        <v>33041</v>
+      </c>
+      <c r="K6" s="9">
+        <v>29355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="9">
+        <v>675353</v>
+      </c>
+      <c r="G7" s="9">
+        <v>401313</v>
+      </c>
+      <c r="H7" s="9">
+        <v>59789</v>
+      </c>
+      <c r="I7" s="9">
+        <v>145348</v>
+      </c>
+      <c r="J7" s="9">
+        <v>37375</v>
+      </c>
+      <c r="K7" s="9">
+        <v>31528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="9">
+        <v>765859</v>
+      </c>
+      <c r="G8" s="9">
+        <v>433423.5</v>
+      </c>
+      <c r="H8" s="9">
+        <v>58720</v>
+      </c>
+      <c r="I8" s="9">
+        <v>183253.5</v>
+      </c>
+      <c r="J8" s="9">
+        <v>46778</v>
+      </c>
+      <c r="K8" s="9">
+        <v>43684</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="9">
+        <v>844950</v>
+      </c>
+      <c r="G9" s="9">
+        <v>477551</v>
+      </c>
+      <c r="H9" s="9">
+        <v>58436</v>
+      </c>
+      <c r="I9" s="9">
+        <v>204879</v>
+      </c>
+      <c r="J9" s="9">
+        <v>50432</v>
+      </c>
+      <c r="K9" s="9">
+        <v>53652</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="9">
+        <v>865572</v>
+      </c>
+      <c r="G10" s="9">
+        <v>504862</v>
+      </c>
+      <c r="H10" s="9">
+        <v>61040</v>
+      </c>
+      <c r="I10" s="9">
+        <v>195981</v>
+      </c>
+      <c r="J10" s="9">
+        <v>46781</v>
+      </c>
+      <c r="K10" s="9">
+        <v>56908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="9">
+        <v>798455</v>
+      </c>
+      <c r="G11" s="9">
+        <v>470335</v>
+      </c>
+      <c r="H11" s="9">
+        <v>58790</v>
+      </c>
+      <c r="I11" s="9">
+        <v>168679</v>
+      </c>
+      <c r="J11" s="9">
+        <v>44147</v>
+      </c>
+      <c r="K11" s="9">
+        <v>56504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="9">
+        <v>830441</v>
+      </c>
+      <c r="G12" s="9">
+        <v>476447</v>
+      </c>
+      <c r="H12" s="9">
+        <v>57645</v>
+      </c>
+      <c r="I12" s="9">
+        <v>194579</v>
+      </c>
+      <c r="J12" s="9">
+        <v>48984</v>
+      </c>
+      <c r="K12" s="9">
+        <v>52786</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="9">
+        <v>860441</v>
+      </c>
+      <c r="G13" s="9">
+        <v>492076</v>
+      </c>
+      <c r="H13" s="9">
+        <v>62425</v>
+      </c>
+      <c r="I13" s="9">
+        <v>212447</v>
+      </c>
+      <c r="J13" s="9">
+        <v>46739</v>
+      </c>
+      <c r="K13" s="9">
+        <v>46754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="9">
+        <v>940000</v>
+      </c>
+      <c r="G14" s="9">
+        <v>569396</v>
+      </c>
+      <c r="H14" s="9">
+        <v>65418</v>
+      </c>
+      <c r="I14" s="9">
+        <v>198876</v>
+      </c>
+      <c r="J14" s="9">
+        <v>50819</v>
+      </c>
+      <c r="K14" s="9">
+        <v>55491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1066118</v>
+      </c>
+      <c r="G15" s="9">
+        <v>647335</v>
+      </c>
+      <c r="H15" s="9">
+        <v>71171</v>
+      </c>
+      <c r="I15" s="9">
+        <v>226185</v>
+      </c>
+      <c r="J15" s="9">
+        <v>60185</v>
+      </c>
+      <c r="K15" s="9">
+        <v>61242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>310</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1253679</v>
+      </c>
+      <c r="G16" s="9">
+        <v>759187</v>
+      </c>
+      <c r="H16" s="9">
+        <v>102367</v>
+      </c>
+      <c r="I16" s="9">
+        <v>268631</v>
+      </c>
+      <c r="J16" s="9">
+        <v>60732</v>
+      </c>
+      <c r="K16" s="9">
+        <v>62762</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1456330</v>
+      </c>
+      <c r="G17" s="9">
+        <v>855773</v>
+      </c>
+      <c r="H17" s="9">
+        <v>124171</v>
+      </c>
+      <c r="I17" s="9">
+        <v>325738</v>
+      </c>
+      <c r="J17" s="9">
+        <v>72408</v>
+      </c>
+      <c r="K17" s="9">
+        <v>78240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>311</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1425297</v>
+      </c>
+      <c r="G18" s="9">
+        <v>829759</v>
+      </c>
+      <c r="H18" s="9">
+        <v>124171</v>
+      </c>
+      <c r="I18" s="9">
+        <v>325738</v>
+      </c>
+      <c r="J18" s="9">
+        <v>72408</v>
+      </c>
+      <c r="K18" s="9">
+        <v>73221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1720846</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1040477</v>
+      </c>
+      <c r="H19" s="9">
+        <v>140438</v>
+      </c>
+      <c r="I19" s="9">
+        <v>373831</v>
+      </c>
+      <c r="J19" s="9">
+        <v>79142</v>
+      </c>
+      <c r="K19" s="9">
+        <v>86958</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1703946</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1023577</v>
+      </c>
+      <c r="H20" s="9">
+        <v>140438</v>
+      </c>
+      <c r="I20" s="9">
+        <v>373831</v>
+      </c>
+      <c r="J20" s="9">
+        <v>79142</v>
+      </c>
+      <c r="K20" s="9">
+        <v>86958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1673946</v>
+      </c>
+      <c r="G21" s="9">
+        <v>993577</v>
+      </c>
+      <c r="H21" s="9">
+        <v>140438</v>
+      </c>
+      <c r="I21" s="9">
+        <v>373831</v>
+      </c>
+      <c r="J21" s="9">
+        <v>79142</v>
+      </c>
+      <c r="K21" s="9">
+        <v>86958</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="9">
+        <v>2025664</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1243401</v>
+      </c>
+      <c r="H22" s="9">
+        <v>170720</v>
+      </c>
+      <c r="I22" s="9">
+        <v>405111</v>
+      </c>
+      <c r="J22" s="9">
+        <v>82896</v>
+      </c>
+      <c r="K22" s="9">
+        <v>123536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>314</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1829248.5</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1099740.8999999999</v>
+      </c>
+      <c r="H23" s="9">
+        <v>185028.6</v>
+      </c>
+      <c r="I23" s="9">
+        <v>364431.3</v>
+      </c>
+      <c r="J23" s="9">
+        <v>73346.2</v>
+      </c>
+      <c r="K23" s="9">
+        <v>106701.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>244</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="9">
+        <v>2039152</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1045490.951</v>
+      </c>
+      <c r="H24" s="9">
+        <v>310208</v>
+      </c>
+      <c r="I24" s="9">
+        <v>456966.538</v>
+      </c>
+      <c r="J24" s="9">
+        <v>88535.603000000003</v>
+      </c>
+      <c r="K24" s="9">
+        <v>137950.908</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>315</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="9">
+        <v>2039152</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1046538.95</v>
+      </c>
+      <c r="H25" s="9">
+        <v>309233</v>
+      </c>
+      <c r="I25" s="9">
+        <v>457284.53899999999</v>
+      </c>
+      <c r="J25" s="9">
+        <v>88341.603000000003</v>
+      </c>
+      <c r="K25" s="9">
+        <v>137753.908</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>250</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="9">
+        <v>2330693</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1121867</v>
+      </c>
+      <c r="H26" s="9">
+        <v>400510</v>
+      </c>
+      <c r="I26" s="9">
+        <v>506825</v>
+      </c>
+      <c r="J26" s="9">
+        <v>112366</v>
+      </c>
+      <c r="K26" s="9">
+        <v>189125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F27" s="9">
+        <v>2271373</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1157902</v>
+      </c>
+      <c r="H27" s="9">
+        <v>367799</v>
+      </c>
+      <c r="I27" s="9">
+        <v>423545</v>
+      </c>
+      <c r="J27" s="9">
+        <v>95091</v>
+      </c>
+      <c r="K27" s="9">
+        <v>227036</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>316</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" s="9">
+        <v>2330693</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1121874</v>
+      </c>
+      <c r="H28" s="9">
+        <v>400510</v>
+      </c>
+      <c r="I28" s="9">
+        <v>506817</v>
+      </c>
+      <c r="J28" s="9">
+        <v>112367</v>
+      </c>
+      <c r="K28" s="9">
+        <v>189125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>259</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="9">
+        <v>2576003</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1332915</v>
+      </c>
+      <c r="H29" s="9">
+        <v>464966</v>
+      </c>
+      <c r="I29" s="9">
+        <v>443900</v>
+      </c>
+      <c r="J29" s="9">
+        <v>108823</v>
+      </c>
+      <c r="K29" s="9">
+        <v>225399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>263</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F30" s="9">
+        <v>2260484</v>
+      </c>
+      <c r="G30" s="9">
+        <v>1162225</v>
+      </c>
+      <c r="H30" s="9">
+        <v>364206</v>
+      </c>
+      <c r="I30" s="9">
+        <v>413336</v>
+      </c>
+      <c r="J30" s="9">
+        <v>137403</v>
+      </c>
+      <c r="K30" s="9">
+        <v>183314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>266</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1744104</v>
+      </c>
+      <c r="G31" s="9">
+        <v>937917</v>
+      </c>
+      <c r="H31" s="9">
+        <v>193757</v>
+      </c>
+      <c r="I31" s="9">
+        <v>340821</v>
+      </c>
+      <c r="J31" s="9">
+        <v>128030</v>
+      </c>
+      <c r="K31" s="9">
+        <v>143579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>270</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="F32" s="9">
+        <v>1685734</v>
+      </c>
+      <c r="G32" s="9">
+        <v>786785</v>
+      </c>
+      <c r="H32" s="9">
+        <v>286576</v>
+      </c>
+      <c r="I32" s="9">
+        <v>350242</v>
+      </c>
+      <c r="J32" s="9">
+        <v>118699</v>
+      </c>
+      <c r="K32" s="9">
+        <v>143432</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1685734</v>
+      </c>
+      <c r="G33" s="9">
+        <v>786785</v>
+      </c>
+      <c r="H33" s="9">
+        <v>286576</v>
+      </c>
+      <c r="I33" s="9">
+        <v>350242</v>
+      </c>
+      <c r="J33" s="9">
+        <v>118699</v>
+      </c>
+      <c r="K33" s="9">
+        <v>143432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>273</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="9">
+        <v>2081161</v>
+      </c>
+      <c r="G34" s="9">
+        <v>1032952</v>
+      </c>
+      <c r="H34" s="9">
+        <v>332102</v>
+      </c>
+      <c r="I34" s="9">
+        <v>405250</v>
+      </c>
+      <c r="J34" s="9">
+        <v>129292</v>
+      </c>
+      <c r="K34" s="9">
+        <v>181565</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>321</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C35" t="s">
+        <v>277</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" s="9">
+        <v>2081161</v>
+      </c>
+      <c r="G35" s="9">
+        <f>1015431+39712</f>
+        <v>1055143</v>
+      </c>
+      <c r="H35" s="9">
+        <v>305218</v>
+      </c>
+      <c r="I35" s="9">
+        <v>378721</v>
+      </c>
+      <c r="J35" s="9">
+        <v>127860</v>
+      </c>
+      <c r="K35" s="9">
+        <v>214219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>278</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" s="9">
+        <v>2438302</v>
+      </c>
+      <c r="G36" s="9">
+        <v>1225218.0830000001</v>
+      </c>
+      <c r="H36" s="9">
+        <v>348345</v>
+      </c>
+      <c r="I36" s="9">
+        <v>501631.55300000001</v>
+      </c>
+      <c r="J36" s="9">
+        <v>136741.364</v>
+      </c>
+      <c r="K36" s="9">
+        <v>226366</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>282</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F37" s="9">
+        <v>2438302</v>
+      </c>
+      <c r="G37" s="9">
+        <v>1225218.0830000001</v>
+      </c>
+      <c r="H37" s="9">
+        <v>348345</v>
+      </c>
+      <c r="I37" s="9">
+        <v>501631.55300000001</v>
+      </c>
+      <c r="J37" s="9">
+        <v>136741.364</v>
+      </c>
+      <c r="K37" s="9">
+        <v>226366</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>322</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F38" s="9">
+        <v>2392587</v>
+      </c>
+      <c r="G38" s="9">
+        <v>1197966</v>
+      </c>
+      <c r="H38" s="9">
+        <v>365197</v>
+      </c>
+      <c r="I38" s="9">
+        <v>430160.55300000001</v>
+      </c>
+      <c r="J38" s="9">
+        <v>153695.364</v>
+      </c>
+      <c r="K38" s="9">
+        <v>245568</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>287</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F39" s="9">
+        <v>2599127</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1368921</v>
+      </c>
+      <c r="H39" s="9">
+        <v>352876</v>
+      </c>
+      <c r="I39" s="9">
+        <v>507027</v>
+      </c>
+      <c r="J39" s="9">
+        <v>125049</v>
+      </c>
+      <c r="K39" s="9">
+        <f>230480+14774</f>
+        <v>245254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>290</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F40" s="9">
+        <v>2639174</v>
+      </c>
+      <c r="G40" s="9">
+        <v>1397523</v>
+      </c>
+      <c r="H40" s="9">
+        <v>336093</v>
+      </c>
+      <c r="I40" s="9">
+        <v>538131</v>
+      </c>
+      <c r="J40" s="9">
+        <v>124646</v>
+      </c>
+      <c r="K40" s="9">
+        <v>242781</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" s="9">
+        <v>2639174</v>
+      </c>
+      <c r="G41" s="9">
+        <f>1316452+81071</f>
+        <v>1397523</v>
+      </c>
+      <c r="H41" s="9">
+        <v>336093</v>
+      </c>
+      <c r="I41" s="9">
+        <v>538131</v>
+      </c>
+      <c r="J41" s="9">
+        <v>124646</v>
+      </c>
+      <c r="K41" s="9">
+        <f>224154+18627</f>
+        <v>242781</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>295</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F42" s="9">
+        <v>3055169</v>
+      </c>
+      <c r="G42" s="9">
+        <f>1649267+72127</f>
+        <v>1721394</v>
+      </c>
+      <c r="H42" s="9">
+        <v>326195</v>
+      </c>
+      <c r="I42" s="9">
+        <v>599235</v>
+      </c>
+      <c r="J42" s="9">
+        <v>163216</v>
+      </c>
+      <c r="K42" s="9">
+        <f>229242+15887</f>
+        <v>245129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>299</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F43" s="9">
+        <v>3046751.2749999999</v>
+      </c>
+      <c r="G43" s="9">
+        <f>1467398.307+ 85227.022</f>
+        <v>1552625.3289999999</v>
+      </c>
+      <c r="H43" s="9">
+        <v>457812.31400000001</v>
+      </c>
+      <c r="I43" s="9">
+        <v>620708.23899999994</v>
+      </c>
+      <c r="J43" s="9">
+        <v>144379.228</v>
+      </c>
+      <c r="K43" s="9">
+        <f>255339.165+ 15887</f>
+        <v>271226.16500000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9433,7 +11502,7 @@
         <v>140</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -9449,49 +11518,62 @@
         <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" t="s">
         <v>146</v>
-      </c>
-      <c r="B13" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
+      <c r="B14" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="4" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>150</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="4"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>152</v>
+      <c r="A18" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9500,8 +11582,9 @@
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B17" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B18" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B20" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B14" r:id="rId5" xr:uid="{437668B8-5186-42B0-A692-8F19A10F67FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Data/Fiscal Data/BIR-Tax-Statistics.xlsx
+++ b/Data/Fiscal Data/BIR-Tax-Statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\GitHub Repositories\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B10561-AF61-455C-82AC-8F0E7703EFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7311032A-23BC-4CB5-8A9B-FA5158B8D9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="3000" windowWidth="14580" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="1470" windowWidth="15270" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="By Source, Millions" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="331">
   <si>
     <t>Tax Classification</t>
   </si>
@@ -1025,13 +1025,16 @@
   </si>
   <si>
     <t>2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    o.w. Sweetened Beverages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1073,6 +1076,19 @@
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1101,7 +1117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1113,9 +1129,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1344,13 +1364,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CJ48"/>
+  <dimension ref="A1:CJ49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,10 +1665,10 @@
         <v>3232475.0260000001</v>
       </c>
       <c r="D2" s="2">
-        <v>2851602.9618010102</v>
+        <v>2851603.73</v>
       </c>
       <c r="E2" s="2">
-        <v>3046751.2749999999</v>
+        <v>2848936.46</v>
       </c>
       <c r="F2" s="2">
         <v>2516986.7599999998</v>
@@ -1909,10 +1929,12 @@
         <v>1711755.2549999999</v>
       </c>
       <c r="D3" s="2">
-        <v>1455697.03691216</v>
+        <f>SUM(D4,D7,D12)</f>
+        <v>1532764.6</v>
       </c>
       <c r="E3" s="2">
-        <v>1552625.3289999999</v>
+        <f>SUM(E4,E7,E12)</f>
+        <v>1553411.6600000001</v>
       </c>
       <c r="F3" s="2">
         <v>1404242.51</v>
@@ -2154,8 +2176,12 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="3">
+        <v>583710.06000000006</v>
+      </c>
+      <c r="E4" s="3">
+        <v>610498.92000000004</v>
+      </c>
       <c r="F4" s="3">
         <v>550921.01</v>
       </c>
@@ -2388,8 +2414,12 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="3">
+        <v>335216.42</v>
+      </c>
+      <c r="E5" s="3">
+        <v>345178.16</v>
+      </c>
       <c r="F5" s="3">
         <v>309412.33</v>
       </c>
@@ -2622,8 +2652,12 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="3">
+        <v>248493.63</v>
+      </c>
+      <c r="E6" s="3">
+        <v>265320.75</v>
+      </c>
       <c r="F6" s="3">
         <v>241508.68</v>
       </c>
@@ -2856,8 +2890,12 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="3">
+        <v>764632.9</v>
+      </c>
+      <c r="E7" s="3">
+        <v>770578.65</v>
+      </c>
       <c r="F7" s="3">
         <v>699482.9</v>
       </c>
@@ -3086,8 +3124,12 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="3">
+        <v>23287.56</v>
+      </c>
+      <c r="E8" s="3">
+        <v>24133.71</v>
+      </c>
       <c r="F8" s="3">
         <v>21964.06</v>
       </c>
@@ -3316,8 +3358,12 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="3">
+        <v>364454.33</v>
+      </c>
+      <c r="E9" s="3">
+        <v>365314.26</v>
+      </c>
       <c r="F9" s="3">
         <v>334503.71999999997</v>
       </c>
@@ -3546,8 +3592,12 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="3">
+        <v>34478.22</v>
+      </c>
+      <c r="E10" s="3">
+        <v>40278.639999999999</v>
+      </c>
       <c r="F10" s="3">
         <v>33302.89</v>
       </c>
@@ -3760,8 +3810,12 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="3">
+        <v>342412.78</v>
+      </c>
+      <c r="E11" s="3">
+        <v>340852.04</v>
+      </c>
       <c r="F11" s="3">
         <v>309712.23</v>
       </c>
@@ -3970,8 +4024,14 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="11">
+        <f>SUM(D13:D14)</f>
+        <v>184421.64</v>
+      </c>
+      <c r="E12" s="11">
+        <f>SUM(E13:E14)</f>
+        <v>172334.09</v>
+      </c>
       <c r="F12" s="3">
         <v>153838.6</v>
       </c>
@@ -4188,8 +4248,12 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="D13" s="3">
+        <v>107354.21</v>
+      </c>
+      <c r="E13" s="3">
+        <v>96194.16</v>
+      </c>
       <c r="F13" s="3">
         <v>88425.17</v>
       </c>
@@ -4402,8 +4466,12 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="11">
+        <v>77067.429999999993</v>
+      </c>
+      <c r="E14" s="11">
+        <v>76139.929999999993</v>
+      </c>
       <c r="F14" s="3">
         <v>65413.440000000002</v>
       </c>
@@ -5017,10 +5085,10 @@
         <v>343103.80699999997</v>
       </c>
       <c r="D19" s="2">
-        <v>304278.68996458006</v>
+        <v>304279.07</v>
       </c>
       <c r="E19" s="2">
-        <v>457812.31400000001</v>
+        <v>313078.32</v>
       </c>
       <c r="F19" s="2">
         <v>292984.40000000002</v>
@@ -5265,10 +5333,10 @@
         <v>130038</v>
       </c>
       <c r="D20" s="3">
-        <v>116090</v>
+        <v>116088.08</v>
       </c>
       <c r="E20" s="3">
-        <v>116506</v>
+        <v>117163.4</v>
       </c>
       <c r="F20" s="3">
         <v>108197.11</v>
@@ -5489,10 +5557,10 @@
         <v>148920</v>
       </c>
       <c r="D21" s="3">
-        <v>134520</v>
+        <v>134433.13</v>
       </c>
       <c r="E21" s="3">
-        <v>152404</v>
+        <v>141728.66</v>
       </c>
       <c r="F21" s="3">
         <v>134909.29</v>
@@ -5710,7 +5778,9 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3">
+        <v>98.15</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3">
         <v>6.84</v>
@@ -5924,8 +5994,12 @@
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="D23" s="3">
+        <v>43690.83</v>
+      </c>
+      <c r="E23" s="3">
+        <v>43031.92</v>
+      </c>
       <c r="F23" s="3">
         <v>40244.11</v>
       </c>
@@ -6138,205 +6212,107 @@
     </row>
     <row r="24" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>330</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3">
-        <v>11070</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+        <v>39279</v>
+      </c>
+      <c r="D24" s="3">
+        <v>37638.75</v>
+      </c>
+      <c r="E24" s="3">
+        <v>36881.519999999997</v>
+      </c>
       <c r="F24" s="3">
-        <v>9627.0499999999993</v>
+        <v>34630.6</v>
       </c>
       <c r="G24" s="3">
-        <v>11412</v>
+        <v>38257</v>
       </c>
       <c r="H24" s="3">
-        <v>8843.2999999999993</v>
+        <v>35819.14</v>
       </c>
       <c r="I24" s="3">
-        <v>11612</v>
+        <v>37045</v>
       </c>
       <c r="J24" s="3">
-        <v>7872.23</v>
-      </c>
-      <c r="K24" s="3">
-        <v>7163</v>
-      </c>
-      <c r="L24" s="3">
-        <v>5900.3</v>
-      </c>
-      <c r="M24" s="3">
-        <v>4227</v>
-      </c>
-      <c r="N24" s="3">
-        <v>5452.766428429999</v>
-      </c>
-      <c r="O24" s="3">
-        <v>6438</v>
-      </c>
-      <c r="P24" s="3">
-        <v>4917.99041493</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>5899</v>
-      </c>
-      <c r="R24" s="3">
-        <v>2250.88196711</v>
-      </c>
-      <c r="S24" s="3">
-        <v>2690.3</v>
-      </c>
-      <c r="T24" s="3">
-        <v>1758.4500511399999</v>
-      </c>
-      <c r="U24" s="3">
-        <v>3837</v>
-      </c>
-      <c r="V24" s="3">
-        <v>2079.02046384</v>
-      </c>
-      <c r="W24" s="3">
-        <v>3754</v>
-      </c>
-      <c r="X24" s="3">
-        <v>3203.0499116399997</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>3019</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>2493.5214158099998</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>2590</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>2206.08444237</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>1873</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>6985.7537999599999</v>
-      </c>
-      <c r="AE24" s="3">
-        <v>1643</v>
-      </c>
-      <c r="AF24" s="3">
-        <v>1305.9275632899999</v>
-      </c>
-      <c r="AG24" s="3">
-        <v>840</v>
-      </c>
-      <c r="AH24" s="3">
-        <v>718.77101091823999</v>
-      </c>
-      <c r="AI24" s="3">
-        <v>745</v>
-      </c>
-      <c r="AJ24" s="3">
-        <v>660.31297514999994</v>
-      </c>
-      <c r="AK24" s="3">
-        <v>846.79</v>
-      </c>
-      <c r="AL24" s="3">
-        <v>942.14283519179799</v>
-      </c>
+        <v>32950.94</v>
+      </c>
+      <c r="K24" s="14">
+        <v>34043</v>
+      </c>
+      <c r="L24" s="15">
+        <v>32417.759999999998</v>
+      </c>
+      <c r="M24" s="14">
+        <v>28617</v>
+      </c>
+      <c r="N24" s="15">
+        <v>38622.83</v>
+      </c>
+      <c r="O24" s="14">
+        <v>37286</v>
+      </c>
+      <c r="P24" s="15">
+        <v>35510.589999999997</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>46455</v>
+      </c>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
       <c r="AM24" s="3"/>
-      <c r="AN24" s="3">
-        <v>489.57032305000001</v>
-      </c>
+      <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
-      <c r="AP24" s="3">
-        <v>251.38157525</v>
-      </c>
-      <c r="AQ24" s="3">
-        <v>232.49521180000002</v>
-      </c>
-      <c r="AR24" s="3">
-        <v>155.77182474</v>
-      </c>
-      <c r="AS24" s="3">
-        <v>151.92634781999999</v>
-      </c>
-      <c r="AT24" s="3">
-        <v>119.84906088</v>
-      </c>
-      <c r="AU24" s="3">
-        <v>243.31401322999997</v>
-      </c>
-      <c r="AV24" s="3">
-        <v>241.07091965000004</v>
-      </c>
-      <c r="AW24" s="3">
-        <v>123.88841907</v>
-      </c>
-      <c r="AX24" s="3">
-        <v>77.444841359999998</v>
-      </c>
-      <c r="AY24" s="3">
-        <v>43.510249510000001</v>
-      </c>
-      <c r="AZ24" s="3">
-        <v>142.82351498</v>
-      </c>
-      <c r="BA24" s="3">
-        <v>71.945836889999995</v>
-      </c>
-      <c r="BB24" s="3">
-        <v>131.49649969000001</v>
-      </c>
-      <c r="BC24" s="3">
-        <v>578.46769251000001</v>
-      </c>
-      <c r="BD24" s="3">
-        <v>869.22723125000005</v>
-      </c>
-      <c r="BE24" s="3">
-        <v>838.9258515800002</v>
-      </c>
-      <c r="BF24" s="3">
-        <v>711.40746982999997</v>
-      </c>
-      <c r="BG24" s="3">
-        <v>563.00294125000005</v>
-      </c>
-      <c r="BH24" s="3">
-        <v>337.83894028999998</v>
-      </c>
-      <c r="BI24" s="3">
-        <v>128.25019069000001</v>
-      </c>
-      <c r="BJ24" s="3">
-        <v>171.94</v>
-      </c>
-      <c r="BK24" s="3">
-        <v>123.84</v>
-      </c>
-      <c r="BL24" s="3">
-        <v>134.86000000000001</v>
-      </c>
-      <c r="BM24" s="3">
-        <v>162.47999999999999</v>
-      </c>
-      <c r="BN24" s="3">
-        <v>130.06</v>
-      </c>
-      <c r="BO24" s="3">
-        <v>86.27</v>
-      </c>
-      <c r="BP24" s="3">
-        <v>75.66</v>
-      </c>
-      <c r="BQ24" s="3">
-        <v>72.319999999999993</v>
-      </c>
-      <c r="BR24" s="3">
-        <v>52.22</v>
-      </c>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="3"/>
+      <c r="BJ24" s="3"/>
+      <c r="BK24" s="3"/>
+      <c r="BL24" s="3"/>
+      <c r="BM24" s="3"/>
+      <c r="BN24" s="3"/>
+      <c r="BO24" s="3"/>
+      <c r="BP24" s="3"/>
+      <c r="BQ24" s="3"/>
+      <c r="BR24" s="3"/>
       <c r="BS24" s="3"/>
       <c r="BT24" s="3"/>
       <c r="BU24" s="3"/>
@@ -6358,150 +6334,208 @@
     </row>
     <row r="25" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
+      <c r="C25" s="3">
+        <v>11070</v>
+      </c>
+      <c r="D25" s="3">
+        <v>9968.8700000000008</v>
+      </c>
+      <c r="E25" s="3">
+        <v>11154.34</v>
+      </c>
+      <c r="F25" s="3">
+        <v>9627.0499999999993</v>
+      </c>
+      <c r="G25" s="3">
+        <v>11412</v>
+      </c>
+      <c r="H25" s="3">
+        <v>8843.2999999999993</v>
+      </c>
+      <c r="I25" s="3">
+        <v>11612</v>
+      </c>
+      <c r="J25" s="3">
+        <v>7872.23</v>
+      </c>
+      <c r="K25" s="3">
+        <v>7163</v>
+      </c>
+      <c r="L25" s="3">
+        <v>5900.3</v>
+      </c>
+      <c r="M25" s="3">
+        <v>4227</v>
+      </c>
+      <c r="N25" s="3">
+        <v>5452.766428429999</v>
+      </c>
+      <c r="O25" s="3">
+        <v>6438</v>
+      </c>
+      <c r="P25" s="3">
+        <v>4917.99041493</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>5899</v>
+      </c>
+      <c r="R25" s="3">
+        <v>2250.88196711</v>
+      </c>
+      <c r="S25" s="3">
+        <v>2690.3</v>
+      </c>
+      <c r="T25" s="3">
+        <v>1758.4500511399999</v>
+      </c>
+      <c r="U25" s="3">
+        <v>3837</v>
+      </c>
+      <c r="V25" s="3">
+        <v>2079.02046384</v>
+      </c>
+      <c r="W25" s="3">
+        <v>3754</v>
+      </c>
+      <c r="X25" s="3">
+        <v>3203.0499116399997</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>3019</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>2493.5214158099998</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>2590</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>2206.08444237</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>1873</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>6985.7537999599999</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>1643</v>
+      </c>
       <c r="AF25" s="3">
-        <v>9.8059606300000013</v>
+        <v>1305.9275632899999</v>
       </c>
       <c r="AG25" s="3">
-        <v>6</v>
+        <v>840</v>
       </c>
       <c r="AH25" s="3">
-        <v>6.2793169899999999</v>
+        <v>718.77101091823999</v>
       </c>
       <c r="AI25" s="3">
-        <v>6</v>
+        <v>745</v>
       </c>
       <c r="AJ25" s="3">
-        <v>5.919194609999999</v>
+        <v>660.31297514999994</v>
       </c>
       <c r="AK25" s="3">
-        <v>12.6</v>
+        <v>846.79</v>
       </c>
       <c r="AL25" s="3">
-        <v>10.69786603</v>
+        <v>942.14283519179799</v>
       </c>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3">
-        <v>5.3110168399999997</v>
+        <v>489.57032305000001</v>
       </c>
       <c r="AO25" s="3"/>
       <c r="AP25" s="3">
-        <v>6.9119992700000008</v>
+        <v>251.38157525</v>
       </c>
       <c r="AQ25" s="3">
-        <v>0.38886662999999999</v>
+        <v>232.49521180000002</v>
       </c>
       <c r="AR25" s="3">
-        <v>20.507188599999999</v>
+        <v>155.77182474</v>
       </c>
       <c r="AS25" s="3">
-        <v>4.3574967100000004</v>
+        <v>151.92634781999999</v>
       </c>
       <c r="AT25" s="3">
-        <v>9.0400927299999996</v>
+        <v>119.84906088</v>
       </c>
       <c r="AU25" s="3">
-        <v>10.635648380000001</v>
+        <v>243.31401322999997</v>
       </c>
       <c r="AV25" s="3">
-        <v>10.929320279999999</v>
+        <v>241.07091965000004</v>
       </c>
       <c r="AW25" s="3">
-        <v>31.681654569999999</v>
+        <v>123.88841907</v>
       </c>
       <c r="AX25" s="3">
-        <v>111.92196916</v>
+        <v>77.444841359999998</v>
       </c>
       <c r="AY25" s="3">
-        <v>83.277831030000002</v>
+        <v>43.510249510000001</v>
       </c>
       <c r="AZ25" s="3">
-        <v>73.383921939999993</v>
+        <v>142.82351498</v>
       </c>
       <c r="BA25" s="3">
-        <v>59.374728299999994</v>
+        <v>71.945836889999995</v>
       </c>
       <c r="BB25" s="3">
-        <v>10.327329499999999</v>
+        <v>131.49649969000001</v>
       </c>
       <c r="BC25" s="3">
-        <v>9.9055835899999991</v>
+        <v>578.46769251000001</v>
       </c>
       <c r="BD25" s="3">
-        <v>9.7068222500000001</v>
+        <v>869.22723125000005</v>
       </c>
       <c r="BE25" s="3">
-        <v>9.3099967800000005</v>
+        <v>838.9258515800002</v>
       </c>
       <c r="BF25" s="3">
-        <v>9.5226670000000002</v>
+        <v>711.40746982999997</v>
       </c>
       <c r="BG25" s="3">
-        <v>9.8240497800000011</v>
+        <v>563.00294125000005</v>
       </c>
       <c r="BH25" s="3">
-        <v>9.2968711600000002</v>
+        <v>337.83894028999998</v>
       </c>
       <c r="BI25" s="3">
-        <v>10.2654462</v>
+        <v>128.25019069000001</v>
       </c>
       <c r="BJ25" s="3">
-        <v>7.52</v>
+        <v>171.94</v>
       </c>
       <c r="BK25" s="3">
-        <v>9.75</v>
+        <v>123.84</v>
       </c>
       <c r="BL25" s="3">
-        <v>5.49</v>
+        <v>134.86000000000001</v>
       </c>
       <c r="BM25" s="3">
-        <v>7.76</v>
+        <v>162.47999999999999</v>
       </c>
       <c r="BN25" s="3">
-        <v>9.34</v>
+        <v>130.06</v>
       </c>
       <c r="BO25" s="3">
-        <v>8.3699999999999992</v>
+        <v>86.27</v>
       </c>
       <c r="BP25" s="3">
-        <v>8.85</v>
+        <v>75.66</v>
       </c>
       <c r="BQ25" s="3">
-        <v>2.25</v>
+        <v>72.319999999999993</v>
       </c>
       <c r="BR25" s="3">
-        <v>6.34</v>
+        <v>52.22</v>
       </c>
       <c r="BS25" s="3"/>
       <c r="BT25" s="3"/>
@@ -6524,7 +6558,7 @@
     </row>
     <row r="26" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6556,49 +6590,119 @@
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
-      <c r="AK26" s="3"/>
-      <c r="AL26" s="3"/>
+      <c r="AF26" s="3">
+        <v>9.8059606300000013</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>6</v>
+      </c>
+      <c r="AH26" s="3">
+        <v>6.2793169899999999</v>
+      </c>
+      <c r="AI26" s="3">
+        <v>6</v>
+      </c>
+      <c r="AJ26" s="3">
+        <v>5.919194609999999</v>
+      </c>
+      <c r="AK26" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="AL26" s="3">
+        <v>10.69786603</v>
+      </c>
       <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
+      <c r="AN26" s="3">
+        <v>5.3110168399999997</v>
+      </c>
       <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
-      <c r="AQ26" s="3"/>
-      <c r="AR26" s="3"/>
-      <c r="AS26" s="3"/>
-      <c r="AT26" s="3"/>
-      <c r="AU26" s="3"/>
-      <c r="AV26" s="3"/>
-      <c r="AW26" s="3"/>
-      <c r="AX26" s="3"/>
-      <c r="AY26" s="3"/>
-      <c r="AZ26" s="3"/>
-      <c r="BA26" s="3"/>
-      <c r="BB26" s="3"/>
-      <c r="BC26" s="3"/>
-      <c r="BD26" s="3"/>
-      <c r="BE26" s="3"/>
+      <c r="AP26" s="3">
+        <v>6.9119992700000008</v>
+      </c>
+      <c r="AQ26" s="3">
+        <v>0.38886662999999999</v>
+      </c>
+      <c r="AR26" s="3">
+        <v>20.507188599999999</v>
+      </c>
+      <c r="AS26" s="3">
+        <v>4.3574967100000004</v>
+      </c>
+      <c r="AT26" s="3">
+        <v>9.0400927299999996</v>
+      </c>
+      <c r="AU26" s="3">
+        <v>10.635648380000001</v>
+      </c>
+      <c r="AV26" s="3">
+        <v>10.929320279999999</v>
+      </c>
+      <c r="AW26" s="3">
+        <v>31.681654569999999</v>
+      </c>
+      <c r="AX26" s="3">
+        <v>111.92196916</v>
+      </c>
+      <c r="AY26" s="3">
+        <v>83.277831030000002</v>
+      </c>
+      <c r="AZ26" s="3">
+        <v>73.383921939999993</v>
+      </c>
+      <c r="BA26" s="3">
+        <v>59.374728299999994</v>
+      </c>
+      <c r="BB26" s="3">
+        <v>10.327329499999999</v>
+      </c>
+      <c r="BC26" s="3">
+        <v>9.9055835899999991</v>
+      </c>
+      <c r="BD26" s="3">
+        <v>9.7068222500000001</v>
+      </c>
+      <c r="BE26" s="3">
+        <v>9.3099967800000005</v>
+      </c>
       <c r="BF26" s="3">
-        <v>2459.6120312500002</v>
+        <v>9.5226670000000002</v>
       </c>
       <c r="BG26" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH26" s="3"/>
-      <c r="BI26" s="3"/>
-      <c r="BJ26" s="3"/>
-      <c r="BK26" s="3"/>
-      <c r="BL26" s="3"/>
-      <c r="BM26" s="3"/>
-      <c r="BN26" s="3"/>
-      <c r="BO26" s="3"/>
-      <c r="BP26" s="3"/>
-      <c r="BQ26" s="3"/>
-      <c r="BR26" s="3"/>
+        <v>9.8240497800000011</v>
+      </c>
+      <c r="BH26" s="3">
+        <v>9.2968711600000002</v>
+      </c>
+      <c r="BI26" s="3">
+        <v>10.2654462</v>
+      </c>
+      <c r="BJ26" s="3">
+        <v>7.52</v>
+      </c>
+      <c r="BK26" s="3">
+        <v>9.75</v>
+      </c>
+      <c r="BL26" s="3">
+        <v>5.49</v>
+      </c>
+      <c r="BM26" s="3">
+        <v>7.76</v>
+      </c>
+      <c r="BN26" s="3">
+        <v>9.34</v>
+      </c>
+      <c r="BO26" s="3">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="BP26" s="3">
+        <v>8.85</v>
+      </c>
+      <c r="BQ26" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="BR26" s="3">
+        <v>6.34</v>
+      </c>
       <c r="BS26" s="3"/>
       <c r="BT26" s="3"/>
       <c r="BU26" s="3"/>
@@ -6620,7 +6724,7 @@
     </row>
     <row r="27" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6678,23 +6782,17 @@
       <c r="BC27" s="3"/>
       <c r="BD27" s="3"/>
       <c r="BE27" s="3"/>
-      <c r="BF27" s="3"/>
-      <c r="BG27" s="3"/>
-      <c r="BH27" s="3">
-        <v>96.541811979999991</v>
-      </c>
-      <c r="BI27" s="3">
-        <v>50.647785450000001</v>
-      </c>
-      <c r="BJ27" s="3">
-        <v>70.34</v>
-      </c>
-      <c r="BK27" s="3">
-        <v>165.49</v>
-      </c>
-      <c r="BL27" s="3">
-        <v>137.62</v>
-      </c>
+      <c r="BF27" s="3">
+        <v>2459.6120312500002</v>
+      </c>
+      <c r="BG27" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH27" s="3"/>
+      <c r="BI27" s="3"/>
+      <c r="BJ27" s="3"/>
+      <c r="BK27" s="3"/>
+      <c r="BL27" s="3"/>
       <c r="BM27" s="3"/>
       <c r="BN27" s="3"/>
       <c r="BO27" s="3"/>
@@ -6721,218 +6819,98 @@
       <c r="CJ27" s="3"/>
     </row>
     <row r="28" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2">
-        <v>620708.23899999994</v>
-      </c>
-      <c r="F28" s="2">
-        <v>475244.04</v>
-      </c>
-      <c r="G28" s="2">
-        <v>538131</v>
-      </c>
-      <c r="H28" s="2">
-        <v>476139.49</v>
-      </c>
-      <c r="I28" s="2">
-        <v>430160.55</v>
-      </c>
-      <c r="J28" s="2">
-        <v>385666.11</v>
-      </c>
-      <c r="K28" s="2">
-        <v>378721</v>
-      </c>
-      <c r="L28" s="2">
-        <v>351849.5</v>
-      </c>
-      <c r="M28" s="2">
-        <v>350242</v>
-      </c>
-      <c r="N28" s="2">
-        <v>406084.08439190005</v>
-      </c>
-      <c r="O28" s="2">
-        <v>423545</v>
-      </c>
-      <c r="P28" s="2">
-        <v>358168.6306872</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>435877</v>
-      </c>
-      <c r="R28" s="2">
-        <v>365235.32623017998</v>
-      </c>
-      <c r="S28" s="2">
-        <v>364431.3</v>
-      </c>
-      <c r="T28" s="2">
-        <v>331414.45098551508</v>
-      </c>
-      <c r="U28" s="2">
-        <v>343544</v>
-      </c>
-      <c r="V28" s="2">
-        <v>295502.31677542004</v>
-      </c>
-      <c r="W28" s="2">
-        <v>373831</v>
-      </c>
-      <c r="X28" s="2">
-        <v>278793.76701648103</v>
-      </c>
-      <c r="Y28" s="2">
-        <v>325738</v>
-      </c>
-      <c r="Z28" s="2">
-        <v>250148.93828968925</v>
-      </c>
-      <c r="AA28" s="2">
-        <v>268631</v>
-      </c>
-      <c r="AB28" s="2">
-        <v>229594.34431344489</v>
-      </c>
-      <c r="AC28" s="2">
-        <v>226185</v>
-      </c>
-      <c r="AD28" s="2">
-        <v>183082.37072533465</v>
-      </c>
-      <c r="AE28" s="2">
-        <v>198876</v>
-      </c>
-      <c r="AF28" s="2">
-        <v>173283.50883365236</v>
-      </c>
-      <c r="AG28" s="2">
-        <v>212447</v>
-      </c>
-      <c r="AH28" s="2">
-        <v>168294.01968053539</v>
-      </c>
-      <c r="AI28" s="2">
-        <v>168679</v>
-      </c>
-      <c r="AJ28" s="2">
-        <v>140318.43641990973</v>
-      </c>
-      <c r="AK28" s="2">
-        <v>204879</v>
-      </c>
-      <c r="AL28" s="2">
-        <v>145013.27658261301</v>
-      </c>
-      <c r="AM28" s="2">
-        <v>183253.5</v>
-      </c>
-      <c r="AN28" s="2">
-        <v>140934.01525989838</v>
-      </c>
-      <c r="AO28" s="2">
-        <v>145348</v>
-      </c>
-      <c r="AP28" s="2">
-        <v>87854.536380957987</v>
-      </c>
-      <c r="AQ28" s="2">
-        <v>80216.033075779342</v>
-      </c>
-      <c r="AR28" s="2">
-        <v>82633.263291893862</v>
-      </c>
-      <c r="AS28" s="2">
-        <v>65928.864006313815</v>
-      </c>
-      <c r="AT28" s="2">
-        <v>59238.778816430124</v>
-      </c>
-      <c r="AU28" s="2">
-        <v>53878.962741303607</v>
-      </c>
-      <c r="AV28" s="2">
-        <v>55150.189636026262</v>
-      </c>
-      <c r="AW28" s="2">
-        <v>47538.826956242694</v>
-      </c>
-      <c r="AX28" s="2">
-        <v>47273.10247800604</v>
-      </c>
-      <c r="AY28" s="2">
-        <v>40926.588930348968</v>
-      </c>
-      <c r="AZ28" s="2">
-        <v>29574.475267849997</v>
-      </c>
-      <c r="BA28" s="2">
-        <v>25457.83948929</v>
-      </c>
-      <c r="BB28" s="2">
-        <v>22750.931747539998</v>
-      </c>
-      <c r="BC28" s="2">
-        <v>18112.850337239997</v>
-      </c>
-      <c r="BD28" s="2">
-        <v>15095.73852445</v>
-      </c>
-      <c r="BE28" s="2">
-        <v>13079.148296189998</v>
-      </c>
-      <c r="BF28" s="2">
-        <v>10134.490672350001</v>
-      </c>
-      <c r="BG28" s="2">
-        <v>7146.7560225500001</v>
-      </c>
-      <c r="BH28" s="2">
-        <v>5931.2239944900002</v>
-      </c>
-      <c r="BI28" s="2">
-        <v>3711.9317205500001</v>
-      </c>
-      <c r="BJ28" s="2">
-        <v>2995.6</v>
-      </c>
-      <c r="BK28" s="2">
-        <v>2947.17</v>
-      </c>
-      <c r="BL28" s="2">
-        <v>2257.64</v>
-      </c>
-      <c r="BM28" s="2">
-        <v>2199.69</v>
-      </c>
-      <c r="BN28" s="2">
-        <v>2242.19</v>
-      </c>
-      <c r="BO28" s="2">
-        <v>2294.8200000000002</v>
-      </c>
-      <c r="BP28" s="2">
-        <v>1857.65</v>
-      </c>
-      <c r="BQ28" s="2">
-        <v>1215.02</v>
-      </c>
-      <c r="BR28" s="2"/>
-      <c r="BS28" s="2"/>
-      <c r="BT28" s="2"/>
-      <c r="BU28" s="2"/>
-      <c r="BV28" s="2"/>
-      <c r="BW28" s="2"/>
-      <c r="BX28" s="2"/>
-      <c r="BY28" s="2"/>
-      <c r="BZ28" s="2"/>
-      <c r="CA28" s="2"/>
-      <c r="CB28" s="2"/>
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3">
+        <v>96.541811979999991</v>
+      </c>
+      <c r="BI28" s="3">
+        <v>50.647785450000001</v>
+      </c>
+      <c r="BJ28" s="3">
+        <v>70.34</v>
+      </c>
+      <c r="BK28" s="3">
+        <v>165.49</v>
+      </c>
+      <c r="BL28" s="3">
+        <v>137.62</v>
+      </c>
+      <c r="BM28" s="3"/>
+      <c r="BN28" s="3"/>
+      <c r="BO28" s="3"/>
+      <c r="BP28" s="3"/>
+      <c r="BQ28" s="3"/>
+      <c r="BR28" s="3"/>
+      <c r="BS28" s="3"/>
+      <c r="BT28" s="3"/>
+      <c r="BU28" s="3"/>
+      <c r="BV28" s="3"/>
+      <c r="BW28" s="3"/>
+      <c r="BX28" s="3"/>
+      <c r="BY28" s="3"/>
+      <c r="BZ28" s="3"/>
+      <c r="CA28" s="3"/>
+      <c r="CB28" s="3"/>
       <c r="CC28" s="3"/>
       <c r="CD28" s="3"/>
       <c r="CE28" s="3"/>
@@ -6944,239 +6922,221 @@
     </row>
     <row r="29" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="C29" s="2">
+        <v>710042.87100000004</v>
+      </c>
+      <c r="D29" s="2">
+        <v>643846.18999999994</v>
+      </c>
       <c r="E29" s="2">
-        <v>144379.228</v>
+        <v>584365.68000000005</v>
       </c>
       <c r="F29" s="2">
-        <v>129077.65</v>
+        <v>475244.04</v>
       </c>
       <c r="G29" s="2">
-        <v>124646</v>
+        <v>538131</v>
       </c>
       <c r="H29" s="2">
-        <v>105989.78</v>
+        <v>476139.49</v>
       </c>
       <c r="I29" s="2">
-        <v>153695.35999999999</v>
+        <v>430160.55</v>
       </c>
       <c r="J29" s="2">
-        <v>134193.69</v>
+        <v>385666.11</v>
       </c>
       <c r="K29" s="2">
-        <v>127860</v>
+        <v>378721</v>
       </c>
       <c r="L29" s="2">
-        <v>117609.25</v>
+        <v>351849.5</v>
       </c>
       <c r="M29" s="2">
-        <v>118699</v>
+        <v>350242</v>
       </c>
       <c r="N29" s="2">
-        <v>133851.14991544999</v>
+        <v>406084.08439190005</v>
       </c>
       <c r="O29" s="2">
-        <v>95091</v>
+        <v>423545</v>
       </c>
       <c r="P29" s="2">
-        <v>114037.67169915998</v>
+        <v>358168.6306872</v>
       </c>
       <c r="Q29" s="2">
-        <v>97686</v>
+        <v>435877</v>
       </c>
       <c r="R29" s="2">
-        <v>76601.055879477863</v>
+        <v>365235.32623017998</v>
       </c>
       <c r="S29" s="2">
-        <v>73346.2</v>
+        <v>364431.3</v>
       </c>
       <c r="T29" s="2">
-        <v>65128.458906946711</v>
+        <v>331414.45098551508</v>
       </c>
       <c r="U29" s="2">
-        <v>66476</v>
+        <v>343544</v>
       </c>
       <c r="V29" s="2">
-        <v>58990.354024265558</v>
+        <v>295502.31677542004</v>
       </c>
       <c r="W29" s="2">
-        <v>79142</v>
+        <v>373831</v>
       </c>
       <c r="X29" s="2">
-        <v>56488.755146937554</v>
+        <v>278793.76701648103</v>
       </c>
       <c r="Y29" s="2">
-        <v>72408</v>
+        <v>325738</v>
       </c>
       <c r="Z29" s="2">
-        <v>60807.121309953174</v>
+        <v>250148.93828968925</v>
       </c>
       <c r="AA29" s="2">
-        <v>60732</v>
+        <v>268631</v>
       </c>
       <c r="AB29" s="2">
-        <v>52571.372454347053</v>
+        <v>229594.34431344489</v>
       </c>
       <c r="AC29" s="2">
-        <v>60185</v>
+        <v>226185</v>
       </c>
       <c r="AD29" s="2">
-        <v>47012.31881829795</v>
+        <v>183082.37072533465</v>
       </c>
       <c r="AE29" s="2">
-        <v>50819</v>
+        <v>198876</v>
       </c>
       <c r="AF29" s="2">
-        <v>44510.355010463776</v>
+        <v>173283.50883365236</v>
       </c>
       <c r="AG29" s="2">
-        <v>46739</v>
+        <v>212447</v>
       </c>
       <c r="AH29" s="2">
-        <v>42837.84777056436</v>
+        <v>168294.01968053539</v>
       </c>
       <c r="AI29" s="2">
-        <v>44147</v>
+        <v>168679</v>
       </c>
       <c r="AJ29" s="2">
-        <v>40813.996050205089</v>
+        <v>140318.43641990973</v>
       </c>
       <c r="AK29" s="2">
-        <v>50432</v>
+        <v>204879</v>
       </c>
       <c r="AL29" s="2">
-        <v>41095.880227893853</v>
+        <v>145013.27658261301</v>
       </c>
       <c r="AM29" s="2">
-        <v>46778</v>
+        <v>183253.5</v>
       </c>
       <c r="AN29" s="2">
-        <v>37946.515942982107</v>
+        <v>140934.01525989838</v>
       </c>
       <c r="AO29" s="2">
-        <v>37375</v>
+        <v>145348</v>
       </c>
       <c r="AP29" s="2">
-        <v>34464.15332339453</v>
+        <v>87854.536380957987</v>
       </c>
       <c r="AQ29" s="2">
-        <v>27952.214713915739</v>
+        <v>80216.033075779342</v>
       </c>
       <c r="AR29" s="2">
-        <v>18894.154481577105</v>
+        <v>82633.263291893862</v>
       </c>
       <c r="AS29" s="2">
-        <v>24017.594026620882</v>
+        <v>65928.864006313815</v>
       </c>
       <c r="AT29" s="2">
-        <v>27807.020541896793</v>
+        <v>59238.778816430124</v>
       </c>
       <c r="AU29" s="2">
-        <v>24523.173575970697</v>
+        <v>53878.962741303607</v>
       </c>
       <c r="AV29" s="2">
-        <v>22043.390977433046</v>
+        <v>55150.189636026262</v>
       </c>
       <c r="AW29" s="2">
-        <v>20327.341596990002</v>
+        <v>47538.826956242694</v>
       </c>
       <c r="AX29" s="2">
-        <v>20399.14421507073</v>
+        <v>47273.10247800604</v>
       </c>
       <c r="AY29" s="2">
-        <v>18373.957434193573</v>
+        <v>40926.588930348968</v>
       </c>
       <c r="AZ29" s="2">
-        <v>17497.243693973614</v>
+        <v>29574.475267849997</v>
       </c>
       <c r="BA29" s="2">
-        <v>16062.65016813</v>
+        <v>25457.83948929</v>
       </c>
       <c r="BB29" s="2">
-        <v>10797.322026939999</v>
+        <v>22750.931747539998</v>
       </c>
       <c r="BC29" s="2">
-        <v>9681.7788061499996</v>
+        <v>18112.850337239997</v>
       </c>
       <c r="BD29" s="2">
-        <v>9225.3771869200009</v>
+        <v>15095.73852445</v>
       </c>
       <c r="BE29" s="2">
-        <v>7186.6866049399996</v>
+        <v>13079.148296189998</v>
       </c>
       <c r="BF29" s="2">
-        <v>5488.5708061800005</v>
+        <v>10134.490672350001</v>
       </c>
       <c r="BG29" s="2">
-        <v>4170.4994641499998</v>
+        <v>7146.7560225500001</v>
       </c>
       <c r="BH29" s="2">
-        <v>5757.0145778300002</v>
+        <v>5931.2239944900002</v>
       </c>
       <c r="BI29" s="2">
-        <v>5348.0358205100001</v>
+        <v>3711.9317205500001</v>
       </c>
       <c r="BJ29" s="2">
-        <v>4357.66</v>
+        <v>2995.6</v>
       </c>
       <c r="BK29" s="2">
-        <v>3521.03</v>
+        <v>2947.17</v>
       </c>
       <c r="BL29" s="2">
-        <v>2618.9899999999998</v>
+        <v>2257.64</v>
       </c>
       <c r="BM29" s="2">
-        <v>2540.21</v>
+        <v>2199.69</v>
       </c>
       <c r="BN29" s="2">
-        <v>2408.8000000000002</v>
+        <v>2242.19</v>
       </c>
       <c r="BO29" s="2">
-        <v>2203.7399999999998</v>
+        <v>2294.8200000000002</v>
       </c>
       <c r="BP29" s="2">
-        <v>1794.77</v>
+        <v>1857.65</v>
       </c>
       <c r="BQ29" s="2">
-        <v>1305.95</v>
-      </c>
-      <c r="BR29" s="2">
-        <v>1144.74</v>
-      </c>
-      <c r="BS29" s="2">
-        <v>96.88</v>
-      </c>
-      <c r="BT29" s="2">
-        <v>103</v>
-      </c>
-      <c r="BU29" s="2">
-        <v>105.01</v>
-      </c>
-      <c r="BV29" s="2">
-        <v>96.34</v>
-      </c>
-      <c r="BW29" s="2">
-        <v>81.36</v>
-      </c>
-      <c r="BX29" s="2">
-        <v>66.66</v>
-      </c>
-      <c r="BY29" s="2">
-        <v>52.97</v>
-      </c>
-      <c r="BZ29" s="2">
-        <v>41.29</v>
-      </c>
-      <c r="CA29" s="2">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="CB29" s="2">
-        <v>34.86</v>
-      </c>
+        <v>1215.02</v>
+      </c>
+      <c r="BR29" s="2"/>
+      <c r="BS29" s="2"/>
+      <c r="BT29" s="2"/>
+      <c r="BU29" s="2"/>
+      <c r="BV29" s="2"/>
+      <c r="BW29" s="2"/>
+      <c r="BX29" s="2"/>
+      <c r="BY29" s="2"/>
+      <c r="BZ29" s="2"/>
+      <c r="CA29" s="2"/>
+      <c r="CB29" s="2"/>
       <c r="CC29" s="3"/>
       <c r="CD29" s="3"/>
       <c r="CE29" s="3"/>
@@ -7187,214 +7147,244 @@
       <c r="CJ29" s="3"/>
     </row>
     <row r="30" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3">
-        <v>66503.05</v>
-      </c>
-      <c r="G30" s="3">
-        <v>59484</v>
-      </c>
-      <c r="H30" s="3">
-        <v>52241.81</v>
-      </c>
-      <c r="I30" s="3">
-        <v>52797</v>
-      </c>
-      <c r="J30" s="3">
-        <v>46254.82</v>
-      </c>
-      <c r="K30" s="3">
-        <v>47137</v>
-      </c>
-      <c r="L30" s="3">
-        <v>42903.91</v>
-      </c>
-      <c r="M30" s="3">
-        <v>39986</v>
-      </c>
-      <c r="N30" s="3">
-        <v>48709.444089059994</v>
-      </c>
-      <c r="O30" s="3">
-        <v>38404</v>
-      </c>
-      <c r="P30" s="3">
-        <v>30793.796057539996</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>37377</v>
-      </c>
-      <c r="R30" s="3">
-        <v>31871.317373375656</v>
-      </c>
-      <c r="S30" s="3">
-        <v>33873.1</v>
-      </c>
-      <c r="T30" s="3">
-        <v>28156.286857260202</v>
-      </c>
-      <c r="U30" s="3">
-        <v>30512</v>
-      </c>
-      <c r="V30" s="3">
-        <v>25578.384178347205</v>
-      </c>
-      <c r="W30" s="3">
-        <v>39677</v>
-      </c>
-      <c r="X30" s="3">
-        <v>25492.473228808696</v>
-      </c>
-      <c r="Y30" s="3">
-        <v>34562</v>
-      </c>
-      <c r="Z30" s="3">
-        <v>29209.190349035191</v>
-      </c>
-      <c r="AA30" s="3">
-        <v>28568</v>
-      </c>
-      <c r="AB30" s="3">
-        <v>24503.780614774605</v>
-      </c>
-      <c r="AC30" s="3">
-        <v>28582</v>
-      </c>
-      <c r="AD30" s="3">
-        <v>22719.055328225524</v>
-      </c>
-      <c r="AE30" s="3">
-        <v>25263</v>
-      </c>
-      <c r="AF30" s="3">
-        <v>21716.599353576439</v>
-      </c>
-      <c r="AG30" s="3">
-        <v>21662</v>
-      </c>
-      <c r="AH30" s="3">
-        <v>19934.898502142423</v>
-      </c>
-      <c r="AI30" s="3">
-        <v>20466</v>
-      </c>
-      <c r="AJ30" s="3">
-        <v>19266.449945021974</v>
-      </c>
-      <c r="AK30" s="3">
-        <v>21916</v>
-      </c>
-      <c r="AL30" s="3">
-        <v>17603.08020718714</v>
-      </c>
-      <c r="AM30" s="3"/>
-      <c r="AN30" s="3">
-        <v>16826.004015942002</v>
-      </c>
-      <c r="AO30" s="3"/>
-      <c r="AP30" s="3">
-        <v>12436.146894093299</v>
-      </c>
-      <c r="AQ30" s="3">
-        <v>10322.917199242274</v>
-      </c>
-      <c r="AR30" s="3">
-        <v>3071.0617077860161</v>
-      </c>
-      <c r="AS30" s="3">
-        <v>9645.4625285287784</v>
-      </c>
-      <c r="AT30" s="3">
-        <v>12103.446089199044</v>
-      </c>
-      <c r="AU30" s="3">
-        <v>8806.4891288885501</v>
-      </c>
-      <c r="AV30" s="3">
-        <v>8046.1197480821675</v>
-      </c>
-      <c r="AW30" s="3">
-        <v>11571.928457176033</v>
-      </c>
-      <c r="AX30" s="3">
-        <v>9350.0699817909663</v>
-      </c>
-      <c r="AY30" s="3">
-        <v>7631.1348141684093</v>
-      </c>
-      <c r="AZ30" s="3">
-        <v>5095.2297730904811</v>
-      </c>
-      <c r="BA30" s="3">
-        <v>6734.3670816099993</v>
-      </c>
-      <c r="BB30" s="3">
-        <v>3980.9305050999992</v>
-      </c>
-      <c r="BC30" s="3">
-        <v>3737.1782183699997</v>
-      </c>
-      <c r="BD30" s="3">
-        <v>3696.0033289799999</v>
-      </c>
-      <c r="BE30" s="3">
-        <v>2617.0897466199999</v>
-      </c>
-      <c r="BF30" s="3">
-        <v>1666.38856551</v>
-      </c>
-      <c r="BG30" s="3">
-        <v>927.28533633999996</v>
-      </c>
-      <c r="BH30" s="3">
-        <v>843.96905708000008</v>
-      </c>
-      <c r="BI30" s="3">
-        <v>1197.9254020200001</v>
-      </c>
-      <c r="BJ30" s="3">
-        <v>745.84</v>
-      </c>
-      <c r="BK30" s="3">
-        <v>577.21</v>
-      </c>
-      <c r="BL30" s="3">
-        <v>359.11</v>
-      </c>
-      <c r="BM30" s="3">
-        <v>406.37</v>
-      </c>
-      <c r="BN30" s="3">
-        <v>420.48</v>
-      </c>
-      <c r="BO30" s="3">
-        <v>392.47</v>
-      </c>
-      <c r="BP30" s="3">
-        <v>364.81</v>
-      </c>
-      <c r="BQ30" s="3">
-        <v>203.36</v>
-      </c>
-      <c r="BR30" s="3">
-        <v>274.07</v>
-      </c>
-      <c r="BS30" s="3"/>
-      <c r="BT30" s="3"/>
-      <c r="BU30" s="3"/>
-      <c r="BV30" s="3"/>
-      <c r="BW30" s="3"/>
-      <c r="BX30" s="3"/>
-      <c r="BY30" s="3"/>
-      <c r="BZ30" s="3"/>
-      <c r="CA30" s="3"/>
-      <c r="CB30" s="3"/>
+      <c r="A30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2">
+        <v>178464.02600000001</v>
+      </c>
+      <c r="D30" s="2">
+        <v>136324.25</v>
+      </c>
+      <c r="E30" s="2">
+        <v>146236.85</v>
+      </c>
+      <c r="F30" s="2">
+        <v>129077.65</v>
+      </c>
+      <c r="G30" s="2">
+        <v>124646</v>
+      </c>
+      <c r="H30" s="2">
+        <v>105989.78</v>
+      </c>
+      <c r="I30" s="2">
+        <v>153695.35999999999</v>
+      </c>
+      <c r="J30" s="2">
+        <v>134193.69</v>
+      </c>
+      <c r="K30" s="2">
+        <v>127860</v>
+      </c>
+      <c r="L30" s="2">
+        <v>117609.25</v>
+      </c>
+      <c r="M30" s="2">
+        <v>118699</v>
+      </c>
+      <c r="N30" s="2">
+        <v>133851.14991544999</v>
+      </c>
+      <c r="O30" s="2">
+        <v>95091</v>
+      </c>
+      <c r="P30" s="2">
+        <v>114037.67169915998</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>97686</v>
+      </c>
+      <c r="R30" s="2">
+        <v>76601.055879477863</v>
+      </c>
+      <c r="S30" s="2">
+        <v>73346.2</v>
+      </c>
+      <c r="T30" s="2">
+        <v>65128.458906946711</v>
+      </c>
+      <c r="U30" s="2">
+        <v>66476</v>
+      </c>
+      <c r="V30" s="2">
+        <v>58990.354024265558</v>
+      </c>
+      <c r="W30" s="2">
+        <v>79142</v>
+      </c>
+      <c r="X30" s="2">
+        <v>56488.755146937554</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>72408</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>60807.121309953174</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>60732</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>52571.372454347053</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>60185</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>47012.31881829795</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>50819</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>44510.355010463776</v>
+      </c>
+      <c r="AG30" s="2">
+        <v>46739</v>
+      </c>
+      <c r="AH30" s="2">
+        <v>42837.84777056436</v>
+      </c>
+      <c r="AI30" s="2">
+        <v>44147</v>
+      </c>
+      <c r="AJ30" s="2">
+        <v>40813.996050205089</v>
+      </c>
+      <c r="AK30" s="2">
+        <v>50432</v>
+      </c>
+      <c r="AL30" s="2">
+        <v>41095.880227893853</v>
+      </c>
+      <c r="AM30" s="2">
+        <v>46778</v>
+      </c>
+      <c r="AN30" s="2">
+        <v>37946.515942982107</v>
+      </c>
+      <c r="AO30" s="2">
+        <v>37375</v>
+      </c>
+      <c r="AP30" s="2">
+        <v>34464.15332339453</v>
+      </c>
+      <c r="AQ30" s="2">
+        <v>27952.214713915739</v>
+      </c>
+      <c r="AR30" s="2">
+        <v>18894.154481577105</v>
+      </c>
+      <c r="AS30" s="2">
+        <v>24017.594026620882</v>
+      </c>
+      <c r="AT30" s="2">
+        <v>27807.020541896793</v>
+      </c>
+      <c r="AU30" s="2">
+        <v>24523.173575970697</v>
+      </c>
+      <c r="AV30" s="2">
+        <v>22043.390977433046</v>
+      </c>
+      <c r="AW30" s="2">
+        <v>20327.341596990002</v>
+      </c>
+      <c r="AX30" s="2">
+        <v>20399.14421507073</v>
+      </c>
+      <c r="AY30" s="2">
+        <v>18373.957434193573</v>
+      </c>
+      <c r="AZ30" s="2">
+        <v>17497.243693973614</v>
+      </c>
+      <c r="BA30" s="2">
+        <v>16062.65016813</v>
+      </c>
+      <c r="BB30" s="2">
+        <v>10797.322026939999</v>
+      </c>
+      <c r="BC30" s="2">
+        <v>9681.7788061499996</v>
+      </c>
+      <c r="BD30" s="2">
+        <v>9225.3771869200009</v>
+      </c>
+      <c r="BE30" s="2">
+        <v>7186.6866049399996</v>
+      </c>
+      <c r="BF30" s="2">
+        <v>5488.5708061800005</v>
+      </c>
+      <c r="BG30" s="2">
+        <v>4170.4994641499998</v>
+      </c>
+      <c r="BH30" s="2">
+        <v>5757.0145778300002</v>
+      </c>
+      <c r="BI30" s="2">
+        <v>5348.0358205100001</v>
+      </c>
+      <c r="BJ30" s="2">
+        <v>4357.66</v>
+      </c>
+      <c r="BK30" s="2">
+        <v>3521.03</v>
+      </c>
+      <c r="BL30" s="2">
+        <v>2618.9899999999998</v>
+      </c>
+      <c r="BM30" s="2">
+        <v>2540.21</v>
+      </c>
+      <c r="BN30" s="2">
+        <v>2408.8000000000002</v>
+      </c>
+      <c r="BO30" s="2">
+        <v>2203.7399999999998</v>
+      </c>
+      <c r="BP30" s="2">
+        <v>1794.77</v>
+      </c>
+      <c r="BQ30" s="2">
+        <v>1305.95</v>
+      </c>
+      <c r="BR30" s="2">
+        <v>1144.74</v>
+      </c>
+      <c r="BS30" s="2">
+        <v>96.88</v>
+      </c>
+      <c r="BT30" s="2">
+        <v>103</v>
+      </c>
+      <c r="BU30" s="2">
+        <v>105.01</v>
+      </c>
+      <c r="BV30" s="2">
+        <v>96.34</v>
+      </c>
+      <c r="BW30" s="2">
+        <v>81.36</v>
+      </c>
+      <c r="BX30" s="2">
+        <v>66.66</v>
+      </c>
+      <c r="BY30" s="2">
+        <v>52.97</v>
+      </c>
+      <c r="BZ30" s="2">
+        <v>41.29</v>
+      </c>
+      <c r="CA30" s="2">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="CB30" s="2">
+        <v>34.86</v>
+      </c>
       <c r="CC30" s="3"/>
       <c r="CD30" s="3"/>
       <c r="CE30" s="3"/>
@@ -7406,202 +7396,206 @@
     </row>
     <row r="31" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="D31" s="3">
+        <v>71687.17</v>
+      </c>
+      <c r="E31" s="3">
+        <v>73774.69</v>
+      </c>
       <c r="F31" s="3">
-        <v>3500.43</v>
+        <v>66503.05</v>
       </c>
       <c r="G31" s="3">
-        <v>3081</v>
+        <v>59484</v>
       </c>
       <c r="H31" s="3">
-        <v>2766.75</v>
+        <v>52241.81</v>
       </c>
       <c r="I31" s="3">
-        <v>2667</v>
+        <v>52797</v>
       </c>
       <c r="J31" s="3">
-        <v>2388.66</v>
+        <v>46254.82</v>
       </c>
       <c r="K31" s="3">
-        <v>2247</v>
+        <v>47137</v>
       </c>
       <c r="L31" s="3">
-        <v>2445.63</v>
+        <v>42903.91</v>
       </c>
       <c r="M31" s="3">
-        <v>2109</v>
+        <v>39986</v>
       </c>
       <c r="N31" s="3">
-        <v>2166.5960410900002</v>
+        <v>48709.444089059994</v>
       </c>
       <c r="O31" s="3">
-        <v>1908</v>
+        <v>38404</v>
       </c>
       <c r="P31" s="3">
-        <v>2292.7877246799999</v>
+        <v>30793.796057539996</v>
       </c>
       <c r="Q31" s="3">
-        <v>1655</v>
+        <v>37377</v>
       </c>
       <c r="R31" s="3">
-        <v>1599.6368736980735</v>
+        <v>31871.317373375656</v>
       </c>
       <c r="S31" s="3">
-        <v>1762.9</v>
+        <v>33873.1</v>
       </c>
       <c r="T31" s="3">
-        <v>1445.8076981899815</v>
+        <v>28156.286857260202</v>
       </c>
       <c r="U31" s="3">
-        <v>1585</v>
+        <v>30512</v>
       </c>
       <c r="V31" s="3">
-        <v>1336.6210185913644</v>
+        <v>25578.384178347205</v>
       </c>
       <c r="W31" s="3">
-        <v>202</v>
+        <v>39677</v>
       </c>
       <c r="X31" s="3">
-        <v>1184.2540134916053</v>
+        <v>25492.473228808696</v>
       </c>
       <c r="Y31" s="3">
-        <v>1140</v>
+        <v>34562</v>
       </c>
       <c r="Z31" s="3">
-        <v>990.16461161803113</v>
+        <v>29209.190349035191</v>
       </c>
       <c r="AA31" s="3">
-        <v>982</v>
+        <v>28568</v>
       </c>
       <c r="AB31" s="3">
-        <v>834.38296137703867</v>
+        <v>24503.780614774605</v>
       </c>
       <c r="AC31" s="3">
-        <v>1321</v>
+        <v>28582</v>
       </c>
       <c r="AD31" s="3">
-        <v>795.31909629573556</v>
+        <v>22719.055328225524</v>
       </c>
       <c r="AE31" s="3">
-        <v>862</v>
+        <v>25263</v>
       </c>
       <c r="AF31" s="3">
-        <v>1140.8215743401604</v>
+        <v>21716.599353576439</v>
       </c>
       <c r="AG31" s="3">
-        <v>1681</v>
+        <v>21662</v>
       </c>
       <c r="AH31" s="3">
-        <v>2002.15166422844</v>
+        <v>19934.898502142423</v>
       </c>
       <c r="AI31" s="3">
-        <v>1913</v>
+        <v>20466</v>
       </c>
       <c r="AJ31" s="3">
-        <v>1819.1790510390911</v>
+        <v>19266.449945021974</v>
       </c>
       <c r="AK31" s="3">
-        <v>2081</v>
+        <v>21916</v>
       </c>
       <c r="AL31" s="3">
-        <v>1830.6735741949858</v>
+        <v>17603.08020718714</v>
       </c>
       <c r="AM31" s="3"/>
       <c r="AN31" s="3">
-        <v>1685.8323479731941</v>
+        <v>16826.004015942002</v>
       </c>
       <c r="AO31" s="3"/>
       <c r="AP31" s="3">
-        <v>2456.1457544401287</v>
+        <v>12436.146894093299</v>
       </c>
       <c r="AQ31" s="3">
-        <v>1136.2978010213826</v>
+        <v>10322.917199242274</v>
       </c>
       <c r="AR31" s="3">
-        <v>1294.9391333764622</v>
+        <v>3071.0617077860161</v>
       </c>
       <c r="AS31" s="3">
-        <v>1124.5322704537471</v>
+        <v>9645.4625285287784</v>
       </c>
       <c r="AT31" s="3">
-        <v>1181.8465107720026</v>
+        <v>12103.446089199044</v>
       </c>
       <c r="AU31" s="3">
-        <v>731.40120492272365</v>
+        <v>8806.4891288885501</v>
       </c>
       <c r="AV31" s="3">
-        <v>794.09934371788188</v>
+        <v>8046.1197480821675</v>
       </c>
       <c r="AW31" s="3">
-        <v>481.41412934246966</v>
+        <v>11571.928457176033</v>
       </c>
       <c r="AX31" s="3">
-        <v>723.41755399606245</v>
+        <v>9350.0699817909663</v>
       </c>
       <c r="AY31" s="3">
-        <v>796.40103142643318</v>
+        <v>7631.1348141684093</v>
       </c>
       <c r="AZ31" s="3">
-        <v>1178.4791815900001</v>
+        <v>5095.2297730904811</v>
       </c>
       <c r="BA31" s="3">
-        <v>897.62208538999994</v>
+        <v>6734.3670816099993</v>
       </c>
       <c r="BB31" s="3">
-        <v>875.86729484000011</v>
+        <v>3980.9305050999992</v>
       </c>
       <c r="BC31" s="3">
-        <v>643.64114353999992</v>
+        <v>3737.1782183699997</v>
       </c>
       <c r="BD31" s="3">
-        <v>634.41230581000002</v>
+        <v>3696.0033289799999</v>
       </c>
       <c r="BE31" s="3">
-        <v>532.37427576999994</v>
+        <v>2617.0897466199999</v>
       </c>
       <c r="BF31" s="3">
-        <v>443.83337628000004</v>
+        <v>1666.38856551</v>
       </c>
       <c r="BG31" s="3">
-        <v>352.53005576999999</v>
+        <v>927.28533633999996</v>
       </c>
       <c r="BH31" s="3">
-        <v>314.38763523</v>
+        <v>843.96905708000008</v>
       </c>
       <c r="BI31" s="3">
-        <v>256.70609288999998</v>
+        <v>1197.9254020200001</v>
       </c>
       <c r="BJ31" s="3">
-        <v>281.67</v>
+        <v>745.84</v>
       </c>
       <c r="BK31" s="3">
-        <v>254.39</v>
+        <v>577.21</v>
       </c>
       <c r="BL31" s="3">
-        <v>163.44999999999999</v>
+        <v>359.11</v>
       </c>
       <c r="BM31" s="3">
-        <v>139.43</v>
+        <v>406.37</v>
       </c>
       <c r="BN31" s="3">
-        <v>61.68</v>
+        <v>420.48</v>
       </c>
       <c r="BO31" s="3">
-        <v>75.989999999999995</v>
+        <v>392.47</v>
       </c>
       <c r="BP31" s="3">
-        <v>73.22</v>
+        <v>364.81</v>
       </c>
       <c r="BQ31" s="3">
-        <v>33.29</v>
+        <v>203.36</v>
       </c>
       <c r="BR31" s="3">
-        <v>45.63</v>
+        <v>274.07</v>
       </c>
       <c r="BS31" s="3"/>
       <c r="BT31" s="3"/>
@@ -7624,202 +7618,206 @@
     </row>
     <row r="32" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="D32" s="3">
+        <v>14179.1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3836.27</v>
+      </c>
       <c r="F32" s="3">
-        <v>388.53</v>
+        <v>3500.43</v>
       </c>
       <c r="G32" s="3">
-        <v>325</v>
+        <v>3081</v>
       </c>
       <c r="H32" s="3">
-        <v>283</v>
+        <v>2766.75</v>
       </c>
       <c r="I32" s="3">
-        <v>159</v>
+        <v>2667</v>
       </c>
       <c r="J32" s="3">
-        <v>137.91999999999999</v>
+        <v>2388.66</v>
       </c>
       <c r="K32" s="3">
-        <v>71</v>
+        <v>2247</v>
       </c>
       <c r="L32" s="3">
-        <v>124.73</v>
+        <v>2445.63</v>
       </c>
       <c r="M32" s="3">
-        <v>146</v>
+        <v>2109</v>
       </c>
       <c r="N32" s="3">
-        <v>528.69693066000002</v>
+        <v>2166.5960410900002</v>
       </c>
       <c r="O32" s="3">
-        <v>646</v>
+        <v>1908</v>
       </c>
       <c r="P32" s="3">
-        <v>471.98550273000001</v>
+        <v>2292.7877246799999</v>
       </c>
       <c r="Q32" s="3">
-        <v>567</v>
+        <v>1655</v>
       </c>
       <c r="R32" s="3">
-        <v>547.17281673211789</v>
+        <v>1599.6368736980735</v>
       </c>
       <c r="S32" s="3">
-        <v>831.4</v>
+        <v>1762.9</v>
       </c>
       <c r="T32" s="3">
-        <v>556.97150579226206</v>
+        <v>1445.8076981899815</v>
       </c>
       <c r="U32" s="3">
-        <v>651</v>
+        <v>1585</v>
       </c>
       <c r="V32" s="3">
-        <v>553.76165604467781</v>
+        <v>1336.6210185913644</v>
       </c>
       <c r="W32" s="3">
-        <v>563</v>
+        <v>202</v>
       </c>
       <c r="X32" s="3">
-        <v>442.95369818002035</v>
+        <v>1184.2540134916053</v>
       </c>
       <c r="Y32" s="3">
-        <v>732</v>
+        <v>1140</v>
       </c>
       <c r="Z32" s="3">
-        <v>427.16005915752527</v>
+        <v>990.16461161803113</v>
       </c>
       <c r="AA32" s="3">
-        <v>644</v>
+        <v>982</v>
       </c>
       <c r="AB32" s="3">
-        <v>571.80609239214562</v>
+        <v>834.38296137703867</v>
       </c>
       <c r="AC32" s="3">
-        <v>706</v>
+        <v>1321</v>
       </c>
       <c r="AD32" s="3">
-        <v>524.74714739951139</v>
+        <v>795.31909629573556</v>
       </c>
       <c r="AE32" s="3">
-        <v>647</v>
+        <v>862</v>
       </c>
       <c r="AF32" s="3">
-        <v>561.36175368323893</v>
+        <v>1140.8215743401604</v>
       </c>
       <c r="AG32" s="3">
-        <v>579</v>
+        <v>1681</v>
       </c>
       <c r="AH32" s="3">
-        <v>526.04609709122042</v>
+        <v>2002.15166422844</v>
       </c>
       <c r="AI32" s="3">
-        <v>148</v>
+        <v>1913</v>
       </c>
       <c r="AJ32" s="3">
-        <v>141.16040611593002</v>
+        <v>1819.1790510390911</v>
       </c>
       <c r="AK32" s="3">
-        <v>661</v>
+        <v>2081</v>
       </c>
       <c r="AL32" s="3">
-        <v>439.4028154787166</v>
+        <v>1830.6735741949858</v>
       </c>
       <c r="AM32" s="3"/>
       <c r="AN32" s="3">
-        <v>489.06730902493103</v>
+        <v>1685.8323479731941</v>
       </c>
       <c r="AO32" s="3"/>
       <c r="AP32" s="3">
-        <v>115.24416038733072</v>
+        <v>2456.1457544401287</v>
       </c>
       <c r="AQ32" s="3">
-        <v>124.96091477999451</v>
+        <v>1136.2978010213826</v>
       </c>
       <c r="AR32" s="3">
-        <v>341.65708546123494</v>
+        <v>1294.9391333764622</v>
       </c>
       <c r="AS32" s="3">
-        <v>142.39421191490945</v>
+        <v>1124.5322704537471</v>
       </c>
       <c r="AT32" s="3">
-        <v>191.5899422355061</v>
+        <v>1181.8465107720026</v>
       </c>
       <c r="AU32" s="3">
-        <v>32.431999205968502</v>
+        <v>731.40120492272365</v>
       </c>
       <c r="AV32" s="3">
-        <v>354.95215548210513</v>
+        <v>794.09934371788188</v>
       </c>
       <c r="AW32" s="3">
-        <v>333.9925782584927</v>
+        <v>481.41412934246966</v>
       </c>
       <c r="AX32" s="3">
-        <v>1060.4871729960489</v>
+        <v>723.41755399606245</v>
       </c>
       <c r="AY32" s="3">
-        <v>824.13157928370197</v>
+        <v>796.40103142643318</v>
       </c>
       <c r="AZ32" s="3">
-        <v>553.58519967313237</v>
+        <v>1178.4791815900001</v>
       </c>
       <c r="BA32" s="3">
-        <v>169.1379077</v>
+        <v>897.62208538999994</v>
       </c>
       <c r="BB32" s="3">
-        <v>105.78373943000001</v>
+        <v>875.86729484000011</v>
       </c>
       <c r="BC32" s="3">
-        <v>178.06329237</v>
+        <v>643.64114353999992</v>
       </c>
       <c r="BD32" s="3">
-        <v>102.28044659</v>
+        <v>634.41230581000002</v>
       </c>
       <c r="BE32" s="3">
-        <v>159.78797624000001</v>
+        <v>532.37427576999994</v>
       </c>
       <c r="BF32" s="3">
-        <v>72.206083069999991</v>
+        <v>443.83337628000004</v>
       </c>
       <c r="BG32" s="3">
-        <v>92.436481799999996</v>
+        <v>352.53005576999999</v>
       </c>
       <c r="BH32" s="3">
-        <v>95.005118229999994</v>
+        <v>314.38763523</v>
       </c>
       <c r="BI32" s="3">
-        <v>115.12720984000001</v>
+        <v>256.70609288999998</v>
       </c>
       <c r="BJ32" s="3">
-        <v>110.24</v>
+        <v>281.67</v>
       </c>
       <c r="BK32" s="3">
-        <v>110.75</v>
+        <v>254.39</v>
       </c>
       <c r="BL32" s="3">
-        <v>78.680000000000007</v>
+        <v>163.44999999999999</v>
       </c>
       <c r="BM32" s="3">
-        <v>125.68</v>
+        <v>139.43</v>
       </c>
       <c r="BN32" s="3">
-        <v>62.9</v>
+        <v>61.68</v>
       </c>
       <c r="BO32" s="3">
-        <v>42.1</v>
+        <v>75.989999999999995</v>
       </c>
       <c r="BP32" s="3">
-        <v>49.33</v>
+        <v>73.22</v>
       </c>
       <c r="BQ32" s="3">
-        <v>38.409999999999997</v>
+        <v>33.29</v>
       </c>
       <c r="BR32" s="3">
-        <v>29.72</v>
+        <v>45.63</v>
       </c>
       <c r="BS32" s="3"/>
       <c r="BT32" s="3"/>
@@ -7842,202 +7840,206 @@
     </row>
     <row r="33" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="D33" s="3">
+        <v>414.66</v>
+      </c>
+      <c r="E33" s="3">
+        <v>435.85</v>
+      </c>
       <c r="F33" s="3">
-        <v>58387.26</v>
+        <v>388.53</v>
       </c>
       <c r="G33" s="3">
-        <v>61553</v>
+        <v>325</v>
       </c>
       <c r="H33" s="3">
-        <v>50517.29</v>
+        <v>283</v>
       </c>
       <c r="I33" s="3">
-        <v>97791.360000000001</v>
+        <v>159</v>
       </c>
       <c r="J33" s="3">
-        <v>85161.01</v>
+        <v>137.91999999999999</v>
       </c>
       <c r="K33" s="3">
-        <v>78082</v>
+        <v>71</v>
       </c>
       <c r="L33" s="3">
-        <v>71342.47</v>
+        <v>124.73</v>
       </c>
       <c r="M33" s="3">
-        <v>75238</v>
+        <v>146</v>
       </c>
       <c r="N33" s="3">
-        <v>81203.248681910001</v>
+        <v>528.69693066000002</v>
       </c>
       <c r="O33" s="3">
-        <v>53479</v>
+        <v>646</v>
       </c>
       <c r="P33" s="3">
-        <v>80226.742546419991</v>
+        <v>471.98550273000001</v>
       </c>
       <c r="Q33" s="3">
-        <v>57626</v>
+        <v>567</v>
       </c>
       <c r="R33" s="3">
-        <v>42017.488641497497</v>
+        <v>547.17281673211789</v>
       </c>
       <c r="S33" s="3">
-        <v>36322</v>
+        <v>831.4</v>
       </c>
       <c r="T33" s="3">
-        <v>34464.561868159944</v>
+        <v>556.97150579226206</v>
       </c>
       <c r="U33" s="3">
-        <v>33173</v>
+        <v>651</v>
       </c>
       <c r="V33" s="3">
-        <v>30908.8792559379</v>
+        <v>553.76165604467781</v>
       </c>
       <c r="W33" s="3">
-        <v>37993</v>
+        <v>563</v>
       </c>
       <c r="X33" s="3">
-        <v>28777.099359384982</v>
+        <v>442.95369818002035</v>
       </c>
       <c r="Y33" s="3">
-        <v>35222</v>
+        <v>732</v>
       </c>
       <c r="Z33" s="3">
-        <v>29646.458657933323</v>
+        <v>427.16005915752527</v>
       </c>
       <c r="AA33" s="3">
-        <v>29907</v>
+        <v>644</v>
       </c>
       <c r="AB33" s="3">
-        <v>26049.288270713329</v>
+        <v>571.80609239214562</v>
       </c>
       <c r="AC33" s="3">
-        <v>29576</v>
+        <v>706</v>
       </c>
       <c r="AD33" s="3">
-        <v>22359.067168790676</v>
+        <v>524.74714739951139</v>
       </c>
       <c r="AE33" s="3">
-        <v>23371</v>
+        <v>647</v>
       </c>
       <c r="AF33" s="3">
-        <v>20432.39751036097</v>
+        <v>561.36175368323893</v>
       </c>
       <c r="AG33" s="3">
-        <v>21772</v>
+        <v>579</v>
       </c>
       <c r="AH33" s="3">
-        <v>19626.718396338219</v>
+        <v>526.04609709122042</v>
       </c>
       <c r="AI33" s="3">
-        <v>19979</v>
+        <v>148</v>
       </c>
       <c r="AJ33" s="3">
-        <v>18889.28563789363</v>
+        <v>141.16040611593002</v>
       </c>
       <c r="AK33" s="3">
-        <v>25774</v>
+        <v>661</v>
       </c>
       <c r="AL33" s="3">
-        <v>20504.588297920182</v>
+        <v>439.4028154787166</v>
       </c>
       <c r="AM33" s="3"/>
       <c r="AN33" s="3">
-        <v>17134.593983417573</v>
+        <v>489.06730902493103</v>
       </c>
       <c r="AO33" s="3"/>
       <c r="AP33" s="3">
-        <v>17813.709210830777</v>
+        <v>115.24416038733072</v>
       </c>
       <c r="AQ33" s="3">
-        <v>14884.211158997265</v>
+        <v>124.96091477999451</v>
       </c>
       <c r="AR33" s="3">
-        <v>13058.239630854476</v>
+        <v>341.65708546123494</v>
       </c>
       <c r="AS33" s="3">
-        <v>11713.351010258984</v>
+        <v>142.39421191490945</v>
       </c>
       <c r="AT33" s="3">
-        <v>13536.849308522644</v>
+        <v>191.5899422355061</v>
       </c>
       <c r="AU33" s="3">
-        <v>14653.510671565389</v>
+        <v>32.431999205968502</v>
       </c>
       <c r="AV33" s="3">
-        <v>11049.232778366928</v>
+        <v>354.95215548210513</v>
       </c>
       <c r="AW33" s="3">
-        <v>5738.6757060318778</v>
+        <v>333.9925782584927</v>
       </c>
       <c r="AX33" s="3">
-        <v>7775.473634003677</v>
+        <v>1060.4871729960489</v>
       </c>
       <c r="AY33" s="3">
-        <v>7276.2522596689332</v>
+        <v>824.13157928370197</v>
       </c>
       <c r="AZ33" s="3">
-        <v>8654.4983127200012</v>
+        <v>553.58519967313237</v>
       </c>
       <c r="BA33" s="3">
-        <v>6879.7590368299998</v>
+        <v>169.1379077</v>
       </c>
       <c r="BB33" s="3">
-        <v>4239.3062597500002</v>
+        <v>105.78373943000001</v>
       </c>
       <c r="BC33" s="3">
-        <v>3716.9761318299998</v>
+        <v>178.06329237</v>
       </c>
       <c r="BD33" s="3">
-        <v>3507.7408374300003</v>
+        <v>102.28044659</v>
       </c>
       <c r="BE33" s="3">
-        <v>2897.4780778600002</v>
+        <v>159.78797624000001</v>
       </c>
       <c r="BF33" s="3">
-        <v>2413.5798464899999</v>
+        <v>72.206083069999991</v>
       </c>
       <c r="BG33" s="3">
-        <v>2144.8768984600001</v>
+        <v>92.436481799999996</v>
       </c>
       <c r="BH33" s="3">
-        <v>3473.4232447000004</v>
+        <v>95.005118229999994</v>
       </c>
       <c r="BI33" s="3">
-        <v>2983.5300974100001</v>
+        <v>115.12720984000001</v>
       </c>
       <c r="BJ33" s="3">
-        <v>2422.3200000000002</v>
+        <v>110.24</v>
       </c>
       <c r="BK33" s="3">
-        <v>1851.38</v>
+        <v>110.75</v>
       </c>
       <c r="BL33" s="3">
-        <v>1434.42</v>
+        <v>78.680000000000007</v>
       </c>
       <c r="BM33" s="3">
-        <v>1410.04</v>
+        <v>125.68</v>
       </c>
       <c r="BN33" s="3">
-        <v>1409.72</v>
+        <v>62.9</v>
       </c>
       <c r="BO33" s="3">
-        <v>1323.1</v>
+        <v>42.1</v>
       </c>
       <c r="BP33" s="3">
-        <v>993.39</v>
+        <v>49.33</v>
       </c>
       <c r="BQ33" s="3">
-        <v>733.5</v>
+        <v>38.409999999999997</v>
       </c>
       <c r="BR33" s="3">
-        <v>557.46</v>
+        <v>29.72</v>
       </c>
       <c r="BS33" s="3"/>
       <c r="BT33" s="3"/>
@@ -8060,229 +8062,217 @@
     </row>
     <row r="34" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="D34" s="3">
+        <v>49866.57</v>
+      </c>
+      <c r="E34" s="3">
+        <v>67863.03</v>
+      </c>
       <c r="F34" s="3">
-        <v>298.38</v>
+        <v>58387.26</v>
       </c>
       <c r="G34" s="3">
-        <v>203</v>
+        <v>61553</v>
       </c>
       <c r="H34" s="3">
-        <v>180.94</v>
+        <v>50517.29</v>
       </c>
       <c r="I34" s="3">
-        <v>281</v>
+        <v>97791.360000000001</v>
       </c>
       <c r="J34" s="3">
-        <v>251.28</v>
+        <v>85161.01</v>
       </c>
       <c r="K34" s="3">
-        <v>323</v>
+        <v>78082</v>
       </c>
       <c r="L34" s="3">
-        <v>792.51</v>
+        <v>71342.47</v>
       </c>
       <c r="M34" s="3">
-        <v>1220</v>
+        <v>75238</v>
       </c>
       <c r="N34" s="3">
-        <v>1243.16417273</v>
+        <v>81203.248681910001</v>
       </c>
       <c r="O34" s="3">
-        <v>654</v>
+        <v>53479</v>
       </c>
       <c r="P34" s="3">
-        <v>252.35986779000001</v>
+        <v>80226.742546419991</v>
       </c>
       <c r="Q34" s="3">
-        <v>461</v>
+        <v>57626</v>
       </c>
       <c r="R34" s="3">
-        <v>565.44017417451562</v>
+        <v>42017.488641497497</v>
       </c>
       <c r="S34" s="3">
-        <v>556.79999999999995</v>
+        <v>36322</v>
       </c>
       <c r="T34" s="3">
-        <v>504.8309775443214</v>
+        <v>34464.561868159944</v>
       </c>
       <c r="U34" s="3">
-        <v>555</v>
+        <v>33173</v>
       </c>
       <c r="V34" s="3">
-        <v>612.70791534440571</v>
+        <v>30908.8792559379</v>
       </c>
       <c r="W34" s="3">
-        <v>707</v>
+        <v>37993</v>
       </c>
       <c r="X34" s="3">
-        <v>591.97484707224839</v>
+        <v>28777.099359384982</v>
       </c>
       <c r="Y34" s="3">
-        <v>752</v>
+        <v>35222</v>
       </c>
       <c r="Z34" s="3">
-        <v>534.14763220910959</v>
+        <v>29646.458657933323</v>
       </c>
       <c r="AA34" s="3">
-        <v>631</v>
+        <v>29907</v>
       </c>
       <c r="AB34" s="3">
-        <v>612.11451508993616</v>
-      </c>
-      <c r="AC34" s="3"/>
+        <v>26049.288270713329</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>29576</v>
+      </c>
       <c r="AD34" s="3">
-        <v>614.1300775865077</v>
+        <v>22359.067168790676</v>
       </c>
       <c r="AE34" s="3">
-        <v>676</v>
+        <v>23371</v>
       </c>
       <c r="AF34" s="3">
-        <v>659.17481850296974</v>
+        <v>20432.39751036097</v>
       </c>
       <c r="AG34" s="3">
-        <v>1045</v>
+        <v>21772</v>
       </c>
       <c r="AH34" s="3">
-        <v>748.03311076405771</v>
+        <v>19626.718396338219</v>
       </c>
       <c r="AI34" s="3">
-        <v>1641</v>
+        <v>19979</v>
       </c>
       <c r="AJ34" s="3">
-        <v>697.92101013446336</v>
-      </c>
-      <c r="AK34" s="3"/>
+        <v>18889.28563789363</v>
+      </c>
+      <c r="AK34" s="3">
+        <v>25774</v>
+      </c>
       <c r="AL34" s="3">
-        <v>718.13533311282754</v>
+        <v>20504.588297920182</v>
       </c>
       <c r="AM34" s="3"/>
       <c r="AN34" s="3">
-        <v>1811.018286624414</v>
+        <v>17134.593983417573</v>
       </c>
       <c r="AO34" s="3"/>
       <c r="AP34" s="3">
-        <v>1642.9073036429961</v>
+        <v>17813.709210830777</v>
       </c>
       <c r="AQ34" s="3">
-        <v>1483.8276398748217</v>
+        <v>14884.211158997265</v>
       </c>
       <c r="AR34" s="3">
-        <v>1128.2569240989199</v>
+        <v>13058.239630854476</v>
       </c>
       <c r="AS34" s="3">
-        <v>1391.8540054644607</v>
+        <v>11713.351010258984</v>
       </c>
       <c r="AT34" s="3">
-        <v>793.28869116759734</v>
+        <v>13536.849308522644</v>
       </c>
       <c r="AU34" s="3">
-        <v>299.34057138806116</v>
+        <v>14653.510671565389</v>
       </c>
       <c r="AV34" s="3">
-        <v>1798.9869517839636</v>
+        <v>11049.232778366928</v>
       </c>
       <c r="AW34" s="3">
-        <v>2201.3307261811256</v>
+        <v>5738.6757060318778</v>
       </c>
       <c r="AX34" s="3">
-        <v>1489.695872283972</v>
+        <v>7775.473634003677</v>
       </c>
       <c r="AY34" s="3">
-        <v>1846.0377496460962</v>
+        <v>7276.2522596689332</v>
       </c>
       <c r="AZ34" s="3">
-        <v>2015.4512268999999</v>
+        <v>8654.4983127200012</v>
       </c>
       <c r="BA34" s="3">
-        <v>1381.7640566</v>
+        <v>6879.7590368299998</v>
       </c>
       <c r="BB34" s="3">
-        <v>1595.4342278199999</v>
+        <v>4239.3062597500002</v>
       </c>
       <c r="BC34" s="3">
-        <v>1405.9200200400001</v>
+        <v>3716.9761318299998</v>
       </c>
       <c r="BD34" s="3">
-        <v>1284.94026811</v>
+        <v>3507.7408374300003</v>
       </c>
       <c r="BE34" s="3">
-        <v>979.95652844999995</v>
+        <v>2897.4780778600002</v>
       </c>
       <c r="BF34" s="3">
-        <v>892.5629348299999</v>
+        <v>2413.5798464899999</v>
       </c>
       <c r="BG34" s="3">
-        <v>653.37069178000002</v>
+        <v>2144.8768984600001</v>
       </c>
       <c r="BH34" s="3">
-        <v>932.12463394000008</v>
+        <v>3473.4232447000004</v>
       </c>
       <c r="BI34" s="3">
-        <v>714.12173654999992</v>
+        <v>2983.5300974100001</v>
       </c>
       <c r="BJ34" s="3">
-        <v>712.09</v>
+        <v>2422.3200000000002</v>
       </c>
       <c r="BK34" s="3">
-        <v>655.36</v>
+        <v>1851.38</v>
       </c>
       <c r="BL34" s="3">
-        <v>491.64</v>
+        <v>1434.42</v>
       </c>
       <c r="BM34" s="3">
-        <v>356.38</v>
+        <v>1410.04</v>
       </c>
       <c r="BN34" s="3">
-        <v>344.69</v>
+        <v>1409.72</v>
       </c>
       <c r="BO34" s="3">
-        <v>330.61</v>
+        <v>1323.1</v>
       </c>
       <c r="BP34" s="3">
-        <v>284.32</v>
+        <v>993.39</v>
       </c>
       <c r="BQ34" s="3">
-        <v>269.04000000000002</v>
+        <v>733.5</v>
       </c>
       <c r="BR34" s="3">
-        <v>209.71</v>
-      </c>
-      <c r="BS34" s="3">
-        <v>68.77</v>
-      </c>
-      <c r="BT34" s="3">
-        <v>71.13</v>
-      </c>
-      <c r="BU34" s="3">
-        <v>71.3</v>
-      </c>
-      <c r="BV34" s="3">
-        <v>50.05</v>
-      </c>
-      <c r="BW34" s="3">
-        <v>43.52</v>
-      </c>
-      <c r="BX34" s="3">
-        <v>29.59</v>
-      </c>
-      <c r="BY34" s="3">
-        <v>29.05</v>
-      </c>
-      <c r="BZ34" s="3">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="CA34" s="3">
-        <v>15.65</v>
-      </c>
-      <c r="CB34" s="3">
-        <v>14.41</v>
-      </c>
+        <v>557.46</v>
+      </c>
+      <c r="BS34" s="3"/>
+      <c r="BT34" s="3"/>
+      <c r="BU34" s="3"/>
+      <c r="BV34" s="3"/>
+      <c r="BW34" s="3"/>
+      <c r="BX34" s="3"/>
+      <c r="BY34" s="3"/>
+      <c r="BZ34" s="3"/>
+      <c r="CA34" s="3"/>
+      <c r="CB34" s="3"/>
       <c r="CC34" s="3"/>
       <c r="CD34" s="3"/>
       <c r="CE34" s="3"/>
@@ -8294,128 +8284,232 @@
     </row>
     <row r="35" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
+      <c r="D35" s="3">
+        <v>176.74</v>
+      </c>
+      <c r="E35" s="3">
+        <v>327.01</v>
+      </c>
+      <c r="F35" s="3">
+        <v>298.38</v>
+      </c>
+      <c r="G35" s="3">
+        <v>203</v>
+      </c>
+      <c r="H35" s="3">
+        <v>180.94</v>
+      </c>
+      <c r="I35" s="3">
+        <v>281</v>
+      </c>
+      <c r="J35" s="3">
+        <v>251.28</v>
+      </c>
+      <c r="K35" s="3">
+        <v>323</v>
+      </c>
+      <c r="L35" s="3">
+        <v>792.51</v>
+      </c>
+      <c r="M35" s="3">
+        <v>1220</v>
+      </c>
+      <c r="N35" s="3">
+        <v>1243.16417273</v>
+      </c>
+      <c r="O35" s="3">
+        <v>654</v>
+      </c>
+      <c r="P35" s="3">
+        <v>252.35986779000001</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>461</v>
+      </c>
+      <c r="R35" s="3">
+        <v>565.44017417451562</v>
+      </c>
+      <c r="S35" s="3">
+        <v>556.79999999999995</v>
+      </c>
+      <c r="T35" s="3">
+        <v>504.8309775443214</v>
+      </c>
+      <c r="U35" s="3">
+        <v>555</v>
+      </c>
+      <c r="V35" s="3">
+        <v>612.70791534440571</v>
+      </c>
+      <c r="W35" s="3">
+        <v>707</v>
+      </c>
+      <c r="X35" s="3">
+        <v>591.97484707224839</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>752</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>534.14763220910959</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>631</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>612.11451508993616</v>
+      </c>
       <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="3"/>
-      <c r="AI35" s="3"/>
-      <c r="AJ35" s="3"/>
+      <c r="AD35" s="3">
+        <v>614.1300775865077</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>676</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>659.17481850296974</v>
+      </c>
+      <c r="AG35" s="3">
+        <v>1045</v>
+      </c>
+      <c r="AH35" s="3">
+        <v>748.03311076405771</v>
+      </c>
+      <c r="AI35" s="3">
+        <v>1641</v>
+      </c>
+      <c r="AJ35" s="3">
+        <v>697.92101013446336</v>
+      </c>
       <c r="AK35" s="3"/>
-      <c r="AL35" s="3"/>
+      <c r="AL35" s="3">
+        <v>718.13533311282754</v>
+      </c>
       <c r="AM35" s="3"/>
-      <c r="AN35" s="3"/>
+      <c r="AN35" s="3">
+        <v>1811.018286624414</v>
+      </c>
       <c r="AO35" s="3"/>
-      <c r="AP35" s="3"/>
-      <c r="AQ35" s="3"/>
-      <c r="AR35" s="3"/>
-      <c r="AS35" s="3"/>
-      <c r="AT35" s="3"/>
-      <c r="AU35" s="3"/>
-      <c r="AV35" s="3"/>
-      <c r="AW35" s="3"/>
-      <c r="AX35" s="3"/>
-      <c r="AY35" s="3"/>
-      <c r="AZ35" s="3"/>
-      <c r="BA35" s="3"/>
-      <c r="BB35" s="3"/>
-      <c r="BC35" s="3"/>
-      <c r="BD35" s="3"/>
-      <c r="BE35" s="3"/>
-      <c r="BF35" s="3"/>
-      <c r="BG35" s="3"/>
+      <c r="AP35" s="3">
+        <v>1642.9073036429961</v>
+      </c>
+      <c r="AQ35" s="3">
+        <v>1483.8276398748217</v>
+      </c>
+      <c r="AR35" s="3">
+        <v>1128.2569240989199</v>
+      </c>
+      <c r="AS35" s="3">
+        <v>1391.8540054644607</v>
+      </c>
+      <c r="AT35" s="3">
+        <v>793.28869116759734</v>
+      </c>
+      <c r="AU35" s="3">
+        <v>299.34057138806116</v>
+      </c>
+      <c r="AV35" s="3">
+        <v>1798.9869517839636</v>
+      </c>
+      <c r="AW35" s="3">
+        <v>2201.3307261811256</v>
+      </c>
+      <c r="AX35" s="3">
+        <v>1489.695872283972</v>
+      </c>
+      <c r="AY35" s="3">
+        <v>1846.0377496460962</v>
+      </c>
+      <c r="AZ35" s="3">
+        <v>2015.4512268999999</v>
+      </c>
+      <c r="BA35" s="3">
+        <v>1381.7640566</v>
+      </c>
+      <c r="BB35" s="3">
+        <v>1595.4342278199999</v>
+      </c>
+      <c r="BC35" s="3">
+        <v>1405.9200200400001</v>
+      </c>
+      <c r="BD35" s="3">
+        <v>1284.94026811</v>
+      </c>
+      <c r="BE35" s="3">
+        <v>979.95652844999995</v>
+      </c>
+      <c r="BF35" s="3">
+        <v>892.5629348299999</v>
+      </c>
+      <c r="BG35" s="3">
+        <v>653.37069178000002</v>
+      </c>
       <c r="BH35" s="3">
-        <v>98.104888650000007</v>
+        <v>932.12463394000008</v>
       </c>
       <c r="BI35" s="3">
-        <v>80.62528180000001</v>
+        <v>714.12173654999992</v>
       </c>
       <c r="BJ35" s="3">
-        <v>85.5</v>
+        <v>712.09</v>
       </c>
       <c r="BK35" s="3">
-        <v>71.930000000000007</v>
+        <v>655.36</v>
       </c>
       <c r="BL35" s="3">
-        <v>91.69</v>
+        <v>491.64</v>
       </c>
       <c r="BM35" s="3">
-        <v>102.31</v>
+        <v>356.38</v>
       </c>
       <c r="BN35" s="3">
-        <v>109.33</v>
+        <v>344.69</v>
       </c>
       <c r="BO35" s="3">
-        <v>39.47</v>
+        <v>330.61</v>
       </c>
       <c r="BP35" s="3">
-        <v>29.69</v>
+        <v>284.32</v>
       </c>
       <c r="BQ35" s="3">
-        <v>28.35</v>
+        <v>269.04000000000002</v>
       </c>
       <c r="BR35" s="3">
-        <v>28.15</v>
+        <v>209.71</v>
       </c>
       <c r="BS35" s="3">
-        <v>28.12</v>
+        <v>68.77</v>
       </c>
       <c r="BT35" s="3">
-        <v>31.87</v>
+        <v>71.13</v>
       </c>
       <c r="BU35" s="3">
-        <v>33.71</v>
+        <v>71.3</v>
       </c>
       <c r="BV35" s="3">
-        <v>46.29</v>
+        <v>50.05</v>
       </c>
       <c r="BW35" s="3">
-        <v>37.840000000000003</v>
+        <v>43.52</v>
       </c>
       <c r="BX35" s="3">
-        <v>37.08</v>
+        <v>29.59</v>
       </c>
       <c r="BY35" s="3">
-        <v>23.92</v>
+        <v>29.05</v>
       </c>
       <c r="BZ35" s="3">
-        <v>22.87</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="CA35" s="3">
-        <v>21.65</v>
+        <v>15.65</v>
       </c>
       <c r="CB35" s="3">
-        <v>20.45</v>
+        <v>14.41</v>
       </c>
       <c r="CC35" s="3"/>
       <c r="CD35" s="3"/>
@@ -8427,244 +8521,129 @@
       <c r="CJ35" s="3"/>
     </row>
     <row r="36" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2">
-        <v>289109.06699999998</v>
-      </c>
-      <c r="D36" s="2">
-        <v>311456.90117933997</v>
-      </c>
-      <c r="E36" s="2">
-        <v>271226.16500000004</v>
-      </c>
-      <c r="F36" s="2">
-        <v>215438.16</v>
-      </c>
-      <c r="G36" s="2">
-        <v>242781</v>
-      </c>
-      <c r="H36" s="2">
-        <v>204170.65</v>
-      </c>
-      <c r="I36" s="2">
-        <v>245568</v>
-      </c>
-      <c r="J36" s="2">
-        <v>190145.17</v>
-      </c>
-      <c r="K36" s="2">
-        <v>214219</v>
-      </c>
-      <c r="L36" s="2">
-        <v>145137.72</v>
-      </c>
-      <c r="M36" s="2">
-        <v>143432</v>
-      </c>
-      <c r="N36" s="2">
-        <v>173672.00446557</v>
-      </c>
-      <c r="O36" s="2">
-        <v>227036</v>
-      </c>
-      <c r="P36" s="2">
-        <v>164174.04649082999</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>152260.12</v>
-      </c>
-      <c r="R36" s="2">
-        <v>100833.5259025172</v>
-      </c>
-      <c r="S36" s="2">
-        <v>106701.5</v>
-      </c>
-      <c r="T36" s="2">
-        <v>91150.895006890045</v>
-      </c>
-      <c r="U36" s="2">
-        <v>93639</v>
-      </c>
-      <c r="V36" s="2">
-        <v>82558.731288079056</v>
-      </c>
-      <c r="W36" s="2">
-        <v>86958</v>
-      </c>
-      <c r="X36" s="2">
-        <v>79407.58475609489</v>
-      </c>
-      <c r="Y36" s="2">
-        <v>78240</v>
-      </c>
-      <c r="Z36" s="2">
-        <v>68487.959446065404</v>
-      </c>
-      <c r="AA36" s="2">
-        <v>62762</v>
-      </c>
-      <c r="AB36" s="2">
-        <v>60903.467913943292</v>
-      </c>
-      <c r="AC36" s="2">
-        <v>61242</v>
-      </c>
-      <c r="AD36" s="2">
-        <v>54161.752414188028</v>
-      </c>
-      <c r="AE36" s="2">
-        <v>55491</v>
-      </c>
-      <c r="AF36" s="2">
-        <v>48327.168147263612</v>
-      </c>
-      <c r="AG36" s="2">
-        <v>46754</v>
-      </c>
-      <c r="AH36" s="2">
-        <v>43236.210149625418</v>
-      </c>
-      <c r="AI36" s="2">
-        <v>56504</v>
-      </c>
-      <c r="AJ36" s="2">
-        <v>53785.465205216351</v>
-      </c>
-      <c r="AK36" s="2">
-        <v>53652</v>
-      </c>
-      <c r="AL36" s="2">
-        <v>45280.25092354745</v>
-      </c>
-      <c r="AM36" s="2">
-        <v>43684</v>
-      </c>
-      <c r="AN36" s="2">
-        <v>38605.400259801638</v>
-      </c>
-      <c r="AO36" s="2">
-        <f>25850+345+5333</f>
-        <v>31528</v>
-      </c>
-      <c r="AP36" s="2">
-        <v>35133.520668612058</v>
-      </c>
-      <c r="AQ36" s="2">
-        <v>22265.061319009757</v>
-      </c>
-      <c r="AR36" s="2">
-        <v>23312.726280535371</v>
-      </c>
-      <c r="AS36" s="2">
-        <v>21091.177602977274</v>
-      </c>
-      <c r="AT36" s="2">
-        <v>19519.295041666912</v>
-      </c>
-      <c r="AU36" s="2">
-        <v>18086.775232578973</v>
-      </c>
-      <c r="AV36" s="2">
-        <v>18339.099052775753</v>
-      </c>
-      <c r="AW36" s="2">
-        <v>22641.694395230796</v>
-      </c>
-      <c r="AX36" s="2">
-        <v>19807.359470265212</v>
-      </c>
-      <c r="AY36" s="2">
-        <v>16729.708467129887</v>
-      </c>
-      <c r="AZ36" s="2">
-        <v>14190.517120069993</v>
-      </c>
-      <c r="BA36" s="2">
-        <v>16099.275782440001</v>
-      </c>
-      <c r="BB36" s="2">
-        <v>7698.1149943400014</v>
-      </c>
-      <c r="BC36" s="2">
-        <v>8357.4255522200001</v>
-      </c>
-      <c r="BD36" s="2">
-        <v>5906.2088250899988</v>
-      </c>
-      <c r="BE36" s="2">
-        <v>5459.6831759299994</v>
-      </c>
-      <c r="BF36" s="2">
-        <v>4248.8682526000002</v>
-      </c>
-      <c r="BG36" s="2">
-        <v>4268.6815927399994</v>
-      </c>
-      <c r="BH36" s="2">
-        <v>1974.0967465699998</v>
-      </c>
-      <c r="BI36" s="2">
-        <v>1994.9010640400002</v>
-      </c>
-      <c r="BJ36" s="2">
-        <v>3132.33</v>
-      </c>
-      <c r="BK36" s="2">
-        <v>2697.51</v>
-      </c>
-      <c r="BL36" s="2">
-        <v>2131.15</v>
-      </c>
-      <c r="BM36" s="2">
-        <v>951.11</v>
-      </c>
-      <c r="BN36" s="2">
-        <v>1300.81</v>
-      </c>
-      <c r="BO36" s="2">
-        <v>613.76</v>
-      </c>
-      <c r="BP36" s="2">
-        <v>501.57</v>
-      </c>
-      <c r="BQ36" s="2">
-        <v>436.61</v>
-      </c>
-      <c r="BR36" s="2">
-        <v>338.2</v>
-      </c>
-      <c r="BS36" s="2">
-        <v>357.46</v>
-      </c>
-      <c r="BT36" s="2">
-        <v>435.95</v>
-      </c>
-      <c r="BU36" s="2">
-        <v>428.18</v>
-      </c>
-      <c r="BV36" s="2">
-        <v>940.08</v>
-      </c>
-      <c r="BW36" s="2">
-        <v>122.72</v>
-      </c>
-      <c r="BX36" s="2">
-        <v>121.28</v>
-      </c>
-      <c r="BY36" s="2">
-        <v>111.72</v>
-      </c>
-      <c r="BZ36" s="2">
-        <v>91.85</v>
-      </c>
-      <c r="CA36" s="2">
-        <v>68.77</v>
-      </c>
-      <c r="CB36" s="2">
-        <v>58.5</v>
+      <c r="A36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="3"/>
+      <c r="AY36" s="3"/>
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="3"/>
+      <c r="BD36" s="3"/>
+      <c r="BE36" s="3"/>
+      <c r="BF36" s="3"/>
+      <c r="BG36" s="3"/>
+      <c r="BH36" s="3">
+        <v>98.104888650000007</v>
+      </c>
+      <c r="BI36" s="3">
+        <v>80.62528180000001</v>
+      </c>
+      <c r="BJ36" s="3">
+        <v>85.5</v>
+      </c>
+      <c r="BK36" s="3">
+        <v>71.930000000000007</v>
+      </c>
+      <c r="BL36" s="3">
+        <v>91.69</v>
+      </c>
+      <c r="BM36" s="3">
+        <v>102.31</v>
+      </c>
+      <c r="BN36" s="3">
+        <v>109.33</v>
+      </c>
+      <c r="BO36" s="3">
+        <v>39.47</v>
+      </c>
+      <c r="BP36" s="3">
+        <v>29.69</v>
+      </c>
+      <c r="BQ36" s="3">
+        <v>28.35</v>
+      </c>
+      <c r="BR36" s="3">
+        <v>28.15</v>
+      </c>
+      <c r="BS36" s="3">
+        <v>28.12</v>
+      </c>
+      <c r="BT36" s="3">
+        <v>31.87</v>
+      </c>
+      <c r="BU36" s="3">
+        <v>33.71</v>
+      </c>
+      <c r="BV36" s="3">
+        <v>46.29</v>
+      </c>
+      <c r="BW36" s="3">
+        <v>37.840000000000003</v>
+      </c>
+      <c r="BX36" s="3">
+        <v>37.08</v>
+      </c>
+      <c r="BY36" s="3">
+        <v>23.92</v>
+      </c>
+      <c r="BZ36" s="3">
+        <v>22.87</v>
+      </c>
+      <c r="CA36" s="3">
+        <v>21.65</v>
+      </c>
+      <c r="CB36" s="3">
+        <v>20.45</v>
       </c>
       <c r="CC36" s="3"/>
       <c r="CD36" s="3"/>
@@ -8676,233 +8655,246 @@
       <c r="CJ36" s="3"/>
     </row>
     <row r="37" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3">
-        <v>10358.469999999999</v>
-      </c>
-      <c r="G37" s="3">
-        <v>13167</v>
-      </c>
-      <c r="H37" s="3">
-        <v>11825.68</v>
-      </c>
-      <c r="I37" s="3">
-        <v>14403</v>
-      </c>
-      <c r="J37" s="3">
-        <v>9909.94</v>
-      </c>
-      <c r="K37" s="3">
-        <v>9036</v>
-      </c>
-      <c r="L37" s="3">
-        <v>4854.28</v>
-      </c>
-      <c r="M37" s="3">
-        <v>6198</v>
-      </c>
-      <c r="N37" s="3">
-        <v>7219.4560515600015</v>
-      </c>
-      <c r="O37" s="3">
-        <v>55480</v>
-      </c>
-      <c r="P37" s="3">
-        <v>7155.3961142399994</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>4611.8500000000004</v>
-      </c>
-      <c r="R37" s="3">
-        <v>7467.3133371400017</v>
-      </c>
-      <c r="S37" s="3">
-        <v>6719.2</v>
-      </c>
-      <c r="T37" s="3">
-        <v>6638.3061086200005</v>
-      </c>
-      <c r="U37" s="3">
-        <v>5325</v>
-      </c>
-      <c r="V37" s="3">
-        <v>5635.5260393199997</v>
-      </c>
-      <c r="W37" s="3">
-        <v>5017</v>
-      </c>
-      <c r="X37" s="3">
-        <v>5449.6400372199996</v>
-      </c>
-      <c r="Y37" s="3">
-        <v>5097</v>
-      </c>
-      <c r="Z37" s="3">
-        <v>3275.3418572399996</v>
-      </c>
-      <c r="AA37" s="3">
-        <v>3918</v>
-      </c>
-      <c r="AB37" s="3">
-        <v>3626.3529650628407</v>
-      </c>
-      <c r="AC37" s="3">
-        <v>2608</v>
-      </c>
-      <c r="AD37" s="3">
-        <v>2400.0479408236229</v>
-      </c>
-      <c r="AE37" s="3">
-        <v>2029</v>
-      </c>
-      <c r="AF37" s="3">
-        <v>1981.320138877607</v>
-      </c>
-      <c r="AG37" s="3">
-        <v>1630</v>
-      </c>
-      <c r="AH37" s="3">
-        <v>1425.9669572506575</v>
-      </c>
-      <c r="AI37" s="3">
-        <v>1165</v>
-      </c>
-      <c r="AJ37" s="3">
-        <v>1278.5199743313312</v>
-      </c>
-      <c r="AK37" s="3">
-        <v>1471</v>
-      </c>
-      <c r="AL37" s="3">
-        <v>961.88043434597728</v>
-      </c>
-      <c r="AM37" s="3"/>
-      <c r="AN37" s="3">
-        <v>1113.7977276309189</v>
-      </c>
-      <c r="AO37" s="3"/>
-      <c r="AP37" s="3">
-        <v>1016.7456405031206</v>
-      </c>
-      <c r="AQ37" s="3">
-        <v>749.51598802665535</v>
-      </c>
-      <c r="AR37" s="3">
-        <v>714.54490274731495</v>
-      </c>
-      <c r="AS37" s="3">
-        <v>527.96435989793008</v>
-      </c>
-      <c r="AT37" s="3">
-        <v>594.42800498693828</v>
-      </c>
-      <c r="AU37" s="3">
-        <v>479.98937463902723</v>
-      </c>
-      <c r="AV37" s="3">
-        <v>572.73526869237332</v>
-      </c>
-      <c r="AW37" s="3">
-        <v>473.57028708444284</v>
-      </c>
-      <c r="AX37" s="3">
-        <v>881.13753725768481</v>
-      </c>
-      <c r="AY37" s="3">
-        <v>565.18024771733883</v>
-      </c>
-      <c r="AZ37" s="3">
-        <v>416.69213996000002</v>
-      </c>
-      <c r="BA37" s="3">
-        <v>309.10449185000004</v>
-      </c>
-      <c r="BB37" s="3">
-        <v>223.33659485000001</v>
-      </c>
-      <c r="BC37" s="3">
-        <v>248.41866449</v>
-      </c>
-      <c r="BD37" s="3">
-        <v>164.70115637999999</v>
-      </c>
-      <c r="BE37" s="3">
-        <v>194.73645532</v>
-      </c>
-      <c r="BF37" s="3">
-        <v>121.98142232000001</v>
-      </c>
-      <c r="BG37" s="3">
-        <v>65.819740740000015</v>
-      </c>
-      <c r="BH37" s="3">
-        <v>62.389197849999995</v>
-      </c>
-      <c r="BI37" s="3">
-        <v>82.332335409999999</v>
-      </c>
-      <c r="BJ37" s="3">
-        <v>64.67</v>
-      </c>
-      <c r="BK37" s="3">
-        <v>112.29</v>
-      </c>
-      <c r="BL37" s="3">
-        <v>115.83</v>
-      </c>
-      <c r="BM37" s="3">
-        <v>105.16</v>
-      </c>
-      <c r="BN37" s="3">
-        <v>166.7</v>
-      </c>
-      <c r="BO37" s="3">
-        <v>41.6</v>
-      </c>
-      <c r="BP37" s="3">
-        <v>50.92</v>
-      </c>
-      <c r="BQ37" s="3">
-        <v>42.23</v>
-      </c>
-      <c r="BR37" s="3">
-        <v>37.340000000000003</v>
-      </c>
-      <c r="BS37" s="3">
-        <v>28.11</v>
-      </c>
-      <c r="BT37" s="3">
-        <v>24.28</v>
-      </c>
-      <c r="BU37" s="3">
-        <v>28.42</v>
-      </c>
-      <c r="BV37" s="3">
-        <v>34.979999999999997</v>
-      </c>
-      <c r="BW37" s="3">
-        <v>13.78</v>
-      </c>
-      <c r="BX37" s="3">
-        <v>18.89</v>
-      </c>
-      <c r="BY37" s="3">
-        <v>16.09</v>
-      </c>
-      <c r="BZ37" s="3">
-        <v>14.34</v>
-      </c>
-      <c r="CA37" s="3">
-        <v>18.27</v>
-      </c>
-      <c r="CB37" s="3">
-        <v>13.68</v>
+      <c r="A37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2">
+        <v>289109.06699999998</v>
+      </c>
+      <c r="D37" s="12">
+        <f>SUM(D38:D41)</f>
+        <v>234389.63</v>
+      </c>
+      <c r="E37" s="12">
+        <f>SUM(E38:E41)</f>
+        <v>251843.96</v>
+      </c>
+      <c r="F37" s="2">
+        <v>215438.16</v>
+      </c>
+      <c r="G37" s="2">
+        <v>242781</v>
+      </c>
+      <c r="H37" s="2">
+        <v>204170.65</v>
+      </c>
+      <c r="I37" s="2">
+        <v>245568</v>
+      </c>
+      <c r="J37" s="2">
+        <v>190145.17</v>
+      </c>
+      <c r="K37" s="2">
+        <v>214219</v>
+      </c>
+      <c r="L37" s="2">
+        <v>145137.72</v>
+      </c>
+      <c r="M37" s="2">
+        <v>143432</v>
+      </c>
+      <c r="N37" s="2">
+        <v>173672.00446557</v>
+      </c>
+      <c r="O37" s="2">
+        <v>227036</v>
+      </c>
+      <c r="P37" s="2">
+        <v>164174.04649082999</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>152260.12</v>
+      </c>
+      <c r="R37" s="2">
+        <v>100833.5259025172</v>
+      </c>
+      <c r="S37" s="2">
+        <v>106701.5</v>
+      </c>
+      <c r="T37" s="2">
+        <v>91150.895006890045</v>
+      </c>
+      <c r="U37" s="2">
+        <v>93639</v>
+      </c>
+      <c r="V37" s="2">
+        <v>82558.731288079056</v>
+      </c>
+      <c r="W37" s="2">
+        <v>86958</v>
+      </c>
+      <c r="X37" s="2">
+        <v>79407.58475609489</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>78240</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>68487.959446065404</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>62762</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>60903.467913943292</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>61242</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>54161.752414188028</v>
+      </c>
+      <c r="AE37" s="2">
+        <v>55491</v>
+      </c>
+      <c r="AF37" s="2">
+        <v>48327.168147263612</v>
+      </c>
+      <c r="AG37" s="2">
+        <v>46754</v>
+      </c>
+      <c r="AH37" s="2">
+        <v>43236.210149625418</v>
+      </c>
+      <c r="AI37" s="2">
+        <v>56504</v>
+      </c>
+      <c r="AJ37" s="2">
+        <v>53785.465205216351</v>
+      </c>
+      <c r="AK37" s="2">
+        <v>53652</v>
+      </c>
+      <c r="AL37" s="2">
+        <v>45280.25092354745</v>
+      </c>
+      <c r="AM37" s="2">
+        <v>43684</v>
+      </c>
+      <c r="AN37" s="2">
+        <v>38605.400259801638</v>
+      </c>
+      <c r="AO37" s="2">
+        <f>25850+345+5333</f>
+        <v>31528</v>
+      </c>
+      <c r="AP37" s="2">
+        <v>35133.520668612058</v>
+      </c>
+      <c r="AQ37" s="2">
+        <v>22265.061319009757</v>
+      </c>
+      <c r="AR37" s="2">
+        <v>23312.726280535371</v>
+      </c>
+      <c r="AS37" s="2">
+        <v>21091.177602977274</v>
+      </c>
+      <c r="AT37" s="2">
+        <v>19519.295041666912</v>
+      </c>
+      <c r="AU37" s="2">
+        <v>18086.775232578973</v>
+      </c>
+      <c r="AV37" s="2">
+        <v>18339.099052775753</v>
+      </c>
+      <c r="AW37" s="2">
+        <v>22641.694395230796</v>
+      </c>
+      <c r="AX37" s="2">
+        <v>19807.359470265212</v>
+      </c>
+      <c r="AY37" s="2">
+        <v>16729.708467129887</v>
+      </c>
+      <c r="AZ37" s="2">
+        <v>14190.517120069993</v>
+      </c>
+      <c r="BA37" s="2">
+        <v>16099.275782440001</v>
+      </c>
+      <c r="BB37" s="2">
+        <v>7698.1149943400014</v>
+      </c>
+      <c r="BC37" s="2">
+        <v>8357.4255522200001</v>
+      </c>
+      <c r="BD37" s="2">
+        <v>5906.2088250899988</v>
+      </c>
+      <c r="BE37" s="2">
+        <v>5459.6831759299994</v>
+      </c>
+      <c r="BF37" s="2">
+        <v>4248.8682526000002</v>
+      </c>
+      <c r="BG37" s="2">
+        <v>4268.6815927399994</v>
+      </c>
+      <c r="BH37" s="2">
+        <v>1974.0967465699998</v>
+      </c>
+      <c r="BI37" s="2">
+        <v>1994.9010640400002</v>
+      </c>
+      <c r="BJ37" s="2">
+        <v>3132.33</v>
+      </c>
+      <c r="BK37" s="2">
+        <v>2697.51</v>
+      </c>
+      <c r="BL37" s="2">
+        <v>2131.15</v>
+      </c>
+      <c r="BM37" s="2">
+        <v>951.11</v>
+      </c>
+      <c r="BN37" s="2">
+        <v>1300.81</v>
+      </c>
+      <c r="BO37" s="2">
+        <v>613.76</v>
+      </c>
+      <c r="BP37" s="2">
+        <v>501.57</v>
+      </c>
+      <c r="BQ37" s="2">
+        <v>436.61</v>
+      </c>
+      <c r="BR37" s="2">
+        <v>338.2</v>
+      </c>
+      <c r="BS37" s="2">
+        <v>357.46</v>
+      </c>
+      <c r="BT37" s="2">
+        <v>435.95</v>
+      </c>
+      <c r="BU37" s="2">
+        <v>428.18</v>
+      </c>
+      <c r="BV37" s="2">
+        <v>940.08</v>
+      </c>
+      <c r="BW37" s="2">
+        <v>122.72</v>
+      </c>
+      <c r="BX37" s="2">
+        <v>121.28</v>
+      </c>
+      <c r="BY37" s="2">
+        <v>111.72</v>
+      </c>
+      <c r="BZ37" s="2">
+        <v>91.85</v>
+      </c>
+      <c r="CA37" s="2">
+        <v>68.77</v>
+      </c>
+      <c r="CB37" s="2">
+        <v>58.5</v>
       </c>
       <c r="CC37" s="3"/>
       <c r="CD37" s="3"/>
@@ -8915,232 +8907,236 @@
     </row>
     <row r="38" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="D38" s="3">
+        <v>11096.92</v>
+      </c>
+      <c r="E38" s="3">
+        <v>11350.78</v>
+      </c>
       <c r="F38" s="3">
-        <v>179466.32</v>
+        <v>10358.469999999999</v>
       </c>
       <c r="G38" s="3">
-        <v>205726</v>
+        <v>13167</v>
       </c>
       <c r="H38" s="3">
-        <v>172893.42</v>
+        <v>11825.68</v>
       </c>
       <c r="I38" s="3">
-        <v>202181</v>
+        <v>14403</v>
       </c>
       <c r="J38" s="3">
-        <v>156734.39999999999</v>
+        <v>9909.94</v>
       </c>
       <c r="K38" s="3">
-        <v>176586</v>
+        <v>9036</v>
       </c>
       <c r="L38" s="3">
-        <v>124520.59</v>
+        <v>4854.28</v>
       </c>
       <c r="M38" s="3">
-        <v>121511</v>
+        <v>6198</v>
       </c>
       <c r="N38" s="3">
-        <v>145970.09255793999</v>
+        <v>7219.4560515600015</v>
       </c>
       <c r="O38" s="3">
-        <v>161126</v>
+        <v>55480</v>
       </c>
       <c r="P38" s="3">
-        <v>139168.17673413001</v>
+        <v>7155.3961142399994</v>
       </c>
       <c r="Q38" s="3">
-        <v>132865.59</v>
+        <v>4611.8500000000004</v>
       </c>
       <c r="R38" s="3">
-        <v>85915.928164500001</v>
+        <v>7467.3133371400017</v>
       </c>
       <c r="S38" s="3">
-        <v>94144.8</v>
+        <v>6719.2</v>
       </c>
       <c r="T38" s="3">
-        <v>80151.403785719405</v>
+        <v>6638.3061086200005</v>
       </c>
       <c r="U38" s="3">
-        <v>83308</v>
+        <v>5325</v>
       </c>
       <c r="V38" s="3">
-        <v>72072.907838589381</v>
+        <v>5635.5260393199997</v>
       </c>
       <c r="W38" s="3">
-        <v>75656</v>
+        <v>5017</v>
       </c>
       <c r="X38" s="3">
-        <v>69035.83368023971</v>
+        <v>5449.6400372199996</v>
       </c>
       <c r="Y38" s="3">
-        <v>67212</v>
+        <v>5097</v>
       </c>
       <c r="Z38" s="3">
-        <v>60356.13436874326</v>
+        <v>3275.3418572399996</v>
       </c>
       <c r="AA38" s="3">
-        <v>53852</v>
+        <v>3918</v>
       </c>
       <c r="AB38" s="3">
-        <v>52455.340142006949</v>
+        <v>3626.3529650628407</v>
       </c>
       <c r="AC38" s="3">
-        <v>54136</v>
+        <v>2608</v>
       </c>
       <c r="AD38" s="3">
-        <v>47878.786095808297</v>
+        <v>2400.0479408236229</v>
       </c>
       <c r="AE38" s="3">
-        <v>49730</v>
+        <v>2029</v>
       </c>
       <c r="AF38" s="3">
-        <v>42629.036105965861</v>
+        <v>1981.320138877607</v>
       </c>
       <c r="AG38" s="3">
-        <v>40423</v>
+        <v>1630</v>
       </c>
       <c r="AH38" s="3">
-        <v>37483.706792995334</v>
+        <v>1425.9669572506575</v>
       </c>
       <c r="AI38" s="3">
-        <v>42338</v>
+        <v>1165</v>
       </c>
       <c r="AJ38" s="3">
-        <v>40053.562425144264</v>
+        <v>1278.5199743313312</v>
       </c>
       <c r="AK38" s="3">
-        <v>38437</v>
+        <v>1471</v>
       </c>
       <c r="AL38" s="3">
-        <v>35147.049999114017</v>
+        <v>961.88043434597728</v>
       </c>
       <c r="AM38" s="3"/>
       <c r="AN38" s="3">
-        <v>30287.55282805816</v>
+        <v>1113.7977276309189</v>
       </c>
       <c r="AO38" s="3"/>
       <c r="AP38" s="3">
-        <v>29431.036284702623</v>
+        <v>1016.7456405031206</v>
       </c>
       <c r="AQ38" s="3">
-        <v>18167.426186789038</v>
+        <v>749.51598802665535</v>
       </c>
       <c r="AR38" s="3">
-        <v>17920.577307894295</v>
+        <v>714.54490274731495</v>
       </c>
       <c r="AS38" s="3">
-        <v>14064.262404890804</v>
+        <v>527.96435989793008</v>
       </c>
       <c r="AT38" s="3">
-        <v>13920.220200600121</v>
+        <v>594.42800498693828</v>
       </c>
       <c r="AU38" s="3">
-        <v>16170.350407293701</v>
+        <v>479.98937463902723</v>
       </c>
       <c r="AV38" s="3">
-        <v>15680.438756203332</v>
+        <v>572.73526869237332</v>
       </c>
       <c r="AW38" s="3">
-        <v>19080.621721110536</v>
+        <v>473.57028708444284</v>
       </c>
       <c r="AX38" s="3">
-        <v>16477.260550005074</v>
+        <v>881.13753725768481</v>
       </c>
       <c r="AY38" s="3">
-        <v>14291.64033944324</v>
+        <v>565.18024771733883</v>
       </c>
       <c r="AZ38" s="3">
-        <v>12399.486223189995</v>
+        <v>416.69213996000002</v>
       </c>
       <c r="BA38" s="3">
-        <v>12033.85344653</v>
+        <v>309.10449185000004</v>
       </c>
       <c r="BB38" s="3">
-        <v>5735.4045852800009</v>
+        <v>223.33659485000001</v>
       </c>
       <c r="BC38" s="3">
-        <v>6419.2251973800003</v>
+        <v>248.41866449</v>
       </c>
       <c r="BD38" s="3">
-        <v>4683.4830257900003</v>
+        <v>164.70115637999999</v>
       </c>
       <c r="BE38" s="3">
-        <v>3544.4485766600001</v>
+        <v>194.73645532</v>
       </c>
       <c r="BF38" s="3">
-        <v>3075.3777953899998</v>
+        <v>121.98142232000001</v>
       </c>
       <c r="BG38" s="3">
-        <v>2530.2390716599998</v>
+        <v>65.819740740000015</v>
       </c>
       <c r="BH38" s="3">
-        <v>1472.0197429699999</v>
+        <v>62.389197849999995</v>
       </c>
       <c r="BI38" s="3">
-        <v>1450.78265779</v>
+        <v>82.332335409999999</v>
       </c>
       <c r="BJ38" s="3">
-        <v>1175.52</v>
+        <v>64.67</v>
       </c>
       <c r="BK38" s="3">
-        <v>945.76</v>
+        <v>112.29</v>
       </c>
       <c r="BL38" s="3">
-        <v>726.15</v>
+        <v>115.83</v>
       </c>
       <c r="BM38" s="3">
-        <v>682.68</v>
+        <v>105.16</v>
       </c>
       <c r="BN38" s="3">
-        <v>586.23</v>
+        <v>166.7</v>
       </c>
       <c r="BO38" s="3">
-        <v>499.06</v>
+        <v>41.6</v>
       </c>
       <c r="BP38" s="3">
-        <v>407.84</v>
+        <v>50.92</v>
       </c>
       <c r="BQ38" s="3">
-        <v>350.6</v>
+        <v>42.23</v>
       </c>
       <c r="BR38" s="3">
-        <v>246.76</v>
+        <v>37.340000000000003</v>
       </c>
       <c r="BS38" s="3">
-        <v>125.05</v>
+        <v>28.11</v>
       </c>
       <c r="BT38" s="3">
-        <v>110.19</v>
+        <v>24.28</v>
       </c>
       <c r="BU38" s="3">
-        <v>101.87</v>
+        <v>28.42</v>
       </c>
       <c r="BV38" s="3">
-        <v>63.84</v>
+        <v>34.979999999999997</v>
       </c>
       <c r="BW38" s="3">
-        <v>39.29</v>
+        <v>13.78</v>
       </c>
       <c r="BX38" s="3">
-        <v>37.28</v>
+        <v>18.89</v>
       </c>
       <c r="BY38" s="3">
-        <v>33.75</v>
+        <v>16.09</v>
       </c>
       <c r="BZ38" s="3">
-        <v>26.74</v>
+        <v>14.34</v>
       </c>
       <c r="CA38" s="3">
-        <v>26.15</v>
+        <v>18.27</v>
       </c>
       <c r="CB38" s="3">
-        <v>23.35</v>
+        <v>13.68</v>
       </c>
       <c r="CC38" s="3"/>
       <c r="CD38" s="3"/>
@@ -9153,187 +9149,239 @@
     </row>
     <row r="39" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="D39" s="11">
+        <f>177337.99+19536.16</f>
+        <v>196874.15</v>
+      </c>
+      <c r="E39" s="11">
+        <f>194823.47+15887</f>
+        <v>210710.47</v>
+      </c>
       <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3"/>
+        <v>179466.32</v>
+      </c>
+      <c r="G39" s="3">
+        <v>205726</v>
+      </c>
       <c r="H39" s="3">
-        <v>0</v>
-      </c>
-      <c r="I39" s="3"/>
+        <v>172893.42</v>
+      </c>
+      <c r="I39" s="3">
+        <v>202181</v>
+      </c>
       <c r="J39" s="3">
-        <v>0</v>
-      </c>
-      <c r="K39" s="3"/>
+        <v>156734.39999999999</v>
+      </c>
+      <c r="K39" s="3">
+        <v>176586</v>
+      </c>
       <c r="L39" s="3">
-        <v>0</v>
-      </c>
-      <c r="M39" s="3"/>
+        <v>124520.59</v>
+      </c>
+      <c r="M39" s="3">
+        <v>121511</v>
+      </c>
       <c r="N39" s="3">
-        <v>0</v>
-      </c>
-      <c r="O39" s="3"/>
+        <v>145970.09255793999</v>
+      </c>
+      <c r="O39" s="3">
+        <v>161126</v>
+      </c>
       <c r="P39" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="3"/>
+        <v>139168.17673413001</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>132865.59</v>
+      </c>
       <c r="R39" s="3">
-        <v>0</v>
-      </c>
-      <c r="S39" s="3"/>
+        <v>85915.928164500001</v>
+      </c>
+      <c r="S39" s="3">
+        <v>94144.8</v>
+      </c>
       <c r="T39" s="3">
-        <v>0</v>
-      </c>
-      <c r="U39" s="3"/>
+        <v>80151.403785719405</v>
+      </c>
+      <c r="U39" s="3">
+        <v>83308</v>
+      </c>
       <c r="V39" s="3">
-        <v>0</v>
-      </c>
-      <c r="W39" s="3"/>
+        <v>72072.907838589381</v>
+      </c>
+      <c r="W39" s="3">
+        <v>75656</v>
+      </c>
       <c r="X39" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="3"/>
+        <v>69035.83368023971</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>67212</v>
+      </c>
       <c r="Z39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="3"/>
+        <v>60356.13436874326</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>53852</v>
+      </c>
       <c r="AB39" s="3">
-        <v>0</v>
+        <v>52455.340142006949</v>
       </c>
       <c r="AC39" s="3">
-        <v>70</v>
+        <v>54136</v>
       </c>
       <c r="AD39" s="3">
-        <v>0</v>
+        <v>47878.786095808297</v>
       </c>
       <c r="AE39" s="3">
-        <v>68</v>
+        <v>49730</v>
       </c>
       <c r="AF39" s="3">
-        <v>55.576134770000003</v>
+        <v>42629.036105965861</v>
       </c>
       <c r="AG39" s="3">
-        <v>527</v>
+        <v>40423</v>
       </c>
       <c r="AH39" s="3">
-        <v>476.63352541999996</v>
+        <v>37483.706792995334</v>
       </c>
       <c r="AI39" s="3">
-        <v>714</v>
+        <v>42338</v>
       </c>
       <c r="AJ39" s="3">
-        <v>670.03526999999997</v>
+        <v>40053.562425144264</v>
       </c>
       <c r="AK39" s="3">
-        <v>573</v>
+        <v>38437</v>
       </c>
       <c r="AL39" s="3">
-        <v>599.86923100000001</v>
-      </c>
-      <c r="AM39" s="3">
-        <v>510</v>
-      </c>
+        <v>35147.049999114017</v>
+      </c>
+      <c r="AM39" s="3"/>
       <c r="AN39" s="3">
-        <v>445.55379499999998</v>
-      </c>
-      <c r="AO39" s="3">
-        <v>345</v>
-      </c>
+        <v>30287.55282805816</v>
+      </c>
+      <c r="AO39" s="3"/>
       <c r="AP39" s="3">
-        <v>402.68301300000002</v>
+        <v>29431.036284702623</v>
       </c>
       <c r="AQ39" s="3">
-        <v>245.44028399999999</v>
+        <v>18167.426186789038</v>
       </c>
       <c r="AR39" s="3">
-        <v>360.82238530000001</v>
+        <v>17920.577307894295</v>
       </c>
       <c r="AS39" s="3">
-        <v>376.48983236999999</v>
+        <v>14064.262404890804</v>
       </c>
       <c r="AT39" s="3">
-        <v>365.39984188</v>
+        <v>13920.220200600121</v>
       </c>
       <c r="AU39" s="3">
-        <v>311.08774876000001</v>
+        <v>16170.350407293701</v>
       </c>
       <c r="AV39" s="3">
-        <v>107.52356501000003</v>
+        <v>15680.438756203332</v>
       </c>
       <c r="AW39" s="3">
-        <v>180.42775424000001</v>
+        <v>19080.621721110536</v>
       </c>
       <c r="AX39" s="3">
-        <v>385.71381200000002</v>
+        <v>16477.260550005074</v>
       </c>
       <c r="AY39" s="3">
-        <v>284.74622371000004</v>
+        <v>14291.64033944324</v>
       </c>
       <c r="AZ39" s="3">
-        <v>364.46882726999996</v>
+        <v>12399.486223189995</v>
       </c>
       <c r="BA39" s="3">
-        <v>707.54993300000001</v>
+        <v>12033.85344653</v>
       </c>
       <c r="BB39" s="3">
-        <v>720.06052799999998</v>
+        <v>5735.4045852800009</v>
       </c>
       <c r="BC39" s="3">
-        <v>696.74368400000003</v>
+        <v>6419.2251973800003</v>
       </c>
       <c r="BD39" s="3">
-        <v>573.79093931</v>
+        <v>4683.4830257900003</v>
       </c>
       <c r="BE39" s="3">
-        <v>568.40446999999995</v>
+        <v>3544.4485766600001</v>
       </c>
       <c r="BF39" s="3">
-        <v>536.97552452000002</v>
+        <v>3075.3777953899998</v>
       </c>
       <c r="BG39" s="3">
-        <v>567.44241137000006</v>
+        <v>2530.2390716599998</v>
       </c>
       <c r="BH39" s="3">
-        <v>256.49387551000001</v>
+        <v>1472.0197429699999</v>
       </c>
       <c r="BI39" s="3">
-        <v>314.65774873000004</v>
+        <v>1450.78265779</v>
       </c>
       <c r="BJ39" s="3">
-        <v>329.06</v>
+        <v>1175.52</v>
       </c>
       <c r="BK39" s="3">
-        <v>196.08</v>
+        <v>945.76</v>
       </c>
       <c r="BL39" s="3">
-        <v>109.23</v>
+        <v>726.15</v>
       </c>
       <c r="BM39" s="3">
-        <v>61.69</v>
+        <v>682.68</v>
       </c>
       <c r="BN39" s="3">
-        <v>55</v>
-      </c>
-      <c r="BO39" s="3"/>
-      <c r="BP39" s="3"/>
-      <c r="BQ39" s="3"/>
-      <c r="BR39" s="3"/>
-      <c r="BS39" s="3"/>
-      <c r="BT39" s="3"/>
-      <c r="BU39" s="3"/>
-      <c r="BV39" s="3"/>
-      <c r="BW39" s="3"/>
-      <c r="BX39" s="3"/>
-      <c r="BY39" s="3"/>
-      <c r="BZ39" s="3"/>
-      <c r="CA39" s="3"/>
-      <c r="CB39" s="3"/>
+        <v>586.23</v>
+      </c>
+      <c r="BO39" s="3">
+        <v>499.06</v>
+      </c>
+      <c r="BP39" s="3">
+        <v>407.84</v>
+      </c>
+      <c r="BQ39" s="3">
+        <v>350.6</v>
+      </c>
+      <c r="BR39" s="3">
+        <v>246.76</v>
+      </c>
+      <c r="BS39" s="3">
+        <v>125.05</v>
+      </c>
+      <c r="BT39" s="3">
+        <v>110.19</v>
+      </c>
+      <c r="BU39" s="3">
+        <v>101.87</v>
+      </c>
+      <c r="BV39" s="3">
+        <v>63.84</v>
+      </c>
+      <c r="BW39" s="3">
+        <v>39.29</v>
+      </c>
+      <c r="BX39" s="3">
+        <v>37.28</v>
+      </c>
+      <c r="BY39" s="3">
+        <v>33.75</v>
+      </c>
+      <c r="BZ39" s="3">
+        <v>26.74</v>
+      </c>
+      <c r="CA39" s="3">
+        <v>26.15</v>
+      </c>
+      <c r="CB39" s="3">
+        <v>23.35</v>
+      </c>
       <c r="CC39" s="3"/>
       <c r="CD39" s="3"/>
       <c r="CE39" s="3"/>
@@ -9345,236 +9393,187 @@
     </row>
     <row r="40" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3">
-        <v>25613.37</v>
-      </c>
-      <c r="G40" s="3">
-        <v>23888</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G40" s="3"/>
       <c r="H40" s="3">
-        <v>19451.55</v>
-      </c>
-      <c r="I40" s="3">
-        <v>28984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="3"/>
       <c r="J40" s="3">
-        <v>23500.83</v>
-      </c>
-      <c r="K40" s="3">
-        <v>28597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K40" s="3"/>
       <c r="L40" s="3">
-        <v>15762.85</v>
-      </c>
-      <c r="M40" s="3">
-        <v>15723</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M40" s="3"/>
       <c r="N40" s="3">
-        <v>20482.455856069999</v>
-      </c>
-      <c r="O40" s="3">
-        <v>10430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O40" s="3"/>
       <c r="P40" s="3">
-        <v>17850.473642459998</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>14782.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="3"/>
       <c r="R40" s="3">
-        <v>7450.2844008771935</v>
-      </c>
-      <c r="S40" s="3">
-        <v>5837.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S40" s="3"/>
       <c r="T40" s="3">
-        <v>4361.1851125506455</v>
-      </c>
-      <c r="U40" s="3">
-        <v>5006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U40" s="3"/>
       <c r="V40" s="3">
-        <v>4850.29741016966</v>
-      </c>
-      <c r="W40" s="3">
-        <v>6285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W40" s="3"/>
       <c r="X40" s="3">
-        <v>4922.1110386351738</v>
-      </c>
-      <c r="Y40" s="3">
-        <v>5931</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="3"/>
       <c r="Z40" s="3">
-        <v>4856.4832200821365</v>
-      </c>
-      <c r="AA40" s="3">
-        <v>4992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="3"/>
       <c r="AB40" s="3">
-        <v>4821.7748068734963</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="3">
-        <v>4428</v>
+        <v>70</v>
       </c>
       <c r="AD40" s="3">
-        <v>3882.9183775561069</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="3">
-        <v>3664</v>
+        <v>68</v>
       </c>
       <c r="AF40" s="3">
-        <v>3661.2357676501474</v>
+        <v>55.576134770000003</v>
       </c>
       <c r="AG40" s="3">
-        <v>4174</v>
+        <v>527</v>
       </c>
       <c r="AH40" s="3">
-        <v>3849.9028739594341</v>
+        <v>476.63352541999996</v>
       </c>
       <c r="AI40" s="3">
-        <v>12287</v>
+        <v>714</v>
       </c>
       <c r="AJ40" s="3">
-        <v>11783.347535740757</v>
+        <v>670.03526999999997</v>
       </c>
       <c r="AK40" s="3">
-        <v>13171</v>
+        <v>573</v>
       </c>
       <c r="AL40" s="3">
-        <v>8571.4512590874565</v>
-      </c>
-      <c r="AM40" s="3"/>
+        <v>599.86923100000001</v>
+      </c>
+      <c r="AM40" s="3">
+        <v>510</v>
+      </c>
       <c r="AN40" s="3">
-        <v>6758.4959091125547</v>
-      </c>
-      <c r="AO40" s="3"/>
+        <v>445.55379499999998</v>
+      </c>
+      <c r="AO40" s="3">
+        <v>345</v>
+      </c>
       <c r="AP40" s="3">
-        <v>4283.0557304063223</v>
+        <v>402.68301300000002</v>
       </c>
       <c r="AQ40" s="3">
-        <v>3102.6788601940593</v>
+        <v>245.44028399999999</v>
       </c>
       <c r="AR40" s="3">
-        <v>4316.7816845937623</v>
+        <v>360.82238530000001</v>
       </c>
       <c r="AS40" s="3">
-        <v>6122.4610058185372</v>
+        <v>376.48983236999999</v>
       </c>
       <c r="AT40" s="3">
-        <v>4639.2469941998543</v>
+        <v>365.39984188</v>
       </c>
       <c r="AU40" s="3">
-        <v>1125.3477018862457</v>
+        <v>311.08774876000001</v>
       </c>
       <c r="AV40" s="3">
-        <v>1978.401462870049</v>
+        <v>107.52356501000003</v>
       </c>
       <c r="AW40" s="3">
-        <v>2907.0746327958191</v>
+        <v>180.42775424000001</v>
       </c>
       <c r="AX40" s="3">
-        <v>2063.2475710024523</v>
+        <v>385.71381200000002</v>
       </c>
       <c r="AY40" s="3">
-        <v>1588.1416562593088</v>
+        <v>284.74622371000004</v>
       </c>
       <c r="AZ40" s="3">
-        <v>1009.8699296500001</v>
+        <v>364.46882726999996</v>
       </c>
       <c r="BA40" s="3">
-        <v>3048.7679110599997</v>
+        <v>707.54993300000001</v>
       </c>
       <c r="BB40" s="3">
-        <v>1019.3132862099999</v>
+        <v>720.06052799999998</v>
       </c>
       <c r="BC40" s="3">
-        <v>993.03800635000005</v>
+        <v>696.74368400000003</v>
       </c>
       <c r="BD40" s="3">
-        <v>484.23370361000002</v>
+        <v>573.79093931</v>
       </c>
       <c r="BE40" s="3">
-        <v>1152.09367395</v>
+        <v>568.40446999999995</v>
       </c>
       <c r="BF40" s="3">
-        <v>514.53351037000004</v>
+        <v>536.97552452000002</v>
       </c>
       <c r="BG40" s="3">
-        <v>1105.18036897</v>
+        <v>567.44241137000006</v>
       </c>
       <c r="BH40" s="3">
-        <v>75.938706600000003</v>
+        <v>256.49387551000001</v>
       </c>
       <c r="BI40" s="3">
-        <v>18.722577780000002</v>
+        <v>314.65774873000004</v>
       </c>
       <c r="BJ40" s="3">
-        <v>22.68</v>
+        <v>329.06</v>
       </c>
       <c r="BK40" s="3">
-        <v>7.56</v>
+        <v>196.08</v>
       </c>
       <c r="BL40" s="3">
-        <v>6.88</v>
+        <v>109.23</v>
       </c>
       <c r="BM40" s="3">
-        <v>101.58</v>
+        <v>61.69</v>
       </c>
       <c r="BN40" s="3">
-        <v>492.88</v>
-      </c>
-      <c r="BO40" s="3">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="BP40" s="3">
-        <f>34.69+8.13</f>
-        <v>42.82</v>
-      </c>
-      <c r="BQ40" s="3">
-        <f>36.44+7.33</f>
-        <v>43.769999999999996</v>
-      </c>
-      <c r="BR40" s="3">
-        <f>46.01+8.09</f>
-        <v>54.099999999999994</v>
-      </c>
-      <c r="BS40" s="3">
-        <v>204.3</v>
-      </c>
-      <c r="BT40" s="3">
-        <v>301.49</v>
-      </c>
-      <c r="BU40" s="3">
-        <v>297.89</v>
-      </c>
-      <c r="BV40" s="3">
-        <v>841.25</v>
-      </c>
-      <c r="BW40" s="3">
-        <v>69.66</v>
-      </c>
-      <c r="BX40" s="3">
-        <v>65.11</v>
-      </c>
-      <c r="BY40" s="3">
-        <v>61.88</v>
-      </c>
-      <c r="BZ40" s="3">
-        <v>50.76</v>
-      </c>
-      <c r="CA40" s="3">
-        <v>24.35</v>
-      </c>
-      <c r="CB40" s="3">
-        <v>21.46</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="BO40" s="3"/>
+      <c r="BP40" s="3"/>
+      <c r="BQ40" s="3"/>
+      <c r="BR40" s="3"/>
+      <c r="BS40" s="3"/>
+      <c r="BT40" s="3"/>
+      <c r="BU40" s="3"/>
+      <c r="BV40" s="3"/>
+      <c r="BW40" s="3"/>
+      <c r="BX40" s="3"/>
+      <c r="BY40" s="3"/>
+      <c r="BZ40" s="3"/>
+      <c r="CA40" s="3"/>
+      <c r="CB40" s="3"/>
       <c r="CC40" s="3"/>
       <c r="CD40" s="3"/>
       <c r="CE40" s="3"/>
@@ -9586,97 +9585,240 @@
     </row>
     <row r="41" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
-      <c r="AD41" s="3"/>
-      <c r="AE41" s="3"/>
-      <c r="AF41" s="3"/>
-      <c r="AG41" s="3"/>
-      <c r="AH41" s="3"/>
-      <c r="AI41" s="3"/>
-      <c r="AJ41" s="3"/>
-      <c r="AK41" s="3"/>
-      <c r="AL41" s="3"/>
+      <c r="D41" s="3">
+        <v>26418.560000000001</v>
+      </c>
+      <c r="E41" s="3">
+        <v>29782.71</v>
+      </c>
+      <c r="F41" s="3">
+        <v>25613.37</v>
+      </c>
+      <c r="G41" s="3">
+        <v>23888</v>
+      </c>
+      <c r="H41" s="3">
+        <v>19451.55</v>
+      </c>
+      <c r="I41" s="3">
+        <v>28984</v>
+      </c>
+      <c r="J41" s="3">
+        <v>23500.83</v>
+      </c>
+      <c r="K41" s="3">
+        <v>28597</v>
+      </c>
+      <c r="L41" s="3">
+        <v>15762.85</v>
+      </c>
+      <c r="M41" s="3">
+        <v>15723</v>
+      </c>
+      <c r="N41" s="3">
+        <v>20482.455856069999</v>
+      </c>
+      <c r="O41" s="3">
+        <v>10430</v>
+      </c>
+      <c r="P41" s="3">
+        <v>17850.473642459998</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>14782.68</v>
+      </c>
+      <c r="R41" s="3">
+        <v>7450.2844008771935</v>
+      </c>
+      <c r="S41" s="3">
+        <v>5837.5</v>
+      </c>
+      <c r="T41" s="3">
+        <v>4361.1851125506455</v>
+      </c>
+      <c r="U41" s="3">
+        <v>5006</v>
+      </c>
+      <c r="V41" s="3">
+        <v>4850.29741016966</v>
+      </c>
+      <c r="W41" s="3">
+        <v>6285</v>
+      </c>
+      <c r="X41" s="3">
+        <v>4922.1110386351738</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>5931</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>4856.4832200821365</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>4992</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>4821.7748068734963</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>4428</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>3882.9183775561069</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>3664</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>3661.2357676501474</v>
+      </c>
+      <c r="AG41" s="3">
+        <v>4174</v>
+      </c>
+      <c r="AH41" s="3">
+        <v>3849.9028739594341</v>
+      </c>
+      <c r="AI41" s="3">
+        <v>12287</v>
+      </c>
+      <c r="AJ41" s="3">
+        <v>11783.347535740757</v>
+      </c>
+      <c r="AK41" s="3">
+        <v>13171</v>
+      </c>
+      <c r="AL41" s="3">
+        <v>8571.4512590874565</v>
+      </c>
       <c r="AM41" s="3"/>
-      <c r="AN41" s="3"/>
+      <c r="AN41" s="3">
+        <v>6758.4959091125547</v>
+      </c>
       <c r="AO41" s="3"/>
-      <c r="AP41" s="3"/>
-      <c r="AQ41" s="3"/>
-      <c r="AR41" s="3"/>
-      <c r="AS41" s="3"/>
-      <c r="AT41" s="3"/>
-      <c r="AU41" s="3"/>
-      <c r="AV41" s="3"/>
-      <c r="AW41" s="3"/>
-      <c r="AX41" s="3"/>
-      <c r="AY41" s="3"/>
-      <c r="AZ41" s="3"/>
-      <c r="BA41" s="3"/>
-      <c r="BB41" s="3"/>
-      <c r="BC41" s="3"/>
-      <c r="BD41" s="3"/>
-      <c r="BE41" s="3"/>
-      <c r="BF41" s="3"/>
-      <c r="BG41" s="3"/>
+      <c r="AP41" s="3">
+        <v>4283.0557304063223</v>
+      </c>
+      <c r="AQ41" s="3">
+        <v>3102.6788601940593</v>
+      </c>
+      <c r="AR41" s="3">
+        <v>4316.7816845937623</v>
+      </c>
+      <c r="AS41" s="3">
+        <v>6122.4610058185372</v>
+      </c>
+      <c r="AT41" s="3">
+        <v>4639.2469941998543</v>
+      </c>
+      <c r="AU41" s="3">
+        <v>1125.3477018862457</v>
+      </c>
+      <c r="AV41" s="3">
+        <v>1978.401462870049</v>
+      </c>
+      <c r="AW41" s="3">
+        <v>2907.0746327958191</v>
+      </c>
+      <c r="AX41" s="3">
+        <v>2063.2475710024523</v>
+      </c>
+      <c r="AY41" s="3">
+        <v>1588.1416562593088</v>
+      </c>
+      <c r="AZ41" s="3">
+        <v>1009.8699296500001</v>
+      </c>
+      <c r="BA41" s="3">
+        <v>3048.7679110599997</v>
+      </c>
+      <c r="BB41" s="3">
+        <v>1019.3132862099999</v>
+      </c>
+      <c r="BC41" s="3">
+        <v>993.03800635000005</v>
+      </c>
+      <c r="BD41" s="3">
+        <v>484.23370361000002</v>
+      </c>
+      <c r="BE41" s="3">
+        <v>1152.09367395</v>
+      </c>
+      <c r="BF41" s="3">
+        <v>514.53351037000004</v>
+      </c>
+      <c r="BG41" s="3">
+        <v>1105.18036897</v>
+      </c>
       <c r="BH41" s="3">
-        <v>0.11511066</v>
+        <v>75.938706600000003</v>
       </c>
       <c r="BI41" s="3">
-        <v>0.14289615</v>
+        <v>18.722577780000002</v>
       </c>
       <c r="BJ41" s="3">
-        <v>9.08</v>
+        <v>22.68</v>
       </c>
       <c r="BK41" s="3">
-        <v>3.42</v>
+        <v>7.56</v>
       </c>
       <c r="BL41" s="3">
-        <v>1.21</v>
-      </c>
-      <c r="BM41" s="3"/>
-      <c r="BN41" s="3"/>
-      <c r="BO41" s="3"/>
-      <c r="BP41" s="3"/>
-      <c r="BQ41" s="3"/>
-      <c r="BR41" s="3"/>
-      <c r="BS41" s="3"/>
-      <c r="BT41" s="3"/>
-      <c r="BU41" s="3"/>
-      <c r="BV41" s="3"/>
-      <c r="BW41" s="3"/>
-      <c r="BX41" s="3"/>
-      <c r="BY41" s="3"/>
-      <c r="BZ41" s="3"/>
-      <c r="CA41" s="3"/>
-      <c r="CB41" s="3"/>
+        <v>6.88</v>
+      </c>
+      <c r="BM41" s="3">
+        <v>101.58</v>
+      </c>
+      <c r="BN41" s="3">
+        <v>492.88</v>
+      </c>
+      <c r="BO41" s="3">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="BP41" s="3">
+        <f>34.69+8.13</f>
+        <v>42.82</v>
+      </c>
+      <c r="BQ41" s="3">
+        <f>36.44+7.33</f>
+        <v>43.769999999999996</v>
+      </c>
+      <c r="BR41" s="3">
+        <f>46.01+8.09</f>
+        <v>54.099999999999994</v>
+      </c>
+      <c r="BS41" s="3">
+        <v>204.3</v>
+      </c>
+      <c r="BT41" s="3">
+        <v>301.49</v>
+      </c>
+      <c r="BU41" s="3">
+        <v>297.89</v>
+      </c>
+      <c r="BV41" s="3">
+        <v>841.25</v>
+      </c>
+      <c r="BW41" s="3">
+        <v>69.66</v>
+      </c>
+      <c r="BX41" s="3">
+        <v>65.11</v>
+      </c>
+      <c r="BY41" s="3">
+        <v>61.88</v>
+      </c>
+      <c r="BZ41" s="3">
+        <v>50.76</v>
+      </c>
+      <c r="CA41" s="3">
+        <v>24.35</v>
+      </c>
+      <c r="CB41" s="3">
+        <v>21.46</v>
+      </c>
       <c r="CC41" s="3"/>
       <c r="CD41" s="3"/>
       <c r="CE41" s="3"/>
@@ -9688,7 +9830,7 @@
     </row>
     <row r="42" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -9749,18 +9891,20 @@
       <c r="BF42" s="3"/>
       <c r="BG42" s="3"/>
       <c r="BH42" s="3">
-        <v>107.14011297999998</v>
+        <v>0.11511066</v>
       </c>
       <c r="BI42" s="3">
-        <v>101.75523455</v>
+        <v>0.14289615</v>
       </c>
       <c r="BJ42" s="3">
-        <v>86.18</v>
+        <v>9.08</v>
       </c>
       <c r="BK42" s="3">
-        <v>63.69</v>
-      </c>
-      <c r="BL42" s="3"/>
+        <v>3.42</v>
+      </c>
+      <c r="BL42" s="3">
+        <v>1.21</v>
+      </c>
       <c r="BM42" s="3"/>
       <c r="BN42" s="3"/>
       <c r="BO42" s="3"/>
@@ -9788,7 +9932,7 @@
     </row>
     <row r="43" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -9848,15 +9992,17 @@
       <c r="BE43" s="3"/>
       <c r="BF43" s="3"/>
       <c r="BG43" s="3"/>
-      <c r="BH43" s="3"/>
+      <c r="BH43" s="3">
+        <v>107.14011297999998</v>
+      </c>
       <c r="BI43" s="3">
-        <v>26.507613630000002</v>
+        <v>101.75523455</v>
       </c>
       <c r="BJ43" s="3">
-        <v>1445.14</v>
+        <v>86.18</v>
       </c>
       <c r="BK43" s="3">
-        <v>375.14</v>
+        <v>63.69</v>
       </c>
       <c r="BL43" s="3"/>
       <c r="BM43" s="3"/>
@@ -9886,7 +10032,7 @@
     </row>
     <row r="44" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -9896,18 +10042,95 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="BK44">
-        <v>920.93</v>
-      </c>
-      <c r="BL44" s="3">
-        <v>1171.8599999999999</v>
-      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="3"/>
+      <c r="AL44" s="3"/>
+      <c r="AM44" s="3"/>
+      <c r="AN44" s="3"/>
+      <c r="AO44" s="3"/>
+      <c r="AP44" s="3"/>
+      <c r="AQ44" s="3"/>
+      <c r="AR44" s="3"/>
+      <c r="AS44" s="3"/>
+      <c r="AT44" s="3"/>
+      <c r="AU44" s="3"/>
+      <c r="AV44" s="3"/>
+      <c r="AW44" s="3"/>
+      <c r="AX44" s="3"/>
+      <c r="AY44" s="3"/>
+      <c r="AZ44" s="3"/>
+      <c r="BA44" s="3"/>
+      <c r="BB44" s="3"/>
+      <c r="BC44" s="3"/>
+      <c r="BD44" s="3"/>
+      <c r="BE44" s="3"/>
+      <c r="BF44" s="3"/>
+      <c r="BG44" s="3"/>
+      <c r="BH44" s="3"/>
+      <c r="BI44" s="3">
+        <v>26.507613630000002</v>
+      </c>
+      <c r="BJ44" s="3">
+        <v>1445.14</v>
+      </c>
+      <c r="BK44" s="3">
+        <v>375.14</v>
+      </c>
+      <c r="BL44" s="3"/>
+      <c r="BM44" s="3"/>
+      <c r="BN44" s="3"/>
+      <c r="BO44" s="3"/>
+      <c r="BP44" s="3"/>
+      <c r="BQ44" s="3"/>
+      <c r="BR44" s="3"/>
+      <c r="BS44" s="3"/>
+      <c r="BT44" s="3"/>
+      <c r="BU44" s="3"/>
       <c r="BV44" s="3"/>
+      <c r="BW44" s="3"/>
+      <c r="BX44" s="3"/>
+      <c r="BY44" s="3"/>
+      <c r="BZ44" s="3"/>
+      <c r="CA44" s="3"/>
+      <c r="CB44" s="3"/>
+      <c r="CC44" s="3"/>
+      <c r="CD44" s="3"/>
+      <c r="CE44" s="3"/>
       <c r="CF44" s="3"/>
+      <c r="CG44" s="3"/>
+      <c r="CH44" s="3"/>
+      <c r="CI44" s="3"/>
+      <c r="CJ44" s="3"/>
     </row>
     <row r="45" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -9918,12 +10141,17 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="BK45">
-        <v>72.62</v>
-      </c>
+        <v>920.93</v>
+      </c>
+      <c r="BL45" s="3">
+        <v>1171.8599999999999</v>
+      </c>
+      <c r="BV45" s="3"/>
+      <c r="CF45" s="3"/>
     </row>
     <row r="46" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -9933,43 +10161,13 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="BR46">
-        <v>941.57</v>
-      </c>
-      <c r="BS46" s="3">
-        <v>1662.42</v>
-      </c>
-      <c r="BT46" s="3">
-        <v>1340.35</v>
-      </c>
-      <c r="BU46" s="3">
-        <v>1200.6600000000001</v>
-      </c>
-      <c r="BV46">
-        <v>827.85</v>
-      </c>
-      <c r="BW46">
-        <v>618.66999999999996</v>
-      </c>
-      <c r="BX46">
-        <v>539.85</v>
-      </c>
-      <c r="BY46">
-        <v>476.15</v>
-      </c>
-      <c r="BZ46">
-        <v>359.81</v>
-      </c>
-      <c r="CA46">
-        <v>332.23</v>
-      </c>
-      <c r="CB46">
-        <v>287.49</v>
+      <c r="BK46">
+        <v>72.62</v>
       </c>
     </row>
     <row r="47" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -10014,13 +10212,59 @@
       </c>
     </row>
     <row r="48" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="E48">
+      <c r="A48" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="BR48">
+        <v>941.57</v>
+      </c>
+      <c r="BS48" s="3">
+        <v>1662.42</v>
+      </c>
+      <c r="BT48" s="3">
+        <v>1340.35</v>
+      </c>
+      <c r="BU48" s="3">
+        <v>1200.6600000000001</v>
+      </c>
+      <c r="BV48">
+        <v>827.85</v>
+      </c>
+      <c r="BW48">
+        <v>618.66999999999996</v>
+      </c>
+      <c r="BX48">
+        <v>539.85</v>
+      </c>
+      <c r="BY48">
+        <v>476.15</v>
+      </c>
+      <c r="BZ48">
+        <v>359.81</v>
+      </c>
+      <c r="CA48">
+        <v>332.23</v>
+      </c>
+      <c r="CB48">
+        <v>287.49</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E49">
         <v>26495.599999999999</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <v>24522.1</v>
       </c>
-      <c r="I48">
+      <c r="I49">
         <v>21672.799999999999</v>
       </c>
     </row>
@@ -10037,7 +10281,7 @@
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A38" sqref="A38"/>
-      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11643,7 +11887,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>134</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -11651,19 +11895,19 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
